--- a/1-Data-Codes/2-Final_Data/L_2000.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2000.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1343.97921266764</v>
+        <v>443.195579185119</v>
       </c>
       <c r="C2">
-        <v>39.457600442663</v>
+        <v>41.2371281344381</v>
       </c>
       <c r="D2">
-        <v>78.21757711512331</v>
+        <v>86.0709519067738</v>
       </c>
       <c r="E2">
-        <v>65.21387003854559</v>
+        <v>93.2940932901633</v>
       </c>
       <c r="F2">
-        <v>15.4314377968831</v>
+        <v>21.1336047894932</v>
       </c>
       <c r="G2">
-        <v>19.9520398277964</v>
+        <v>27.9027992575431</v>
       </c>
       <c r="H2">
-        <v>21.5147170730504</v>
+        <v>43.57310482984</v>
       </c>
       <c r="I2">
-        <v>11.9433189458697</v>
+        <v>24.0254437323063</v>
       </c>
       <c r="J2">
-        <v>65.7161591530915</v>
+        <v>86.60800756792339</v>
       </c>
       <c r="K2">
-        <v>20.4264239915342</v>
+        <v>27.3090639181721</v>
       </c>
       <c r="L2">
-        <v>34.8811885101335</v>
+        <v>44.6497147635817</v>
       </c>
       <c r="M2">
-        <v>41.8853311629683</v>
+        <v>57.4576881831736</v>
       </c>
       <c r="N2">
-        <v>31.1140201510391</v>
+        <v>34.5841625406315</v>
       </c>
       <c r="O2">
-        <v>1326.79669607305</v>
+        <v>2059.56826462948</v>
       </c>
       <c r="P2">
-        <v>36.9182499191253</v>
+        <v>51.8379885386435</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>141.168590236323</v>
+        <v>79.45532005103379</v>
       </c>
       <c r="C3">
-        <v>5.39544444110785</v>
+        <v>3.93423634188741</v>
       </c>
       <c r="D3">
-        <v>0.233316516372231</v>
+        <v>0.526443141783966</v>
       </c>
       <c r="E3">
-        <v>1.74987387279173</v>
+        <v>1.53958486138934</v>
       </c>
       <c r="F3">
-        <v>8.953521315784361</v>
+        <v>13.1442625244527</v>
       </c>
       <c r="G3">
-        <v>0.379139339104875</v>
+        <v>1.19810495628768</v>
       </c>
       <c r="H3">
-        <v>0.0583291290930578</v>
+        <v>0.139220445588532</v>
       </c>
       <c r="I3">
-        <v>0.320810210011817</v>
+        <v>0.747844792580517</v>
       </c>
       <c r="J3">
-        <v>0.583291290930578</v>
+        <v>0.49510226086839</v>
       </c>
       <c r="K3">
-        <v>0.145822822732644</v>
+        <v>0.491790966254261</v>
       </c>
       <c r="L3">
-        <v>0.349974774558347</v>
+        <v>0.220720936028545</v>
       </c>
       <c r="M3">
-        <v>0.641620420023636</v>
+        <v>1.33861506894501</v>
       </c>
       <c r="N3">
-        <v>0.641620420023636</v>
+        <v>1.23979483398351</v>
       </c>
       <c r="O3">
-        <v>232.616566823114</v>
+        <v>344.604166517753</v>
       </c>
       <c r="P3">
-        <v>10.8783825758552</v>
+        <v>13.3331918089925</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1482.14219855815</v>
+        <v>561.449592666405</v>
       </c>
       <c r="C4">
-        <v>13.4030496639299</v>
+        <v>17.8823487855297</v>
       </c>
       <c r="D4">
-        <v>5.00493626691053</v>
+        <v>10.1960110445772</v>
       </c>
       <c r="E4">
-        <v>24.9964048584684</v>
+        <v>14.9500823279782</v>
       </c>
       <c r="F4">
-        <v>21.9708219174547</v>
+        <v>10.5917144360379</v>
       </c>
       <c r="G4">
-        <v>9.44434301213626</v>
+        <v>15.6173619541872</v>
       </c>
       <c r="H4">
-        <v>7.80430739925032</v>
+        <v>5.9642645710558</v>
       </c>
       <c r="I4">
-        <v>9.41606653605202</v>
+        <v>10.8074379145406</v>
       </c>
       <c r="J4">
-        <v>28.1916466559876</v>
+        <v>33.6455038317825</v>
       </c>
       <c r="K4">
-        <v>10.4340196750847</v>
+        <v>11.3097810118146</v>
       </c>
       <c r="L4">
-        <v>76.4313148557015</v>
+        <v>114.032287829745</v>
       </c>
       <c r="M4">
-        <v>51.6328453298228</v>
+        <v>69.3053136052641</v>
       </c>
       <c r="N4">
-        <v>26.947481708281</v>
+        <v>46.305231947268</v>
       </c>
       <c r="O4">
-        <v>1787.97813575868</v>
+        <v>2577.18765052381</v>
       </c>
       <c r="P4">
-        <v>33.0552005424769</v>
+        <v>43.5493585544569</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>784.709250703795</v>
+        <v>242.948191785819</v>
       </c>
       <c r="C5">
-        <v>56.8295026360656</v>
+        <v>73.952200510122</v>
       </c>
       <c r="D5">
-        <v>13.0370362848062</v>
+        <v>23.891230611514</v>
       </c>
       <c r="E5">
-        <v>45.6976699836945</v>
+        <v>40.0590544072622</v>
       </c>
       <c r="F5">
-        <v>5.74282809205453</v>
+        <v>1.89257203084391</v>
       </c>
       <c r="G5">
-        <v>10.7507919258841</v>
+        <v>13.4822278647529</v>
       </c>
       <c r="H5">
-        <v>13.4180770112932</v>
+        <v>15.4083844813503</v>
       </c>
       <c r="I5">
-        <v>6.58656112927581</v>
+        <v>12.7069177492059</v>
       </c>
       <c r="J5">
-        <v>33.8854074625966</v>
+        <v>47.7827909416614</v>
       </c>
       <c r="K5">
-        <v>21.3654978780228</v>
+        <v>35.0390248641621</v>
       </c>
       <c r="L5">
-        <v>22.7263576154764</v>
+        <v>33.5323885037042</v>
       </c>
       <c r="M5">
-        <v>24.767647221657</v>
+        <v>19.6286755018096</v>
       </c>
       <c r="N5">
-        <v>22.91687797872</v>
+        <v>22.3287131291003</v>
       </c>
       <c r="O5">
-        <v>770.763738099014</v>
+        <v>1248.80912340117</v>
       </c>
       <c r="P5">
-        <v>57.9726248155267</v>
+        <v>54.1974868921562</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9564.961315204229</v>
+        <v>4058.83652171193</v>
       </c>
       <c r="C6">
-        <v>200.32350472188</v>
+        <v>200.092868455942</v>
       </c>
       <c r="D6">
-        <v>190.252143947296</v>
+        <v>340.881882605201</v>
       </c>
       <c r="E6">
-        <v>177.94576886383</v>
+        <v>126.406414686654</v>
       </c>
       <c r="F6">
-        <v>53.22645187445</v>
+        <v>59.2089909399015</v>
       </c>
       <c r="G6">
-        <v>99.002856052632</v>
+        <v>154.313681965647</v>
       </c>
       <c r="H6">
-        <v>69.1198869598223</v>
+        <v>91.5817134245241</v>
       </c>
       <c r="I6">
-        <v>49.4738352570704</v>
+        <v>70.85290357858079</v>
       </c>
       <c r="J6">
-        <v>185.037110559907</v>
+        <v>232.754734186192</v>
       </c>
       <c r="K6">
-        <v>99.80304636074951</v>
+        <v>187.906798870446</v>
       </c>
       <c r="L6">
-        <v>604.2264609366021</v>
+        <v>624.371105874743</v>
       </c>
       <c r="M6">
-        <v>254.432925212184</v>
+        <v>422.585238603991</v>
       </c>
       <c r="N6">
-        <v>256.557568444083</v>
+        <v>417.746665716335</v>
       </c>
       <c r="O6">
-        <v>11294.0515653887</v>
+        <v>16008.1595737428</v>
       </c>
       <c r="P6">
-        <v>331.968606791865</v>
+        <v>292.055359295613</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>960.2479221817511</v>
+        <v>343.224171488187</v>
       </c>
       <c r="C7">
-        <v>27.6049068810538</v>
+        <v>41.5035849238082</v>
       </c>
       <c r="D7">
-        <v>4.98578420198625</v>
+        <v>6.37267188844812</v>
       </c>
       <c r="E7">
-        <v>22.9008054023436</v>
+        <v>14.5910948244528</v>
       </c>
       <c r="F7">
-        <v>20.9290263394112</v>
+        <v>18.83923525593</v>
       </c>
       <c r="G7">
-        <v>9.718053953024031</v>
+        <v>13.2050689011197</v>
       </c>
       <c r="H7">
-        <v>6.36602954603895</v>
+        <v>12.2522897637269</v>
       </c>
       <c r="I7">
-        <v>10.7884483014731</v>
+        <v>11.7372548423121</v>
       </c>
       <c r="J7">
-        <v>20.4783339821695</v>
+        <v>25.9219561840192</v>
       </c>
       <c r="K7">
-        <v>14.6475016103551</v>
+        <v>26.89273870285</v>
       </c>
       <c r="L7">
-        <v>66.4207861484948</v>
+        <v>78.0880360361669</v>
       </c>
       <c r="M7">
-        <v>19.1262569104444</v>
+        <v>28.9074302624682</v>
       </c>
       <c r="N7">
-        <v>25.8866422690699</v>
+        <v>39.6891764107968</v>
       </c>
       <c r="O7">
-        <v>1773.13640647814</v>
+        <v>2326.86764426299</v>
       </c>
       <c r="P7">
-        <v>56.0548619319358</v>
+        <v>27.83127629413</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>844.897188833971</v>
+        <v>261.83131957447</v>
       </c>
       <c r="C8">
-        <v>12.2574187704167</v>
+        <v>18.4970216189958</v>
       </c>
       <c r="D8">
-        <v>8.02061532585963</v>
+        <v>10.551439172798</v>
       </c>
       <c r="E8">
-        <v>23.4756216016025</v>
+        <v>13.1823079891978</v>
       </c>
       <c r="F8">
-        <v>2.26495781627265</v>
+        <v>3.68601281069877</v>
       </c>
       <c r="G8">
-        <v>27.1528472327274</v>
+        <v>38.1146399564707</v>
       </c>
       <c r="H8">
-        <v>8.526900014202919</v>
+        <v>17.9560318186149</v>
       </c>
       <c r="I8">
-        <v>3.38411344313678</v>
+        <v>1.5797825987647</v>
       </c>
       <c r="J8">
-        <v>47.4841744540926</v>
+        <v>53.413663001352</v>
       </c>
       <c r="K8">
-        <v>27.605838795982</v>
+        <v>54.9995354384124</v>
       </c>
       <c r="L8">
-        <v>44.2599403862221</v>
+        <v>56.0153032609152</v>
       </c>
       <c r="M8">
-        <v>54.039228840011</v>
+        <v>81.49951146516931</v>
       </c>
       <c r="N8">
-        <v>24.3016650404783</v>
+        <v>44.3704210971695</v>
       </c>
       <c r="O8">
-        <v>1274.47843993535</v>
+        <v>1744.45261254539</v>
       </c>
       <c r="P8">
-        <v>6.7149337611848</v>
+        <v>6.77632241116901</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>198.834475508492</v>
+        <v>64.4963575731713</v>
       </c>
       <c r="C9">
-        <v>8.578965866405699</v>
+        <v>9.738535636272941</v>
       </c>
       <c r="D9">
-        <v>2.05211143648243</v>
+        <v>2.24136246598189</v>
       </c>
       <c r="E9">
-        <v>5.87131883215806</v>
+        <v>5.53268725281166</v>
       </c>
       <c r="F9">
-        <v>1.82409905465105</v>
+        <v>2.89390105994084</v>
       </c>
       <c r="G9">
-        <v>18.5260060237997</v>
+        <v>29.8582767332698</v>
       </c>
       <c r="H9">
-        <v>3.19217334563933</v>
+        <v>4.65050802887749</v>
       </c>
       <c r="I9">
-        <v>0.912049527325523</v>
+        <v>0.900944873028954</v>
       </c>
       <c r="J9">
-        <v>3.47718882292855</v>
+        <v>3.84108547225312</v>
       </c>
       <c r="K9">
-        <v>2.33712691377165</v>
+        <v>4.69741342748064</v>
       </c>
       <c r="L9">
-        <v>2.62214239106088</v>
+        <v>4.18490684820212</v>
       </c>
       <c r="M9">
-        <v>7.46740550497772</v>
+        <v>10.170844602492</v>
       </c>
       <c r="N9">
-        <v>4.18972751615162</v>
+        <v>6.74372366198329</v>
       </c>
       <c r="O9">
-        <v>287.723124323474</v>
+        <v>437.847943248511</v>
       </c>
       <c r="P9">
-        <v>4.67425382754331</v>
+        <v>7.55806132707023</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5070.15112654329</v>
+        <v>1570.01777160413</v>
       </c>
       <c r="C10">
-        <v>56.9411619535747</v>
+        <v>71.3696878161484</v>
       </c>
       <c r="D10">
-        <v>32.3004514148122</v>
+        <v>52.6970377212456</v>
       </c>
       <c r="E10">
-        <v>77.7520020543124</v>
+        <v>54.5601601127854</v>
       </c>
       <c r="F10">
-        <v>13.2074208487767</v>
+        <v>11.2734497167541</v>
       </c>
       <c r="G10">
-        <v>35.8487137323939</v>
+        <v>49.46528318517</v>
       </c>
       <c r="H10">
-        <v>21.120609033225</v>
+        <v>28.8672690798496</v>
       </c>
       <c r="I10">
-        <v>27.8228822997684</v>
+        <v>45.8163830290031</v>
       </c>
       <c r="J10">
-        <v>50.2388886870312</v>
+        <v>55.8148452675313</v>
       </c>
       <c r="K10">
-        <v>32.7228635954766</v>
+        <v>66.1287561163962</v>
       </c>
       <c r="L10">
-        <v>96.8731934323923</v>
+        <v>162.523104903859</v>
       </c>
       <c r="M10">
-        <v>88.8755228118109</v>
+        <v>120.952324063252</v>
       </c>
       <c r="N10">
-        <v>84.7640442533431</v>
+        <v>128.200152122192</v>
       </c>
       <c r="O10">
-        <v>5885.72236050689</v>
+        <v>9058.251207040599</v>
       </c>
       <c r="P10">
-        <v>101.350762547436</v>
+        <v>104.690792131063</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2048.7981724633</v>
+        <v>714.3049071649861</v>
       </c>
       <c r="C11">
-        <v>80.1976397400296</v>
+        <v>84.6188690951914</v>
       </c>
       <c r="D11">
-        <v>146.495865038706</v>
+        <v>201.094727165032</v>
       </c>
       <c r="E11">
-        <v>100.523056377284</v>
+        <v>121.021215383436</v>
       </c>
       <c r="F11">
-        <v>12.9086211512367</v>
+        <v>10.282669727087</v>
       </c>
       <c r="G11">
-        <v>34.8193070526778</v>
+        <v>46.7501301998403</v>
       </c>
       <c r="H11">
-        <v>30.289966297858</v>
+        <v>23.3603006365259</v>
       </c>
       <c r="I11">
-        <v>20.6934255735833</v>
+        <v>25.8011793135123</v>
       </c>
       <c r="J11">
-        <v>55.4561158668259</v>
+        <v>62.0631052912757</v>
       </c>
       <c r="K11">
-        <v>40.4243662367675</v>
+        <v>58.8196231660803</v>
       </c>
       <c r="L11">
-        <v>69.7518476242262</v>
+        <v>87.938725424067</v>
       </c>
       <c r="M11">
-        <v>68.0816532208864</v>
+        <v>66.86316667206199</v>
       </c>
       <c r="N11">
-        <v>51.2381672889</v>
+        <v>65.3082344623508</v>
       </c>
       <c r="O11">
-        <v>2849.12518506001</v>
+        <v>4049.51655668053</v>
       </c>
       <c r="P11">
-        <v>62.1652018599029</v>
+        <v>36.8458523874441</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>337.556864100583</v>
+        <v>132.977373588141</v>
       </c>
       <c r="C12">
-        <v>6.72183197905045</v>
+        <v>13.6225498148503</v>
       </c>
       <c r="D12">
-        <v>2.07463949970693</v>
+        <v>4.88753458735144</v>
       </c>
       <c r="E12">
-        <v>2.43424367965613</v>
+        <v>0.814121523000137</v>
       </c>
       <c r="F12">
-        <v>0.719208359898402</v>
+        <v>1.28445356338357</v>
       </c>
       <c r="G12">
-        <v>0.442589759937478</v>
+        <v>1.05652389475303</v>
       </c>
       <c r="H12">
-        <v>0.165971159976554</v>
+        <v>0.530522145530111</v>
       </c>
       <c r="I12">
-        <v>0.995826959859322</v>
+        <v>1.70768110215215</v>
       </c>
       <c r="J12">
-        <v>0.6085609199140321</v>
+        <v>1.34473815290729</v>
       </c>
       <c r="K12">
-        <v>0.414927899941385</v>
+        <v>0.588054981741747</v>
       </c>
       <c r="L12">
-        <v>0.636222779910124</v>
+        <v>0.693339859639421</v>
       </c>
       <c r="M12">
-        <v>3.92798411944512</v>
+        <v>5.91198552465133</v>
       </c>
       <c r="N12">
-        <v>2.60021483963269</v>
+        <v>4.70470942561424</v>
       </c>
       <c r="O12">
-        <v>467.651405093937</v>
+        <v>705.074257365501</v>
       </c>
       <c r="P12">
-        <v>16.8184108776241</v>
+        <v>19.5104664317642</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>322.415065550821</v>
+        <v>121.558225159766</v>
       </c>
       <c r="C13">
-        <v>20.9614346829763</v>
+        <v>32.1868558850682</v>
       </c>
       <c r="D13">
-        <v>1.21967752553177</v>
+        <v>1.86315234712331</v>
       </c>
       <c r="E13">
-        <v>18.2667982893596</v>
+        <v>19.0211569735422</v>
       </c>
       <c r="F13">
-        <v>4.39651201063778</v>
+        <v>5.66523902608247</v>
       </c>
       <c r="G13">
-        <v>5.36090819361639</v>
+        <v>7.11773816729507</v>
       </c>
       <c r="H13">
-        <v>1.84369858510617</v>
+        <v>2.43932230462415</v>
       </c>
       <c r="I13">
-        <v>1.70187561702108</v>
+        <v>2.13206382076548</v>
       </c>
       <c r="J13">
-        <v>5.64455412978657</v>
+        <v>5.80428016270965</v>
       </c>
       <c r="K13">
-        <v>2.55281342553161</v>
+        <v>5.33627606675416</v>
       </c>
       <c r="L13">
-        <v>21.1032576510614</v>
+        <v>32.1656219705571</v>
       </c>
       <c r="M13">
-        <v>3.12010529787197</v>
+        <v>4.98781901713149</v>
       </c>
       <c r="N13">
-        <v>6.9493254361694</v>
+        <v>8.994845121293791</v>
       </c>
       <c r="O13">
-        <v>426.376571251013</v>
+        <v>606.855676891523</v>
       </c>
       <c r="P13">
-        <v>44.6458703531862</v>
+        <v>53.9085750521187</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3241.37836243677</v>
+        <v>1195.87612679919</v>
       </c>
       <c r="C14">
-        <v>112.077134291549</v>
+        <v>137.636563846597</v>
       </c>
       <c r="D14">
-        <v>18.3887366369134</v>
+        <v>22.1367929522139</v>
       </c>
       <c r="E14">
-        <v>124.89940095253</v>
+        <v>65.4590530052531</v>
       </c>
       <c r="F14">
-        <v>31.7648809074392</v>
+        <v>17.4362152084804</v>
       </c>
       <c r="G14">
-        <v>78.6229266749957</v>
+        <v>132.271612590747</v>
       </c>
       <c r="H14">
-        <v>68.87468074699341</v>
+        <v>73.6449843434975</v>
       </c>
       <c r="I14">
-        <v>26.4199619753244</v>
+        <v>38.3350259879804</v>
       </c>
       <c r="J14">
-        <v>192.057061109931</v>
+        <v>168.995514499874</v>
       </c>
       <c r="K14">
-        <v>153.313322322218</v>
+        <v>232.145262053611</v>
       </c>
       <c r="L14">
-        <v>146.389852202898</v>
+        <v>196.897828515874</v>
       </c>
       <c r="M14">
-        <v>98.7009900210231</v>
+        <v>107.858962197877</v>
       </c>
       <c r="N14">
-        <v>81.58617188606451</v>
+        <v>114.942928122471</v>
       </c>
       <c r="O14">
-        <v>4261.34047068039</v>
+        <v>6148.77770381964</v>
       </c>
       <c r="P14">
-        <v>89.6450911049527</v>
+        <v>42.8675573465886</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1491.48137925415</v>
+        <v>529.1351964591941</v>
       </c>
       <c r="C15">
-        <v>39.7268390283193</v>
+        <v>36.534479627208</v>
       </c>
       <c r="D15">
-        <v>11.3389274883282</v>
+        <v>16.7815251748226</v>
       </c>
       <c r="E15">
-        <v>67.5464510999217</v>
+        <v>70.0245407250582</v>
       </c>
       <c r="F15">
-        <v>13.5850634824362</v>
+        <v>15.1219743602067</v>
       </c>
       <c r="G15">
-        <v>41.4858611923798</v>
+        <v>54.0472561063886</v>
       </c>
       <c r="H15">
-        <v>53.0412837162846</v>
+        <v>60.1311644637169</v>
       </c>
       <c r="I15">
-        <v>23.4897113600689</v>
+        <v>53.280274031402</v>
       </c>
       <c r="J15">
-        <v>159.962769411714</v>
+        <v>228.339913715938</v>
       </c>
       <c r="K15">
-        <v>63.6766023389887</v>
+        <v>121.783599030712</v>
       </c>
       <c r="L15">
-        <v>67.5735129793687</v>
+        <v>76.1681870186312</v>
       </c>
       <c r="M15">
-        <v>202.476982023082</v>
+        <v>177.335524205486</v>
       </c>
       <c r="N15">
-        <v>76.1521287640944</v>
+        <v>114.182051378112</v>
       </c>
       <c r="O15">
-        <v>1919.60735669946</v>
+        <v>2669.24224576333</v>
       </c>
       <c r="P15">
-        <v>41.0799330006735</v>
+        <v>50.9072684729497</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>675.161135209775</v>
+        <v>170.474956932118</v>
       </c>
       <c r="C16">
-        <v>60.1743393175107</v>
+        <v>75.62478621514229</v>
       </c>
       <c r="D16">
-        <v>6.91023648570403</v>
+        <v>19.2677453537232</v>
       </c>
       <c r="E16">
-        <v>24.7386466188204</v>
+        <v>18.8956528035733</v>
       </c>
       <c r="F16">
-        <v>3.37219540502357</v>
+        <v>5.29098149208321</v>
       </c>
       <c r="G16">
-        <v>11.3604287824974</v>
+        <v>17.7727417398758</v>
       </c>
       <c r="H16">
-        <v>17.883692025002</v>
+        <v>16.9774700696528</v>
       </c>
       <c r="I16">
-        <v>9.84017675564257</v>
+        <v>11.3187997907822</v>
       </c>
       <c r="J16">
-        <v>45.1929466165044</v>
+        <v>48.6308435072559</v>
       </c>
       <c r="K16">
-        <v>48.4545782377567</v>
+        <v>64.0721554087886</v>
       </c>
       <c r="L16">
-        <v>38.3103510767432</v>
+        <v>36.3234623660366</v>
       </c>
       <c r="M16">
-        <v>28.5530971589291</v>
+        <v>15.9866405640062</v>
       </c>
       <c r="N16">
-        <v>19.7909172950564</v>
+        <v>32.485103195023</v>
       </c>
       <c r="O16">
-        <v>993.747288536124</v>
+        <v>1458.28303866428</v>
       </c>
       <c r="P16">
-        <v>80.9050487746228</v>
+        <v>108.548049005252</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>628.920339012411</v>
+        <v>205.955353504684</v>
       </c>
       <c r="C17">
-        <v>32.9487394217434</v>
+        <v>29.3702514463205</v>
       </c>
       <c r="D17">
-        <v>4.40078566430917</v>
+        <v>8.89979755805045</v>
       </c>
       <c r="E17">
-        <v>24.0042854416864</v>
+        <v>11.7445329451385</v>
       </c>
       <c r="F17">
-        <v>16.4029283851523</v>
+        <v>14.8504677140424</v>
       </c>
       <c r="G17">
-        <v>9.001607040632401</v>
+        <v>14.2206676431036</v>
       </c>
       <c r="H17">
-        <v>14.7454896284645</v>
+        <v>7.8244674898725</v>
       </c>
       <c r="I17">
-        <v>6.74406114790237</v>
+        <v>9.226488698215929</v>
       </c>
       <c r="J17">
-        <v>19.4320405956509</v>
+        <v>22.3840244032967</v>
       </c>
       <c r="K17">
-        <v>21.4323977157914</v>
+        <v>29.7989517061766</v>
       </c>
       <c r="L17">
-        <v>11.516341705952</v>
+        <v>17.5229678161498</v>
       </c>
       <c r="M17">
-        <v>68.4407900390939</v>
+        <v>91.0020108001851</v>
       </c>
       <c r="N17">
-        <v>14.1453824924224</v>
+        <v>17.7599804615599</v>
       </c>
       <c r="O17">
-        <v>923.679188490035</v>
+        <v>1355.90814777087</v>
       </c>
       <c r="P17">
-        <v>69.84104002319241</v>
+        <v>63.7175073129757</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1190.34257916712</v>
+        <v>442.938806203094</v>
       </c>
       <c r="C18">
-        <v>34.5842310837939</v>
+        <v>40.4193818584905</v>
       </c>
       <c r="D18">
-        <v>22.7891299074521</v>
+        <v>20.8472457877925</v>
       </c>
       <c r="E18">
-        <v>46.2688395090694</v>
+        <v>36.0712074748994</v>
       </c>
       <c r="F18">
-        <v>29.9435355390037</v>
+        <v>49.5094179688588</v>
       </c>
       <c r="G18">
-        <v>22.512898029786</v>
+        <v>42.0627195623331</v>
       </c>
       <c r="H18">
-        <v>22.4576516542528</v>
+        <v>27.3558887869806</v>
       </c>
       <c r="I18">
-        <v>10.5796809146111</v>
+        <v>11.5279165538687</v>
       </c>
       <c r="J18">
-        <v>50.5780568006603</v>
+        <v>46.6358702428121</v>
       </c>
       <c r="K18">
-        <v>31.9324050581995</v>
+        <v>41.6007831821628</v>
       </c>
       <c r="L18">
-        <v>33.8107818263289</v>
+        <v>51.9723881973878</v>
       </c>
       <c r="M18">
-        <v>68.8369839143886</v>
+        <v>72.2275200912525</v>
       </c>
       <c r="N18">
-        <v>23.5349559771505</v>
+        <v>25.300857806833</v>
       </c>
       <c r="O18">
-        <v>1250.1426087534</v>
+        <v>1961.46345742382</v>
       </c>
       <c r="P18">
-        <v>40.8270715190475</v>
+        <v>53.4391217174329</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1334.57366215959</v>
+        <v>538.880623281474</v>
       </c>
       <c r="C19">
-        <v>23.1811287598321</v>
+        <v>35.9921371335664</v>
       </c>
       <c r="D19">
-        <v>9.822512186369529</v>
+        <v>17.1285703484626</v>
       </c>
       <c r="E19">
-        <v>39.1497271428156</v>
+        <v>27.4337325459039</v>
       </c>
       <c r="F19">
-        <v>80.82524313355491</v>
+        <v>111.276141756923</v>
       </c>
       <c r="G19">
-        <v>42.4893812861813</v>
+        <v>51.1735620422381</v>
       </c>
       <c r="H19">
-        <v>6.42672940193891</v>
+        <v>7.34490205954234</v>
       </c>
       <c r="I19">
-        <v>6.67930828673127</v>
+        <v>12.2138323527427</v>
       </c>
       <c r="J19">
-        <v>23.6301578883518</v>
+        <v>14.7090451857365</v>
       </c>
       <c r="K19">
-        <v>12.0957221495007</v>
+        <v>20.808690925593</v>
       </c>
       <c r="L19">
-        <v>7.40898062057586</v>
+        <v>9.93464745160709</v>
       </c>
       <c r="M19">
-        <v>29.1027003921863</v>
+        <v>32.3387006611299</v>
       </c>
       <c r="N19">
-        <v>10.6363774818115</v>
+        <v>9.82674618732162</v>
       </c>
       <c r="O19">
-        <v>1415.28368445318</v>
+        <v>2166.26457243436</v>
       </c>
       <c r="P19">
-        <v>37.3816749492691</v>
+        <v>45.0765255042784</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>337.841306152238</v>
+        <v>101.092859331871</v>
       </c>
       <c r="C20">
-        <v>8.333525429049541</v>
+        <v>10.7293640694249</v>
       </c>
       <c r="D20">
-        <v>16.0941209848519</v>
+        <v>21.2287753241462</v>
       </c>
       <c r="E20">
-        <v>35.6518634761526</v>
+        <v>39.4624382148187</v>
       </c>
       <c r="F20">
-        <v>0.494803072349817</v>
+        <v>0.391252081618474</v>
       </c>
       <c r="G20">
-        <v>1.61462055187835</v>
+        <v>1.60047216421397</v>
       </c>
       <c r="H20">
-        <v>1.82295868760459</v>
+        <v>4.68800762736805</v>
       </c>
       <c r="I20">
-        <v>1.66670508580991</v>
+        <v>0.988679526840114</v>
       </c>
       <c r="J20">
-        <v>6.53660900841074</v>
+        <v>4.92590567231557</v>
       </c>
       <c r="K20">
-        <v>4.03655137969587</v>
+        <v>5.88468999506568</v>
       </c>
       <c r="L20">
-        <v>8.3856099629811</v>
+        <v>11.5333019616866</v>
       </c>
       <c r="M20">
-        <v>16.0420364509204</v>
+        <v>26.2991185292265</v>
       </c>
       <c r="N20">
-        <v>6.82307394503431</v>
+        <v>6.66767666592788</v>
       </c>
       <c r="O20">
-        <v>451.02602158034</v>
+        <v>680.909346817901</v>
       </c>
       <c r="P20">
-        <v>25.781844296122</v>
+        <v>25.8596819762589</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1269.9484280236</v>
+        <v>455.597919471257</v>
       </c>
       <c r="C21">
-        <v>25.5066307126345</v>
+        <v>31.0298600366688</v>
       </c>
       <c r="D21">
-        <v>11.7145837888345</v>
+        <v>9.48963336857053</v>
       </c>
       <c r="E21">
-        <v>41.5781163539665</v>
+        <v>22.3556743160266</v>
       </c>
       <c r="F21">
-        <v>4.09721896062681</v>
+        <v>3.31530947507149</v>
       </c>
       <c r="G21">
-        <v>21.1208752054847</v>
+        <v>25.6644469899553</v>
       </c>
       <c r="H21">
-        <v>7.87704772007831</v>
+        <v>11.1883527115871</v>
       </c>
       <c r="I21">
-        <v>6.83831615259546</v>
+        <v>10.3381077404926</v>
       </c>
       <c r="J21">
-        <v>27.0935817185112</v>
+        <v>20.6672419532752</v>
       </c>
       <c r="K21">
-        <v>11.5414618609207</v>
+        <v>24.1107209270061</v>
       </c>
       <c r="L21">
-        <v>39.904604384133</v>
+        <v>34.5225501262487</v>
       </c>
       <c r="M21">
-        <v>29.8346789104798</v>
+        <v>39.657398291476</v>
       </c>
       <c r="N21">
-        <v>20.197558256611</v>
+        <v>23.2480782795549</v>
       </c>
       <c r="O21">
-        <v>2189.64614425386</v>
+        <v>2974.83470239725</v>
       </c>
       <c r="P21">
-        <v>18.4951926321253</v>
+        <v>26.5887482361549</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1594.354587936</v>
+        <v>488.976111949751</v>
       </c>
       <c r="C22">
-        <v>24.6139067555014</v>
+        <v>26.0603141876592</v>
       </c>
       <c r="D22">
-        <v>30.6451289406243</v>
+        <v>38.9031631846174</v>
       </c>
       <c r="E22">
-        <v>55.177532693624</v>
+        <v>34.2527812678434</v>
       </c>
       <c r="F22">
-        <v>3.06994642756253</v>
+        <v>3.60688361150562</v>
       </c>
       <c r="G22">
-        <v>26.4884758130396</v>
+        <v>39.4220353540346</v>
       </c>
       <c r="H22">
-        <v>22.7121700304626</v>
+        <v>37.0657234626314</v>
       </c>
       <c r="I22">
-        <v>9.94336630520259</v>
+        <v>11.9034120066349</v>
       </c>
       <c r="J22">
-        <v>55.5307123711312</v>
+        <v>64.5340245063734</v>
       </c>
       <c r="K22">
-        <v>30.9439732831303</v>
+        <v>58.9887359416459</v>
       </c>
       <c r="L22">
-        <v>134.289780455236</v>
+        <v>146.115710483365</v>
       </c>
       <c r="M22">
-        <v>18.3381755628736</v>
+        <v>25.9688086709039</v>
       </c>
       <c r="N22">
-        <v>56.7260897411555</v>
+        <v>109.898443367418</v>
       </c>
       <c r="O22">
-        <v>2461.52651388764</v>
+        <v>3410.74930521002</v>
       </c>
       <c r="P22">
-        <v>14.8607141228027</v>
+        <v>23.6521425245753</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2643.78457471328</v>
+        <v>933.030869763772</v>
       </c>
       <c r="C23">
-        <v>50.1219920516037</v>
+        <v>57.4722936344119</v>
       </c>
       <c r="D23">
-        <v>12.1353620520451</v>
+        <v>20.3521519703162</v>
       </c>
       <c r="E23">
-        <v>77.3394928129235</v>
+        <v>43.9521736109577</v>
       </c>
       <c r="F23">
-        <v>14.573150013935</v>
+        <v>2.37366980740483</v>
       </c>
       <c r="G23">
-        <v>52.1579468329623</v>
+        <v>80.19727964700991</v>
       </c>
       <c r="H23">
-        <v>68.15090741810781</v>
+        <v>80.17298077003591</v>
       </c>
       <c r="I23">
-        <v>20.0380812691607</v>
+        <v>27.0645677762904</v>
       </c>
       <c r="J23">
-        <v>165.046281683555</v>
+        <v>188.358966725971</v>
       </c>
       <c r="K23">
-        <v>112.138246246934</v>
+        <v>176.269167097318</v>
       </c>
       <c r="L23">
-        <v>46.4519156694178</v>
+        <v>62.8914125643748</v>
       </c>
       <c r="M23">
-        <v>508.399340008196</v>
+        <v>699.186670864039</v>
       </c>
       <c r="N23">
-        <v>76.5894042092651</v>
+        <v>115.940479917732</v>
       </c>
       <c r="O23">
-        <v>3084.0964494564</v>
+        <v>4476.21924238285</v>
       </c>
       <c r="P23">
-        <v>69.8921845337435</v>
+        <v>49.0829373317288</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1041.42768372406</v>
+        <v>330.460984340585</v>
       </c>
       <c r="C24">
-        <v>70.5347100589325</v>
+        <v>48.6552078553852</v>
       </c>
       <c r="D24">
-        <v>8.07504556187549</v>
+        <v>12.7308859150004</v>
       </c>
       <c r="E24">
-        <v>73.271554360105</v>
+        <v>46.6339134601996</v>
       </c>
       <c r="F24">
-        <v>13.5216366958922</v>
+        <v>18.416475756691</v>
       </c>
       <c r="G24">
-        <v>14.5784379607013</v>
+        <v>30.2466472357482</v>
       </c>
       <c r="H24">
-        <v>21.5966822577677</v>
+        <v>24.9462375243364</v>
       </c>
       <c r="I24">
-        <v>15.7707265671528</v>
+        <v>16.4404703789294</v>
       </c>
       <c r="J24">
-        <v>63.4893682935378</v>
+        <v>44.0139659445584</v>
       </c>
       <c r="K24">
-        <v>53.1381353920733</v>
+        <v>105.54069012949</v>
       </c>
       <c r="L24">
-        <v>75.62903410467941</v>
+        <v>73.7440208053346</v>
       </c>
       <c r="M24">
-        <v>32.1917923741882</v>
+        <v>19.6271596049655</v>
       </c>
       <c r="N24">
-        <v>53.923961973598</v>
+        <v>95.50173310537861</v>
       </c>
       <c r="O24">
-        <v>1800.27450333665</v>
+        <v>2471.37656577041</v>
       </c>
       <c r="P24">
-        <v>119.581127733411</v>
+        <v>102.922865428586</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>847.8459047694601</v>
+        <v>294.033493548778</v>
       </c>
       <c r="C25">
-        <v>30.4824116612773</v>
+        <v>54.9971861331045</v>
       </c>
       <c r="D25">
-        <v>23.2805231918547</v>
+        <v>24.7838882027525</v>
       </c>
       <c r="E25">
-        <v>36.1490138290789</v>
+        <v>50.6782749207222</v>
       </c>
       <c r="F25">
-        <v>13.4826051578727</v>
+        <v>33.7952582229789</v>
       </c>
       <c r="G25">
-        <v>9.40711788447844</v>
+        <v>11.3490072509768</v>
       </c>
       <c r="H25">
-        <v>14.0408910857348</v>
+        <v>20.818384160404</v>
       </c>
       <c r="I25">
-        <v>5.69451646419466</v>
+        <v>6.1087250764933</v>
       </c>
       <c r="J25">
-        <v>19.4562645859985</v>
+        <v>22.6312960873989</v>
       </c>
       <c r="K25">
-        <v>16.3019490935769</v>
+        <v>27.3706564524456</v>
       </c>
       <c r="L25">
-        <v>24.4529236403653</v>
+        <v>33.4241071124483</v>
       </c>
       <c r="M25">
-        <v>27.6909820219662</v>
+        <v>41.6538483306512</v>
       </c>
       <c r="N25">
-        <v>52.5905344046214</v>
+        <v>38.1519412942435</v>
       </c>
       <c r="O25">
-        <v>788.523044512602</v>
+        <v>1275.78464724128</v>
       </c>
       <c r="P25">
-        <v>39.7499580637902</v>
+        <v>53.2827718858271</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1446.34990705824</v>
+        <v>432.36985154393</v>
       </c>
       <c r="C26">
-        <v>64.3287303194743</v>
+        <v>77.234338865417</v>
       </c>
       <c r="D26">
-        <v>23.4334310182687</v>
+        <v>17.7029905453411</v>
       </c>
       <c r="E26">
-        <v>60.0835435408024</v>
+        <v>48.3242654016288</v>
       </c>
       <c r="F26">
-        <v>12.1412341870015</v>
+        <v>9.578637597358419</v>
       </c>
       <c r="G26">
-        <v>28.5276551526749</v>
+        <v>53.1889174579541</v>
       </c>
       <c r="H26">
-        <v>21.4240426096973</v>
+        <v>20.1109557296107</v>
       </c>
       <c r="I26">
-        <v>15.339274893601</v>
+        <v>20.9258578490485</v>
       </c>
       <c r="J26">
-        <v>64.64004401657699</v>
+        <v>66.82675254484821</v>
       </c>
       <c r="K26">
-        <v>40.9519017915879</v>
+        <v>65.1787829582422</v>
       </c>
       <c r="L26">
-        <v>46.8951632817286</v>
+        <v>37.8207961077915</v>
       </c>
       <c r="M26">
-        <v>80.6585487947654</v>
+        <v>81.2538686286359</v>
       </c>
       <c r="N26">
-        <v>42.8480852193947</v>
+        <v>44.2512218174696</v>
       </c>
       <c r="O26">
-        <v>1918.42820652701</v>
+        <v>2896.56171539423</v>
       </c>
       <c r="P26">
-        <v>80.4604400784274</v>
+        <v>58.4075596408554</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>238.495178910905</v>
+        <v>82.1216133953448</v>
       </c>
       <c r="C27">
-        <v>2.86277994644361</v>
+        <v>4.39686772106074</v>
       </c>
       <c r="D27">
-        <v>1.107301677398</v>
+        <v>0.99535673404751</v>
       </c>
       <c r="E27">
-        <v>9.6416268007582</v>
+        <v>15.1323416943716</v>
       </c>
       <c r="F27">
-        <v>7.5620602358888</v>
+        <v>8.033449578490821</v>
       </c>
       <c r="G27">
-        <v>0.810220739559513</v>
+        <v>0.510040594336255</v>
       </c>
       <c r="H27">
-        <v>0.324088295823805</v>
+        <v>0.392871895393905</v>
       </c>
       <c r="I27">
-        <v>1.2693458253099</v>
+        <v>2.95267413548436</v>
       </c>
       <c r="J27">
-        <v>3.99708898182693</v>
+        <v>5.3606344913653</v>
       </c>
       <c r="K27">
-        <v>1.107301677398</v>
+        <v>2.29383206085725</v>
       </c>
       <c r="L27">
-        <v>1.40438261523649</v>
+        <v>2.64172647154635</v>
       </c>
       <c r="M27">
-        <v>0.891242813515465</v>
+        <v>1.72744486485449</v>
       </c>
       <c r="N27">
-        <v>4.1051184137682</v>
+        <v>7.34793781564619</v>
       </c>
       <c r="O27">
-        <v>321.5225968152</v>
+        <v>486.508651986214</v>
       </c>
       <c r="P27">
-        <v>44.0219935160669</v>
+        <v>51.5484046850542</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>372.913011121286</v>
+        <v>105.795851446887</v>
       </c>
       <c r="C28">
-        <v>34.8221544886528</v>
+        <v>32.6796426628154</v>
       </c>
       <c r="D28">
-        <v>1.98584174192317</v>
+        <v>3.06786989099839</v>
       </c>
       <c r="E28">
-        <v>9.229968659642919</v>
+        <v>6.28386543995094</v>
       </c>
       <c r="F28">
-        <v>2.06975054791992</v>
+        <v>2.97661619909812</v>
       </c>
       <c r="G28">
-        <v>4.5310755238247</v>
+        <v>7.99509174353079</v>
       </c>
       <c r="H28">
-        <v>6.60082607174464</v>
+        <v>9.898238054198259</v>
       </c>
       <c r="I28">
-        <v>4.3632579118312</v>
+        <v>4.54012492078148</v>
       </c>
       <c r="J28">
-        <v>14.7959194574276</v>
+        <v>17.4846374688142</v>
       </c>
       <c r="K28">
-        <v>17.1173964233378</v>
+        <v>18.3220334677554</v>
       </c>
       <c r="L28">
-        <v>14.0407402034568</v>
+        <v>15.4022507631781</v>
       </c>
       <c r="M28">
-        <v>9.70545189362455</v>
+        <v>7.89488285586586</v>
       </c>
       <c r="N28">
-        <v>10.8242359735813</v>
+        <v>12.7574976038077</v>
       </c>
       <c r="O28">
-        <v>601.458321384732</v>
+        <v>886.43627475746</v>
       </c>
       <c r="P28">
-        <v>89.2789695805461</v>
+        <v>93.60460772314541</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>539.06509489463</v>
+        <v>194.160237919367</v>
       </c>
       <c r="C29">
-        <v>5.33182180475024</v>
+        <v>5.57791537553851</v>
       </c>
       <c r="D29">
-        <v>1.58079138934806</v>
+        <v>4.03857574274198</v>
       </c>
       <c r="E29">
-        <v>7.1001647148684</v>
+        <v>2.40573547918691</v>
       </c>
       <c r="F29">
-        <v>17.1475676132671</v>
+        <v>18.616958439509</v>
       </c>
       <c r="G29">
-        <v>2.08985980286692</v>
+        <v>3.74752248505835</v>
       </c>
       <c r="H29">
-        <v>2.89365203473882</v>
+        <v>3.19897933857618</v>
       </c>
       <c r="I29">
-        <v>3.34913429946622</v>
+        <v>6.08107513533694</v>
       </c>
       <c r="J29">
-        <v>6.91261319409829</v>
+        <v>5.61419685780556</v>
       </c>
       <c r="K29">
-        <v>2.84006588594736</v>
+        <v>4.27933615895455</v>
       </c>
       <c r="L29">
-        <v>5.78730406947764</v>
+        <v>4.383748333758</v>
       </c>
       <c r="M29">
-        <v>3.5098927458406</v>
+        <v>2.21630895337702</v>
       </c>
       <c r="N29">
-        <v>10.5832643863133</v>
+        <v>13.0279449418082</v>
       </c>
       <c r="O29">
-        <v>807.114573096966</v>
+        <v>1178.24319439939</v>
       </c>
       <c r="P29">
-        <v>5.81409714387337</v>
+        <v>3.65966587875194</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>266.778200247124</v>
+        <v>86.3736120344193</v>
       </c>
       <c r="C30">
-        <v>3.7151910518131</v>
+        <v>5.16641649567025</v>
       </c>
       <c r="D30">
-        <v>6.06988960577914</v>
+        <v>8.209873713692231</v>
       </c>
       <c r="E30">
-        <v>16.9799929058218</v>
+        <v>10.8303312552994</v>
       </c>
       <c r="F30">
-        <v>0.837226152521261</v>
+        <v>0.586397999016949</v>
       </c>
       <c r="G30">
-        <v>3.97682422447599</v>
+        <v>4.23144234190536</v>
       </c>
       <c r="H30">
-        <v>5.28499008779046</v>
+        <v>8.177073190211109</v>
       </c>
       <c r="I30">
-        <v>2.64249504389523</v>
+        <v>3.43246550577585</v>
       </c>
       <c r="J30">
-        <v>20.1457542950429</v>
+        <v>17.4661459086403</v>
       </c>
       <c r="K30">
-        <v>10.5438168583146</v>
+        <v>22.1666831277355</v>
       </c>
       <c r="L30">
-        <v>36.9949306145333</v>
+        <v>48.74503990396</v>
       </c>
       <c r="M30">
-        <v>9.130997725935011</v>
+        <v>12.5979001196097</v>
       </c>
       <c r="N30">
-        <v>14.6514576691221</v>
+        <v>17.9002800020389</v>
       </c>
       <c r="O30">
-        <v>471.175180648606</v>
+        <v>650.026616369566</v>
       </c>
       <c r="P30">
-        <v>7.87515849715311</v>
+        <v>8.949909437463321</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2297.69444906306</v>
+        <v>888.736899712079</v>
       </c>
       <c r="C31">
-        <v>45.3328347981114</v>
+        <v>54.2872794848502</v>
       </c>
       <c r="D31">
-        <v>40.6768794406179</v>
+        <v>64.4471468842152</v>
       </c>
       <c r="E31">
-        <v>57.2654628999514</v>
+        <v>26.8576026412721</v>
       </c>
       <c r="F31">
-        <v>9.59071043699279</v>
+        <v>10.0633990711499</v>
       </c>
       <c r="G31">
-        <v>132.987467396673</v>
+        <v>173.250863790452</v>
       </c>
       <c r="H31">
-        <v>26.6253734515354</v>
+        <v>35.0743614297429</v>
       </c>
       <c r="I31">
-        <v>19.0977809573839</v>
+        <v>36.0842438115186</v>
       </c>
       <c r="J31">
-        <v>47.8699122683625</v>
+        <v>48.0208708403458</v>
       </c>
       <c r="K31">
-        <v>30.4449296430122</v>
+        <v>52.341425846029</v>
       </c>
       <c r="L31">
-        <v>80.12704010441109</v>
+        <v>73.5190915647693</v>
       </c>
       <c r="M31">
-        <v>25.6216944523152</v>
+        <v>30.1490460051457</v>
       </c>
       <c r="N31">
-        <v>52.4422277092544</v>
+        <v>74.9692384486759</v>
       </c>
       <c r="O31">
-        <v>3138.2533108117</v>
+        <v>4420.30135181727</v>
       </c>
       <c r="P31">
-        <v>13.9957460446814</v>
+        <v>7.57852741013932</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>536.656818857286</v>
+        <v>214.287108288634</v>
       </c>
       <c r="C32">
-        <v>6.08903720727616</v>
+        <v>5.66902926293635</v>
       </c>
       <c r="D32">
-        <v>1.40076442796494</v>
+        <v>3.23102320695778</v>
       </c>
       <c r="E32">
-        <v>5.66023177014403</v>
+        <v>2.70954751253082</v>
       </c>
       <c r="F32">
-        <v>20.0680944577834</v>
+        <v>39.841269448353</v>
       </c>
       <c r="G32">
-        <v>1.88674392338135</v>
+        <v>2.25979233746181</v>
       </c>
       <c r="H32">
-        <v>0.54315355370069</v>
+        <v>2.96863291426893</v>
       </c>
       <c r="I32">
-        <v>3.40185646791486</v>
+        <v>5.16989243665454</v>
       </c>
       <c r="J32">
-        <v>4.28805437132124</v>
+        <v>3.74044750255036</v>
       </c>
       <c r="K32">
-        <v>2.02967906909206</v>
+        <v>6.90915054400865</v>
       </c>
       <c r="L32">
-        <v>14.4078626876393</v>
+        <v>16.319471781048</v>
       </c>
       <c r="M32">
-        <v>4.80262089587979</v>
+        <v>4.24168865927253</v>
       </c>
       <c r="N32">
-        <v>9.776763966612419</v>
+        <v>15.2604272263581</v>
       </c>
       <c r="O32">
-        <v>621.167556229595</v>
+        <v>919.825822655523</v>
       </c>
       <c r="P32">
-        <v>23.7272341879775</v>
+        <v>28.7816011041269</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5619.99657519564</v>
+        <v>2269.17461921057</v>
       </c>
       <c r="C33">
-        <v>87.7366116733883</v>
+        <v>97.44305732715939</v>
       </c>
       <c r="D33">
-        <v>105.19135037067</v>
+        <v>176.152573486524</v>
       </c>
       <c r="E33">
-        <v>121.121182099078</v>
+        <v>43.0668111882722</v>
       </c>
       <c r="F33">
-        <v>10.9194231163962</v>
+        <v>12.9929798817363</v>
       </c>
       <c r="G33">
-        <v>84.8501806251639</v>
+        <v>78.7846749666036</v>
       </c>
       <c r="H33">
-        <v>37.3874512189827</v>
+        <v>48.6821103209813</v>
       </c>
       <c r="I33">
-        <v>37.8503694059621</v>
+        <v>45.4744551390663</v>
       </c>
       <c r="J33">
-        <v>112.843115696623</v>
+        <v>119.940076537423</v>
       </c>
       <c r="K33">
-        <v>124.252687481586</v>
+        <v>134.789557680459</v>
       </c>
       <c r="L33">
-        <v>145.655846008987</v>
+        <v>182.404271300607</v>
       </c>
       <c r="M33">
-        <v>76.5176532595348</v>
+        <v>102.233064127391</v>
       </c>
       <c r="N33">
-        <v>116.682613600394</v>
+        <v>235.29961201332</v>
       </c>
       <c r="O33">
-        <v>6723.34205624393</v>
+        <v>9823.099148165529</v>
       </c>
       <c r="P33">
-        <v>88.1995298603678</v>
+        <v>68.70706136633321</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2077.24237762879</v>
+        <v>672.69263988564</v>
       </c>
       <c r="C34">
-        <v>69.30657972962381</v>
+        <v>103.04288106007</v>
       </c>
       <c r="D34">
-        <v>206.309861943183</v>
+        <v>273.209779717312</v>
       </c>
       <c r="E34">
-        <v>82.24016980515199</v>
+        <v>69.5893984042318</v>
       </c>
       <c r="F34">
-        <v>7.77652567832393</v>
+        <v>6.92794973635124</v>
       </c>
       <c r="G34">
-        <v>59.3471696503668</v>
+        <v>83.11119595998321</v>
       </c>
       <c r="H34">
-        <v>40.2196450871911</v>
+        <v>60.9856226454377</v>
       </c>
       <c r="I34">
-        <v>24.6938797855549</v>
+        <v>29.1367858417992</v>
       </c>
       <c r="J34">
-        <v>63.3582197370812</v>
+        <v>72.2898376632097</v>
       </c>
       <c r="K34">
-        <v>49.9334806713431</v>
+        <v>102.521331083137</v>
       </c>
       <c r="L34">
-        <v>101.476838588374</v>
+        <v>160.856798192876</v>
       </c>
       <c r="M34">
-        <v>56.4821338741422</v>
+        <v>60.9427021451766</v>
       </c>
       <c r="N34">
-        <v>124.915559843393</v>
+        <v>157.580291247837</v>
       </c>
       <c r="O34">
-        <v>2649.72151612757</v>
+        <v>3732.13307641481</v>
       </c>
       <c r="P34">
-        <v>62.4577799216964</v>
+        <v>86.1542747689824</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>153.361672850596</v>
+        <v>39.7622433507384</v>
       </c>
       <c r="C35">
-        <v>6.5773096280891</v>
+        <v>5.99886531180635</v>
       </c>
       <c r="D35">
-        <v>0.344662513262311</v>
+        <v>0.885711027927269</v>
       </c>
       <c r="E35">
-        <v>1.98180945125829</v>
+        <v>3.57068395285394</v>
       </c>
       <c r="F35">
-        <v>5.34226895556582</v>
+        <v>6.03857309444352</v>
       </c>
       <c r="G35">
-        <v>0.545715645998659</v>
+        <v>0.311163884023043</v>
       </c>
       <c r="H35">
-        <v>0.373384389367503</v>
+        <v>0.8094366091412411</v>
       </c>
       <c r="I35">
-        <v>0.976543787576549</v>
+        <v>1.656579370559</v>
       </c>
       <c r="J35">
-        <v>2.38391571673098</v>
+        <v>2.22458055144835</v>
       </c>
       <c r="K35">
-        <v>6.00287210598524</v>
+        <v>7.55956970184671</v>
       </c>
       <c r="L35">
-        <v>2.03925320346867</v>
+        <v>3.6427076820811</v>
       </c>
       <c r="M35">
-        <v>2.3264719645206</v>
+        <v>2.73399516543709</v>
       </c>
       <c r="N35">
-        <v>2.24030633620502</v>
+        <v>2.67004859227393</v>
       </c>
       <c r="O35">
-        <v>223.341308593977</v>
+        <v>343.973111351685</v>
       </c>
       <c r="P35">
-        <v>40.7276203171631</v>
+        <v>46.4829350184629</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2968.38984406185</v>
+        <v>1039.89411391661</v>
       </c>
       <c r="C36">
-        <v>74.615562686895</v>
+        <v>77.77361413469509</v>
       </c>
       <c r="D36">
-        <v>20.5817309012614</v>
+        <v>23.2318253304188</v>
       </c>
       <c r="E36">
-        <v>118.358529021897</v>
+        <v>65.3767595173431</v>
       </c>
       <c r="F36">
-        <v>25.0347703047006</v>
+        <v>47.2128259501352</v>
       </c>
       <c r="G36">
-        <v>79.80172443114429</v>
+        <v>128.734450626254</v>
       </c>
       <c r="H36">
-        <v>114.475695883533</v>
+        <v>137.017525811162</v>
       </c>
       <c r="I36">
-        <v>55.8802139773035</v>
+        <v>53.5641177668439</v>
       </c>
       <c r="J36">
-        <v>260.095514911851</v>
+        <v>259.589871209023</v>
       </c>
       <c r="K36">
-        <v>133.862708896067</v>
+        <v>220.970191074924</v>
       </c>
       <c r="L36">
-        <v>105.73253315239</v>
+        <v>127.307232565296</v>
       </c>
       <c r="M36">
-        <v>251.895405766494</v>
+        <v>263.190866954863</v>
       </c>
       <c r="N36">
-        <v>88.46342912441921</v>
+        <v>112.328918846587</v>
       </c>
       <c r="O36">
-        <v>3693.00875745339</v>
+        <v>5433.4393492809</v>
       </c>
       <c r="P36">
-        <v>53.8437630306087</v>
+        <v>52.9169082248921</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>956.09506822759</v>
+        <v>331.382250013396</v>
       </c>
       <c r="C37">
-        <v>26.5928010085304</v>
+        <v>26.6493829100758</v>
       </c>
       <c r="D37">
-        <v>9.065075640448351</v>
+        <v>14.2026314393176</v>
       </c>
       <c r="E37">
-        <v>19.1055075206918</v>
+        <v>20.4452593592422</v>
       </c>
       <c r="F37">
-        <v>47.9358904911051</v>
+        <v>53.0757542839931</v>
       </c>
       <c r="G37">
-        <v>5.88082438699973</v>
+        <v>10.4059936890037</v>
       </c>
       <c r="H37">
-        <v>19.8226812264234</v>
+        <v>28.9081697959545</v>
       </c>
       <c r="I37">
-        <v>11.7042748775409</v>
+        <v>20.1071149584547</v>
       </c>
       <c r="J37">
-        <v>37.3504065945056</v>
+        <v>39.3176918924716</v>
       </c>
       <c r="K37">
-        <v>27.6542180930133</v>
+        <v>49.367988116125</v>
       </c>
       <c r="L37">
-        <v>22.0028892918477</v>
+        <v>33.8589983770323</v>
       </c>
       <c r="M37">
-        <v>34.4530248233496</v>
+        <v>35.8375591165869</v>
       </c>
       <c r="N37">
-        <v>15.4048911991164</v>
+        <v>20.0021279141179</v>
       </c>
       <c r="O37">
-        <v>1119.42209380246</v>
+        <v>1635.51175343231</v>
       </c>
       <c r="P37">
-        <v>55.7674273576949</v>
+        <v>68.2798102109023</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>929.888473868452</v>
+        <v>361.635388888374</v>
       </c>
       <c r="C38">
-        <v>24.6184989345874</v>
+        <v>34.0402372496261</v>
       </c>
       <c r="D38">
-        <v>8.432107013939071</v>
+        <v>15.8789608433865</v>
       </c>
       <c r="E38">
-        <v>70.7646279947942</v>
+        <v>60.4690756963249</v>
       </c>
       <c r="F38">
-        <v>2.68417554463012</v>
+        <v>5.06447139403543</v>
       </c>
       <c r="G38">
-        <v>5.61236704786298</v>
+        <v>10.0905035912986</v>
       </c>
       <c r="H38">
-        <v>5.44968974212783</v>
+        <v>8.17320094982956</v>
       </c>
       <c r="I38">
-        <v>6.39864069224959</v>
+        <v>6.2354078961107</v>
       </c>
       <c r="J38">
-        <v>29.3903665694854</v>
+        <v>40.3587699587758</v>
       </c>
       <c r="K38">
-        <v>13.1497488802586</v>
+        <v>20.6582813820545</v>
       </c>
       <c r="L38">
-        <v>58.9705233289951</v>
+        <v>83.6800633374144</v>
       </c>
       <c r="M38">
-        <v>21.7716460842221</v>
+        <v>29.3274993671512</v>
       </c>
       <c r="N38">
-        <v>20.5786791754976</v>
+        <v>28.3470376706137</v>
       </c>
       <c r="O38">
-        <v>1193.50916641028</v>
+        <v>1672.80519148022</v>
       </c>
       <c r="P38">
-        <v>70.0868058875643</v>
+        <v>77.9807389500678</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3482.42403841085</v>
+        <v>1255.08333254744</v>
       </c>
       <c r="C39">
-        <v>98.53806238033729</v>
+        <v>152.412883520222</v>
       </c>
       <c r="D39">
-        <v>70.7208441257755</v>
+        <v>81.14402993960211</v>
       </c>
       <c r="E39">
-        <v>142.050438032573</v>
+        <v>97.8414728563489</v>
       </c>
       <c r="F39">
-        <v>38.8276490765392</v>
+        <v>32.0287625298994</v>
       </c>
       <c r="G39">
-        <v>94.9120310759843</v>
+        <v>145.034050359125</v>
       </c>
       <c r="H39">
-        <v>57.7518270518121</v>
+        <v>54.5279029778473</v>
       </c>
       <c r="I39">
-        <v>54.0463936021083</v>
+        <v>61.7404219729589</v>
       </c>
       <c r="J39">
-        <v>217.588345642964</v>
+        <v>196.910371891545</v>
       </c>
       <c r="K39">
-        <v>94.6473572581486</v>
+        <v>165.751960076175</v>
       </c>
       <c r="L39">
-        <v>119.923706861486</v>
+        <v>159.16599694961</v>
       </c>
       <c r="M39">
-        <v>71.938343687821</v>
+        <v>84.9902802216909</v>
       </c>
       <c r="N39">
-        <v>98.1939864171511</v>
+        <v>140.24407152396</v>
       </c>
       <c r="O39">
-        <v>4052.28848797786</v>
+        <v>6076.65603302742</v>
       </c>
       <c r="P39">
-        <v>87.13062083160661</v>
+        <v>68.6264592257161</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>280.59260255583</v>
+        <v>89.38321066882951</v>
       </c>
       <c r="C40">
-        <v>3.96672361495143</v>
+        <v>4.18575832345092</v>
       </c>
       <c r="D40">
-        <v>8.617365094549671</v>
+        <v>12.4332440640481</v>
       </c>
       <c r="E40">
-        <v>8.042874088246361</v>
+        <v>2.38705739399613</v>
       </c>
       <c r="F40">
-        <v>0.465064147959824</v>
+        <v>0.9157405858105741</v>
       </c>
       <c r="G40">
-        <v>4.26764747539602</v>
+        <v>7.23486619199122</v>
       </c>
       <c r="H40">
-        <v>5.14306234214393</v>
+        <v>11.315875267339</v>
       </c>
       <c r="I40">
-        <v>1.72347301890993</v>
+        <v>2.17729157486038</v>
       </c>
       <c r="J40">
-        <v>13.3774334324913</v>
+        <v>14.4006568123004</v>
       </c>
       <c r="K40">
-        <v>4.26764747539602</v>
+        <v>12.4377681090689</v>
       </c>
       <c r="L40">
-        <v>16.0857481764927</v>
+        <v>16.1118508962675</v>
       </c>
       <c r="M40">
-        <v>6.01847720889183</v>
+        <v>9.032298436314781</v>
       </c>
       <c r="N40">
-        <v>21.2561672332225</v>
+        <v>36.2851132694128</v>
       </c>
       <c r="O40">
-        <v>369.561857340544</v>
+        <v>559.133924676035</v>
       </c>
       <c r="P40">
-        <v>2.54417445648609</v>
+        <v>1.84988728876986</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1094.42871934909</v>
+        <v>335.49937707</v>
       </c>
       <c r="C41">
-        <v>21.5314790106959</v>
+        <v>15.8410095118932</v>
       </c>
       <c r="D41">
-        <v>109.252319424642</v>
+        <v>130.80801283552</v>
       </c>
       <c r="E41">
-        <v>45.8953237150084</v>
+        <v>52.8941809403394</v>
       </c>
       <c r="F41">
-        <v>3.27234483048891</v>
+        <v>4.41547569607079</v>
       </c>
       <c r="G41">
-        <v>25.1338081938392</v>
+        <v>56.1171402258475</v>
       </c>
       <c r="H41">
-        <v>32.4759600403984</v>
+        <v>51.0237629676064</v>
       </c>
       <c r="I41">
-        <v>11.7144445192292</v>
+        <v>13.3831525590733</v>
       </c>
       <c r="J41">
-        <v>45.8953237150084</v>
+        <v>63.7400819948081</v>
       </c>
       <c r="K41">
-        <v>33.1634274417615</v>
+        <v>71.3932468154469</v>
       </c>
       <c r="L41">
-        <v>31.733495246926</v>
+        <v>36.8896878439871</v>
       </c>
       <c r="M41">
-        <v>37.8657044670859</v>
+        <v>44.5411276331078</v>
       </c>
       <c r="N41">
-        <v>22.4939333726044</v>
+        <v>30.5196676154756</v>
       </c>
       <c r="O41">
-        <v>1269.7247916218</v>
+        <v>1858.93607474884</v>
       </c>
       <c r="P41">
-        <v>24.1988525279852</v>
+        <v>28.5372009632599</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>169.574869794925</v>
+        <v>42.4633806788028</v>
       </c>
       <c r="C42">
-        <v>7.8937852911291</v>
+        <v>9.36726133786518</v>
       </c>
       <c r="D42">
-        <v>1.16419135588594</v>
+        <v>2.20215208978963</v>
       </c>
       <c r="E42">
-        <v>5.13947891256966</v>
+        <v>5.78450481412334</v>
       </c>
       <c r="F42">
-        <v>1.90245904498435</v>
+        <v>2.38327337475586</v>
       </c>
       <c r="G42">
-        <v>0.93703206693259</v>
+        <v>1.40119057438209</v>
       </c>
       <c r="H42">
-        <v>1.44814046707764</v>
+        <v>2.11603734688255</v>
       </c>
       <c r="I42">
-        <v>1.10740153364761</v>
+        <v>0.960340014523917</v>
       </c>
       <c r="J42">
-        <v>3.91849773444538</v>
+        <v>4.69004185157932</v>
       </c>
       <c r="K42">
-        <v>5.39503311264219</v>
+        <v>9.65081157755842</v>
       </c>
       <c r="L42">
-        <v>7.26909724650737</v>
+        <v>10.6720921146935</v>
       </c>
       <c r="M42">
-        <v>3.52096897877701</v>
+        <v>4.52115980420301</v>
       </c>
       <c r="N42">
-        <v>7.6098361799374</v>
+        <v>10.2574231955321</v>
       </c>
       <c r="O42">
-        <v>256.860365984007</v>
+        <v>411.791350274828</v>
       </c>
       <c r="P42">
-        <v>45.3750679684327</v>
+        <v>46.5350897779244</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1568.88754291117</v>
+        <v>568.5131914849341</v>
       </c>
       <c r="C43">
-        <v>42.5214177387787</v>
+        <v>38.2217742903551</v>
       </c>
       <c r="D43">
-        <v>57.3270018222424</v>
+        <v>73.85985971938599</v>
       </c>
       <c r="E43">
-        <v>73.7257656401047</v>
+        <v>47.8732998140967</v>
       </c>
       <c r="F43">
-        <v>7.47146358200763</v>
+        <v>14.5978080800751</v>
       </c>
       <c r="G43">
-        <v>33.0996824129382</v>
+        <v>35.3991466101394</v>
       </c>
       <c r="H43">
-        <v>36.7530083556111</v>
+        <v>32.4414672177707</v>
       </c>
       <c r="I43">
-        <v>19.0632195805636</v>
+        <v>31.7480089520424</v>
       </c>
       <c r="J43">
-        <v>71.6106821996099</v>
+        <v>64.94123385761679</v>
       </c>
       <c r="K43">
-        <v>51.1465631974199</v>
+        <v>87.083951877429</v>
       </c>
       <c r="L43">
-        <v>56.0085082489469</v>
+        <v>62.7037800213657</v>
       </c>
       <c r="M43">
-        <v>103.14465349426</v>
+        <v>99.5465738335331</v>
       </c>
       <c r="N43">
-        <v>60.7331102199223</v>
+        <v>102.613416372558</v>
       </c>
       <c r="O43">
-        <v>1845.53391060422</v>
+        <v>2725.74985730244</v>
       </c>
       <c r="P43">
-        <v>36.3135104978459</v>
+        <v>66.97871307991829</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5501.27994423661</v>
+        <v>2205.75054870435</v>
       </c>
       <c r="C44">
-        <v>116.000890649298</v>
+        <v>192.392944314051</v>
       </c>
       <c r="D44">
-        <v>56.185733355966</v>
+        <v>85.3480720638327</v>
       </c>
       <c r="E44">
-        <v>116.282241342117</v>
+        <v>87.26152135508021</v>
       </c>
       <c r="F44">
-        <v>219.509810537429</v>
+        <v>275.822424349879</v>
       </c>
       <c r="G44">
-        <v>122.106200683471</v>
+        <v>177.417362951971</v>
       </c>
       <c r="H44">
-        <v>62.8537447757777</v>
+        <v>61.7562076589688</v>
       </c>
       <c r="I44">
-        <v>48.0828334027772</v>
+        <v>61.1358331640677</v>
       </c>
       <c r="J44">
-        <v>154.095774456998</v>
+        <v>174.33338531031</v>
       </c>
       <c r="K44">
-        <v>97.8537709624687</v>
+        <v>172.270216364486</v>
       </c>
       <c r="L44">
-        <v>240.020276043939</v>
+        <v>301.990875372347</v>
       </c>
       <c r="M44">
-        <v>128.943022518975</v>
+        <v>138.628924410893</v>
       </c>
       <c r="N44">
-        <v>99.54187511938311</v>
+        <v>107.360122600882</v>
       </c>
       <c r="O44">
-        <v>7055.74080958565</v>
+        <v>9756.921200160539</v>
       </c>
       <c r="P44">
-        <v>197.423781151134</v>
+        <v>294.67130492672</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>490.776315925351</v>
+        <v>223.842185747026</v>
       </c>
       <c r="C45">
-        <v>15.9449640386138</v>
+        <v>16.9323354682109</v>
       </c>
       <c r="D45">
-        <v>3.82177919982492</v>
+        <v>6.61783087238417</v>
       </c>
       <c r="E45">
-        <v>15.4124210353595</v>
+        <v>6.55544785637966</v>
       </c>
       <c r="F45">
-        <v>19.0775699401096</v>
+        <v>26.4351370072297</v>
       </c>
       <c r="G45">
-        <v>9.49179588153237</v>
+        <v>11.5231624627328</v>
       </c>
       <c r="H45">
-        <v>2.78801925233129</v>
+        <v>5.4974238346059</v>
       </c>
       <c r="I45">
-        <v>5.54471244564762</v>
+        <v>6.29764758063917</v>
       </c>
       <c r="J45">
-        <v>20.4559165367678</v>
+        <v>22.2005681639129</v>
       </c>
       <c r="K45">
-        <v>6.07725544890192</v>
+        <v>12.3387133040812</v>
       </c>
       <c r="L45">
-        <v>20.4245904777528</v>
+        <v>24.7347715514869</v>
       </c>
       <c r="M45">
-        <v>26.7524543987744</v>
+        <v>27.4722752956159</v>
       </c>
       <c r="N45">
-        <v>28.9139524708065</v>
+        <v>31.5093769238239</v>
       </c>
       <c r="O45">
-        <v>789.1660787048301</v>
+        <v>1038.41588308403</v>
       </c>
       <c r="P45">
-        <v>20.8005031859323</v>
+        <v>17.7637576319903</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>138.712907190369</v>
+        <v>42.9870105167237</v>
       </c>
       <c r="C46">
-        <v>4.18782082575966</v>
+        <v>5.41678030233699</v>
       </c>
       <c r="D46">
-        <v>2.19731339623192</v>
+        <v>2.63131940653721</v>
       </c>
       <c r="E46">
-        <v>8.16883568481515</v>
+        <v>7.00931914109128</v>
       </c>
       <c r="F46">
-        <v>0.853074612654747</v>
+        <v>2.17335682767403</v>
       </c>
       <c r="G46">
-        <v>1.55104475028135</v>
+        <v>2.08075218433324</v>
       </c>
       <c r="H46">
-        <v>1.55104475028135</v>
+        <v>3.14141787697289</v>
       </c>
       <c r="I46">
-        <v>2.11976115871785</v>
+        <v>2.59434936830325</v>
       </c>
       <c r="J46">
-        <v>5.01504469257639</v>
+        <v>5.32115771992483</v>
       </c>
       <c r="K46">
-        <v>4.49802977581594</v>
+        <v>6.28912030095841</v>
       </c>
       <c r="L46">
-        <v>10.2885968435331</v>
+        <v>16.2213891257163</v>
       </c>
       <c r="M46">
-        <v>4.18782082575966</v>
+        <v>5.55666875617264</v>
       </c>
       <c r="N46">
-        <v>7.00555212210413</v>
+        <v>9.6362450139455</v>
       </c>
       <c r="O46">
-        <v>231.183220029436</v>
+        <v>344.073253894949</v>
       </c>
       <c r="P46">
-        <v>12.4342087480889</v>
+        <v>10.0509953396008</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1720.58997046044</v>
+        <v>626.086565700544</v>
       </c>
       <c r="C47">
-        <v>57.5694807581686</v>
+        <v>74.4271579701458</v>
       </c>
       <c r="D47">
-        <v>53.6804182020201</v>
+        <v>45.1656638620912</v>
       </c>
       <c r="E47">
-        <v>70.28699918995331</v>
+        <v>46.6644862560704</v>
       </c>
       <c r="F47">
-        <v>17.798848340913</v>
+        <v>11.6749488771498</v>
       </c>
       <c r="G47">
-        <v>30.9989511774754</v>
+        <v>41.0753652935459</v>
       </c>
       <c r="H47">
-        <v>21.7162982149896</v>
+        <v>22.9328179835126</v>
       </c>
       <c r="I47">
-        <v>14.1368843281893</v>
+        <v>17.4070530018287</v>
       </c>
       <c r="J47">
-        <v>38.2944918849948</v>
+        <v>61.7349107825252</v>
       </c>
       <c r="K47">
-        <v>26.6840788524055</v>
+        <v>35.567770378302</v>
       </c>
       <c r="L47">
-        <v>49.7345810100154</v>
+        <v>69.7166165962327</v>
       </c>
       <c r="M47">
-        <v>73.920575884749</v>
+        <v>88.703864610796</v>
       </c>
       <c r="N47">
-        <v>50.4158766402896</v>
+        <v>48.2398364823771</v>
       </c>
       <c r="O47">
-        <v>2666.36399834973</v>
+        <v>3683.43400055776</v>
       </c>
       <c r="P47">
-        <v>40.9628997702353</v>
+        <v>43.2957942278542</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1526.95130309552</v>
+        <v>620.529436520078</v>
       </c>
       <c r="C48">
-        <v>38.6288446113532</v>
+        <v>21.5209767064615</v>
       </c>
       <c r="D48">
-        <v>8.81297734203579</v>
+        <v>17.8667125019776</v>
       </c>
       <c r="E48">
-        <v>64.8481385728615</v>
+        <v>79.0875720599433</v>
       </c>
       <c r="F48">
-        <v>7.9344250836397</v>
+        <v>19.908538756411</v>
       </c>
       <c r="G48">
-        <v>9.03261540663482</v>
+        <v>15.4814573723181</v>
       </c>
       <c r="H48">
-        <v>9.114979680859451</v>
+        <v>5.42536508554473</v>
       </c>
       <c r="I48">
-        <v>9.38952726160823</v>
+        <v>19.397291100696</v>
       </c>
       <c r="J48">
-        <v>37.5581090464329</v>
+        <v>32.5819615848163</v>
       </c>
       <c r="K48">
-        <v>17.2415880710233</v>
+        <v>29.46121326176</v>
       </c>
       <c r="L48">
-        <v>44.064886710179</v>
+        <v>54.2992091033666</v>
       </c>
       <c r="M48">
-        <v>132.688845775884</v>
+        <v>178.704721169103</v>
       </c>
       <c r="N48">
-        <v>32.7809811414041</v>
+        <v>25.5527261637434</v>
       </c>
       <c r="O48">
-        <v>2121.92334209116</v>
+        <v>2919.07715028305</v>
       </c>
       <c r="P48">
-        <v>97.6291197142661</v>
+        <v>104.12781575768</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>648.546840576598</v>
+        <v>287.23389959388</v>
       </c>
       <c r="C49">
-        <v>7.70907631626804</v>
+        <v>7.15378886792285</v>
       </c>
       <c r="D49">
-        <v>3.41401951149013</v>
+        <v>8.72143422833285</v>
       </c>
       <c r="E49">
-        <v>15.8311388637647</v>
+        <v>17.7818069912896</v>
       </c>
       <c r="F49">
-        <v>28.3583878777003</v>
+        <v>50.1262057258402</v>
       </c>
       <c r="G49">
-        <v>17.0976299728659</v>
+        <v>26.6023880532855</v>
       </c>
       <c r="H49">
-        <v>6.19479346842968</v>
+        <v>4.75798820387177</v>
       </c>
       <c r="I49">
-        <v>7.2960900850394</v>
+        <v>13.3038027476167</v>
       </c>
       <c r="J49">
-        <v>19.7958066835597</v>
+        <v>29.5560329134307</v>
       </c>
       <c r="K49">
-        <v>6.55271486882784</v>
+        <v>12.8932361032089</v>
       </c>
       <c r="L49">
-        <v>3.02856569567673</v>
+        <v>4.06315430858934</v>
       </c>
       <c r="M49">
-        <v>7.62647907002231</v>
+        <v>7.70855121553769</v>
       </c>
       <c r="N49">
-        <v>5.25869134431141</v>
+        <v>4.54914341480032</v>
       </c>
       <c r="O49">
-        <v>551.611942844393</v>
+        <v>881.029696131752</v>
       </c>
       <c r="P49">
-        <v>9.63634539533501</v>
+        <v>10.0014303257006</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1228.46729549059</v>
+        <v>339.117906605347</v>
       </c>
       <c r="C50">
-        <v>81.9829693719559</v>
+        <v>95.928439761435</v>
       </c>
       <c r="D50">
-        <v>15.3048805517573</v>
+        <v>15.1941707574529</v>
       </c>
       <c r="E50">
-        <v>141.635438962764</v>
+        <v>119.959398962402</v>
       </c>
       <c r="F50">
-        <v>4.20492452019271</v>
+        <v>3.73341185391877</v>
       </c>
       <c r="G50">
-        <v>17.9949875429365</v>
+        <v>38.5410087290658</v>
       </c>
       <c r="H50">
-        <v>40.0120768008399</v>
+        <v>37.8939964330423</v>
       </c>
       <c r="I50">
-        <v>17.5771068452776</v>
+        <v>21.472764811934</v>
       </c>
       <c r="J50">
-        <v>115.961893600346</v>
+        <v>111.140664663748</v>
       </c>
       <c r="K50">
-        <v>96.24314817956569</v>
+        <v>139.529967582604</v>
       </c>
       <c r="L50">
-        <v>63.0216327156833</v>
+        <v>104.237397103001</v>
       </c>
       <c r="M50">
-        <v>59.5479994163936</v>
+        <v>37.9112968783268</v>
       </c>
       <c r="N50">
-        <v>56.0221310298966</v>
+        <v>94.09273533245811</v>
       </c>
       <c r="O50">
-        <v>1724.93316730514</v>
+        <v>2556.10778061117</v>
       </c>
       <c r="P50">
-        <v>130.352660125974</v>
+        <v>81.843194841306</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>119.683733934657</v>
+        <v>48.9401531042308</v>
       </c>
       <c r="C51">
-        <v>1.16265124037983</v>
+        <v>2.12301986955116</v>
       </c>
       <c r="D51">
-        <v>0.553643447799918</v>
+        <v>0.253327978588058</v>
       </c>
       <c r="E51">
-        <v>2.54675985987962</v>
+        <v>1.71344337761868</v>
       </c>
       <c r="F51">
-        <v>22.4225596358967</v>
+        <v>33.5661919413181</v>
       </c>
       <c r="G51">
-        <v>2.74053506660959</v>
+        <v>1.41393053705961</v>
       </c>
       <c r="H51">
-        <v>0.138410861949979</v>
+        <v>0.336295687289899</v>
       </c>
       <c r="I51">
-        <v>0.885829516479869</v>
+        <v>1.38050220444134</v>
       </c>
       <c r="J51">
-        <v>1.57788382622976</v>
+        <v>2.42310388370884</v>
       </c>
       <c r="K51">
-        <v>0.60900779257991</v>
+        <v>1.65351425577849</v>
       </c>
       <c r="L51">
-        <v>0.387550413459943</v>
+        <v>0.6655958317448371</v>
       </c>
       <c r="M51">
-        <v>0.60900779257991</v>
+        <v>0.799803552403957</v>
       </c>
       <c r="N51">
-        <v>0.968876033649859</v>
+        <v>1.75288210858053</v>
       </c>
       <c r="O51">
-        <v>177.913321950503</v>
+        <v>281.41406293467</v>
       </c>
       <c r="P51">
-        <v>14.1179079188979</v>
+        <v>20.4473384455897</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2000.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2000.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>443.195579185119</v>
+        <v>892.413762627818</v>
       </c>
       <c r="C2">
-        <v>41.2371281344381</v>
+        <v>34.6512269228134</v>
       </c>
       <c r="D2">
-        <v>86.0709519067738</v>
+        <v>71.3655838612199</v>
       </c>
       <c r="E2">
-        <v>93.2940932901633</v>
+        <v>77.3542675578982</v>
       </c>
       <c r="F2">
-        <v>21.1336047894932</v>
+        <v>17.5208224059005</v>
       </c>
       <c r="G2">
-        <v>27.9027992575431</v>
+        <v>23.1352187939575</v>
       </c>
       <c r="H2">
-        <v>43.57310482984</v>
+        <v>36.5911888089582</v>
       </c>
       <c r="I2">
-        <v>24.0254437323063</v>
+        <v>19.9197960572887</v>
       </c>
       <c r="J2">
-        <v>86.60800756792339</v>
+        <v>71.8097860026581</v>
       </c>
       <c r="K2">
-        <v>27.3090639181721</v>
+        <v>22.6434777274186</v>
       </c>
       <c r="L2">
-        <v>44.6497147635817</v>
+        <v>37.0191343263568</v>
       </c>
       <c r="M2">
-        <v>57.4576881831736</v>
+        <v>47.6407211274668</v>
       </c>
       <c r="N2">
-        <v>34.5841625406315</v>
+        <v>28.675570077751</v>
       </c>
       <c r="O2">
-        <v>2059.56826462948</v>
+        <v>1717.34471817594</v>
       </c>
       <c r="P2">
-        <v>51.8379885386435</v>
+        <v>44.36461272399</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>79.45532005103379</v>
+        <v>116.001615194011</v>
       </c>
       <c r="C3">
-        <v>3.93423634188741</v>
+        <v>3.63326846084812</v>
       </c>
       <c r="D3">
-        <v>0.526443141783966</v>
+        <v>0.470560483293941</v>
       </c>
       <c r="E3">
-        <v>1.53958486138934</v>
+        <v>1.38448346174863</v>
       </c>
       <c r="F3">
-        <v>13.1442625244527</v>
+        <v>11.8440677043853</v>
       </c>
       <c r="G3">
-        <v>1.19810495628768</v>
+        <v>1.07719851788744</v>
       </c>
       <c r="H3">
-        <v>0.139220445588532</v>
+        <v>0.103741862741095</v>
       </c>
       <c r="I3">
-        <v>0.747844792580517</v>
+        <v>0.672670821326789</v>
       </c>
       <c r="J3">
-        <v>0.49510226086839</v>
+        <v>0.444214060600686</v>
       </c>
       <c r="K3">
-        <v>0.491790966254261</v>
+        <v>0.440976871101953</v>
       </c>
       <c r="L3">
-        <v>0.220720936028545</v>
+        <v>0.197574119024411</v>
       </c>
       <c r="M3">
-        <v>1.33861506894501</v>
+        <v>1.28207407478319</v>
       </c>
       <c r="N3">
-        <v>1.23979483398351</v>
+        <v>1.1145756055057</v>
       </c>
       <c r="O3">
-        <v>344.604166517753</v>
+        <v>311.768427376928</v>
       </c>
       <c r="P3">
-        <v>13.3331918089925</v>
+        <v>12.0164051673223</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>561.449592666405</v>
+        <v>945.830120171953</v>
       </c>
       <c r="C4">
-        <v>17.8823487855297</v>
+        <v>15.4956494426075</v>
       </c>
       <c r="D4">
-        <v>10.1960110445772</v>
+        <v>8.83807879285426</v>
       </c>
       <c r="E4">
-        <v>14.9500823279782</v>
+        <v>12.9580789407301</v>
       </c>
       <c r="F4">
-        <v>10.5917144360379</v>
+        <v>9.178480402138529</v>
       </c>
       <c r="G4">
-        <v>15.6173619541872</v>
+        <v>13.5413053450155</v>
       </c>
       <c r="H4">
-        <v>5.9642645710558</v>
+        <v>5.17574300018207</v>
       </c>
       <c r="I4">
-        <v>10.8074379145406</v>
+        <v>9.368043808288199</v>
       </c>
       <c r="J4">
-        <v>33.6455038317825</v>
+        <v>29.1677044822367</v>
       </c>
       <c r="K4">
-        <v>11.3097810118146</v>
+        <v>9.8013218899624</v>
       </c>
       <c r="L4">
-        <v>114.032287829745</v>
+        <v>98.8547206668683</v>
       </c>
       <c r="M4">
-        <v>69.3053136052641</v>
+        <v>60.0796619568056</v>
       </c>
       <c r="N4">
-        <v>46.305231947268</v>
+        <v>40.1414656357223</v>
       </c>
       <c r="O4">
-        <v>2577.18765052381</v>
+        <v>2246.616489262</v>
       </c>
       <c r="P4">
-        <v>43.5493585544569</v>
+        <v>37.7355799529258</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>242.948191785819</v>
+        <v>540.642888316884</v>
       </c>
       <c r="C5">
-        <v>73.952200510122</v>
+        <v>60.4569563814885</v>
       </c>
       <c r="D5">
-        <v>23.891230611514</v>
+        <v>19.4309919709657</v>
       </c>
       <c r="E5">
-        <v>40.0590544072622</v>
+        <v>32.8931344702856</v>
       </c>
       <c r="F5">
-        <v>1.89257203084391</v>
+        <v>1.53751401353174</v>
       </c>
       <c r="G5">
-        <v>13.4822278647529</v>
+        <v>10.9649964989416</v>
       </c>
       <c r="H5">
-        <v>15.4083844813503</v>
+        <v>12.5311206990546</v>
       </c>
       <c r="I5">
-        <v>12.7069177492059</v>
+        <v>10.3339646162147</v>
       </c>
       <c r="J5">
-        <v>47.7827909416614</v>
+        <v>38.8613766384662</v>
       </c>
       <c r="K5">
-        <v>35.0390248641621</v>
+        <v>28.4956585188906</v>
       </c>
       <c r="L5">
-        <v>33.5323885037042</v>
+        <v>27.2716843951631</v>
       </c>
       <c r="M5">
-        <v>19.6286755018096</v>
+        <v>15.9629903215661</v>
       </c>
       <c r="N5">
-        <v>22.3287131291003</v>
+        <v>18.4728761450555</v>
       </c>
       <c r="O5">
-        <v>1248.80912340117</v>
+        <v>1023.41759762874</v>
       </c>
       <c r="P5">
-        <v>54.1974868921562</v>
+        <v>44.3842331578895</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>4058.83652171193</v>
+        <v>6071.69489058623</v>
       </c>
       <c r="C6">
-        <v>200.092868455942</v>
+        <v>179.496036838962</v>
       </c>
       <c r="D6">
-        <v>340.881882605201</v>
+        <v>304.932377240835</v>
       </c>
       <c r="E6">
-        <v>126.406414686654</v>
+        <v>112.625682726431</v>
       </c>
       <c r="F6">
-        <v>59.2089909399015</v>
+        <v>52.7711792392652</v>
       </c>
       <c r="G6">
-        <v>154.313681965647</v>
+        <v>139.330487076168</v>
       </c>
       <c r="H6">
-        <v>91.5817134245241</v>
+        <v>82.2087599709637</v>
       </c>
       <c r="I6">
-        <v>70.85290357858079</v>
+        <v>63.1279646679004</v>
       </c>
       <c r="J6">
-        <v>232.754734186192</v>
+        <v>207.373183589276</v>
       </c>
       <c r="K6">
-        <v>187.906798870446</v>
+        <v>168.651250610122</v>
       </c>
       <c r="L6">
-        <v>624.371105874743</v>
+        <v>556.278399535439</v>
       </c>
       <c r="M6">
-        <v>422.585238603991</v>
+        <v>376.507435087901</v>
       </c>
       <c r="N6">
-        <v>417.746665716335</v>
+        <v>373.418196642568</v>
       </c>
       <c r="O6">
-        <v>16008.1595737428</v>
+        <v>14336.0645385711</v>
       </c>
       <c r="P6">
-        <v>292.055359295613</v>
+        <v>263.23559076788</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>343.224171488187</v>
+        <v>614.760246484409</v>
       </c>
       <c r="C7">
-        <v>41.5035849238082</v>
+        <v>37.1076905699389</v>
       </c>
       <c r="D7">
-        <v>6.37267188844812</v>
+        <v>5.69738358317304</v>
       </c>
       <c r="E7">
-        <v>14.5910948244528</v>
+        <v>13.0469182978477</v>
       </c>
       <c r="F7">
-        <v>18.83923525593</v>
+        <v>16.8476068455563</v>
       </c>
       <c r="G7">
-        <v>13.2050689011197</v>
+        <v>11.8076807524022</v>
       </c>
       <c r="H7">
-        <v>12.2522897637269</v>
+        <v>10.9542869577397</v>
       </c>
       <c r="I7">
-        <v>11.7372548423121</v>
+        <v>10.4945130675424</v>
       </c>
       <c r="J7">
-        <v>25.9219561840192</v>
+        <v>23.6138091658845</v>
       </c>
       <c r="K7">
-        <v>26.89273870285</v>
+        <v>24.0469833144505</v>
       </c>
       <c r="L7">
-        <v>78.0880360361669</v>
+        <v>69.821815985191</v>
       </c>
       <c r="M7">
-        <v>28.9074302624682</v>
+        <v>25.845724761091</v>
       </c>
       <c r="N7">
-        <v>39.6891764107968</v>
+        <v>35.4882522012179</v>
       </c>
       <c r="O7">
-        <v>2326.86764426299</v>
+        <v>2091.49390402959</v>
       </c>
       <c r="P7">
-        <v>27.83127629413</v>
+        <v>24.880367792174</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>261.83131957447</v>
+        <v>480.700851807294</v>
       </c>
       <c r="C8">
-        <v>18.4970216189958</v>
+        <v>16.5656005653539</v>
       </c>
       <c r="D8">
-        <v>10.551439172798</v>
+        <v>9.44953917326807</v>
       </c>
       <c r="E8">
-        <v>13.1823079891978</v>
+        <v>11.8052168977029</v>
       </c>
       <c r="F8">
-        <v>3.68601281069877</v>
+        <v>3.30128045173918</v>
       </c>
       <c r="G8">
-        <v>38.1146399564707</v>
+        <v>34.1331378293583</v>
       </c>
       <c r="H8">
-        <v>17.9560318186149</v>
+        <v>16.080956038199</v>
       </c>
       <c r="I8">
-        <v>1.5797825987647</v>
+        <v>1.41445128626914</v>
       </c>
       <c r="J8">
-        <v>53.413663001352</v>
+        <v>47.8355717931948</v>
       </c>
       <c r="K8">
-        <v>54.9995354384124</v>
+        <v>49.2543845066979</v>
       </c>
       <c r="L8">
-        <v>56.0153032609152</v>
+        <v>50.1632717023267</v>
       </c>
       <c r="M8">
-        <v>81.49951146516931</v>
+        <v>72.9864688891055</v>
       </c>
       <c r="N8">
-        <v>44.3704210971695</v>
+        <v>39.7361149681938</v>
       </c>
       <c r="O8">
-        <v>1744.45261254539</v>
+        <v>1567.43113418803</v>
       </c>
       <c r="P8">
-        <v>6.77632241116901</v>
+        <v>6.06716173606603</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>64.4963575731713</v>
+        <v>131.763801331693</v>
       </c>
       <c r="C9">
-        <v>9.738535636272941</v>
+        <v>8.441338058416539</v>
       </c>
       <c r="D9">
-        <v>2.24136246598189</v>
+        <v>1.94430966308465</v>
       </c>
       <c r="E9">
-        <v>5.53268725281166</v>
+        <v>4.7959994030796</v>
       </c>
       <c r="F9">
-        <v>2.89390105994084</v>
+        <v>2.50934289628652</v>
       </c>
       <c r="G9">
-        <v>29.8582767332698</v>
+        <v>26.0105818154907</v>
       </c>
       <c r="H9">
-        <v>4.65050802887749</v>
+        <v>4.03110635107812</v>
       </c>
       <c r="I9">
-        <v>0.900944873028954</v>
+        <v>0.78128171233202</v>
       </c>
       <c r="J9">
-        <v>3.84108547225312</v>
+        <v>3.32777296553856</v>
       </c>
       <c r="K9">
-        <v>4.69741342748064</v>
+        <v>4.07331248613947</v>
       </c>
       <c r="L9">
-        <v>4.18490684820212</v>
+        <v>3.62948607876905</v>
       </c>
       <c r="M9">
-        <v>10.170844602492</v>
+        <v>8.81631316539537</v>
       </c>
       <c r="N9">
-        <v>6.74372366198329</v>
+        <v>5.84675967331102</v>
       </c>
       <c r="O9">
-        <v>437.847943248511</v>
+        <v>382.839206255185</v>
       </c>
       <c r="P9">
-        <v>7.55806132707023</v>
+        <v>6.54921131137169</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>1570.01777160413</v>
+        <v>2973.01974288423</v>
       </c>
       <c r="C10">
-        <v>71.3696878161484</v>
+        <v>61.4969120995743</v>
       </c>
       <c r="D10">
-        <v>52.6970377212456</v>
+        <v>45.0090880865216</v>
       </c>
       <c r="E10">
-        <v>54.5601601127854</v>
+        <v>46.5985236992034</v>
       </c>
       <c r="F10">
-        <v>11.2734497167541</v>
+        <v>9.623126972902631</v>
       </c>
       <c r="G10">
-        <v>49.46528318517</v>
+        <v>42.2410457174</v>
       </c>
       <c r="H10">
-        <v>28.8672690798496</v>
+        <v>24.6549936738859</v>
       </c>
       <c r="I10">
-        <v>45.8163830290031</v>
+        <v>39.6777146846149</v>
       </c>
       <c r="J10">
-        <v>55.8148452675313</v>
+        <v>48.2146269101692</v>
       </c>
       <c r="K10">
-        <v>66.1287561163962</v>
+        <v>56.4714993949868</v>
       </c>
       <c r="L10">
-        <v>162.523104903859</v>
+        <v>138.791166626648</v>
       </c>
       <c r="M10">
-        <v>120.952324063252</v>
+        <v>103.291497070899</v>
       </c>
       <c r="N10">
-        <v>128.200152122192</v>
+        <v>110.034387470263</v>
       </c>
       <c r="O10">
-        <v>9058.251207040599</v>
+        <v>7788.24348412976</v>
       </c>
       <c r="P10">
-        <v>104.690792131063</v>
+        <v>93.2458581855669</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>714.3049071649861</v>
+        <v>1359.09640528067</v>
       </c>
       <c r="C11">
-        <v>84.6188690951914</v>
+        <v>73.33641784724991</v>
       </c>
       <c r="D11">
-        <v>201.094727165032</v>
+        <v>174.979522685496</v>
       </c>
       <c r="E11">
-        <v>121.021215383436</v>
+        <v>105.584085868878</v>
       </c>
       <c r="F11">
-        <v>10.282669727087</v>
+        <v>8.91162894361643</v>
       </c>
       <c r="G11">
-        <v>46.7501301998403</v>
+        <v>40.5186409694886</v>
       </c>
       <c r="H11">
-        <v>23.3603006365259</v>
+        <v>20.2452116445765</v>
       </c>
       <c r="I11">
-        <v>25.8011793135123</v>
+        <v>22.3605245713668</v>
       </c>
       <c r="J11">
-        <v>62.0631052912757</v>
+        <v>53.7872978723278</v>
       </c>
       <c r="K11">
-        <v>58.8196231660803</v>
+        <v>50.9752573487692</v>
       </c>
       <c r="L11">
-        <v>87.938725424067</v>
+        <v>76.2110187609357</v>
       </c>
       <c r="M11">
-        <v>66.86316667206199</v>
+        <v>57.9476014555908</v>
       </c>
       <c r="N11">
-        <v>65.3082344623508</v>
+        <v>56.6006993036635</v>
       </c>
       <c r="O11">
-        <v>4049.51655668053</v>
+        <v>3521.39806242365</v>
       </c>
       <c r="P11">
-        <v>36.8458523874441</v>
+        <v>32.6325529756518</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>132.977373588141</v>
+        <v>208.140461962888</v>
       </c>
       <c r="C12">
-        <v>13.6225498148503</v>
+        <v>12.233927241048</v>
       </c>
       <c r="D12">
-        <v>4.88753458735144</v>
+        <v>4.3881545691314</v>
       </c>
       <c r="E12">
-        <v>0.814121523000137</v>
+        <v>0.729802394318136</v>
       </c>
       <c r="F12">
-        <v>1.28445356338357</v>
+        <v>1.15286226440051</v>
       </c>
       <c r="G12">
-        <v>1.05652389475303</v>
+        <v>0.947746846599608</v>
       </c>
       <c r="H12">
-        <v>0.530522145530111</v>
+        <v>0.475947050449078</v>
       </c>
       <c r="I12">
-        <v>1.70768110215215</v>
+        <v>1.53302473589397</v>
       </c>
       <c r="J12">
-        <v>1.34473815290729</v>
+        <v>1.20627568754635</v>
       </c>
       <c r="K12">
-        <v>0.588054981741747</v>
+        <v>0.52762026194293</v>
       </c>
       <c r="L12">
-        <v>0.693339859639421</v>
+        <v>0.621500816342953</v>
       </c>
       <c r="M12">
-        <v>5.91198552465133</v>
+        <v>5.30816880287855</v>
       </c>
       <c r="N12">
-        <v>4.70470942561424</v>
+        <v>4.2242195993935</v>
       </c>
       <c r="O12">
-        <v>705.074257365501</v>
+        <v>635.086755827095</v>
       </c>
       <c r="P12">
-        <v>19.5104664317642</v>
+        <v>18.1629131438315</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>121.558225159766</v>
+        <v>205.571205874195</v>
       </c>
       <c r="C13">
-        <v>32.1868558850682</v>
+        <v>28.6434268390592</v>
       </c>
       <c r="D13">
-        <v>1.86315234712331</v>
+        <v>1.65766079714637</v>
       </c>
       <c r="E13">
-        <v>19.0211569735422</v>
+        <v>16.9269465813475</v>
       </c>
       <c r="F13">
-        <v>5.66523902608247</v>
+        <v>5.04182464611512</v>
       </c>
       <c r="G13">
-        <v>7.11773816729507</v>
+        <v>6.33422047598163</v>
       </c>
       <c r="H13">
-        <v>2.43932230462415</v>
+        <v>2.17039087814457</v>
       </c>
       <c r="I13">
-        <v>2.13206382076548</v>
+        <v>1.89720878465476</v>
       </c>
       <c r="J13">
-        <v>5.80428016270965</v>
+        <v>5.16519010605083</v>
       </c>
       <c r="K13">
-        <v>5.33627606675416</v>
+        <v>4.74901173590238</v>
       </c>
       <c r="L13">
-        <v>32.1656219705571</v>
+        <v>28.6229402727076</v>
       </c>
       <c r="M13">
-        <v>4.98781901713149</v>
+        <v>4.43865470039353</v>
       </c>
       <c r="N13">
-        <v>8.994845121293791</v>
+        <v>8.00472557629563</v>
       </c>
       <c r="O13">
-        <v>606.855676891523</v>
+        <v>542.302329047483</v>
       </c>
       <c r="P13">
-        <v>53.9085750521187</v>
+        <v>48.5143908002622</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1195.87612679919</v>
+        <v>1952.39681607426</v>
       </c>
       <c r="C14">
-        <v>137.636563846597</v>
+        <v>123.53171497198</v>
       </c>
       <c r="D14">
-        <v>22.1367929522139</v>
+        <v>19.7969521408173</v>
       </c>
       <c r="E14">
-        <v>65.4590530052531</v>
+        <v>58.9917132441698</v>
       </c>
       <c r="F14">
-        <v>17.4362152084804</v>
+        <v>15.6035979751411</v>
       </c>
       <c r="G14">
-        <v>132.271612590747</v>
+        <v>118.284169602889</v>
       </c>
       <c r="H14">
-        <v>73.6449843434975</v>
+        <v>65.8584058931058</v>
       </c>
       <c r="I14">
-        <v>38.3350259879804</v>
+        <v>34.2806244732304</v>
       </c>
       <c r="J14">
-        <v>168.995514499874</v>
+        <v>151.576042188492</v>
       </c>
       <c r="K14">
-        <v>232.145262053611</v>
+        <v>207.593410742814</v>
       </c>
       <c r="L14">
-        <v>196.897828515874</v>
+        <v>176.523753420798</v>
       </c>
       <c r="M14">
-        <v>107.858962197877</v>
+        <v>96.45611658044059</v>
       </c>
       <c r="N14">
-        <v>114.942928122471</v>
+        <v>103.239554606675</v>
       </c>
       <c r="O14">
-        <v>6148.77770381964</v>
+        <v>5532.36425066098</v>
       </c>
       <c r="P14">
-        <v>42.8675573465886</v>
+        <v>38.7780405958844</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>529.1351964591941</v>
+        <v>976.399377686959</v>
       </c>
       <c r="C15">
-        <v>36.534479627208</v>
+        <v>32.0068593788449</v>
       </c>
       <c r="D15">
-        <v>16.7815251748226</v>
+        <v>15.3690591373646</v>
       </c>
       <c r="E15">
-        <v>70.0245407250582</v>
+        <v>61.3466818409008</v>
       </c>
       <c r="F15">
-        <v>15.1219743602067</v>
+        <v>13.2499806307314</v>
       </c>
       <c r="G15">
-        <v>54.0472561063886</v>
+        <v>47.3513963740983</v>
       </c>
       <c r="H15">
-        <v>60.1311644637169</v>
+        <v>52.6797454284631</v>
       </c>
       <c r="I15">
-        <v>53.280274031402</v>
+        <v>46.6775373007319</v>
       </c>
       <c r="J15">
-        <v>228.339913715938</v>
+        <v>200.044229055635</v>
       </c>
       <c r="K15">
-        <v>121.783599030712</v>
+        <v>106.692935475583</v>
       </c>
       <c r="L15">
-        <v>76.1681870186312</v>
+        <v>67.39506593585391</v>
       </c>
       <c r="M15">
-        <v>177.335524205486</v>
+        <v>155.360214876646</v>
       </c>
       <c r="N15">
-        <v>114.182051378112</v>
+        <v>100.03196141654</v>
       </c>
       <c r="O15">
-        <v>2669.24224576333</v>
+        <v>2351.14424699303</v>
       </c>
       <c r="P15">
-        <v>50.9072684729497</v>
+        <v>47.2661306189132</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>170.474956932118</v>
+        <v>342.359916292215</v>
       </c>
       <c r="C16">
-        <v>75.62478621514229</v>
+        <v>68.4639210477598</v>
       </c>
       <c r="D16">
-        <v>19.2677453537232</v>
+        <v>17.4411056344222</v>
       </c>
       <c r="E16">
-        <v>18.8956528035733</v>
+        <v>17.1048157236361</v>
       </c>
       <c r="F16">
-        <v>5.29098149208321</v>
+        <v>4.7900094000847</v>
       </c>
       <c r="G16">
-        <v>17.7727417398758</v>
+        <v>16.0895445129799</v>
       </c>
       <c r="H16">
-        <v>16.9774700696528</v>
+        <v>15.3695528952791</v>
       </c>
       <c r="I16">
-        <v>11.3187997907822</v>
+        <v>10.2467188436602</v>
       </c>
       <c r="J16">
-        <v>48.6308435072559</v>
+        <v>44.7122370887173</v>
       </c>
       <c r="K16">
-        <v>64.0721554087886</v>
+        <v>58.0023448918969</v>
       </c>
       <c r="L16">
-        <v>36.3234623660366</v>
+        <v>33.2218259079433</v>
       </c>
       <c r="M16">
-        <v>15.9866405640062</v>
+        <v>14.4694988682229</v>
       </c>
       <c r="N16">
-        <v>32.485103195023</v>
+        <v>29.407891354665</v>
       </c>
       <c r="O16">
-        <v>1458.28303866428</v>
+        <v>1328.97604257479</v>
       </c>
       <c r="P16">
-        <v>108.548049005252</v>
+        <v>99.29975202406421</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>205.955353504684</v>
+        <v>364.480593352462</v>
       </c>
       <c r="C17">
-        <v>29.3702514463205</v>
+        <v>26.5502830944441</v>
       </c>
       <c r="D17">
-        <v>8.89979755805045</v>
+        <v>8.04441610116919</v>
       </c>
       <c r="E17">
-        <v>11.7445329451385</v>
+        <v>10.6148650136602</v>
       </c>
       <c r="F17">
-        <v>14.8504677140424</v>
+        <v>13.4239701110876</v>
       </c>
       <c r="G17">
-        <v>14.2206676431036</v>
+        <v>12.8550106033356</v>
       </c>
       <c r="H17">
-        <v>7.8244674898725</v>
+        <v>7.07141143240916</v>
       </c>
       <c r="I17">
-        <v>9.226488698215929</v>
+        <v>8.340166191443579</v>
       </c>
       <c r="J17">
-        <v>22.3840244032967</v>
+        <v>20.2301944956759</v>
       </c>
       <c r="K17">
-        <v>29.7989517061766</v>
+        <v>26.9371730284814</v>
       </c>
       <c r="L17">
-        <v>17.5229678161498</v>
+        <v>15.8362238914119</v>
       </c>
       <c r="M17">
-        <v>91.0020108001851</v>
+        <v>82.277127102561</v>
       </c>
       <c r="N17">
-        <v>17.7599804615599</v>
+        <v>16.0538639157062</v>
       </c>
       <c r="O17">
-        <v>1355.90814777087</v>
+        <v>1229.86230257682</v>
       </c>
       <c r="P17">
-        <v>63.7175073129757</v>
+        <v>57.6053823229423</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>442.938806203094</v>
+        <v>862.828422780285</v>
       </c>
       <c r="C18">
-        <v>40.4193818584905</v>
+        <v>33.4284079198911</v>
       </c>
       <c r="D18">
-        <v>20.8472457877925</v>
+        <v>17.6970487133028</v>
       </c>
       <c r="E18">
-        <v>36.0712074748994</v>
+        <v>29.828062874091</v>
       </c>
       <c r="F18">
-        <v>49.5094179688588</v>
+        <v>40.9381830594117</v>
       </c>
       <c r="G18">
-        <v>42.0627195623331</v>
+        <v>34.7889578122047</v>
       </c>
       <c r="H18">
-        <v>27.3558887869806</v>
+        <v>22.6259405991991</v>
       </c>
       <c r="I18">
-        <v>11.5279165538687</v>
+        <v>9.536399930459361</v>
       </c>
       <c r="J18">
-        <v>46.6358702428121</v>
+        <v>38.5780020629267</v>
       </c>
       <c r="K18">
-        <v>41.6007831821628</v>
+        <v>34.4101570569562</v>
       </c>
       <c r="L18">
-        <v>51.9723881973878</v>
+        <v>43.431744357574</v>
       </c>
       <c r="M18">
-        <v>72.2275200912525</v>
+        <v>59.7425330467361</v>
       </c>
       <c r="N18">
-        <v>25.300857806833</v>
+        <v>20.926363383553</v>
       </c>
       <c r="O18">
-        <v>1961.46345742382</v>
+        <v>1627.71730282987</v>
       </c>
       <c r="P18">
-        <v>53.4391217174329</v>
+        <v>46.8960415549272</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>538.880623281474</v>
+        <v>933.482522600082</v>
       </c>
       <c r="C19">
-        <v>35.9921371335664</v>
+        <v>30.2884813945375</v>
       </c>
       <c r="D19">
-        <v>17.1285703484626</v>
+        <v>14.4165928800516</v>
       </c>
       <c r="E19">
-        <v>27.4337325459039</v>
+        <v>23.0874627311176</v>
       </c>
       <c r="F19">
-        <v>111.276141756923</v>
+        <v>94.1491873716877</v>
       </c>
       <c r="G19">
-        <v>51.1735620422381</v>
+        <v>43.0649175335311</v>
       </c>
       <c r="H19">
-        <v>7.34490205954234</v>
+        <v>6.18240394110336</v>
       </c>
       <c r="I19">
-        <v>12.2138323527427</v>
+        <v>10.2790806238143</v>
       </c>
       <c r="J19">
-        <v>14.7090451857365</v>
+        <v>12.8909383330416</v>
       </c>
       <c r="K19">
-        <v>20.808690925593</v>
+        <v>17.5151260620677</v>
       </c>
       <c r="L19">
-        <v>9.93464745160709</v>
+        <v>8.35722143262764</v>
       </c>
       <c r="M19">
-        <v>32.3387006611299</v>
+        <v>27.7276951967106</v>
       </c>
       <c r="N19">
-        <v>9.82674618732162</v>
+        <v>8.27299566067132</v>
       </c>
       <c r="O19">
-        <v>2166.26457243436</v>
+        <v>1832.76083729722</v>
       </c>
       <c r="P19">
-        <v>45.0765255042784</v>
+        <v>37.9307134520468</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>101.092859331871</v>
+        <v>210.26075662893</v>
       </c>
       <c r="C20">
-        <v>10.7293640694249</v>
+        <v>9.28751240158701</v>
       </c>
       <c r="D20">
-        <v>21.2287753241462</v>
+        <v>18.3753218767353</v>
       </c>
       <c r="E20">
-        <v>39.4624382148187</v>
+        <v>34.1588461569915</v>
       </c>
       <c r="F20">
-        <v>0.391252081618474</v>
+        <v>0.338663731683035</v>
       </c>
       <c r="G20">
-        <v>1.60047216421397</v>
+        <v>1.38572979255756</v>
       </c>
       <c r="H20">
-        <v>4.68800762736805</v>
+        <v>4.05712814718931</v>
       </c>
       <c r="I20">
-        <v>0.988679526840114</v>
+        <v>0.855719305656622</v>
       </c>
       <c r="J20">
-        <v>4.92590567231557</v>
+        <v>4.26434378515428</v>
       </c>
       <c r="K20">
-        <v>5.88468999506568</v>
+        <v>5.26185155015705</v>
       </c>
       <c r="L20">
-        <v>11.5333019616866</v>
+        <v>9.98315118838727</v>
       </c>
       <c r="M20">
-        <v>26.2991185292265</v>
+        <v>22.7657220822501</v>
       </c>
       <c r="N20">
-        <v>6.66767666592788</v>
+        <v>5.77003504776053</v>
       </c>
       <c r="O20">
-        <v>680.909346817901</v>
+        <v>592.779413532631</v>
       </c>
       <c r="P20">
-        <v>25.8596819762589</v>
+        <v>22.7199357167946</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>455.597919471257</v>
+        <v>831.1669821251051</v>
       </c>
       <c r="C21">
-        <v>31.0298600366688</v>
+        <v>28.0375702464749</v>
       </c>
       <c r="D21">
-        <v>9.48963336857053</v>
+        <v>8.342686892703011</v>
       </c>
       <c r="E21">
-        <v>22.3556743160266</v>
+        <v>19.6584210801349</v>
       </c>
       <c r="F21">
-        <v>3.31530947507149</v>
+        <v>2.92001129184648</v>
       </c>
       <c r="G21">
-        <v>25.6644469899553</v>
+        <v>22.5651962765838</v>
       </c>
       <c r="H21">
-        <v>11.1883527115871</v>
+        <v>9.834971721463081</v>
       </c>
       <c r="I21">
-        <v>10.3381077404926</v>
+        <v>9.08909209443973</v>
       </c>
       <c r="J21">
-        <v>20.6672419532752</v>
+        <v>18.1696941033059</v>
       </c>
       <c r="K21">
-        <v>24.1107209270061</v>
+        <v>21.196291547879</v>
       </c>
       <c r="L21">
-        <v>34.5225501262487</v>
+        <v>30.3474425210224</v>
       </c>
       <c r="M21">
-        <v>39.657398291476</v>
+        <v>34.8617258090084</v>
       </c>
       <c r="N21">
-        <v>23.2480782795549</v>
+        <v>20.4373255757684</v>
       </c>
       <c r="O21">
-        <v>2974.83470239725</v>
+        <v>2632.61036775804</v>
       </c>
       <c r="P21">
-        <v>26.5887482361549</v>
+        <v>23.3649474336973</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>488.976111949751</v>
+        <v>958.586681491654</v>
       </c>
       <c r="C22">
-        <v>26.0603141876592</v>
+        <v>22.9305202573453</v>
       </c>
       <c r="D22">
-        <v>38.9031631846174</v>
+        <v>34.2375994601616</v>
       </c>
       <c r="E22">
-        <v>34.2527812678434</v>
+        <v>30.1435301127466</v>
       </c>
       <c r="F22">
-        <v>3.60688361150562</v>
+        <v>3.17375437316077</v>
       </c>
       <c r="G22">
-        <v>39.4220353540346</v>
+        <v>34.6919044104503</v>
       </c>
       <c r="H22">
-        <v>37.0657234626314</v>
+        <v>32.6182900388644</v>
       </c>
       <c r="I22">
-        <v>11.9034120066349</v>
+        <v>10.4754488465723</v>
       </c>
       <c r="J22">
-        <v>64.5340245063734</v>
+        <v>56.7897338851511</v>
       </c>
       <c r="K22">
-        <v>58.9887359416459</v>
+        <v>51.9089199024956</v>
       </c>
       <c r="L22">
-        <v>146.115710483365</v>
+        <v>128.580347044613</v>
       </c>
       <c r="M22">
-        <v>25.9688086709039</v>
+        <v>22.8506497585129</v>
       </c>
       <c r="N22">
-        <v>109.898443367418</v>
+        <v>97.1124007743764</v>
       </c>
       <c r="O22">
-        <v>3410.74930521002</v>
+        <v>3015.18932728403</v>
       </c>
       <c r="P22">
-        <v>23.6521425245753</v>
+        <v>20.8070171289395</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>933.030869763772</v>
+        <v>1683.11280858666</v>
       </c>
       <c r="C23">
-        <v>57.4722936344119</v>
+        <v>50.137645138887</v>
       </c>
       <c r="D23">
-        <v>20.3521519703162</v>
+        <v>17.7548973017912</v>
       </c>
       <c r="E23">
-        <v>43.9521736109577</v>
+        <v>38.7651350026239</v>
       </c>
       <c r="F23">
-        <v>2.37366980740483</v>
+        <v>2.07377953243126</v>
       </c>
       <c r="G23">
-        <v>80.19727964700991</v>
+        <v>69.9661386060959</v>
       </c>
       <c r="H23">
-        <v>80.17298077003591</v>
+        <v>69.9428196665787</v>
       </c>
       <c r="I23">
-        <v>27.0645677762904</v>
+        <v>23.6111236027159</v>
       </c>
       <c r="J23">
-        <v>188.358966725971</v>
+        <v>165.58888807627</v>
       </c>
       <c r="K23">
-        <v>176.269167097318</v>
+        <v>154.620681786049</v>
       </c>
       <c r="L23">
-        <v>62.8914125643748</v>
+        <v>54.8647231351578</v>
       </c>
       <c r="M23">
-        <v>699.186670864039</v>
+        <v>611.23855204957</v>
       </c>
       <c r="N23">
-        <v>115.940479917732</v>
+        <v>101.146286295852</v>
       </c>
       <c r="O23">
-        <v>4476.21924238285</v>
+        <v>3926.49980250933</v>
       </c>
       <c r="P23">
-        <v>49.0829373317288</v>
+        <v>43.2382986593182</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>330.460984340585</v>
+        <v>580.916080468611</v>
       </c>
       <c r="C24">
-        <v>48.6552078553852</v>
+        <v>45.0481615614471</v>
       </c>
       <c r="D24">
-        <v>12.7308859150004</v>
+        <v>11.6590156800691</v>
       </c>
       <c r="E24">
-        <v>46.6339134601996</v>
+        <v>42.712405114358</v>
       </c>
       <c r="F24">
-        <v>18.416475756691</v>
+        <v>16.8693879756524</v>
       </c>
       <c r="G24">
-        <v>30.2466472357482</v>
+        <v>27.7035219147963</v>
       </c>
       <c r="H24">
-        <v>24.9462375243364</v>
+        <v>22.8484653066788</v>
       </c>
       <c r="I24">
-        <v>16.4404703789294</v>
+        <v>15.0575469084046</v>
       </c>
       <c r="J24">
-        <v>44.0139659445584</v>
+        <v>40.3121343596926</v>
       </c>
       <c r="K24">
-        <v>105.54069012949</v>
+        <v>97.149562375495</v>
       </c>
       <c r="L24">
-        <v>73.7440208053346</v>
+        <v>67.54033643246351</v>
       </c>
       <c r="M24">
-        <v>19.6271596049655</v>
+        <v>17.9749452904827</v>
       </c>
       <c r="N24">
-        <v>95.50173310537861</v>
+        <v>87.4697649534083</v>
       </c>
       <c r="O24">
-        <v>2471.37656577041</v>
+        <v>2273.24312790159</v>
       </c>
       <c r="P24">
-        <v>102.922865428586</v>
+        <v>94.75212053675131</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>294.033493548778</v>
+        <v>572.426261954769</v>
       </c>
       <c r="C25">
-        <v>54.9971861331045</v>
+        <v>46.1088023306877</v>
       </c>
       <c r="D25">
-        <v>24.7838882027525</v>
+        <v>20.9752260563701</v>
       </c>
       <c r="E25">
-        <v>50.6782749207222</v>
+        <v>42.1563595074921</v>
       </c>
       <c r="F25">
-        <v>33.7952582229789</v>
+        <v>28.115074969348</v>
       </c>
       <c r="G25">
-        <v>11.3490072509768</v>
+        <v>9.440768942460061</v>
       </c>
       <c r="H25">
-        <v>20.818384160404</v>
+        <v>17.3186335071059</v>
       </c>
       <c r="I25">
-        <v>6.1087250764933</v>
+        <v>5.07951515031129</v>
       </c>
       <c r="J25">
-        <v>22.6312960873989</v>
+        <v>18.8275275818836</v>
       </c>
       <c r="K25">
-        <v>27.3706564524456</v>
+        <v>23.132902115309</v>
       </c>
       <c r="L25">
-        <v>33.4241071124483</v>
+        <v>27.8047634712393</v>
       </c>
       <c r="M25">
-        <v>41.6538483306512</v>
+        <v>34.6543991814588</v>
       </c>
       <c r="N25">
-        <v>38.1519412942435</v>
+        <v>32.1000881183323</v>
       </c>
       <c r="O25">
-        <v>1275.78464724128</v>
+        <v>1066.40588888089</v>
       </c>
       <c r="P25">
-        <v>53.2827718858271</v>
+        <v>44.3209964429253</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>432.36985154393</v>
+        <v>811.31847883119</v>
       </c>
       <c r="C26">
-        <v>77.234338865417</v>
+        <v>69.2173404158809</v>
       </c>
       <c r="D26">
-        <v>17.7029905453411</v>
+        <v>15.7018896651626</v>
       </c>
       <c r="E26">
-        <v>48.3242654016288</v>
+        <v>42.8621734725576</v>
       </c>
       <c r="F26">
-        <v>9.578637597358419</v>
+        <v>8.49617362651145</v>
       </c>
       <c r="G26">
-        <v>53.1889174579541</v>
+        <v>47.1774745118379</v>
       </c>
       <c r="H26">
-        <v>20.1109557296107</v>
+        <v>17.837764393168</v>
       </c>
       <c r="I26">
-        <v>20.9258578490485</v>
+        <v>18.5596131298093</v>
       </c>
       <c r="J26">
-        <v>66.82675254484821</v>
+        <v>59.2715779452043</v>
       </c>
       <c r="K26">
-        <v>65.1787829582422</v>
+        <v>57.8117482217118</v>
       </c>
       <c r="L26">
-        <v>37.8207961077915</v>
+        <v>33.5439980553535</v>
       </c>
       <c r="M26">
-        <v>81.2538686286359</v>
+        <v>72.7891642534757</v>
       </c>
       <c r="N26">
-        <v>44.2512218174696</v>
+        <v>39.2490811746785</v>
       </c>
       <c r="O26">
-        <v>2896.56171539423</v>
+        <v>2581.96333911972</v>
       </c>
       <c r="P26">
-        <v>58.4075596408554</v>
+        <v>53.9365073012027</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>82.1216133953448</v>
+        <v>149.817108377528</v>
       </c>
       <c r="C27">
-        <v>4.39686772106074</v>
+        <v>3.86936867829284</v>
       </c>
       <c r="D27">
-        <v>0.99535673404751</v>
+        <v>0.8759252356335679</v>
       </c>
       <c r="E27">
-        <v>15.1323416943716</v>
+        <v>13.3167277206236</v>
       </c>
       <c r="F27">
-        <v>8.033449578490821</v>
+        <v>7.06945039125767</v>
       </c>
       <c r="G27">
-        <v>0.510040594336255</v>
+        <v>0.449023289584846</v>
       </c>
       <c r="H27">
-        <v>0.392871895393905</v>
+        <v>0.345710728199641</v>
       </c>
       <c r="I27">
-        <v>2.95267413548436</v>
+        <v>2.59817821215531</v>
       </c>
       <c r="J27">
-        <v>5.3606344913653</v>
+        <v>4.71574035356554</v>
       </c>
       <c r="K27">
-        <v>2.29383206085725</v>
+        <v>2.01887335877444</v>
       </c>
       <c r="L27">
-        <v>2.64172647154635</v>
+        <v>2.32643098706662</v>
       </c>
       <c r="M27">
-        <v>1.72744486485449</v>
+        <v>1.521609432453</v>
       </c>
       <c r="N27">
-        <v>7.34793781564619</v>
+        <v>6.46736045159517</v>
       </c>
       <c r="O27">
-        <v>486.508651986214</v>
+        <v>430.387653255573</v>
       </c>
       <c r="P27">
-        <v>51.5484046850542</v>
+        <v>46.1939177325663</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>105.795851446887</v>
+        <v>197.831459844519</v>
       </c>
       <c r="C28">
-        <v>32.6796426628154</v>
+        <v>29.8564810878705</v>
       </c>
       <c r="D28">
-        <v>3.06786989099839</v>
+        <v>2.80114711623474</v>
       </c>
       <c r="E28">
-        <v>6.28386543995094</v>
+        <v>5.7398306525748</v>
       </c>
       <c r="F28">
-        <v>2.97661619909812</v>
+        <v>2.72005954787363</v>
       </c>
       <c r="G28">
-        <v>7.99509174353079</v>
+        <v>7.30402080580809</v>
       </c>
       <c r="H28">
-        <v>9.898238054198259</v>
+        <v>9.04376589065846</v>
       </c>
       <c r="I28">
-        <v>4.54012492078148</v>
+        <v>4.14556292087319</v>
       </c>
       <c r="J28">
-        <v>17.4846374688142</v>
+        <v>15.9732105411736</v>
       </c>
       <c r="K28">
-        <v>18.3220334677554</v>
+        <v>16.7395822437717</v>
       </c>
       <c r="L28">
-        <v>15.4022507631781</v>
+        <v>14.0658413806713</v>
       </c>
       <c r="M28">
-        <v>7.89488285586586</v>
+        <v>7.20947372470132</v>
       </c>
       <c r="N28">
-        <v>12.7574976038077</v>
+        <v>11.6539936949732</v>
       </c>
       <c r="O28">
-        <v>886.43627475746</v>
+        <v>813.932970274351</v>
       </c>
       <c r="P28">
-        <v>93.60460772314541</v>
+        <v>86.1232687793803</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>194.160237919367</v>
+        <v>338.29423495059</v>
       </c>
       <c r="C29">
-        <v>5.57791537553851</v>
+        <v>4.91724355703779</v>
       </c>
       <c r="D29">
-        <v>4.03857574274198</v>
+        <v>3.56134838480991</v>
       </c>
       <c r="E29">
-        <v>2.40573547918691</v>
+        <v>2.12121955231114</v>
       </c>
       <c r="F29">
-        <v>18.616958439509</v>
+        <v>16.4149796033081</v>
       </c>
       <c r="G29">
-        <v>3.74752248505835</v>
+        <v>3.30445998468265</v>
       </c>
       <c r="H29">
-        <v>3.19897933857618</v>
+        <v>2.82056594795891</v>
       </c>
       <c r="I29">
-        <v>6.08107513533694</v>
+        <v>5.36149626659162</v>
       </c>
       <c r="J29">
-        <v>5.61419685780556</v>
+        <v>4.95033513981082</v>
       </c>
       <c r="K29">
-        <v>4.27933615895455</v>
+        <v>4.00700353353617</v>
       </c>
       <c r="L29">
-        <v>4.383748333758</v>
+        <v>3.86539367000452</v>
       </c>
       <c r="M29">
-        <v>2.21630895337702</v>
+        <v>1.9543616219703</v>
       </c>
       <c r="N29">
-        <v>13.0279449418082</v>
+        <v>11.4849115488528</v>
       </c>
       <c r="O29">
-        <v>1178.24319439939</v>
+        <v>1042.98297009378</v>
       </c>
       <c r="P29">
-        <v>3.65966587875194</v>
+        <v>3.22385347376726</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>86.3736120344193</v>
+        <v>167.243027786004</v>
       </c>
       <c r="C30">
-        <v>5.16641649567025</v>
+        <v>4.63983578492239</v>
       </c>
       <c r="D30">
-        <v>8.209873713692231</v>
+        <v>7.7213098914689</v>
       </c>
       <c r="E30">
-        <v>10.8303312552994</v>
+        <v>9.73191507045615</v>
       </c>
       <c r="F30">
-        <v>0.586397999016949</v>
+        <v>0.526926606160482</v>
       </c>
       <c r="G30">
-        <v>4.23144234190536</v>
+        <v>3.79895772258415</v>
       </c>
       <c r="H30">
-        <v>8.177073190211109</v>
+        <v>7.34783983097036</v>
       </c>
       <c r="I30">
-        <v>3.43246550577585</v>
+        <v>3.08392916569272</v>
       </c>
       <c r="J30">
-        <v>17.4661459086403</v>
+        <v>15.6944856110114</v>
       </c>
       <c r="K30">
-        <v>22.1666831277355</v>
+        <v>19.9206841610516</v>
       </c>
       <c r="L30">
-        <v>48.74503990396</v>
+        <v>43.9752971379913</v>
       </c>
       <c r="M30">
-        <v>12.5979001196097</v>
+        <v>11.3193351476115</v>
       </c>
       <c r="N30">
-        <v>17.9002800020389</v>
+        <v>16.0817717872746</v>
       </c>
       <c r="O30">
-        <v>650.026616369566</v>
+        <v>585.560264344036</v>
       </c>
       <c r="P30">
-        <v>8.949909437463321</v>
+        <v>8.21439631151836</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>888.736899712079</v>
+        <v>1446.23745124356</v>
       </c>
       <c r="C31">
-        <v>54.2872794848502</v>
+        <v>48.9188508148274</v>
       </c>
       <c r="D31">
-        <v>64.4471468842152</v>
+        <v>57.4888839314669</v>
       </c>
       <c r="E31">
-        <v>26.8576026412721</v>
+        <v>24.633666260695</v>
       </c>
       <c r="F31">
-        <v>10.0633990711499</v>
+        <v>8.91053934659803</v>
       </c>
       <c r="G31">
-        <v>173.250863790452</v>
+        <v>154.25222124378</v>
       </c>
       <c r="H31">
-        <v>35.0743614297429</v>
+        <v>31.0565066568909</v>
       </c>
       <c r="I31">
-        <v>36.0842438115186</v>
+        <v>31.9501976309757</v>
       </c>
       <c r="J31">
-        <v>48.0208708403458</v>
+        <v>42.5176714043847</v>
       </c>
       <c r="K31">
-        <v>52.341425846029</v>
+        <v>46.7699900937877</v>
       </c>
       <c r="L31">
-        <v>73.5190915647693</v>
+        <v>65.52144545758191</v>
       </c>
       <c r="M31">
-        <v>30.1490460051457</v>
+        <v>27.1228922148533</v>
       </c>
       <c r="N31">
-        <v>74.9692384486759</v>
+        <v>66.80486301294251</v>
       </c>
       <c r="O31">
-        <v>4420.30135181727</v>
+        <v>3935.50739741244</v>
       </c>
       <c r="P31">
-        <v>7.57852741013932</v>
+        <v>7.98428144452234</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>214.287108288634</v>
+        <v>359.60041570965</v>
       </c>
       <c r="C32">
-        <v>5.66902926293635</v>
+        <v>4.83235616456866</v>
       </c>
       <c r="D32">
-        <v>3.23102320695778</v>
+        <v>3.37882534824864</v>
       </c>
       <c r="E32">
-        <v>2.70954751253082</v>
+        <v>2.30984256575985</v>
       </c>
       <c r="F32">
-        <v>39.841269448353</v>
+        <v>34.3776880515678</v>
       </c>
       <c r="G32">
-        <v>2.25979233746181</v>
+        <v>1.92823526005282</v>
       </c>
       <c r="H32">
-        <v>2.96863291426893</v>
+        <v>2.53119785279353</v>
       </c>
       <c r="I32">
-        <v>5.16989243665454</v>
+        <v>4.40720607687883</v>
       </c>
       <c r="J32">
-        <v>3.74044750255036</v>
+        <v>3.1902972262023</v>
       </c>
       <c r="K32">
-        <v>6.90915054400865</v>
+        <v>5.89084481623827</v>
       </c>
       <c r="L32">
-        <v>16.319471781048</v>
+        <v>14.1242137434014</v>
       </c>
       <c r="M32">
-        <v>4.24168865927253</v>
+        <v>3.61754377330276</v>
       </c>
       <c r="N32">
-        <v>15.2604272263581</v>
+        <v>13.4282370680839</v>
       </c>
       <c r="O32">
-        <v>919.825822655523</v>
+        <v>792.652487911335</v>
       </c>
       <c r="P32">
-        <v>28.7816011041269</v>
+        <v>24.9512140912634</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>2269.17461921057</v>
+        <v>3771.49347565068</v>
       </c>
       <c r="C33">
-        <v>97.44305732715939</v>
+        <v>83.97785291813</v>
       </c>
       <c r="D33">
-        <v>176.152573486524</v>
+        <v>152.766651376842</v>
       </c>
       <c r="E33">
-        <v>43.0668111882722</v>
+        <v>37.112254199082</v>
       </c>
       <c r="F33">
-        <v>12.9929798817363</v>
+        <v>11.1963121389574</v>
       </c>
       <c r="G33">
-        <v>78.7846749666036</v>
+        <v>68.37793513081191</v>
       </c>
       <c r="H33">
-        <v>48.6821103209813</v>
+        <v>42.434051785608</v>
       </c>
       <c r="I33">
-        <v>45.4744551390663</v>
+        <v>39.1950373022162</v>
       </c>
       <c r="J33">
-        <v>119.940076537423</v>
+        <v>103.372150203547</v>
       </c>
       <c r="K33">
-        <v>134.789557680459</v>
+        <v>116.639040212966</v>
       </c>
       <c r="L33">
-        <v>182.404271300607</v>
+        <v>157.200912489886</v>
       </c>
       <c r="M33">
-        <v>102.233064127391</v>
+        <v>88.101895306497</v>
       </c>
       <c r="N33">
-        <v>235.29961201332</v>
+        <v>203.267951149628</v>
       </c>
       <c r="O33">
-        <v>9823.099148165529</v>
+        <v>8502.959324324869</v>
       </c>
       <c r="P33">
-        <v>68.70706136633321</v>
+        <v>60.1428583773131</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>672.69263988564</v>
+        <v>1353.8581652632</v>
       </c>
       <c r="C34">
-        <v>103.04288106007</v>
+        <v>88.314084862372</v>
       </c>
       <c r="D34">
-        <v>273.209779717312</v>
+        <v>236.013265226826</v>
       </c>
       <c r="E34">
-        <v>69.5893984042318</v>
+        <v>60.5683845466314</v>
       </c>
       <c r="F34">
-        <v>6.92794973635124</v>
+        <v>5.9389011038464</v>
       </c>
       <c r="G34">
-        <v>83.11119595998321</v>
+        <v>71.6968067193924</v>
       </c>
       <c r="H34">
-        <v>60.9856226454377</v>
+        <v>52.7312627463129</v>
       </c>
       <c r="I34">
-        <v>29.1367858417992</v>
+        <v>24.9724727266171</v>
       </c>
       <c r="J34">
-        <v>72.2898376632097</v>
+        <v>61.9572865039685</v>
       </c>
       <c r="K34">
-        <v>102.521331083137</v>
+        <v>87.86806584546061</v>
       </c>
       <c r="L34">
-        <v>160.856798192876</v>
+        <v>138.327460322185</v>
       </c>
       <c r="M34">
-        <v>60.9427021451766</v>
+        <v>53.157057877205</v>
       </c>
       <c r="N34">
-        <v>157.580291247837</v>
+        <v>135.983224451888</v>
       </c>
       <c r="O34">
-        <v>3732.13307641481</v>
+        <v>3223.17769302702</v>
       </c>
       <c r="P34">
-        <v>86.1542747689824</v>
+        <v>76.6068763993909</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>39.7622433507384</v>
+        <v>78.4243355389134</v>
       </c>
       <c r="C35">
-        <v>5.99886531180635</v>
+        <v>5.42791970311126</v>
       </c>
       <c r="D35">
-        <v>0.885711027927269</v>
+        <v>0.801184929568566</v>
       </c>
       <c r="E35">
-        <v>3.57068395285394</v>
+        <v>3.22995245962114</v>
       </c>
       <c r="F35">
-        <v>6.03857309444352</v>
+        <v>5.46380139043061</v>
       </c>
       <c r="G35">
-        <v>0.311163884023043</v>
+        <v>0.281198342975471</v>
       </c>
       <c r="H35">
-        <v>0.8094366091412411</v>
+        <v>0.732295365702256</v>
       </c>
       <c r="I35">
-        <v>1.656579370559</v>
+        <v>1.57800187771914</v>
       </c>
       <c r="J35">
-        <v>2.22458055144835</v>
+        <v>2.012631115608</v>
       </c>
       <c r="K35">
-        <v>7.55956970184671</v>
+        <v>6.84126107749549</v>
       </c>
       <c r="L35">
-        <v>3.6427076820811</v>
+        <v>3.29534327677436</v>
       </c>
       <c r="M35">
-        <v>2.73399516543709</v>
+        <v>2.47065531243107</v>
       </c>
       <c r="N35">
-        <v>2.67004859227393</v>
+        <v>2.41569515461223</v>
       </c>
       <c r="O35">
-        <v>343.973111351685</v>
+        <v>312.416867999992</v>
       </c>
       <c r="P35">
-        <v>46.4829350184629</v>
+        <v>42.9308980539418</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1039.89411391661</v>
+        <v>1934.89323093508</v>
       </c>
       <c r="C36">
-        <v>77.77361413469509</v>
+        <v>67.4664745874303</v>
       </c>
       <c r="D36">
-        <v>23.2318253304188</v>
+        <v>20.1542112694906</v>
       </c>
       <c r="E36">
-        <v>65.3767595173431</v>
+        <v>57.1602478820347</v>
       </c>
       <c r="F36">
-        <v>47.2128259501352</v>
+        <v>41.4118214510665</v>
       </c>
       <c r="G36">
-        <v>128.734450626254</v>
+        <v>111.675117063116</v>
       </c>
       <c r="H36">
-        <v>137.017525811162</v>
+        <v>118.856429412545</v>
       </c>
       <c r="I36">
-        <v>53.5641177668439</v>
+        <v>46.4656623532867</v>
       </c>
       <c r="J36">
-        <v>259.589871209023</v>
+        <v>226.525271319626</v>
       </c>
       <c r="K36">
-        <v>220.970191074924</v>
+        <v>191.683161532834</v>
       </c>
       <c r="L36">
-        <v>127.307232565296</v>
+        <v>110.879960220648</v>
       </c>
       <c r="M36">
-        <v>263.190866954863</v>
+        <v>228.75435907704</v>
       </c>
       <c r="N36">
-        <v>112.328918846587</v>
+        <v>97.8871346827457</v>
       </c>
       <c r="O36">
-        <v>5433.4393492809</v>
+        <v>4739.70559081958</v>
       </c>
       <c r="P36">
-        <v>52.9169082248921</v>
+        <v>49.0303733875315</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>331.382250013396</v>
+        <v>652.229825323347</v>
       </c>
       <c r="C37">
-        <v>26.6493829100758</v>
+        <v>22.7088210150032</v>
       </c>
       <c r="D37">
-        <v>14.2026314393176</v>
+        <v>12.2714357806549</v>
       </c>
       <c r="E37">
-        <v>20.4452593592422</v>
+        <v>17.1569346377921</v>
       </c>
       <c r="F37">
-        <v>53.0757542839931</v>
+        <v>44.8941711246852</v>
       </c>
       <c r="G37">
-        <v>10.4059936890037</v>
+        <v>8.731357559179109</v>
       </c>
       <c r="H37">
-        <v>28.9081697959545</v>
+        <v>24.6133050244631</v>
       </c>
       <c r="I37">
-        <v>20.1071149584547</v>
+        <v>16.8768137397897</v>
       </c>
       <c r="J37">
-        <v>39.3176918924716</v>
+        <v>32.9973481138494</v>
       </c>
       <c r="K37">
-        <v>49.367988116125</v>
+        <v>41.4304069079045</v>
       </c>
       <c r="L37">
-        <v>33.8589983770323</v>
+        <v>28.7641193433338</v>
       </c>
       <c r="M37">
-        <v>35.8375591165869</v>
+        <v>30.0703827405923</v>
       </c>
       <c r="N37">
-        <v>20.0021279141179</v>
+        <v>16.7856917022022</v>
       </c>
       <c r="O37">
-        <v>1635.51175343231</v>
+        <v>1379.1354387358</v>
       </c>
       <c r="P37">
-        <v>68.2798102109023</v>
+        <v>58.6945456653877</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>361.635388888374</v>
+        <v>603.770628737298</v>
       </c>
       <c r="C38">
-        <v>34.0402372496261</v>
+        <v>29.9640120628241</v>
       </c>
       <c r="D38">
-        <v>15.8789608433865</v>
+        <v>13.9787090792787</v>
       </c>
       <c r="E38">
-        <v>60.4690756963249</v>
+        <v>53.2321775009259</v>
       </c>
       <c r="F38">
-        <v>5.06447139403543</v>
+        <v>4.45636534815793</v>
       </c>
       <c r="G38">
-        <v>10.0905035912986</v>
+        <v>8.88279878583826</v>
       </c>
       <c r="H38">
-        <v>8.17320094982956</v>
+        <v>7.19404956239938</v>
       </c>
       <c r="I38">
-        <v>6.2354078961107</v>
+        <v>5.48897150495201</v>
       </c>
       <c r="J38">
-        <v>40.3587699587758</v>
+        <v>35.5278523682403</v>
       </c>
       <c r="K38">
-        <v>20.6582813820545</v>
+        <v>18.185677716063</v>
       </c>
       <c r="L38">
-        <v>83.6800633374144</v>
+        <v>73.6626794690519</v>
       </c>
       <c r="M38">
-        <v>29.3274993671512</v>
+        <v>25.8168923715526</v>
       </c>
       <c r="N38">
-        <v>28.3470376706137</v>
+        <v>24.9541442274429</v>
       </c>
       <c r="O38">
-        <v>1672.80519148022</v>
+        <v>1479.71275104203</v>
       </c>
       <c r="P38">
-        <v>77.9807389500678</v>
+        <v>69.9065841617513</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>1255.08333254744</v>
+        <v>2163.18562291809</v>
       </c>
       <c r="C39">
-        <v>152.412883520222</v>
+        <v>134.733440488442</v>
       </c>
       <c r="D39">
-        <v>81.14402993960211</v>
+        <v>71.9117347437938</v>
       </c>
       <c r="E39">
-        <v>97.8414728563489</v>
+        <v>85.6338296523579</v>
       </c>
       <c r="F39">
-        <v>32.0287625298994</v>
+        <v>28.0341020396276</v>
       </c>
       <c r="G39">
-        <v>145.034050359125</v>
+        <v>126.942761864772</v>
       </c>
       <c r="H39">
-        <v>54.5279029778473</v>
+        <v>47.7231516375993</v>
       </c>
       <c r="I39">
-        <v>61.7404219729589</v>
+        <v>54.4827630198003</v>
       </c>
       <c r="J39">
-        <v>196.910371891545</v>
+        <v>172.785131090607</v>
       </c>
       <c r="K39">
-        <v>165.751960076175</v>
+        <v>145.516737799792</v>
       </c>
       <c r="L39">
-        <v>159.16599694961</v>
+        <v>139.303443347518</v>
       </c>
       <c r="M39">
-        <v>84.9902802216909</v>
+        <v>74.832184334372</v>
       </c>
       <c r="N39">
-        <v>140.24407152396</v>
+        <v>122.745188381718</v>
       </c>
       <c r="O39">
-        <v>6076.65603302742</v>
+        <v>5343.38643284849</v>
       </c>
       <c r="P39">
-        <v>68.6264592257161</v>
+        <v>60.9435820748103</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>89.38321066882951</v>
+        <v>174.243677950016</v>
       </c>
       <c r="C40">
-        <v>4.18575832345092</v>
+        <v>3.65398264516355</v>
       </c>
       <c r="D40">
-        <v>12.4332440640481</v>
+        <v>11.0105760145339</v>
       </c>
       <c r="E40">
-        <v>2.38705739399613</v>
+        <v>2.08050407373211</v>
       </c>
       <c r="F40">
-        <v>0.9157405858105741</v>
+        <v>0.799558337865954</v>
       </c>
       <c r="G40">
-        <v>7.23486619199122</v>
+        <v>6.31560003199785</v>
       </c>
       <c r="H40">
-        <v>11.315875267339</v>
+        <v>9.877417439585029</v>
       </c>
       <c r="I40">
-        <v>2.17729157486038</v>
+        <v>1.90028503736294</v>
       </c>
       <c r="J40">
-        <v>14.4006568123004</v>
+        <v>12.5697227137265</v>
       </c>
       <c r="K40">
-        <v>12.4377681090689</v>
+        <v>10.857497650369</v>
       </c>
       <c r="L40">
-        <v>16.1118508962675</v>
+        <v>14.0650388377122</v>
       </c>
       <c r="M40">
-        <v>9.032298436314781</v>
+        <v>7.88189195166289</v>
       </c>
       <c r="N40">
-        <v>36.2851132694128</v>
+        <v>31.6716226794304</v>
       </c>
       <c r="O40">
-        <v>559.133924676035</v>
+        <v>490.741223422225</v>
       </c>
       <c r="P40">
-        <v>1.84988728876986</v>
+        <v>1.61579211782293</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>335.49937707</v>
+        <v>738.934304615615</v>
       </c>
       <c r="C41">
-        <v>15.8410095118932</v>
+        <v>13.1631068327701</v>
       </c>
       <c r="D41">
-        <v>130.80801283552</v>
+        <v>109.773919245207</v>
       </c>
       <c r="E41">
-        <v>52.8941809403394</v>
+        <v>44.4856939225816</v>
       </c>
       <c r="F41">
-        <v>4.41547569607079</v>
+        <v>3.66752735177672</v>
       </c>
       <c r="G41">
-        <v>56.1171402258475</v>
+        <v>46.6377085190023</v>
       </c>
       <c r="H41">
-        <v>51.0237629676064</v>
+        <v>42.4040723291175</v>
       </c>
       <c r="I41">
-        <v>13.3831525590733</v>
+        <v>11.122199080601</v>
       </c>
       <c r="J41">
-        <v>63.7400819948081</v>
+        <v>52.9714970359724</v>
       </c>
       <c r="K41">
-        <v>71.3932468154469</v>
+        <v>59.3310114478988</v>
       </c>
       <c r="L41">
-        <v>36.8896878439871</v>
+        <v>30.6511716290726</v>
       </c>
       <c r="M41">
-        <v>44.5411276331078</v>
+        <v>37.0116604904092</v>
       </c>
       <c r="N41">
-        <v>30.5196676154756</v>
+        <v>25.363661440427</v>
       </c>
       <c r="O41">
-        <v>1858.93607474884</v>
+        <v>1555.31924401141</v>
       </c>
       <c r="P41">
-        <v>28.5372009632599</v>
+        <v>23.7026241250263</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>42.4633806788028</v>
+        <v>89.98629280850869</v>
       </c>
       <c r="C42">
-        <v>9.36726133786518</v>
+        <v>8.46485270084789</v>
       </c>
       <c r="D42">
-        <v>2.20215208978963</v>
+        <v>1.98610869214924</v>
       </c>
       <c r="E42">
-        <v>5.78450481412334</v>
+        <v>5.2278625357714</v>
       </c>
       <c r="F42">
-        <v>2.38327337475586</v>
+        <v>2.15386946538457</v>
       </c>
       <c r="G42">
-        <v>1.40119057438209</v>
+        <v>1.26606297380132</v>
       </c>
       <c r="H42">
-        <v>2.11603734688255</v>
+        <v>1.9120334613248</v>
       </c>
       <c r="I42">
-        <v>0.960340014523917</v>
+        <v>0.867784439601235</v>
       </c>
       <c r="J42">
-        <v>4.69004185157932</v>
+        <v>4.23847995325909</v>
       </c>
       <c r="K42">
-        <v>9.65081157755842</v>
+        <v>8.723589099511891</v>
       </c>
       <c r="L42">
-        <v>10.6720921146935</v>
+        <v>9.645308332779059</v>
       </c>
       <c r="M42">
-        <v>4.52115980420301</v>
+        <v>4.08436300721375</v>
       </c>
       <c r="N42">
-        <v>10.2574231955321</v>
+        <v>9.270685995999299</v>
       </c>
       <c r="O42">
-        <v>411.791350274828</v>
+        <v>374.251925463377</v>
       </c>
       <c r="P42">
-        <v>46.5350897779244</v>
+        <v>42.7186687380579</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>568.5131914849341</v>
+        <v>1123.66744564157</v>
       </c>
       <c r="C43">
-        <v>38.2217742903551</v>
+        <v>32.0341879392201</v>
       </c>
       <c r="D43">
-        <v>73.85985971938599</v>
+        <v>61.9076206980152</v>
       </c>
       <c r="E43">
-        <v>47.8732998140967</v>
+        <v>40.1266257455737</v>
       </c>
       <c r="F43">
-        <v>14.5978080800751</v>
+        <v>12.2341996807821</v>
       </c>
       <c r="G43">
-        <v>35.3991466101394</v>
+        <v>29.670477131348</v>
       </c>
       <c r="H43">
-        <v>32.4414672177707</v>
+        <v>27.1916791879981</v>
       </c>
       <c r="I43">
-        <v>31.7480089520424</v>
+        <v>26.6092436094901</v>
       </c>
       <c r="J43">
-        <v>64.94123385761679</v>
+        <v>54.4331576968893</v>
       </c>
       <c r="K43">
-        <v>87.083951877429</v>
+        <v>72.99154025599221</v>
       </c>
       <c r="L43">
-        <v>62.7037800213657</v>
+        <v>52.5557486712698</v>
       </c>
       <c r="M43">
-        <v>99.5465738335331</v>
+        <v>83.438713108749</v>
       </c>
       <c r="N43">
-        <v>102.613416372558</v>
+        <v>86.62630842278119</v>
       </c>
       <c r="O43">
-        <v>2725.74985730244</v>
+        <v>2292.64611399849</v>
       </c>
       <c r="P43">
-        <v>66.97871307991829</v>
+        <v>56.1401298204034</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>2205.75054870435</v>
+        <v>3445.9894878295</v>
       </c>
       <c r="C44">
-        <v>192.392944314051</v>
+        <v>171.80533930182</v>
       </c>
       <c r="D44">
-        <v>85.3480720638327</v>
+        <v>76.2253828144318</v>
       </c>
       <c r="E44">
-        <v>87.26152135508021</v>
+        <v>77.9360822057667</v>
       </c>
       <c r="F44">
-        <v>275.822424349879</v>
+        <v>246.327631014698</v>
       </c>
       <c r="G44">
-        <v>177.417362951971</v>
+        <v>158.437539949772</v>
       </c>
       <c r="H44">
-        <v>61.7562076589688</v>
+        <v>55.1570134815488</v>
       </c>
       <c r="I44">
-        <v>61.1358331640677</v>
+        <v>54.596834051654</v>
       </c>
       <c r="J44">
-        <v>174.33338531031</v>
+        <v>156.305311352164</v>
       </c>
       <c r="K44">
-        <v>172.270216364486</v>
+        <v>154.458627126178</v>
       </c>
       <c r="L44">
-        <v>301.990875372347</v>
+        <v>269.665910779864</v>
       </c>
       <c r="M44">
-        <v>138.628924410893</v>
+        <v>123.808419545619</v>
       </c>
       <c r="N44">
-        <v>107.360122600882</v>
+        <v>95.8847060076686</v>
       </c>
       <c r="O44">
-        <v>9756.921200160539</v>
+        <v>8740.82424737019</v>
       </c>
       <c r="P44">
-        <v>294.67130492672</v>
+        <v>265.627349075111</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>223.842185747026</v>
+        <v>332.224149998524</v>
       </c>
       <c r="C45">
-        <v>16.9323354682109</v>
+        <v>15.3979744395258</v>
       </c>
       <c r="D45">
-        <v>6.61783087238417</v>
+        <v>6.01734852197467</v>
       </c>
       <c r="E45">
-        <v>6.55544785637966</v>
+        <v>6.21035974527627</v>
       </c>
       <c r="F45">
-        <v>26.4351370072297</v>
+        <v>24.0482956308735</v>
       </c>
       <c r="G45">
-        <v>11.5231624627328</v>
+        <v>10.4793044562597</v>
       </c>
       <c r="H45">
-        <v>5.4974238346059</v>
+        <v>4.99867550406227</v>
       </c>
       <c r="I45">
-        <v>6.29764758063917</v>
+        <v>5.72720855366041</v>
       </c>
       <c r="J45">
-        <v>22.2005681639129</v>
+        <v>20.1891962585544</v>
       </c>
       <c r="K45">
-        <v>12.3387133040812</v>
+        <v>11.2206715777647</v>
       </c>
       <c r="L45">
-        <v>24.7347715514869</v>
+        <v>22.7406194972423</v>
       </c>
       <c r="M45">
-        <v>27.4722752956159</v>
+        <v>24.9804242206094</v>
       </c>
       <c r="N45">
-        <v>31.5093769238239</v>
+        <v>28.9042096151331</v>
       </c>
       <c r="O45">
-        <v>1038.41588308403</v>
+        <v>948.577965503871</v>
       </c>
       <c r="P45">
-        <v>17.7637576319903</v>
+        <v>16.4134391525772</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>42.9870105167237</v>
+        <v>87.26028293513861</v>
       </c>
       <c r="C46">
-        <v>5.41678030233699</v>
+        <v>4.9146186117</v>
       </c>
       <c r="D46">
-        <v>2.63131940653721</v>
+        <v>2.34019133857962</v>
       </c>
       <c r="E46">
-        <v>7.00931914109128</v>
+        <v>6.23507944179945</v>
       </c>
       <c r="F46">
-        <v>2.17335682767403</v>
+        <v>1.93311037166277</v>
       </c>
       <c r="G46">
-        <v>2.08075218433324</v>
+        <v>1.85087190797663</v>
       </c>
       <c r="H46">
-        <v>3.14141787697289</v>
+        <v>2.79430310006719</v>
       </c>
       <c r="I46">
-        <v>2.59434936830325</v>
+        <v>2.30655485263327</v>
       </c>
       <c r="J46">
-        <v>5.32115771992483</v>
+        <v>4.733609447277</v>
       </c>
       <c r="K46">
-        <v>6.28912030095841</v>
+        <v>5.69145341512876</v>
       </c>
       <c r="L46">
-        <v>16.2213891257163</v>
+        <v>14.4289242054231</v>
       </c>
       <c r="M46">
-        <v>5.55666875617264</v>
+        <v>4.94237040259272</v>
       </c>
       <c r="N46">
-        <v>9.6362450139455</v>
+        <v>8.57127386968539</v>
       </c>
       <c r="O46">
-        <v>344.073253894949</v>
+        <v>307.947598399349</v>
       </c>
       <c r="P46">
-        <v>10.0509953396008</v>
+        <v>9.231841177177779</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>626.086565700544</v>
+        <v>1173.74485171866</v>
       </c>
       <c r="C47">
-        <v>74.4271579701458</v>
+        <v>65.2339420735802</v>
       </c>
       <c r="D47">
-        <v>45.1656638620912</v>
+        <v>39.1697683535166</v>
       </c>
       <c r="E47">
-        <v>46.6644862560704</v>
+        <v>40.4692642412039</v>
       </c>
       <c r="F47">
-        <v>11.6749488771498</v>
+        <v>10.1412978544327</v>
       </c>
       <c r="G47">
-        <v>41.0753652935459</v>
+        <v>35.6289345656251</v>
       </c>
       <c r="H47">
-        <v>22.9328179835126</v>
+        <v>20.5738909785858</v>
       </c>
       <c r="I47">
-        <v>17.4070530018287</v>
+        <v>15.0961708755904</v>
       </c>
       <c r="J47">
-        <v>61.7349107825252</v>
+        <v>53.5411194156285</v>
       </c>
       <c r="K47">
-        <v>35.567770378302</v>
+        <v>30.8470690574555</v>
       </c>
       <c r="L47">
-        <v>69.7166165962327</v>
+        <v>60.4581040925384</v>
       </c>
       <c r="M47">
-        <v>88.703864610796</v>
+        <v>76.9247829476717</v>
       </c>
       <c r="N47">
-        <v>48.2398364823771</v>
+        <v>41.8334600172041</v>
       </c>
       <c r="O47">
-        <v>3683.43400055776</v>
+        <v>3214.23828695854</v>
       </c>
       <c r="P47">
-        <v>43.2957942278542</v>
+        <v>38.2223982341636</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>620.529436520078</v>
+        <v>1022.13785561043</v>
       </c>
       <c r="C48">
-        <v>21.5209767064615</v>
+        <v>18.9632719464092</v>
       </c>
       <c r="D48">
-        <v>17.8667125019776</v>
+        <v>15.7469124769855</v>
       </c>
       <c r="E48">
-        <v>79.0875720599433</v>
+        <v>70.3897230457265</v>
       </c>
       <c r="F48">
-        <v>19.908538756411</v>
+        <v>17.5441448921265</v>
       </c>
       <c r="G48">
-        <v>15.4814573723181</v>
+        <v>13.6454413377528</v>
       </c>
       <c r="H48">
-        <v>5.42536508554473</v>
+        <v>4.78088139748308</v>
       </c>
       <c r="I48">
-        <v>19.397291100696</v>
+        <v>17.0957324726145</v>
       </c>
       <c r="J48">
-        <v>32.5819615848163</v>
+        <v>28.7168493767012</v>
       </c>
       <c r="K48">
-        <v>29.46121326176</v>
+        <v>25.9655105273699</v>
       </c>
       <c r="L48">
-        <v>54.2992091033666</v>
+        <v>47.8543630956582</v>
       </c>
       <c r="M48">
-        <v>178.704721169103</v>
+        <v>158.87085954325</v>
       </c>
       <c r="N48">
-        <v>25.5527261637434</v>
+        <v>22.5203914795704</v>
       </c>
       <c r="O48">
-        <v>2919.07715028305</v>
+        <v>2585.6458559418</v>
       </c>
       <c r="P48">
-        <v>104.12781575768</v>
+        <v>93.1367277314569</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>287.23389959388</v>
+        <v>499.335799160177</v>
       </c>
       <c r="C49">
-        <v>7.15378886792285</v>
+        <v>5.72231737936771</v>
       </c>
       <c r="D49">
-        <v>8.72143422833285</v>
+        <v>6.97378693970251</v>
       </c>
       <c r="E49">
-        <v>17.7818069912896</v>
+        <v>14.4158410935884</v>
       </c>
       <c r="F49">
-        <v>50.1262057258402</v>
+        <v>40.2390404879857</v>
       </c>
       <c r="G49">
-        <v>26.6023880532855</v>
+        <v>21.2482554764555</v>
       </c>
       <c r="H49">
-        <v>4.75798820387177</v>
+        <v>3.80465069521608</v>
       </c>
       <c r="I49">
-        <v>13.3038027476167</v>
+        <v>10.62684032407</v>
       </c>
       <c r="J49">
-        <v>29.5560329134307</v>
+        <v>23.6163289386363</v>
       </c>
       <c r="K49">
-        <v>12.8932361032089</v>
+        <v>10.3072428806165</v>
       </c>
       <c r="L49">
-        <v>4.06315430858934</v>
+        <v>3.25588606246269</v>
       </c>
       <c r="M49">
-        <v>7.70855121553769</v>
+        <v>6.37649444751241</v>
       </c>
       <c r="N49">
-        <v>4.54914341480032</v>
+        <v>3.85044406952081</v>
       </c>
       <c r="O49">
-        <v>881.029696131752</v>
+        <v>707.51500187332</v>
       </c>
       <c r="P49">
-        <v>10.0014303257006</v>
+        <v>8.197486437747021</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>339.117906605347</v>
+        <v>696.690274520357</v>
       </c>
       <c r="C50">
-        <v>95.928439761435</v>
+        <v>86.18168856622469</v>
       </c>
       <c r="D50">
-        <v>15.1941707574529</v>
+        <v>13.5596411634424</v>
       </c>
       <c r="E50">
-        <v>119.959398962402</v>
+        <v>107.631857984285</v>
       </c>
       <c r="F50">
-        <v>3.73341185391877</v>
+        <v>3.33196361833343</v>
       </c>
       <c r="G50">
-        <v>38.5410087290658</v>
+        <v>34.3986216253325</v>
       </c>
       <c r="H50">
-        <v>37.8939964330423</v>
+        <v>34.3849523281724</v>
       </c>
       <c r="I50">
-        <v>21.472764811934</v>
+        <v>19.1646846615891</v>
       </c>
       <c r="J50">
-        <v>111.140664663748</v>
+        <v>99.1965478191225</v>
       </c>
       <c r="K50">
-        <v>139.529967582604</v>
+        <v>124.535424237714</v>
       </c>
       <c r="L50">
-        <v>104.237397103001</v>
+        <v>93.0344950423855</v>
       </c>
       <c r="M50">
-        <v>37.9112968783268</v>
+        <v>33.8358032376481</v>
       </c>
       <c r="N50">
-        <v>94.09273533245811</v>
+        <v>83.980532174988</v>
       </c>
       <c r="O50">
-        <v>2556.10778061117</v>
+        <v>2292.6076850184</v>
       </c>
       <c r="P50">
-        <v>81.843194841306</v>
+        <v>74.17023405969771</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>48.9401531042308</v>
+        <v>86.9182773911548</v>
       </c>
       <c r="C51">
-        <v>2.12301986955116</v>
+        <v>2.08581836723603</v>
       </c>
       <c r="D51">
-        <v>0.253327978588058</v>
+        <v>0.292808177859809</v>
       </c>
       <c r="E51">
-        <v>1.71344337761868</v>
+        <v>1.52067004698051</v>
       </c>
       <c r="F51">
-        <v>33.5661919413181</v>
+        <v>29.8602575483476</v>
       </c>
       <c r="G51">
-        <v>1.41393053705961</v>
+        <v>1.25513047220786</v>
       </c>
       <c r="H51">
-        <v>0.336295687289899</v>
+        <v>0.298559419284446</v>
       </c>
       <c r="I51">
-        <v>1.38050220444134</v>
+        <v>1.22541212050894</v>
       </c>
       <c r="J51">
-        <v>2.42310388370884</v>
+        <v>2.15084551125921</v>
       </c>
       <c r="K51">
-        <v>1.65351425577849</v>
+        <v>1.4681190579714</v>
       </c>
       <c r="L51">
-        <v>0.6655958317448371</v>
+        <v>0.59137402396837</v>
       </c>
       <c r="M51">
-        <v>0.799803552403957</v>
+        <v>0.710506507114853</v>
       </c>
       <c r="N51">
-        <v>1.75288210858053</v>
+        <v>1.55612432774548</v>
       </c>
       <c r="O51">
-        <v>281.41406293467</v>
+        <v>250.549872759324</v>
       </c>
       <c r="P51">
-        <v>20.4473384455897</v>
+        <v>18.4183007180393</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2000.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2000.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>892.413762627818</v>
+        <v>1174.93301810005</v>
       </c>
       <c r="C2">
-        <v>34.6512269228134</v>
+        <v>35.5330267351719</v>
       </c>
       <c r="D2">
-        <v>71.3655838612199</v>
+        <v>74.2741158083238</v>
       </c>
       <c r="E2">
-        <v>77.3542675578982</v>
+        <v>69.87688275151341</v>
       </c>
       <c r="F2">
-        <v>17.5208224059005</v>
+        <v>16.0679128858973</v>
       </c>
       <c r="G2">
-        <v>23.1352187939575</v>
+        <v>21.1582825275171</v>
       </c>
       <c r="H2">
-        <v>36.5911888089582</v>
+        <v>30.34876710846</v>
       </c>
       <c r="I2">
-        <v>19.9197960572887</v>
+        <v>13.3745476372082</v>
       </c>
       <c r="J2">
-        <v>71.8097860026581</v>
+        <v>65.2627862590487</v>
       </c>
       <c r="K2">
-        <v>22.6434777274186</v>
+        <v>20.5035093837951</v>
       </c>
       <c r="L2">
-        <v>37.0191343263568</v>
+        <v>35.1549217743972</v>
       </c>
       <c r="M2">
-        <v>47.6407211274668</v>
+        <v>43.1393573272488</v>
       </c>
       <c r="N2">
-        <v>28.675570077751</v>
+        <v>25.8955730620663</v>
       </c>
       <c r="O2">
-        <v>1717.34471817594</v>
+        <v>1485.22011155423</v>
       </c>
       <c r="P2">
-        <v>44.36461272399</v>
+        <v>34.8794376044275</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>116.001615194011</v>
+        <v>138.118775574274</v>
       </c>
       <c r="C3">
-        <v>3.63326846084812</v>
+        <v>4.19975773234988</v>
       </c>
       <c r="D3">
-        <v>0.470560483293941</v>
+        <v>0.347134968040073</v>
       </c>
       <c r="E3">
-        <v>1.38448346174863</v>
+        <v>1.44128961416436</v>
       </c>
       <c r="F3">
-        <v>11.8440677043853</v>
+        <v>12.2524103133718</v>
       </c>
       <c r="G3">
-        <v>1.07719851788744</v>
+        <v>0.62101335312317</v>
       </c>
       <c r="H3">
-        <v>0.103741862741095</v>
+        <v>0.0733628355705014</v>
       </c>
       <c r="I3">
-        <v>0.672670821326789</v>
+        <v>0.534520510263074</v>
       </c>
       <c r="J3">
-        <v>0.444214060600686</v>
+        <v>0.653797865523632</v>
       </c>
       <c r="K3">
-        <v>0.440976871101953</v>
+        <v>0.438610496936737</v>
       </c>
       <c r="L3">
-        <v>0.197574119024411</v>
+        <v>0.501948656589551</v>
       </c>
       <c r="M3">
-        <v>1.28207407478319</v>
+        <v>1.00903502832555</v>
       </c>
       <c r="N3">
-        <v>1.1145756055057</v>
+        <v>2.07484351113012</v>
       </c>
       <c r="O3">
-        <v>311.768427376928</v>
+        <v>287.552410791641</v>
       </c>
       <c r="P3">
-        <v>12.0164051673223</v>
+        <v>13.3968277640536</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>945.830120171953</v>
+        <v>1238.95865056194</v>
       </c>
       <c r="C4">
-        <v>15.4956494426075</v>
+        <v>12.9652351044082</v>
       </c>
       <c r="D4">
-        <v>8.83807879285426</v>
+        <v>6.19697421117651</v>
       </c>
       <c r="E4">
-        <v>12.9580789407301</v>
+        <v>18.7025173859996</v>
       </c>
       <c r="F4">
-        <v>9.178480402138529</v>
+        <v>14.4490974537198</v>
       </c>
       <c r="G4">
-        <v>13.5413053450155</v>
+        <v>12.1036228179734</v>
       </c>
       <c r="H4">
-        <v>5.17574300018207</v>
+        <v>6.33593563154167</v>
       </c>
       <c r="I4">
-        <v>9.368043808288199</v>
+        <v>8.22757314743405</v>
       </c>
       <c r="J4">
-        <v>29.1677044822367</v>
+        <v>25.7396217630927</v>
       </c>
       <c r="K4">
-        <v>9.8013218899624</v>
+        <v>5.89607176142671</v>
       </c>
       <c r="L4">
-        <v>98.8547206668683</v>
+        <v>81.5735839591194</v>
       </c>
       <c r="M4">
-        <v>60.0796619568056</v>
+        <v>54.4356454953392</v>
       </c>
       <c r="N4">
-        <v>40.1414656357223</v>
+        <v>34.6102120810043</v>
       </c>
       <c r="O4">
-        <v>2246.616489262</v>
+        <v>1996.56009297662</v>
       </c>
       <c r="P4">
-        <v>37.7355799529258</v>
+        <v>28.8695832872613</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>540.642888316884</v>
+        <v>679.537917768425</v>
       </c>
       <c r="C5">
-        <v>60.4569563814885</v>
+        <v>57.4993457483931</v>
       </c>
       <c r="D5">
-        <v>19.4309919709657</v>
+        <v>15.3780244745243</v>
       </c>
       <c r="E5">
-        <v>32.8931344702856</v>
+        <v>38.3669270061173</v>
       </c>
       <c r="F5">
-        <v>1.53751401353174</v>
+        <v>2.02813194002865</v>
       </c>
       <c r="G5">
-        <v>10.9649964989416</v>
+        <v>11.1420265342998</v>
       </c>
       <c r="H5">
-        <v>12.5311206990546</v>
+        <v>13.5628219672621</v>
       </c>
       <c r="I5">
-        <v>10.3339646162147</v>
+        <v>8.31400664828193</v>
       </c>
       <c r="J5">
-        <v>38.8613766384662</v>
+        <v>32.1201452130494</v>
       </c>
       <c r="K5">
-        <v>28.4956585188906</v>
+        <v>26.6069472415479</v>
       </c>
       <c r="L5">
-        <v>27.2716843951631</v>
+        <v>25.9908702108666</v>
       </c>
       <c r="M5">
-        <v>15.9629903215661</v>
+        <v>22.4620568631877</v>
       </c>
       <c r="N5">
-        <v>18.4728761450555</v>
+        <v>23.5472567894838</v>
       </c>
       <c r="O5">
-        <v>1023.41759762874</v>
+        <v>875.879046197143</v>
       </c>
       <c r="P5">
-        <v>44.3842331578895</v>
+        <v>55.8350091429554</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>6071.69489058623</v>
+        <v>7801.69623696698</v>
       </c>
       <c r="C6">
-        <v>179.496036838962</v>
+        <v>193.618981061951</v>
       </c>
       <c r="D6">
-        <v>304.932377240835</v>
+        <v>248.9834014975</v>
       </c>
       <c r="E6">
-        <v>112.625682726431</v>
+        <v>122.086156564498</v>
       </c>
       <c r="F6">
-        <v>52.7711792392652</v>
+        <v>52.4954984218427</v>
       </c>
       <c r="G6">
-        <v>139.330487076168</v>
+        <v>102.988497658798</v>
       </c>
       <c r="H6">
-        <v>82.2087599709637</v>
+        <v>80.544065674807</v>
       </c>
       <c r="I6">
-        <v>63.1279646679004</v>
+        <v>54.7052479581536</v>
       </c>
       <c r="J6">
-        <v>207.373183589276</v>
+        <v>193.388546952666</v>
       </c>
       <c r="K6">
-        <v>168.651250610122</v>
+        <v>136.276951675489</v>
       </c>
       <c r="L6">
-        <v>556.278399535439</v>
+        <v>533.338424064169</v>
       </c>
       <c r="M6">
-        <v>376.507435087901</v>
+        <v>293.834818861198</v>
       </c>
       <c r="N6">
-        <v>373.418196642568</v>
+        <v>328.654232427027</v>
       </c>
       <c r="O6">
-        <v>14336.0645385711</v>
+        <v>12848.4952024916</v>
       </c>
       <c r="P6">
-        <v>263.23559076788</v>
+        <v>304.26056030778</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>614.760246484409</v>
+        <v>803.042268100891</v>
       </c>
       <c r="C7">
-        <v>37.1076905699389</v>
+        <v>33.4809020272666</v>
       </c>
       <c r="D7">
-        <v>5.69738358317304</v>
+        <v>3.82991009943853</v>
       </c>
       <c r="E7">
-        <v>13.0469182978477</v>
+        <v>16.9661896979708</v>
       </c>
       <c r="F7">
-        <v>16.8476068455563</v>
+        <v>16.1818137017767</v>
       </c>
       <c r="G7">
-        <v>11.8076807524022</v>
+        <v>8.21734670061281</v>
       </c>
       <c r="H7">
-        <v>10.9542869577397</v>
+        <v>8.931847530914579</v>
       </c>
       <c r="I7">
-        <v>10.4945130675424</v>
+        <v>11.0819241576436</v>
       </c>
       <c r="J7">
-        <v>23.6138091658845</v>
+        <v>22.679924582783</v>
       </c>
       <c r="K7">
-        <v>24.0469833144505</v>
+        <v>20.957960087046</v>
       </c>
       <c r="L7">
-        <v>69.821815985191</v>
+        <v>64.65965743544101</v>
       </c>
       <c r="M7">
-        <v>25.845724761091</v>
+        <v>20.785494092965</v>
       </c>
       <c r="N7">
-        <v>35.4882522012179</v>
+        <v>30.2991142295866</v>
       </c>
       <c r="O7">
-        <v>2091.49390402959</v>
+        <v>1919.22929284854</v>
       </c>
       <c r="P7">
-        <v>24.880367792174</v>
+        <v>29.7596738137629</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>480.700851807294</v>
+        <v>683.502563936542</v>
       </c>
       <c r="C8">
-        <v>16.5656005653539</v>
+        <v>11.7539313054235</v>
       </c>
       <c r="D8">
-        <v>9.44953917326807</v>
+        <v>8.390999558210901</v>
       </c>
       <c r="E8">
-        <v>11.8052168977029</v>
+        <v>15.2512970960236</v>
       </c>
       <c r="F8">
-        <v>3.30128045173918</v>
+        <v>3.26298089677003</v>
       </c>
       <c r="G8">
-        <v>34.1331378293583</v>
+        <v>31.5106762168625</v>
       </c>
       <c r="H8">
-        <v>16.080956038199</v>
+        <v>14.4287935266364</v>
       </c>
       <c r="I8">
-        <v>1.41445128626914</v>
+        <v>1.90187476584133</v>
       </c>
       <c r="J8">
-        <v>47.8355717931948</v>
+        <v>44.5558487473297</v>
       </c>
       <c r="K8">
-        <v>49.2543845066979</v>
+        <v>36.9792853811655</v>
       </c>
       <c r="L8">
-        <v>50.1632717023267</v>
+        <v>44.2344299892216</v>
       </c>
       <c r="M8">
-        <v>72.9864688891055</v>
+        <v>59.5977088392022</v>
       </c>
       <c r="N8">
-        <v>39.7361149681938</v>
+        <v>36.1348429204992</v>
       </c>
       <c r="O8">
-        <v>1567.43113418803</v>
+        <v>1407.22651869418</v>
       </c>
       <c r="P8">
-        <v>6.06716173606603</v>
+        <v>5.71443554832897</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>131.763801331693</v>
+        <v>175.375763492827</v>
       </c>
       <c r="C9">
-        <v>8.441338058416539</v>
+        <v>8.083238816874211</v>
       </c>
       <c r="D9">
-        <v>1.94430966308465</v>
+        <v>1.41310951039906</v>
       </c>
       <c r="E9">
-        <v>4.7959994030796</v>
+        <v>5.23209526273882</v>
       </c>
       <c r="F9">
-        <v>2.50934289628652</v>
+        <v>2.44953048654049</v>
       </c>
       <c r="G9">
-        <v>26.0105818154907</v>
+        <v>23.3495016005367</v>
       </c>
       <c r="H9">
-        <v>4.03110635107812</v>
+        <v>3.99616924792774</v>
       </c>
       <c r="I9">
-        <v>0.78128171233202</v>
+        <v>1.33761127729205</v>
       </c>
       <c r="J9">
-        <v>3.32777296553856</v>
+        <v>3.55131557351155</v>
       </c>
       <c r="K9">
-        <v>4.07331248613947</v>
+        <v>3.22369265453119</v>
       </c>
       <c r="L9">
-        <v>3.62948607876905</v>
+        <v>2.32925035554488</v>
       </c>
       <c r="M9">
-        <v>8.81631316539537</v>
+        <v>8.27843281353168</v>
       </c>
       <c r="N9">
-        <v>5.84675967331102</v>
+        <v>5.18743843243952</v>
       </c>
       <c r="O9">
-        <v>382.839206255185</v>
+        <v>345.471250306177</v>
       </c>
       <c r="P9">
-        <v>6.54921131137169</v>
+        <v>5.59172542056482</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>2973.01974288423</v>
+        <v>4099.74997503439</v>
       </c>
       <c r="C10">
-        <v>61.4969120995743</v>
+        <v>59.9137977218209</v>
       </c>
       <c r="D10">
-        <v>45.0090880865216</v>
+        <v>44.9121322832507</v>
       </c>
       <c r="E10">
-        <v>46.5985236992034</v>
+        <v>55.067892759791</v>
       </c>
       <c r="F10">
-        <v>9.623126972902631</v>
+        <v>10.8499819524753</v>
       </c>
       <c r="G10">
-        <v>42.2410457174</v>
+        <v>29.763022857497</v>
       </c>
       <c r="H10">
-        <v>24.6549936738859</v>
+        <v>23.7300840085904</v>
       </c>
       <c r="I10">
-        <v>39.6777146846149</v>
+        <v>36.2909745331882</v>
       </c>
       <c r="J10">
-        <v>48.2146269101692</v>
+        <v>51.4716419607236</v>
       </c>
       <c r="K10">
-        <v>56.4714993949868</v>
+        <v>42.7944591655927</v>
       </c>
       <c r="L10">
-        <v>138.791166626648</v>
+        <v>120.948212187835</v>
       </c>
       <c r="M10">
-        <v>103.291497070899</v>
+        <v>82.6498178161506</v>
       </c>
       <c r="N10">
-        <v>110.034387470263</v>
+        <v>102.881323972353</v>
       </c>
       <c r="O10">
-        <v>7788.24348412976</v>
+        <v>6724.05276366224</v>
       </c>
       <c r="P10">
-        <v>93.2458581855669</v>
+        <v>98.36685404087569</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1359.09640528067</v>
+        <v>1762.36266175183</v>
       </c>
       <c r="C11">
-        <v>73.33641784724991</v>
+        <v>74.863199227918</v>
       </c>
       <c r="D11">
-        <v>174.979522685496</v>
+        <v>159.850995791374</v>
       </c>
       <c r="E11">
-        <v>105.584085868878</v>
+        <v>94.9128359292398</v>
       </c>
       <c r="F11">
-        <v>8.91162894361643</v>
+        <v>11.6420110404795</v>
       </c>
       <c r="G11">
-        <v>40.5186409694886</v>
+        <v>33.0868159234038</v>
       </c>
       <c r="H11">
-        <v>20.2452116445765</v>
+        <v>17.2177878813259</v>
       </c>
       <c r="I11">
-        <v>22.3605245713668</v>
+        <v>21.2251949216017</v>
       </c>
       <c r="J11">
-        <v>53.7872978723278</v>
+        <v>50.8986830970877</v>
       </c>
       <c r="K11">
-        <v>50.9752573487692</v>
+        <v>45.6348740088089</v>
       </c>
       <c r="L11">
-        <v>76.2110187609357</v>
+        <v>67.3143271464198</v>
       </c>
       <c r="M11">
-        <v>57.9476014555908</v>
+        <v>66.87631204264039</v>
       </c>
       <c r="N11">
-        <v>56.6006993036635</v>
+        <v>52.6343913979007</v>
       </c>
       <c r="O11">
-        <v>3521.39806242365</v>
+        <v>3145.0939248083</v>
       </c>
       <c r="P11">
-        <v>32.6325529756518</v>
+        <v>50.2590333829353</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>208.140461962888</v>
+        <v>281.407925306831</v>
       </c>
       <c r="C12">
-        <v>12.233927241048</v>
+        <v>10.7773312467925</v>
       </c>
       <c r="D12">
-        <v>4.3881545691314</v>
+        <v>2.36244344930288</v>
       </c>
       <c r="E12">
-        <v>0.729802394318136</v>
+        <v>0.600241408974325</v>
       </c>
       <c r="F12">
-        <v>1.15286226440051</v>
+        <v>1.1148719632194</v>
       </c>
       <c r="G12">
-        <v>0.947746846599608</v>
+        <v>0.45947002951125</v>
       </c>
       <c r="H12">
-        <v>0.475947050449078</v>
+        <v>0.109342646158454</v>
       </c>
       <c r="I12">
-        <v>1.53302473589397</v>
+        <v>1.37689485007995</v>
       </c>
       <c r="J12">
-        <v>1.20627568754635</v>
+        <v>1.37832938694775</v>
       </c>
       <c r="K12">
-        <v>0.52762026194293</v>
+        <v>0.547013045654241</v>
       </c>
       <c r="L12">
-        <v>0.621500816342953</v>
+        <v>0.173626063368195</v>
       </c>
       <c r="M12">
-        <v>5.30816880287855</v>
+        <v>4.24257998016562</v>
       </c>
       <c r="N12">
-        <v>4.2242195993935</v>
+        <v>4.36484645936269</v>
       </c>
       <c r="O12">
-        <v>635.086755827095</v>
+        <v>564.734885925277</v>
       </c>
       <c r="P12">
-        <v>18.1629131438315</v>
+        <v>20.6299194973977</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>205.571205874195</v>
+        <v>264.429324841077</v>
       </c>
       <c r="C13">
-        <v>28.6434268390592</v>
+        <v>23.5557339026102</v>
       </c>
       <c r="D13">
-        <v>1.65766079714637</v>
+        <v>0.894180039918154</v>
       </c>
       <c r="E13">
-        <v>16.9269465813475</v>
+        <v>16.9713784216064</v>
       </c>
       <c r="F13">
-        <v>5.04182464611512</v>
+        <v>4.23877250454287</v>
       </c>
       <c r="G13">
-        <v>6.33422047598163</v>
+        <v>6.45747009115089</v>
       </c>
       <c r="H13">
-        <v>2.17039087814457</v>
+        <v>1.66757622507092</v>
       </c>
       <c r="I13">
-        <v>1.89720878465476</v>
+        <v>1.08197424252624</v>
       </c>
       <c r="J13">
-        <v>5.16519010605083</v>
+        <v>5.57235792097369</v>
       </c>
       <c r="K13">
-        <v>4.74901173590238</v>
+        <v>5.60124791290859</v>
       </c>
       <c r="L13">
-        <v>28.6229402727076</v>
+        <v>23.5789455780603</v>
       </c>
       <c r="M13">
-        <v>4.43865470039353</v>
+        <v>3.03513497425266</v>
       </c>
       <c r="N13">
-        <v>8.00472557629563</v>
+        <v>6.54218468075124</v>
       </c>
       <c r="O13">
-        <v>542.302329047483</v>
+        <v>495.680242329677</v>
       </c>
       <c r="P13">
-        <v>48.5143908002622</v>
+        <v>50.9872427584277</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1952.39681607426</v>
+        <v>2580.03335619214</v>
       </c>
       <c r="C14">
-        <v>123.53171497198</v>
+        <v>116.815583512103</v>
       </c>
       <c r="D14">
-        <v>19.7969521408173</v>
+        <v>16.4045844108832</v>
       </c>
       <c r="E14">
-        <v>58.9917132441698</v>
+        <v>78.02260353397629</v>
       </c>
       <c r="F14">
-        <v>15.6035979751411</v>
+        <v>23.3706858329054</v>
       </c>
       <c r="G14">
-        <v>118.284169602889</v>
+        <v>107.448299188442</v>
       </c>
       <c r="H14">
-        <v>65.8584058931058</v>
+        <v>59.0432733603508</v>
       </c>
       <c r="I14">
-        <v>34.2806244732304</v>
+        <v>32.050877450834</v>
       </c>
       <c r="J14">
-        <v>151.576042188492</v>
+        <v>168.078288983167</v>
       </c>
       <c r="K14">
-        <v>207.593410742814</v>
+        <v>185.386509860164</v>
       </c>
       <c r="L14">
-        <v>176.523753420798</v>
+        <v>150.359135452162</v>
       </c>
       <c r="M14">
-        <v>96.45611658044059</v>
+        <v>95.08536677546191</v>
       </c>
       <c r="N14">
-        <v>103.239554606675</v>
+        <v>91.5350383413554</v>
       </c>
       <c r="O14">
-        <v>5532.36425066098</v>
+        <v>4921.83769023812</v>
       </c>
       <c r="P14">
-        <v>38.7780405958844</v>
+        <v>63.6707592270782</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>976.399377686959</v>
+        <v>1278.53595359702</v>
       </c>
       <c r="C15">
-        <v>32.0068593788449</v>
+        <v>26.8341835325958</v>
       </c>
       <c r="D15">
-        <v>15.3690591373646</v>
+        <v>13.9110536292163</v>
       </c>
       <c r="E15">
-        <v>61.3466818409008</v>
+        <v>62.4549559358877</v>
       </c>
       <c r="F15">
-        <v>13.2499806307314</v>
+        <v>13.637933978917</v>
       </c>
       <c r="G15">
-        <v>47.3513963740983</v>
+        <v>42.0069775932179</v>
       </c>
       <c r="H15">
-        <v>52.6797454284631</v>
+        <v>59.5291140081047</v>
       </c>
       <c r="I15">
-        <v>46.6775373007319</v>
+        <v>33.4204583216334</v>
       </c>
       <c r="J15">
-        <v>200.044229055635</v>
+        <v>170.594721775946</v>
       </c>
       <c r="K15">
-        <v>106.692935475583</v>
+        <v>78.5358058192966</v>
       </c>
       <c r="L15">
-        <v>67.39506593585391</v>
+        <v>61.1680093585932</v>
       </c>
       <c r="M15">
-        <v>155.360214876646</v>
+        <v>174.867776188037</v>
       </c>
       <c r="N15">
-        <v>100.03196141654</v>
+        <v>97.3413621596373</v>
       </c>
       <c r="O15">
-        <v>2351.14424699303</v>
+        <v>2113.87315747156</v>
       </c>
       <c r="P15">
-        <v>47.2661306189132</v>
+        <v>46.7679877918972</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>342.359916292215</v>
+        <v>511.424967537138</v>
       </c>
       <c r="C16">
-        <v>68.4639210477598</v>
+        <v>64.47049818445289</v>
       </c>
       <c r="D16">
-        <v>17.4411056344222</v>
+        <v>9.722122430163241</v>
       </c>
       <c r="E16">
-        <v>17.1048157236361</v>
+        <v>19.3334200028495</v>
       </c>
       <c r="F16">
-        <v>4.7900094000847</v>
+        <v>4.67814250077173</v>
       </c>
       <c r="G16">
-        <v>16.0895445129799</v>
+        <v>12.0714988738678</v>
       </c>
       <c r="H16">
-        <v>15.3695528952791</v>
+        <v>14.6021353823719</v>
       </c>
       <c r="I16">
-        <v>10.2467188436602</v>
+        <v>9.608848524803481</v>
       </c>
       <c r="J16">
-        <v>44.7122370887173</v>
+        <v>46.3639426440091</v>
       </c>
       <c r="K16">
-        <v>58.0023448918969</v>
+        <v>51.9074262730038</v>
       </c>
       <c r="L16">
-        <v>33.2218259079433</v>
+        <v>35.9355915487855</v>
       </c>
       <c r="M16">
-        <v>14.4694988682229</v>
+        <v>23.5836273532694</v>
       </c>
       <c r="N16">
-        <v>29.407891354665</v>
+        <v>27.3064034293261</v>
       </c>
       <c r="O16">
-        <v>1328.97604257479</v>
+        <v>1170.11814881531</v>
       </c>
       <c r="P16">
-        <v>99.29975202406421</v>
+        <v>96.13903885227759</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>364.480593352462</v>
+        <v>499.410253437389</v>
       </c>
       <c r="C17">
-        <v>26.5502830944441</v>
+        <v>29.413712565773</v>
       </c>
       <c r="D17">
-        <v>8.04441610116919</v>
+        <v>4.82067514854407</v>
       </c>
       <c r="E17">
-        <v>10.6148650136602</v>
+        <v>12.4648835397321</v>
       </c>
       <c r="F17">
-        <v>13.4239701110876</v>
+        <v>11.504180461713</v>
       </c>
       <c r="G17">
-        <v>12.8550106033356</v>
+        <v>8.81474306437539</v>
       </c>
       <c r="H17">
-        <v>7.07141143240916</v>
+        <v>10.3321988862172</v>
       </c>
       <c r="I17">
-        <v>8.340166191443579</v>
+        <v>9.280265288101401</v>
       </c>
       <c r="J17">
-        <v>20.2301944956759</v>
+        <v>19.9386853500069</v>
       </c>
       <c r="K17">
-        <v>26.9371730284814</v>
+        <v>22.4391157447726</v>
       </c>
       <c r="L17">
-        <v>15.8362238914119</v>
+        <v>13.2512453209743</v>
       </c>
       <c r="M17">
-        <v>82.277127102561</v>
+        <v>74.03377195291751</v>
       </c>
       <c r="N17">
-        <v>16.0538639157062</v>
+        <v>15.4160903131075</v>
       </c>
       <c r="O17">
-        <v>1229.86230257682</v>
+        <v>1100.12504082202</v>
       </c>
       <c r="P17">
-        <v>57.6053823229423</v>
+        <v>66.06499873536021</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>862.828422780285</v>
+        <v>1061.80441196729</v>
       </c>
       <c r="C18">
-        <v>33.4284079198911</v>
+        <v>33.6772139511628</v>
       </c>
       <c r="D18">
-        <v>17.6970487133028</v>
+        <v>19.0923489659038</v>
       </c>
       <c r="E18">
-        <v>29.828062874091</v>
+        <v>36.8242514962095</v>
       </c>
       <c r="F18">
-        <v>40.9381830594117</v>
+        <v>33.4733421540369</v>
       </c>
       <c r="G18">
-        <v>34.7889578122047</v>
+        <v>27.9052295199838</v>
       </c>
       <c r="H18">
-        <v>22.6259405991991</v>
+        <v>21.4513119577414</v>
       </c>
       <c r="I18">
-        <v>9.536399930459361</v>
+        <v>9.6347284492202</v>
       </c>
       <c r="J18">
-        <v>38.5780020629267</v>
+        <v>45.9383033312776</v>
       </c>
       <c r="K18">
-        <v>34.4101570569562</v>
+        <v>36.7437142152957</v>
       </c>
       <c r="L18">
-        <v>43.431744357574</v>
+        <v>39.1971245102415</v>
       </c>
       <c r="M18">
-        <v>59.7425330467361</v>
+        <v>65.24979822067441</v>
       </c>
       <c r="N18">
-        <v>20.926363383553</v>
+        <v>19.8654772529264</v>
       </c>
       <c r="O18">
-        <v>1627.71730282987</v>
+        <v>1427.01961310478</v>
       </c>
       <c r="P18">
-        <v>46.8960415549272</v>
+        <v>48.4405126678001</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>933.482522600082</v>
+        <v>1167.57532533381</v>
       </c>
       <c r="C19">
-        <v>30.2884813945375</v>
+        <v>25.3578154964503</v>
       </c>
       <c r="D19">
-        <v>14.4165928800516</v>
+        <v>9.969350288874111</v>
       </c>
       <c r="E19">
-        <v>23.0874627311176</v>
+        <v>34.5700539136799</v>
       </c>
       <c r="F19">
-        <v>94.1491873716877</v>
+        <v>83.87182243567671</v>
       </c>
       <c r="G19">
-        <v>43.0649175335311</v>
+        <v>40.9256708752739</v>
       </c>
       <c r="H19">
-        <v>6.18240394110336</v>
+        <v>5.05603578668056</v>
       </c>
       <c r="I19">
-        <v>10.2790806238143</v>
+        <v>7.12766897665436</v>
       </c>
       <c r="J19">
-        <v>12.8909383330416</v>
+        <v>13.8999714538228</v>
       </c>
       <c r="K19">
-        <v>17.5151260620677</v>
+        <v>14.514098574496</v>
       </c>
       <c r="L19">
-        <v>8.35722143262764</v>
+        <v>6.2678091616525</v>
       </c>
       <c r="M19">
-        <v>27.7276951967106</v>
+        <v>29.9221382284247</v>
       </c>
       <c r="N19">
-        <v>8.27299566067132</v>
+        <v>6.48671552488721</v>
       </c>
       <c r="O19">
-        <v>1832.76083729722</v>
+        <v>1619.24100276863</v>
       </c>
       <c r="P19">
-        <v>37.9307134520468</v>
+        <v>38.2665899701676</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>210.26075662893</v>
+        <v>283.126720181066</v>
       </c>
       <c r="C20">
-        <v>9.28751240158701</v>
+        <v>7.8315779329782</v>
       </c>
       <c r="D20">
-        <v>18.3753218767353</v>
+        <v>15.4953358539651</v>
       </c>
       <c r="E20">
-        <v>34.1588461569915</v>
+        <v>36.9185283653424</v>
       </c>
       <c r="F20">
-        <v>0.338663731683035</v>
+        <v>0.639025073740648</v>
       </c>
       <c r="G20">
-        <v>1.38572979255756</v>
+        <v>1.42883460683871</v>
       </c>
       <c r="H20">
-        <v>4.05712814718931</v>
+        <v>3.75551272525989</v>
       </c>
       <c r="I20">
-        <v>0.855719305656622</v>
+        <v>0.931377876052821</v>
       </c>
       <c r="J20">
-        <v>4.26434378515428</v>
+        <v>3.77839062789158</v>
       </c>
       <c r="K20">
-        <v>5.26185155015705</v>
+        <v>4.97378158682476</v>
       </c>
       <c r="L20">
-        <v>9.98315118838727</v>
+        <v>10.1498617232843</v>
       </c>
       <c r="M20">
-        <v>22.7657220822501</v>
+        <v>17.3174357190456</v>
       </c>
       <c r="N20">
-        <v>5.77003504776053</v>
+        <v>5.46131870432886</v>
       </c>
       <c r="O20">
-        <v>592.779413532631</v>
+        <v>526.5588211787521</v>
       </c>
       <c r="P20">
-        <v>22.7199357167946</v>
+        <v>24.4002121973516</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>831.1669821251051</v>
+        <v>1071.50129846596</v>
       </c>
       <c r="C21">
-        <v>28.0375702464749</v>
+        <v>22.2864835956469</v>
       </c>
       <c r="D21">
-        <v>8.342686892703011</v>
+        <v>11.1566661269307</v>
       </c>
       <c r="E21">
-        <v>19.6584210801349</v>
+        <v>29.1287655170974</v>
       </c>
       <c r="F21">
-        <v>2.92001129184648</v>
+        <v>6.52887977326885</v>
       </c>
       <c r="G21">
-        <v>22.5651962765838</v>
+        <v>23.9936501774616</v>
       </c>
       <c r="H21">
-        <v>9.834971721463081</v>
+        <v>9.83579624725976</v>
       </c>
       <c r="I21">
-        <v>9.08909209443973</v>
+        <v>4.82592957052863</v>
       </c>
       <c r="J21">
-        <v>18.1696941033059</v>
+        <v>25.786631026419</v>
       </c>
       <c r="K21">
-        <v>21.196291547879</v>
+        <v>12.0684671163361</v>
       </c>
       <c r="L21">
-        <v>30.3474425210224</v>
+        <v>26.5153785754287</v>
       </c>
       <c r="M21">
-        <v>34.8617258090084</v>
+        <v>39.518998403467</v>
       </c>
       <c r="N21">
-        <v>20.4373255757684</v>
+        <v>19.812067175208</v>
       </c>
       <c r="O21">
-        <v>2632.61036775804</v>
+        <v>2385.18081797903</v>
       </c>
       <c r="P21">
-        <v>23.3649474336973</v>
+        <v>20.0427974087206</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>958.586681491654</v>
+        <v>1298.54635221346</v>
       </c>
       <c r="C22">
-        <v>22.9305202573453</v>
+        <v>20.7599748595419</v>
       </c>
       <c r="D22">
-        <v>34.2375994601616</v>
+        <v>27.8782694769585</v>
       </c>
       <c r="E22">
-        <v>30.1435301127466</v>
+        <v>33.2417860273615</v>
       </c>
       <c r="F22">
-        <v>3.17375437316077</v>
+        <v>1.8838291751495</v>
       </c>
       <c r="G22">
-        <v>34.6919044104503</v>
+        <v>29.3748401441832</v>
       </c>
       <c r="H22">
-        <v>32.6182900388644</v>
+        <v>28.6671647445588</v>
       </c>
       <c r="I22">
-        <v>10.4754488465723</v>
+        <v>8.58593237404566</v>
       </c>
       <c r="J22">
-        <v>56.7897338851511</v>
+        <v>55.0658713853736</v>
       </c>
       <c r="K22">
-        <v>51.9089199024956</v>
+        <v>39.1625192480967</v>
       </c>
       <c r="L22">
-        <v>128.580347044613</v>
+        <v>125.346198045471</v>
       </c>
       <c r="M22">
-        <v>22.8506497585129</v>
+        <v>23.2810186038064</v>
       </c>
       <c r="N22">
-        <v>97.1124007743764</v>
+        <v>86.63458562551899</v>
       </c>
       <c r="O22">
-        <v>3015.18932728403</v>
+        <v>2723.7463433108</v>
       </c>
       <c r="P22">
-        <v>20.8070171289395</v>
+        <v>14.1562055611639</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1683.11280858666</v>
+        <v>2194.73486771082</v>
       </c>
       <c r="C23">
-        <v>50.137645138887</v>
+        <v>47.9540110088252</v>
       </c>
       <c r="D23">
-        <v>17.7548973017912</v>
+        <v>13.7534518042087</v>
       </c>
       <c r="E23">
-        <v>38.7651350026239</v>
+        <v>53.3161114693189</v>
       </c>
       <c r="F23">
-        <v>2.07377953243126</v>
+        <v>5.32258953716258</v>
       </c>
       <c r="G23">
-        <v>69.9661386060959</v>
+        <v>59.2025615153283</v>
       </c>
       <c r="H23">
-        <v>69.9428196665787</v>
+        <v>69.5467681276909</v>
       </c>
       <c r="I23">
-        <v>23.6111236027159</v>
+        <v>19.6626526170582</v>
       </c>
       <c r="J23">
-        <v>165.58888807627</v>
+        <v>156.922848561229</v>
       </c>
       <c r="K23">
-        <v>154.620681786049</v>
+        <v>136.393346196432</v>
       </c>
       <c r="L23">
-        <v>54.8647231351578</v>
+        <v>46.8290119895144</v>
       </c>
       <c r="M23">
-        <v>611.23855204957</v>
+        <v>557.197633045627</v>
       </c>
       <c r="N23">
-        <v>101.146286295852</v>
+        <v>88.2523251297616</v>
       </c>
       <c r="O23">
-        <v>3926.49980250933</v>
+        <v>3502.18323850676</v>
       </c>
       <c r="P23">
-        <v>43.2382986593182</v>
+        <v>61.079106895895</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>580.916080468611</v>
+        <v>836.16607058004</v>
       </c>
       <c r="C24">
-        <v>45.0481615614471</v>
+        <v>58.7760589837408</v>
       </c>
       <c r="D24">
-        <v>11.6590156800691</v>
+        <v>11.3361871517977</v>
       </c>
       <c r="E24">
-        <v>42.712405114358</v>
+        <v>55.0964366476694</v>
       </c>
       <c r="F24">
-        <v>16.8693879756524</v>
+        <v>14.2070746682447</v>
       </c>
       <c r="G24">
-        <v>27.7035219147963</v>
+        <v>27.0769480886784</v>
       </c>
       <c r="H24">
-        <v>22.8484653066788</v>
+        <v>22.7859060864359</v>
       </c>
       <c r="I24">
-        <v>15.0575469084046</v>
+        <v>16.2103236068702</v>
       </c>
       <c r="J24">
-        <v>40.3121343596926</v>
+        <v>42.6312818994988</v>
       </c>
       <c r="K24">
-        <v>97.149562375495</v>
+        <v>78.69359547273839</v>
       </c>
       <c r="L24">
-        <v>67.54033643246351</v>
+        <v>60.724690679954</v>
       </c>
       <c r="M24">
-        <v>17.9749452904827</v>
+        <v>26.6610489372086</v>
       </c>
       <c r="N24">
-        <v>87.4697649534083</v>
+        <v>70.12849674488351</v>
       </c>
       <c r="O24">
-        <v>2273.24312790159</v>
+        <v>2003.45395868197</v>
       </c>
       <c r="P24">
-        <v>94.75212053675131</v>
+        <v>113.452973863144</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>572.426261954769</v>
+        <v>733.045742872044</v>
       </c>
       <c r="C25">
-        <v>46.1088023306877</v>
+        <v>41.5398894820391</v>
       </c>
       <c r="D25">
-        <v>20.9752260563701</v>
+        <v>22.6578385427548</v>
       </c>
       <c r="E25">
-        <v>42.1563595074921</v>
+        <v>41.1902110990907</v>
       </c>
       <c r="F25">
-        <v>28.115074969348</v>
+        <v>19.4167302041076</v>
       </c>
       <c r="G25">
-        <v>9.440768942460061</v>
+        <v>8.15980001302894</v>
       </c>
       <c r="H25">
-        <v>17.3186335071059</v>
+        <v>16.7081911766428</v>
       </c>
       <c r="I25">
-        <v>5.07951515031129</v>
+        <v>5.68710696082236</v>
       </c>
       <c r="J25">
-        <v>18.8275275818836</v>
+        <v>20.3217635369228</v>
       </c>
       <c r="K25">
-        <v>23.132902115309</v>
+        <v>21.4683467957189</v>
       </c>
       <c r="L25">
-        <v>27.8047634712393</v>
+        <v>23.7849947009964</v>
       </c>
       <c r="M25">
-        <v>34.6543991814588</v>
+        <v>29.2412605140203</v>
       </c>
       <c r="N25">
-        <v>32.1000881183323</v>
+        <v>41.0986836029616</v>
       </c>
       <c r="O25">
-        <v>1066.40588888089</v>
+        <v>924.69986632109</v>
       </c>
       <c r="P25">
-        <v>44.3209964429253</v>
+        <v>41.914110494024</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>811.31847883119</v>
+        <v>1144.67145037333</v>
       </c>
       <c r="C26">
-        <v>69.2173404158809</v>
+        <v>65.1256585897827</v>
       </c>
       <c r="D26">
-        <v>15.7018896651626</v>
+        <v>18.9674010200902</v>
       </c>
       <c r="E26">
-        <v>42.8621734725576</v>
+        <v>42.3058997019624</v>
       </c>
       <c r="F26">
-        <v>8.49617362651145</v>
+        <v>7.37381055845404</v>
       </c>
       <c r="G26">
-        <v>47.1774745118379</v>
+        <v>36.1983808326766</v>
       </c>
       <c r="H26">
-        <v>17.837764393168</v>
+        <v>22.9154958933314</v>
       </c>
       <c r="I26">
-        <v>18.5596131298093</v>
+        <v>17.7199214424248</v>
       </c>
       <c r="J26">
-        <v>59.2715779452043</v>
+        <v>67.6934918215172</v>
       </c>
       <c r="K26">
-        <v>57.8117482217118</v>
+        <v>48.7869668204523</v>
       </c>
       <c r="L26">
-        <v>33.5439980553535</v>
+        <v>42.2865878366117</v>
       </c>
       <c r="M26">
-        <v>72.7891642534757</v>
+        <v>76.7019754004578</v>
       </c>
       <c r="N26">
-        <v>39.2490811746785</v>
+        <v>40.9489016750515</v>
       </c>
       <c r="O26">
-        <v>2581.96333911972</v>
+        <v>2220.48926267947</v>
       </c>
       <c r="P26">
-        <v>53.9365073012027</v>
+        <v>74.9038080608612</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>149.817108377528</v>
+        <v>202.815813160662</v>
       </c>
       <c r="C27">
-        <v>3.86936867829284</v>
+        <v>3.15874453456042</v>
       </c>
       <c r="D27">
-        <v>0.8759252356335679</v>
+        <v>0.879638441885766</v>
       </c>
       <c r="E27">
-        <v>13.3167277206236</v>
+        <v>11.2672454232149</v>
       </c>
       <c r="F27">
-        <v>7.06945039125767</v>
+        <v>7.70287572423129</v>
       </c>
       <c r="G27">
-        <v>0.449023289584846</v>
+        <v>0.795553642892783</v>
       </c>
       <c r="H27">
-        <v>0.345710728199641</v>
+        <v>0.301765543854024</v>
       </c>
       <c r="I27">
-        <v>2.59817821215531</v>
+        <v>2.37695658167397</v>
       </c>
       <c r="J27">
-        <v>4.71574035356554</v>
+        <v>4.26815129646174</v>
       </c>
       <c r="K27">
-        <v>2.01887335877444</v>
+        <v>1.93721201155647</v>
       </c>
       <c r="L27">
-        <v>2.32643098706662</v>
+        <v>1.68738160716954</v>
       </c>
       <c r="M27">
-        <v>1.521609432453</v>
+        <v>1.03906291945144</v>
       </c>
       <c r="N27">
-        <v>6.46736045159517</v>
+        <v>4.87786409480685</v>
       </c>
       <c r="O27">
-        <v>430.387653255573</v>
+        <v>382.501803821627</v>
       </c>
       <c r="P27">
-        <v>46.1939177325663</v>
+        <v>46.7845383905165</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>197.831459844519</v>
+        <v>286.922746008422</v>
       </c>
       <c r="C28">
-        <v>29.8564810878705</v>
+        <v>34.7585806106615</v>
       </c>
       <c r="D28">
-        <v>2.80114711623474</v>
+        <v>4.33092377725979</v>
       </c>
       <c r="E28">
-        <v>5.7398306525748</v>
+        <v>7.09281011063054</v>
       </c>
       <c r="F28">
-        <v>2.72005954787363</v>
+        <v>2.28175366345863</v>
       </c>
       <c r="G28">
-        <v>7.30402080580809</v>
+        <v>5.61522358645218</v>
       </c>
       <c r="H28">
-        <v>9.04376589065846</v>
+        <v>8.18680509494431</v>
       </c>
       <c r="I28">
-        <v>4.14556292087319</v>
+        <v>4.44851910497276</v>
       </c>
       <c r="J28">
-        <v>15.9732105411736</v>
+        <v>16.3178645438519</v>
       </c>
       <c r="K28">
-        <v>16.7395822437717</v>
+        <v>16.2284044559379</v>
       </c>
       <c r="L28">
-        <v>14.0658413806713</v>
+        <v>16.6684898859018</v>
       </c>
       <c r="M28">
-        <v>7.20947372470132</v>
+        <v>8.66350121369876</v>
       </c>
       <c r="N28">
-        <v>11.6539936949732</v>
+        <v>10.2055922872712</v>
       </c>
       <c r="O28">
-        <v>813.932970274351</v>
+        <v>708.941594021939</v>
       </c>
       <c r="P28">
-        <v>86.1232687793803</v>
+        <v>93.3032766535722</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>338.29423495059</v>
+        <v>448.735544529219</v>
       </c>
       <c r="C29">
-        <v>4.91724355703779</v>
+        <v>4.61838601084655</v>
       </c>
       <c r="D29">
-        <v>3.56134838480991</v>
+        <v>1.83548605826959</v>
       </c>
       <c r="E29">
-        <v>2.12121955231114</v>
+        <v>4.48462918761878</v>
       </c>
       <c r="F29">
-        <v>16.4149796033081</v>
+        <v>17.3920107572246</v>
       </c>
       <c r="G29">
-        <v>3.30445998468265</v>
+        <v>2.09413501408638</v>
       </c>
       <c r="H29">
-        <v>2.82056594795891</v>
+        <v>2.5178861869825</v>
       </c>
       <c r="I29">
-        <v>5.36149626659162</v>
+        <v>5.2117843200854</v>
       </c>
       <c r="J29">
-        <v>4.95033513981082</v>
+        <v>4.83848558811727</v>
       </c>
       <c r="K29">
-        <v>4.00700353353617</v>
+        <v>4.62915443511647</v>
       </c>
       <c r="L29">
-        <v>3.86539367000452</v>
+        <v>3.72320714051163</v>
       </c>
       <c r="M29">
-        <v>1.9543616219703</v>
+        <v>2.06673135784762</v>
       </c>
       <c r="N29">
-        <v>11.4849115488528</v>
+        <v>10.7340577645997</v>
       </c>
       <c r="O29">
-        <v>1042.98297009378</v>
+        <v>928.137992348701</v>
       </c>
       <c r="P29">
-        <v>3.22385347376726</v>
+        <v>5.54207863149111</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>167.243027786004</v>
+        <v>222.171390706752</v>
       </c>
       <c r="C30">
-        <v>4.63983578492239</v>
+        <v>4.10838532576123</v>
       </c>
       <c r="D30">
-        <v>7.7213098914689</v>
+        <v>6.53620093872107</v>
       </c>
       <c r="E30">
-        <v>9.73191507045615</v>
+        <v>14.6418689127746</v>
       </c>
       <c r="F30">
-        <v>0.526926606160482</v>
+        <v>0.5179647575744</v>
       </c>
       <c r="G30">
-        <v>3.79895772258415</v>
+        <v>3.25868784205621</v>
       </c>
       <c r="H30">
-        <v>7.34783983097036</v>
+        <v>5.72494317202268</v>
       </c>
       <c r="I30">
-        <v>3.08392916569272</v>
+        <v>3.36299266142818</v>
       </c>
       <c r="J30">
-        <v>15.6944856110114</v>
+        <v>17.9831324655406</v>
       </c>
       <c r="K30">
-        <v>19.9206841610516</v>
+        <v>14.5486996193119</v>
       </c>
       <c r="L30">
-        <v>43.9752971379913</v>
+        <v>40.5612286622742</v>
       </c>
       <c r="M30">
-        <v>11.3193351476115</v>
+        <v>11.0117134511945</v>
       </c>
       <c r="N30">
-        <v>16.0817717872746</v>
+        <v>16.4050442668548</v>
       </c>
       <c r="O30">
-        <v>585.560264344036</v>
+        <v>535.2704750243551</v>
       </c>
       <c r="P30">
-        <v>8.21439631151836</v>
+        <v>7.73711995032195</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1446.23745124356</v>
+        <v>1858.41531377318</v>
       </c>
       <c r="C31">
-        <v>48.9188508148274</v>
+        <v>43.235377287854</v>
       </c>
       <c r="D31">
-        <v>57.4888839314669</v>
+        <v>51.4051439485802</v>
       </c>
       <c r="E31">
-        <v>24.633666260695</v>
+        <v>33.4241998665741</v>
       </c>
       <c r="F31">
-        <v>8.91053934659803</v>
+        <v>6.48203346235117</v>
       </c>
       <c r="G31">
-        <v>154.25222124378</v>
+        <v>139.077806923651</v>
       </c>
       <c r="H31">
-        <v>31.0565066568909</v>
+        <v>30.0728091888883</v>
       </c>
       <c r="I31">
-        <v>31.9501976309757</v>
+        <v>22.3681845117937</v>
       </c>
       <c r="J31">
-        <v>42.5176714043847</v>
+        <v>46.54083542214</v>
       </c>
       <c r="K31">
-        <v>46.7699900937877</v>
+        <v>38.9760667505647</v>
       </c>
       <c r="L31">
-        <v>65.52144545758191</v>
+        <v>67.4084494791025</v>
       </c>
       <c r="M31">
-        <v>27.1228922148533</v>
+        <v>22.3269839601783</v>
       </c>
       <c r="N31">
-        <v>66.80486301294251</v>
+        <v>59.1939994599282</v>
       </c>
       <c r="O31">
-        <v>3935.50739741244</v>
+        <v>3565.9085714134</v>
       </c>
       <c r="P31">
-        <v>7.98428144452234</v>
+        <v>8.345276081510249</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>359.60041570965</v>
+        <v>452.654894798486</v>
       </c>
       <c r="C32">
-        <v>4.83235616456866</v>
+        <v>5.84327257363276</v>
       </c>
       <c r="D32">
-        <v>3.37882534824864</v>
+        <v>1.82026783348965</v>
       </c>
       <c r="E32">
-        <v>2.30984256575985</v>
+        <v>1.2556964786481</v>
       </c>
       <c r="F32">
-        <v>34.3776880515678</v>
+        <v>24.7749343528191</v>
       </c>
       <c r="G32">
-        <v>1.92823526005282</v>
+        <v>2.35994795557054</v>
       </c>
       <c r="H32">
-        <v>2.53119785279353</v>
+        <v>2.80039372160079</v>
       </c>
       <c r="I32">
-        <v>4.40720607687883</v>
+        <v>3.11475843539077</v>
       </c>
       <c r="J32">
-        <v>3.1902972262023</v>
+        <v>4.9863528532294</v>
       </c>
       <c r="K32">
-        <v>5.89084481623827</v>
+        <v>3.29551565241414</v>
       </c>
       <c r="L32">
-        <v>14.1242137434014</v>
+        <v>16.9910248593494</v>
       </c>
       <c r="M32">
-        <v>3.61754377330276</v>
+        <v>3.55848728082517</v>
       </c>
       <c r="N32">
-        <v>13.4282370680839</v>
+        <v>10.6540688520045</v>
       </c>
       <c r="O32">
-        <v>792.652487911335</v>
+        <v>712.853141821621</v>
       </c>
       <c r="P32">
-        <v>24.9512140912634</v>
+        <v>26.2320508195919</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3771.49347565068</v>
+        <v>4752.21183691248</v>
       </c>
       <c r="C33">
-        <v>83.97785291813</v>
+        <v>84.1008110523767</v>
       </c>
       <c r="D33">
-        <v>152.766651376842</v>
+        <v>133.219565723676</v>
       </c>
       <c r="E33">
-        <v>37.112254199082</v>
+        <v>66.37772386340831</v>
       </c>
       <c r="F33">
-        <v>11.1963121389574</v>
+        <v>10.8886700539726</v>
       </c>
       <c r="G33">
-        <v>68.37793513081191</v>
+        <v>74.8199210021285</v>
       </c>
       <c r="H33">
-        <v>42.434051785608</v>
+        <v>42.8503837127066</v>
       </c>
       <c r="I33">
-        <v>39.1950373022162</v>
+        <v>40.1982339907232</v>
       </c>
       <c r="J33">
-        <v>103.372150203547</v>
+        <v>109.138915300434</v>
       </c>
       <c r="K33">
-        <v>116.639040212966</v>
+        <v>118.834686732025</v>
       </c>
       <c r="L33">
-        <v>157.200912489886</v>
+        <v>142.837766270987</v>
       </c>
       <c r="M33">
-        <v>88.101895306497</v>
+        <v>81.9480122310428</v>
       </c>
       <c r="N33">
-        <v>203.267951149628</v>
+        <v>157.334623455795</v>
       </c>
       <c r="O33">
-        <v>8502.959324324869</v>
+        <v>7552.49129648211</v>
       </c>
       <c r="P33">
-        <v>60.1428583773131</v>
+        <v>75.9561666645421</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1353.8581652632</v>
+        <v>1767.6787084125</v>
       </c>
       <c r="C34">
-        <v>88.314084862372</v>
+        <v>75.68443255687259</v>
       </c>
       <c r="D34">
-        <v>236.013265226826</v>
+        <v>219.561030113084</v>
       </c>
       <c r="E34">
-        <v>60.5683845466314</v>
+        <v>67.2371839371266</v>
       </c>
       <c r="F34">
-        <v>5.9389011038464</v>
+        <v>7.50988662338703</v>
       </c>
       <c r="G34">
-        <v>71.6968067193924</v>
+        <v>63.3483564843332</v>
       </c>
       <c r="H34">
-        <v>52.7312627463129</v>
+        <v>44.1150853032022</v>
       </c>
       <c r="I34">
-        <v>24.9724727266171</v>
+        <v>22.6153730369481</v>
       </c>
       <c r="J34">
-        <v>61.9572865039685</v>
+        <v>61.3186765325133</v>
       </c>
       <c r="K34">
-        <v>87.86806584546061</v>
+        <v>65.556693770599</v>
       </c>
       <c r="L34">
-        <v>138.327460322185</v>
+        <v>117.000351549141</v>
       </c>
       <c r="M34">
-        <v>53.157057877205</v>
+        <v>43.6752479923283</v>
       </c>
       <c r="N34">
-        <v>135.983224451888</v>
+        <v>133.286949671483</v>
       </c>
       <c r="O34">
-        <v>3223.17769302702</v>
+        <v>2912.86236382146</v>
       </c>
       <c r="P34">
-        <v>76.6068763993909</v>
+        <v>69.8707144196208</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>78.4243355389134</v>
+        <v>120.267694476035</v>
       </c>
       <c r="C35">
-        <v>5.42791970311126</v>
+        <v>6.53535264104443</v>
       </c>
       <c r="D35">
-        <v>0.801184929568566</v>
+        <v>0.608090931308151</v>
       </c>
       <c r="E35">
-        <v>3.22995245962114</v>
+        <v>3.29545222219187</v>
       </c>
       <c r="F35">
-        <v>5.46380139043061</v>
+        <v>5.56255082835594</v>
       </c>
       <c r="G35">
-        <v>0.281198342975471</v>
+        <v>0.367125773548351</v>
       </c>
       <c r="H35">
-        <v>0.732295365702256</v>
+        <v>0.523179195479121</v>
       </c>
       <c r="I35">
-        <v>1.57800187771914</v>
+        <v>1.2688903540981</v>
       </c>
       <c r="J35">
-        <v>2.012631115608</v>
+        <v>2.12530816404104</v>
       </c>
       <c r="K35">
-        <v>6.84126107749549</v>
+        <v>6.10838576873849</v>
       </c>
       <c r="L35">
-        <v>3.29534327677436</v>
+        <v>2.79307038560546</v>
       </c>
       <c r="M35">
-        <v>2.47065531243107</v>
+        <v>2.5032703904387</v>
       </c>
       <c r="N35">
-        <v>2.41569515461223</v>
+        <v>1.87459449089044</v>
       </c>
       <c r="O35">
-        <v>312.416867999992</v>
+        <v>267.452785699784</v>
       </c>
       <c r="P35">
-        <v>42.9308980539418</v>
+        <v>46.738496591983</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1934.89323093508</v>
+        <v>2494.9124623337</v>
       </c>
       <c r="C36">
-        <v>67.4664745874303</v>
+        <v>67.641929977601</v>
       </c>
       <c r="D36">
-        <v>20.1542112694906</v>
+        <v>11.4384843496147</v>
       </c>
       <c r="E36">
-        <v>57.1602478820347</v>
+        <v>81.2657006566573</v>
       </c>
       <c r="F36">
-        <v>41.4118214510665</v>
+        <v>32.3471746494728</v>
       </c>
       <c r="G36">
-        <v>111.675117063116</v>
+        <v>92.7613941516279</v>
       </c>
       <c r="H36">
-        <v>118.856429412545</v>
+        <v>112.276394009257</v>
       </c>
       <c r="I36">
-        <v>46.4656623532867</v>
+        <v>50.7892767778012</v>
       </c>
       <c r="J36">
-        <v>226.525271319626</v>
+        <v>235.504135804905</v>
       </c>
       <c r="K36">
-        <v>191.683161532834</v>
+        <v>175.712126374962</v>
       </c>
       <c r="L36">
-        <v>110.879960220648</v>
+        <v>105.899535181015</v>
       </c>
       <c r="M36">
-        <v>228.75435907704</v>
+        <v>242.544674479544</v>
       </c>
       <c r="N36">
-        <v>97.8871346827457</v>
+        <v>101.656372451498</v>
       </c>
       <c r="O36">
-        <v>4739.70559081958</v>
+        <v>4183.9981744122</v>
       </c>
       <c r="P36">
-        <v>49.0303733875315</v>
+        <v>53.2937689493978</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>652.229825323347</v>
+        <v>824.61916033759</v>
       </c>
       <c r="C37">
-        <v>22.7088210150032</v>
+        <v>24.2534164563167</v>
       </c>
       <c r="D37">
-        <v>12.2714357806549</v>
+        <v>10.0108574388245</v>
       </c>
       <c r="E37">
-        <v>17.1569346377921</v>
+        <v>19.642354335066</v>
       </c>
       <c r="F37">
-        <v>44.8941711246852</v>
+        <v>42.8427667511922</v>
       </c>
       <c r="G37">
-        <v>8.731357559179109</v>
+        <v>8.512860418402459</v>
       </c>
       <c r="H37">
-        <v>24.6133050244631</v>
+        <v>22.5407246598616</v>
       </c>
       <c r="I37">
-        <v>16.8768137397897</v>
+        <v>15.6590828418084</v>
       </c>
       <c r="J37">
-        <v>32.9973481138494</v>
+        <v>31.5462289216954</v>
       </c>
       <c r="K37">
-        <v>41.4304069079045</v>
+        <v>38.3470426628105</v>
       </c>
       <c r="L37">
-        <v>28.7641193433338</v>
+        <v>22.8894593513891</v>
       </c>
       <c r="M37">
-        <v>30.0703827405923</v>
+        <v>32.0442595219606</v>
       </c>
       <c r="N37">
-        <v>16.7856917022022</v>
+        <v>13.2750720339601</v>
       </c>
       <c r="O37">
-        <v>1379.1354387358</v>
+        <v>1223.38360114361</v>
       </c>
       <c r="P37">
-        <v>58.6945456653877</v>
+        <v>60.7697417249988</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>603.770628737298</v>
+        <v>754.516030812235</v>
       </c>
       <c r="C38">
-        <v>29.9640120628241</v>
+        <v>26.8469281395691</v>
       </c>
       <c r="D38">
-        <v>13.9787090792787</v>
+        <v>10.9558194614107</v>
       </c>
       <c r="E38">
-        <v>53.2321775009259</v>
+        <v>54.625752812521</v>
       </c>
       <c r="F38">
-        <v>4.45636534815793</v>
+        <v>3.4366705478527</v>
       </c>
       <c r="G38">
-        <v>8.88279878583826</v>
+        <v>7.39056795263325</v>
       </c>
       <c r="H38">
-        <v>7.19404956239938</v>
+        <v>6.55460725933705</v>
       </c>
       <c r="I38">
-        <v>5.48897150495201</v>
+        <v>5.64344167295646</v>
       </c>
       <c r="J38">
-        <v>35.5278523682403</v>
+        <v>38.2315581528309</v>
       </c>
       <c r="K38">
-        <v>18.185677716063</v>
+        <v>14.1831048939565</v>
       </c>
       <c r="L38">
-        <v>73.6626794690519</v>
+        <v>63.9078825042783</v>
       </c>
       <c r="M38">
-        <v>25.8168923715526</v>
+        <v>21.8514790920303</v>
       </c>
       <c r="N38">
-        <v>24.9541442274429</v>
+        <v>24.6000867302997</v>
       </c>
       <c r="O38">
-        <v>1479.71275104203</v>
+        <v>1350.92665012942</v>
       </c>
       <c r="P38">
-        <v>69.9065841617513</v>
+        <v>72.51852336803781</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2163.18562291809</v>
+        <v>2888.84433579328</v>
       </c>
       <c r="C39">
-        <v>134.733440488442</v>
+        <v>104.027111485055</v>
       </c>
       <c r="D39">
-        <v>71.9117347437938</v>
+        <v>68.9608002379028</v>
       </c>
       <c r="E39">
-        <v>85.6338296523579</v>
+        <v>114.944200853355</v>
       </c>
       <c r="F39">
-        <v>28.0341020396276</v>
+        <v>33.8163190351871</v>
       </c>
       <c r="G39">
-        <v>126.942761864772</v>
+        <v>109.377814884885</v>
       </c>
       <c r="H39">
-        <v>47.7231516375993</v>
+        <v>53.5046520524629</v>
       </c>
       <c r="I39">
-        <v>54.4827630198003</v>
+        <v>50.1804235537746</v>
       </c>
       <c r="J39">
-        <v>172.785131090607</v>
+        <v>193.003695814851</v>
       </c>
       <c r="K39">
-        <v>145.516737799792</v>
+        <v>121.525459386963</v>
       </c>
       <c r="L39">
-        <v>139.303443347518</v>
+        <v>125.400173329167</v>
       </c>
       <c r="M39">
-        <v>74.832184334372</v>
+        <v>71.85482780622419</v>
       </c>
       <c r="N39">
-        <v>122.745188381718</v>
+        <v>111.77556779556</v>
       </c>
       <c r="O39">
-        <v>5343.38643284849</v>
+        <v>4647.80793917837</v>
       </c>
       <c r="P39">
-        <v>60.9435820748103</v>
+        <v>77.5670078680586</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>174.243677950016</v>
+        <v>237.616001019604</v>
       </c>
       <c r="C40">
-        <v>3.65398264516355</v>
+        <v>3.8152029942213</v>
       </c>
       <c r="D40">
-        <v>11.0105760145339</v>
+        <v>9.4772485031682</v>
       </c>
       <c r="E40">
-        <v>2.08050407373211</v>
+        <v>3.74247667176263</v>
       </c>
       <c r="F40">
-        <v>0.799558337865954</v>
+        <v>0.481578925755447</v>
       </c>
       <c r="G40">
-        <v>6.31560003199785</v>
+        <v>4.93592449643965</v>
       </c>
       <c r="H40">
-        <v>9.877417439585029</v>
+        <v>6.44418033656661</v>
       </c>
       <c r="I40">
-        <v>1.90028503736294</v>
+        <v>1.56219281581704</v>
       </c>
       <c r="J40">
-        <v>12.5697227137265</v>
+        <v>10.4327595306144</v>
       </c>
       <c r="K40">
-        <v>10.857497650369</v>
+        <v>7.8647818719791</v>
       </c>
       <c r="L40">
-        <v>14.0650388377122</v>
+        <v>14.3901845750083</v>
       </c>
       <c r="M40">
-        <v>7.88189195166289</v>
+        <v>8.448382393285931</v>
       </c>
       <c r="N40">
-        <v>31.6716226794304</v>
+        <v>26.3710504014012</v>
       </c>
       <c r="O40">
-        <v>490.741223422225</v>
+        <v>440.656085795425</v>
       </c>
       <c r="P40">
-        <v>1.61579211782293</v>
+        <v>2.60659962019398</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>738.934304615615</v>
+        <v>935.679692454159</v>
       </c>
       <c r="C41">
-        <v>13.1631068327701</v>
+        <v>13.8398084827066</v>
       </c>
       <c r="D41">
-        <v>109.773919245207</v>
+        <v>107.399928783426</v>
       </c>
       <c r="E41">
-        <v>44.4856939225816</v>
+        <v>42.282653851073</v>
       </c>
       <c r="F41">
-        <v>3.66752735177672</v>
+        <v>3.1856991559662</v>
       </c>
       <c r="G41">
-        <v>46.6377085190023</v>
+        <v>33.6775790889526</v>
       </c>
       <c r="H41">
-        <v>42.4040723291175</v>
+        <v>34.607602430558</v>
       </c>
       <c r="I41">
-        <v>11.122199080601</v>
+        <v>12.0413537883464</v>
       </c>
       <c r="J41">
-        <v>52.9714970359724</v>
+        <v>47.2854457382859</v>
       </c>
       <c r="K41">
-        <v>59.3310114478988</v>
+        <v>43.0360487692961</v>
       </c>
       <c r="L41">
-        <v>30.6511716290726</v>
+        <v>32.9772503166732</v>
       </c>
       <c r="M41">
-        <v>37.0116604904092</v>
+        <v>34.3637934644425</v>
       </c>
       <c r="N41">
-        <v>25.363661440427</v>
+        <v>21.5054785446267</v>
       </c>
       <c r="O41">
-        <v>1555.31924401141</v>
+        <v>1405.00003271784</v>
       </c>
       <c r="P41">
-        <v>23.7026241250263</v>
+        <v>30.0789196171012</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>89.98629280850869</v>
+        <v>131.003145828369</v>
       </c>
       <c r="C42">
-        <v>8.46485270084789</v>
+        <v>8.39193456021501</v>
       </c>
       <c r="D42">
-        <v>1.98610869214924</v>
+        <v>1.99481273979589</v>
       </c>
       <c r="E42">
-        <v>5.2278625357714</v>
+        <v>4.93356077339413</v>
       </c>
       <c r="F42">
-        <v>2.15386946538457</v>
+        <v>2.17355208383113</v>
       </c>
       <c r="G42">
-        <v>1.26606297380132</v>
+        <v>1.49968030011372</v>
       </c>
       <c r="H42">
-        <v>1.9120334613248</v>
+        <v>1.17547199179233</v>
       </c>
       <c r="I42">
-        <v>0.867784439601235</v>
+        <v>0.528134788087021</v>
       </c>
       <c r="J42">
-        <v>4.23847995325909</v>
+        <v>4.24008551656952</v>
       </c>
       <c r="K42">
-        <v>8.723589099511891</v>
+        <v>7.1519124696795</v>
       </c>
       <c r="L42">
-        <v>9.645308332779059</v>
+        <v>8.440969535751639</v>
       </c>
       <c r="M42">
-        <v>4.08436300721375</v>
+        <v>3.64910990280132</v>
       </c>
       <c r="N42">
-        <v>9.270685995999299</v>
+        <v>7.60449865176896</v>
       </c>
       <c r="O42">
-        <v>374.251925463377</v>
+        <v>330.674207556329</v>
       </c>
       <c r="P42">
-        <v>42.7186687380579</v>
+        <v>50.8572274985721</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1123.66744564157</v>
+        <v>1359.36252326098</v>
       </c>
       <c r="C43">
-        <v>32.0341879392201</v>
+        <v>34.7953704456392</v>
       </c>
       <c r="D43">
-        <v>61.9076206980152</v>
+        <v>59.8192689607585</v>
       </c>
       <c r="E43">
-        <v>40.1266257455737</v>
+        <v>50.2597274735244</v>
       </c>
       <c r="F43">
-        <v>12.2341996807821</v>
+        <v>9.753804622348239</v>
       </c>
       <c r="G43">
-        <v>29.670477131348</v>
+        <v>26.7781306064507</v>
       </c>
       <c r="H43">
-        <v>27.1916791879981</v>
+        <v>28.6734839898365</v>
       </c>
       <c r="I43">
-        <v>26.6092436094901</v>
+        <v>27.4298317026336</v>
       </c>
       <c r="J43">
-        <v>54.4331576968893</v>
+        <v>46.7960120993341</v>
       </c>
       <c r="K43">
-        <v>72.99154025599221</v>
+        <v>67.303334351541</v>
       </c>
       <c r="L43">
-        <v>52.5557486712698</v>
+        <v>58.2340829920215</v>
       </c>
       <c r="M43">
-        <v>83.438713108749</v>
+        <v>95.59235030373149</v>
       </c>
       <c r="N43">
-        <v>86.62630842278119</v>
+        <v>73.7396870497024</v>
       </c>
       <c r="O43">
-        <v>2292.64611399849</v>
+        <v>2064.67211620976</v>
       </c>
       <c r="P43">
-        <v>56.1401298204034</v>
+        <v>51.8849479960575</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>3445.9894878295</v>
+        <v>4519.08121407084</v>
       </c>
       <c r="C44">
-        <v>171.80533930182</v>
+        <v>143.273154328121</v>
       </c>
       <c r="D44">
-        <v>76.2253828144318</v>
+        <v>72.9932013911413</v>
       </c>
       <c r="E44">
-        <v>77.9360822057667</v>
+        <v>90.98052464139551</v>
       </c>
       <c r="F44">
-        <v>246.327631014698</v>
+        <v>238.788810037859</v>
       </c>
       <c r="G44">
-        <v>158.437539949772</v>
+        <v>148.409623926441</v>
       </c>
       <c r="H44">
-        <v>55.1570134815488</v>
+        <v>52.029966309952</v>
       </c>
       <c r="I44">
-        <v>54.596834051654</v>
+        <v>47.1121141753521</v>
       </c>
       <c r="J44">
-        <v>156.305311352164</v>
+        <v>143.223953689046</v>
       </c>
       <c r="K44">
-        <v>154.458627126178</v>
+        <v>121.598409065726</v>
       </c>
       <c r="L44">
-        <v>269.665910779864</v>
+        <v>241.111468846279</v>
       </c>
       <c r="M44">
-        <v>123.808419545619</v>
+        <v>127.221833345341</v>
       </c>
       <c r="N44">
-        <v>95.8847060076686</v>
+        <v>96.87090706887901</v>
       </c>
       <c r="O44">
-        <v>8740.82424737019</v>
+        <v>7810.47417967777</v>
       </c>
       <c r="P44">
-        <v>265.627349075111</v>
+        <v>240.029446609959</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>332.224149998524</v>
+        <v>423.117297386697</v>
       </c>
       <c r="C45">
-        <v>15.3979744395258</v>
+        <v>14.8604214888912</v>
       </c>
       <c r="D45">
-        <v>6.01734852197467</v>
+        <v>4.47007899870394</v>
       </c>
       <c r="E45">
-        <v>6.21035974527627</v>
+        <v>8.06261284598024</v>
       </c>
       <c r="F45">
-        <v>24.0482956308735</v>
+        <v>21.1771129456716</v>
       </c>
       <c r="G45">
-        <v>10.4793044562597</v>
+        <v>10.9043066316027</v>
       </c>
       <c r="H45">
-        <v>4.99867550406227</v>
+        <v>3.06797579173362</v>
       </c>
       <c r="I45">
-        <v>5.72720855366041</v>
+        <v>4.60917199504838</v>
       </c>
       <c r="J45">
-        <v>20.1891962585544</v>
+        <v>22.7656015022158</v>
       </c>
       <c r="K45">
-        <v>11.2206715777647</v>
+        <v>8.49743788043436</v>
       </c>
       <c r="L45">
-        <v>22.7406194972423</v>
+        <v>18.081860459591</v>
       </c>
       <c r="M45">
-        <v>24.9804242206094</v>
+        <v>24.1834721184974</v>
       </c>
       <c r="N45">
-        <v>28.9042096151331</v>
+        <v>32.6724698265766</v>
       </c>
       <c r="O45">
-        <v>948.577965503871</v>
+        <v>860.767427871607</v>
       </c>
       <c r="P45">
-        <v>16.4134391525772</v>
+        <v>20.4425064059673</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>87.26028293513861</v>
+        <v>117.193916393813</v>
       </c>
       <c r="C46">
-        <v>4.9146186117</v>
+        <v>4.44113227998277</v>
       </c>
       <c r="D46">
-        <v>2.34019133857962</v>
+        <v>2.48454031249598</v>
       </c>
       <c r="E46">
-        <v>6.23507944179945</v>
+        <v>6.76952973288293</v>
       </c>
       <c r="F46">
-        <v>1.93311037166277</v>
+        <v>1.69537893781909</v>
       </c>
       <c r="G46">
-        <v>1.85087190797663</v>
+        <v>2.72536835891059</v>
       </c>
       <c r="H46">
-        <v>2.79430310006719</v>
+        <v>2.2748936469727</v>
       </c>
       <c r="I46">
-        <v>2.30655485263327</v>
+        <v>2.15400392519914</v>
       </c>
       <c r="J46">
-        <v>4.733609447277</v>
+        <v>4.51465551147255</v>
       </c>
       <c r="K46">
-        <v>5.69145341512876</v>
+        <v>6.53891433036042</v>
       </c>
       <c r="L46">
-        <v>14.4289242054231</v>
+        <v>12.6074896033221</v>
       </c>
       <c r="M46">
-        <v>4.94237040259272</v>
+        <v>4.40607928176582</v>
       </c>
       <c r="N46">
-        <v>8.57127386968539</v>
+        <v>7.83571269555194</v>
       </c>
       <c r="O46">
-        <v>307.947598399349</v>
+        <v>276.772625526079</v>
       </c>
       <c r="P46">
-        <v>9.231841177177779</v>
+        <v>11.9336229760745</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1173.74485171866</v>
+        <v>1491.9445763342</v>
       </c>
       <c r="C47">
-        <v>65.2339420735802</v>
+        <v>61.4503884966</v>
       </c>
       <c r="D47">
-        <v>39.1697683535166</v>
+        <v>51.1668215035775</v>
       </c>
       <c r="E47">
-        <v>40.4692642412039</v>
+        <v>54.3572363647806</v>
       </c>
       <c r="F47">
-        <v>10.1412978544327</v>
+        <v>10.3838185549405</v>
       </c>
       <c r="G47">
-        <v>35.6289345656251</v>
+        <v>35.4883267291566</v>
       </c>
       <c r="H47">
-        <v>20.5738909785858</v>
+        <v>20.132249857397</v>
       </c>
       <c r="I47">
-        <v>15.0961708755904</v>
+        <v>13.1977056156864</v>
       </c>
       <c r="J47">
-        <v>53.5411194156285</v>
+        <v>48.481076109608</v>
       </c>
       <c r="K47">
-        <v>30.8470690574555</v>
+        <v>23.5930614267853</v>
       </c>
       <c r="L47">
-        <v>60.4581040925384</v>
+        <v>52.8770795346381</v>
       </c>
       <c r="M47">
-        <v>76.9247829476717</v>
+        <v>73.9073435160321</v>
       </c>
       <c r="N47">
-        <v>41.8334600172041</v>
+        <v>42.2496563353578</v>
       </c>
       <c r="O47">
-        <v>3214.23828695854</v>
+        <v>2893.80090639196</v>
       </c>
       <c r="P47">
-        <v>38.2223982341636</v>
+        <v>40.8669231206282</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1022.13785561043</v>
+        <v>1291.04764137667</v>
       </c>
       <c r="C48">
-        <v>18.9632719464092</v>
+        <v>20.0377958130148</v>
       </c>
       <c r="D48">
-        <v>15.7469124769855</v>
+        <v>11.5990477814696</v>
       </c>
       <c r="E48">
-        <v>70.3897230457265</v>
+        <v>70.725627814616</v>
       </c>
       <c r="F48">
-        <v>17.5441448921265</v>
+        <v>9.52418135448513</v>
       </c>
       <c r="G48">
-        <v>13.6454413377528</v>
+        <v>9.4838456960331</v>
       </c>
       <c r="H48">
-        <v>4.78088139748308</v>
+        <v>2.86749957140151</v>
       </c>
       <c r="I48">
-        <v>17.0957324726145</v>
+        <v>11.2061095706886</v>
       </c>
       <c r="J48">
-        <v>28.7168493767012</v>
+        <v>31.1051928536706</v>
       </c>
       <c r="K48">
-        <v>25.9655105273699</v>
+        <v>25.3667285810014</v>
       </c>
       <c r="L48">
-        <v>47.8543630956582</v>
+        <v>40.8975672832079</v>
       </c>
       <c r="M48">
-        <v>158.87085954325</v>
+        <v>143.753767310528</v>
       </c>
       <c r="N48">
-        <v>22.5203914795704</v>
+        <v>22.8005563895833</v>
       </c>
       <c r="O48">
-        <v>2585.6458559418</v>
+        <v>2355.92591387939</v>
       </c>
       <c r="P48">
-        <v>93.1367277314569</v>
+        <v>97.34324749116971</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>499.335799160177</v>
+        <v>596.609801864499</v>
       </c>
       <c r="C49">
-        <v>5.72231737936771</v>
+        <v>7.33717652296126</v>
       </c>
       <c r="D49">
-        <v>6.97378693970251</v>
+        <v>5.47579768265044</v>
       </c>
       <c r="E49">
-        <v>14.4158410935884</v>
+        <v>16.2012396975724</v>
       </c>
       <c r="F49">
-        <v>40.2390404879857</v>
+        <v>32.4282993562801</v>
       </c>
       <c r="G49">
-        <v>21.2482554764555</v>
+        <v>17.8936706618687</v>
       </c>
       <c r="H49">
-        <v>3.80465069521608</v>
+        <v>4.45650179414465</v>
       </c>
       <c r="I49">
-        <v>10.62684032407</v>
+        <v>8.92386686332369</v>
       </c>
       <c r="J49">
-        <v>23.6163289386363</v>
+        <v>23.2149819431328</v>
       </c>
       <c r="K49">
-        <v>10.3072428806165</v>
+        <v>7.33574785847834</v>
       </c>
       <c r="L49">
-        <v>3.25588606246269</v>
+        <v>2.38055683390912</v>
       </c>
       <c r="M49">
-        <v>6.37649444751241</v>
+        <v>6.92724315889115</v>
       </c>
       <c r="N49">
-        <v>3.85044406952081</v>
+        <v>5.5102029533757</v>
       </c>
       <c r="O49">
-        <v>707.51500187332</v>
+        <v>625.245716586153</v>
       </c>
       <c r="P49">
-        <v>8.197486437747021</v>
+        <v>8.37325186218623</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>696.690274520357</v>
+        <v>962.785407999683</v>
       </c>
       <c r="C50">
-        <v>86.18168856622469</v>
+        <v>79.5271572242533</v>
       </c>
       <c r="D50">
-        <v>13.5596411634424</v>
+        <v>16.1923498512489</v>
       </c>
       <c r="E50">
-        <v>107.631857984285</v>
+        <v>131.833284031675</v>
       </c>
       <c r="F50">
-        <v>3.33196361833343</v>
+        <v>3.61724860427474</v>
       </c>
       <c r="G50">
-        <v>34.3986216253325</v>
+        <v>30.4205793430332</v>
       </c>
       <c r="H50">
-        <v>34.3849523281724</v>
+        <v>37.1726932688793</v>
       </c>
       <c r="I50">
-        <v>19.1646846615891</v>
+        <v>18.384966383123</v>
       </c>
       <c r="J50">
-        <v>99.1965478191225</v>
+        <v>113.222566588933</v>
       </c>
       <c r="K50">
-        <v>124.535424237714</v>
+        <v>122.125633978754</v>
       </c>
       <c r="L50">
-        <v>93.0344950423855</v>
+        <v>72.9124808084441</v>
       </c>
       <c r="M50">
-        <v>33.8358032376481</v>
+        <v>40.504398535607</v>
       </c>
       <c r="N50">
-        <v>83.980532174988</v>
+        <v>64.8818476497155</v>
       </c>
       <c r="O50">
-        <v>2292.6076850184</v>
+        <v>1985.91241713986</v>
       </c>
       <c r="P50">
-        <v>74.17023405969771</v>
+        <v>115.731574170828</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>86.9182773911548</v>
+        <v>112.849277544289</v>
       </c>
       <c r="C51">
-        <v>2.08581836723603</v>
+        <v>1.64211198147999</v>
       </c>
       <c r="D51">
-        <v>0.292808177859809</v>
+        <v>0.318420526661061</v>
       </c>
       <c r="E51">
-        <v>1.52067004698051</v>
+        <v>2.26534196711983</v>
       </c>
       <c r="F51">
-        <v>29.8602575483476</v>
+        <v>27.1098210672952</v>
       </c>
       <c r="G51">
-        <v>1.25513047220786</v>
+        <v>1.74407271527036</v>
       </c>
       <c r="H51">
-        <v>0.298559419284446</v>
+        <v>0.0379579374714209</v>
       </c>
       <c r="I51">
-        <v>1.22541212050894</v>
+        <v>0.778199420365928</v>
       </c>
       <c r="J51">
-        <v>2.15084551125921</v>
+        <v>1.76629648112759</v>
       </c>
       <c r="K51">
-        <v>1.4681190579714</v>
+        <v>1.38172906835933</v>
       </c>
       <c r="L51">
-        <v>0.59137402396837</v>
+        <v>0.325437099699662</v>
       </c>
       <c r="M51">
-        <v>0.710506507114853</v>
+        <v>0.666253033194835</v>
       </c>
       <c r="N51">
-        <v>1.55612432774548</v>
+        <v>1.66876224248091</v>
       </c>
       <c r="O51">
-        <v>250.549872759324</v>
+        <v>228.412842753493</v>
       </c>
       <c r="P51">
-        <v>18.4183007180393</v>
+        <v>18.5655902808556</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2000.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2000.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1174.93301810005</v>
+        <v>1343.97921266764</v>
       </c>
       <c r="C2">
-        <v>35.5330267351719</v>
+        <v>39.457600442663</v>
       </c>
       <c r="D2">
-        <v>74.2741158083238</v>
+        <v>78.21757711512331</v>
       </c>
       <c r="E2">
-        <v>69.87688275151341</v>
+        <v>65.21387003854559</v>
       </c>
       <c r="F2">
-        <v>16.0679128858973</v>
+        <v>15.4314377968831</v>
       </c>
       <c r="G2">
-        <v>21.1582825275171</v>
+        <v>19.9520398277964</v>
       </c>
       <c r="H2">
-        <v>30.34876710846</v>
+        <v>21.5147170730504</v>
       </c>
       <c r="I2">
-        <v>13.3745476372082</v>
+        <v>11.9433189458697</v>
       </c>
       <c r="J2">
-        <v>65.2627862590487</v>
+        <v>65.7161591530915</v>
       </c>
       <c r="K2">
-        <v>20.5035093837951</v>
+        <v>20.4264239915342</v>
       </c>
       <c r="L2">
-        <v>35.1549217743972</v>
+        <v>34.8811885101335</v>
       </c>
       <c r="M2">
-        <v>43.1393573272488</v>
+        <v>41.8853311629683</v>
       </c>
       <c r="N2">
-        <v>25.8955730620663</v>
+        <v>31.1140201510391</v>
       </c>
       <c r="O2">
-        <v>1485.22011155423</v>
+        <v>1326.79669607305</v>
       </c>
       <c r="P2">
-        <v>34.8794376044275</v>
+        <v>36.9182499191253</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>138.118775574274</v>
+        <v>141.168590236323</v>
       </c>
       <c r="C3">
-        <v>4.19975773234988</v>
+        <v>5.39544444110785</v>
       </c>
       <c r="D3">
-        <v>0.347134968040073</v>
+        <v>0.233316516372231</v>
       </c>
       <c r="E3">
-        <v>1.44128961416436</v>
+        <v>1.74987387279173</v>
       </c>
       <c r="F3">
-        <v>12.2524103133718</v>
+        <v>8.953521315784361</v>
       </c>
       <c r="G3">
-        <v>0.62101335312317</v>
+        <v>0.379139339104875</v>
       </c>
       <c r="H3">
-        <v>0.0733628355705014</v>
+        <v>0.0583291290930578</v>
       </c>
       <c r="I3">
-        <v>0.534520510263074</v>
+        <v>0.320810210011817</v>
       </c>
       <c r="J3">
-        <v>0.653797865523632</v>
+        <v>0.583291290930578</v>
       </c>
       <c r="K3">
-        <v>0.438610496936737</v>
+        <v>0.145822822732644</v>
       </c>
       <c r="L3">
-        <v>0.501948656589551</v>
+        <v>0.349974774558347</v>
       </c>
       <c r="M3">
-        <v>1.00903502832555</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="N3">
-        <v>2.07484351113012</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="O3">
-        <v>287.552410791641</v>
+        <v>232.616566823114</v>
       </c>
       <c r="P3">
-        <v>13.3968277640536</v>
+        <v>10.8783825758552</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1238.95865056194</v>
+        <v>1482.14219855815</v>
       </c>
       <c r="C4">
-        <v>12.9652351044082</v>
+        <v>13.4030496639299</v>
       </c>
       <c r="D4">
-        <v>6.19697421117651</v>
+        <v>5.00493626691053</v>
       </c>
       <c r="E4">
-        <v>18.7025173859996</v>
+        <v>24.9964048584684</v>
       </c>
       <c r="F4">
-        <v>14.4490974537198</v>
+        <v>21.9708219174547</v>
       </c>
       <c r="G4">
-        <v>12.1036228179734</v>
+        <v>9.44434301213626</v>
       </c>
       <c r="H4">
-        <v>6.33593563154167</v>
+        <v>7.80430739925032</v>
       </c>
       <c r="I4">
-        <v>8.22757314743405</v>
+        <v>9.41606653605202</v>
       </c>
       <c r="J4">
-        <v>25.7396217630927</v>
+        <v>28.1916466559876</v>
       </c>
       <c r="K4">
-        <v>5.89607176142671</v>
+        <v>10.4340196750847</v>
       </c>
       <c r="L4">
-        <v>81.5735839591194</v>
+        <v>76.4313148557015</v>
       </c>
       <c r="M4">
-        <v>54.4356454953392</v>
+        <v>51.6328453298228</v>
       </c>
       <c r="N4">
-        <v>34.6102120810043</v>
+        <v>26.947481708281</v>
       </c>
       <c r="O4">
-        <v>1996.56009297662</v>
+        <v>1787.97813575868</v>
       </c>
       <c r="P4">
-        <v>28.8695832872613</v>
+        <v>33.0552005424769</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>679.537917768425</v>
+        <v>784.709250703795</v>
       </c>
       <c r="C5">
-        <v>57.4993457483931</v>
+        <v>56.8295026360656</v>
       </c>
       <c r="D5">
-        <v>15.3780244745243</v>
+        <v>13.0370362848062</v>
       </c>
       <c r="E5">
-        <v>38.3669270061173</v>
+        <v>45.6976699836945</v>
       </c>
       <c r="F5">
-        <v>2.02813194002865</v>
+        <v>5.74282809205453</v>
       </c>
       <c r="G5">
-        <v>11.1420265342998</v>
+        <v>10.7507919258841</v>
       </c>
       <c r="H5">
-        <v>13.5628219672621</v>
+        <v>13.4180770112932</v>
       </c>
       <c r="I5">
-        <v>8.31400664828193</v>
+        <v>6.58656112927581</v>
       </c>
       <c r="J5">
-        <v>32.1201452130494</v>
+        <v>33.8854074625966</v>
       </c>
       <c r="K5">
-        <v>26.6069472415479</v>
+        <v>21.3654978780228</v>
       </c>
       <c r="L5">
-        <v>25.9908702108666</v>
+        <v>22.7263576154764</v>
       </c>
       <c r="M5">
-        <v>22.4620568631877</v>
+        <v>24.767647221657</v>
       </c>
       <c r="N5">
-        <v>23.5472567894838</v>
+        <v>22.91687797872</v>
       </c>
       <c r="O5">
-        <v>875.879046197143</v>
+        <v>770.763738099014</v>
       </c>
       <c r="P5">
-        <v>55.8350091429554</v>
+        <v>57.9726248155267</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7801.69623696698</v>
+        <v>9564.961315204229</v>
       </c>
       <c r="C6">
-        <v>193.618981061951</v>
+        <v>200.32350472188</v>
       </c>
       <c r="D6">
-        <v>248.9834014975</v>
+        <v>190.252143947296</v>
       </c>
       <c r="E6">
-        <v>122.086156564498</v>
+        <v>177.94576886383</v>
       </c>
       <c r="F6">
-        <v>52.4954984218427</v>
+        <v>53.22645187445</v>
       </c>
       <c r="G6">
-        <v>102.988497658798</v>
+        <v>99.002856052632</v>
       </c>
       <c r="H6">
-        <v>80.544065674807</v>
+        <v>69.1198869598223</v>
       </c>
       <c r="I6">
-        <v>54.7052479581536</v>
+        <v>49.4738352570704</v>
       </c>
       <c r="J6">
-        <v>193.388546952666</v>
+        <v>185.037110559907</v>
       </c>
       <c r="K6">
-        <v>136.276951675489</v>
+        <v>99.80304636074951</v>
       </c>
       <c r="L6">
-        <v>533.338424064169</v>
+        <v>604.2264609366021</v>
       </c>
       <c r="M6">
-        <v>293.834818861198</v>
+        <v>254.432925212184</v>
       </c>
       <c r="N6">
-        <v>328.654232427027</v>
+        <v>256.557568444083</v>
       </c>
       <c r="O6">
-        <v>12848.4952024916</v>
+        <v>11294.0515653887</v>
       </c>
       <c r="P6">
-        <v>304.26056030778</v>
+        <v>331.968606791865</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>803.042268100891</v>
+        <v>960.2479221817511</v>
       </c>
       <c r="C7">
-        <v>33.4809020272666</v>
+        <v>27.6049068810538</v>
       </c>
       <c r="D7">
-        <v>3.82991009943853</v>
+        <v>4.98578420198625</v>
       </c>
       <c r="E7">
-        <v>16.9661896979708</v>
+        <v>22.9008054023436</v>
       </c>
       <c r="F7">
-        <v>16.1818137017767</v>
+        <v>20.9290263394112</v>
       </c>
       <c r="G7">
-        <v>8.21734670061281</v>
+        <v>9.718053953024031</v>
       </c>
       <c r="H7">
-        <v>8.931847530914579</v>
+        <v>6.36602954603895</v>
       </c>
       <c r="I7">
-        <v>11.0819241576436</v>
+        <v>10.7884483014731</v>
       </c>
       <c r="J7">
-        <v>22.679924582783</v>
+        <v>20.4783339821695</v>
       </c>
       <c r="K7">
-        <v>20.957960087046</v>
+        <v>14.6475016103551</v>
       </c>
       <c r="L7">
-        <v>64.65965743544101</v>
+        <v>66.4207861484948</v>
       </c>
       <c r="M7">
-        <v>20.785494092965</v>
+        <v>19.1262569104444</v>
       </c>
       <c r="N7">
-        <v>30.2991142295866</v>
+        <v>25.8866422690699</v>
       </c>
       <c r="O7">
-        <v>1919.22929284854</v>
+        <v>1773.13640647814</v>
       </c>
       <c r="P7">
-        <v>29.7596738137629</v>
+        <v>56.0548619319358</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>683.502563936542</v>
+        <v>844.897188833971</v>
       </c>
       <c r="C8">
-        <v>11.7539313054235</v>
+        <v>12.2574187704167</v>
       </c>
       <c r="D8">
-        <v>8.390999558210901</v>
+        <v>8.02061532585963</v>
       </c>
       <c r="E8">
-        <v>15.2512970960236</v>
+        <v>23.4756216016025</v>
       </c>
       <c r="F8">
-        <v>3.26298089677003</v>
+        <v>2.26495781627265</v>
       </c>
       <c r="G8">
-        <v>31.5106762168625</v>
+        <v>27.1528472327274</v>
       </c>
       <c r="H8">
-        <v>14.4287935266364</v>
+        <v>8.526900014202919</v>
       </c>
       <c r="I8">
-        <v>1.90187476584133</v>
+        <v>3.38411344313678</v>
       </c>
       <c r="J8">
-        <v>44.5558487473297</v>
+        <v>47.4841744540926</v>
       </c>
       <c r="K8">
-        <v>36.9792853811655</v>
+        <v>27.605838795982</v>
       </c>
       <c r="L8">
-        <v>44.2344299892216</v>
+        <v>44.2599403862221</v>
       </c>
       <c r="M8">
-        <v>59.5977088392022</v>
+        <v>54.039228840011</v>
       </c>
       <c r="N8">
-        <v>36.1348429204992</v>
+        <v>24.3016650404783</v>
       </c>
       <c r="O8">
-        <v>1407.22651869418</v>
+        <v>1274.47843993535</v>
       </c>
       <c r="P8">
-        <v>5.71443554832897</v>
+        <v>6.7149337611848</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>175.375763492827</v>
+        <v>198.834475508492</v>
       </c>
       <c r="C9">
-        <v>8.083238816874211</v>
+        <v>8.578965866405699</v>
       </c>
       <c r="D9">
-        <v>1.41310951039906</v>
+        <v>2.05211143648243</v>
       </c>
       <c r="E9">
-        <v>5.23209526273882</v>
+        <v>5.87131883215806</v>
       </c>
       <c r="F9">
-        <v>2.44953048654049</v>
+        <v>1.82409905465105</v>
       </c>
       <c r="G9">
-        <v>23.3495016005367</v>
+        <v>18.5260060237997</v>
       </c>
       <c r="H9">
-        <v>3.99616924792774</v>
+        <v>3.19217334563933</v>
       </c>
       <c r="I9">
-        <v>1.33761127729205</v>
+        <v>0.912049527325523</v>
       </c>
       <c r="J9">
-        <v>3.55131557351155</v>
+        <v>3.47718882292855</v>
       </c>
       <c r="K9">
-        <v>3.22369265453119</v>
+        <v>2.33712691377165</v>
       </c>
       <c r="L9">
-        <v>2.32925035554488</v>
+        <v>2.62214239106088</v>
       </c>
       <c r="M9">
-        <v>8.27843281353168</v>
+        <v>7.46740550497772</v>
       </c>
       <c r="N9">
-        <v>5.18743843243952</v>
+        <v>4.18972751615162</v>
       </c>
       <c r="O9">
-        <v>345.471250306177</v>
+        <v>287.723124323474</v>
       </c>
       <c r="P9">
-        <v>5.59172542056482</v>
+        <v>4.67425382754331</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4099.74997503439</v>
+        <v>5070.15112654329</v>
       </c>
       <c r="C10">
-        <v>59.9137977218209</v>
+        <v>56.9411619535747</v>
       </c>
       <c r="D10">
-        <v>44.9121322832507</v>
+        <v>32.3004514148122</v>
       </c>
       <c r="E10">
-        <v>55.067892759791</v>
+        <v>77.7520020543124</v>
       </c>
       <c r="F10">
-        <v>10.8499819524753</v>
+        <v>13.2074208487767</v>
       </c>
       <c r="G10">
-        <v>29.763022857497</v>
+        <v>35.8487137323939</v>
       </c>
       <c r="H10">
-        <v>23.7300840085904</v>
+        <v>21.120609033225</v>
       </c>
       <c r="I10">
-        <v>36.2909745331882</v>
+        <v>27.8228822997684</v>
       </c>
       <c r="J10">
-        <v>51.4716419607236</v>
+        <v>50.2388886870312</v>
       </c>
       <c r="K10">
-        <v>42.7944591655927</v>
+        <v>32.7228635954766</v>
       </c>
       <c r="L10">
-        <v>120.948212187835</v>
+        <v>96.8731934323923</v>
       </c>
       <c r="M10">
-        <v>82.6498178161506</v>
+        <v>88.8755228118109</v>
       </c>
       <c r="N10">
-        <v>102.881323972353</v>
+        <v>84.7640442533431</v>
       </c>
       <c r="O10">
-        <v>6724.05276366224</v>
+        <v>5885.72236050689</v>
       </c>
       <c r="P10">
-        <v>98.36685404087569</v>
+        <v>101.350762547436</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1762.36266175183</v>
+        <v>2048.7981724633</v>
       </c>
       <c r="C11">
-        <v>74.863199227918</v>
+        <v>80.1976397400296</v>
       </c>
       <c r="D11">
-        <v>159.850995791374</v>
+        <v>146.495865038706</v>
       </c>
       <c r="E11">
-        <v>94.9128359292398</v>
+        <v>100.523056377284</v>
       </c>
       <c r="F11">
-        <v>11.6420110404795</v>
+        <v>12.9086211512367</v>
       </c>
       <c r="G11">
-        <v>33.0868159234038</v>
+        <v>34.8193070526778</v>
       </c>
       <c r="H11">
-        <v>17.2177878813259</v>
+        <v>30.289966297858</v>
       </c>
       <c r="I11">
-        <v>21.2251949216017</v>
+        <v>20.6934255735833</v>
       </c>
       <c r="J11">
-        <v>50.8986830970877</v>
+        <v>55.4561158668259</v>
       </c>
       <c r="K11">
-        <v>45.6348740088089</v>
+        <v>40.4243662367675</v>
       </c>
       <c r="L11">
-        <v>67.3143271464198</v>
+        <v>69.7518476242262</v>
       </c>
       <c r="M11">
-        <v>66.87631204264039</v>
+        <v>68.0816532208864</v>
       </c>
       <c r="N11">
-        <v>52.6343913979007</v>
+        <v>51.2381672889</v>
       </c>
       <c r="O11">
-        <v>3145.0939248083</v>
+        <v>2849.12518506001</v>
       </c>
       <c r="P11">
-        <v>50.2590333829353</v>
+        <v>62.1652018599029</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>281.407925306831</v>
+        <v>337.556864100583</v>
       </c>
       <c r="C12">
-        <v>10.7773312467925</v>
+        <v>6.72183197905045</v>
       </c>
       <c r="D12">
-        <v>2.36244344930288</v>
+        <v>2.07463949970693</v>
       </c>
       <c r="E12">
-        <v>0.600241408974325</v>
+        <v>2.43424367965613</v>
       </c>
       <c r="F12">
-        <v>1.1148719632194</v>
+        <v>0.719208359898402</v>
       </c>
       <c r="G12">
-        <v>0.45947002951125</v>
+        <v>0.442589759937478</v>
       </c>
       <c r="H12">
-        <v>0.109342646158454</v>
+        <v>0.165971159976554</v>
       </c>
       <c r="I12">
-        <v>1.37689485007995</v>
+        <v>0.995826959859322</v>
       </c>
       <c r="J12">
-        <v>1.37832938694775</v>
+        <v>0.6085609199140321</v>
       </c>
       <c r="K12">
-        <v>0.547013045654241</v>
+        <v>0.414927899941385</v>
       </c>
       <c r="L12">
-        <v>0.173626063368195</v>
+        <v>0.636222779910124</v>
       </c>
       <c r="M12">
-        <v>4.24257998016562</v>
+        <v>3.92798411944512</v>
       </c>
       <c r="N12">
-        <v>4.36484645936269</v>
+        <v>2.60021483963269</v>
       </c>
       <c r="O12">
-        <v>564.734885925277</v>
+        <v>467.651405093937</v>
       </c>
       <c r="P12">
-        <v>20.6299194973977</v>
+        <v>16.8184108776241</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>264.429324841077</v>
+        <v>322.415065550821</v>
       </c>
       <c r="C13">
-        <v>23.5557339026102</v>
+        <v>20.9614346829763</v>
       </c>
       <c r="D13">
-        <v>0.894180039918154</v>
+        <v>1.21967752553177</v>
       </c>
       <c r="E13">
-        <v>16.9713784216064</v>
+        <v>18.2667982893596</v>
       </c>
       <c r="F13">
-        <v>4.23877250454287</v>
+        <v>4.39651201063778</v>
       </c>
       <c r="G13">
-        <v>6.45747009115089</v>
+        <v>5.36090819361639</v>
       </c>
       <c r="H13">
-        <v>1.66757622507092</v>
+        <v>1.84369858510617</v>
       </c>
       <c r="I13">
-        <v>1.08197424252624</v>
+        <v>1.70187561702108</v>
       </c>
       <c r="J13">
-        <v>5.57235792097369</v>
+        <v>5.64455412978657</v>
       </c>
       <c r="K13">
-        <v>5.60124791290859</v>
+        <v>2.55281342553161</v>
       </c>
       <c r="L13">
-        <v>23.5789455780603</v>
+        <v>21.1032576510614</v>
       </c>
       <c r="M13">
-        <v>3.03513497425266</v>
+        <v>3.12010529787197</v>
       </c>
       <c r="N13">
-        <v>6.54218468075124</v>
+        <v>6.9493254361694</v>
       </c>
       <c r="O13">
-        <v>495.680242329677</v>
+        <v>426.376571251013</v>
       </c>
       <c r="P13">
-        <v>50.9872427584277</v>
+        <v>44.6458703531862</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2580.03335619214</v>
+        <v>3241.37836243677</v>
       </c>
       <c r="C14">
-        <v>116.815583512103</v>
+        <v>112.077134291549</v>
       </c>
       <c r="D14">
-        <v>16.4045844108832</v>
+        <v>18.3887366369134</v>
       </c>
       <c r="E14">
-        <v>78.02260353397629</v>
+        <v>124.89940095253</v>
       </c>
       <c r="F14">
-        <v>23.3706858329054</v>
+        <v>31.7648809074392</v>
       </c>
       <c r="G14">
-        <v>107.448299188442</v>
+        <v>78.6229266749957</v>
       </c>
       <c r="H14">
-        <v>59.0432733603508</v>
+        <v>68.87468074699341</v>
       </c>
       <c r="I14">
-        <v>32.050877450834</v>
+        <v>26.4199619753244</v>
       </c>
       <c r="J14">
-        <v>168.078288983167</v>
+        <v>192.057061109931</v>
       </c>
       <c r="K14">
-        <v>185.386509860164</v>
+        <v>153.313322322218</v>
       </c>
       <c r="L14">
-        <v>150.359135452162</v>
+        <v>146.389852202898</v>
       </c>
       <c r="M14">
-        <v>95.08536677546191</v>
+        <v>98.7009900210231</v>
       </c>
       <c r="N14">
-        <v>91.5350383413554</v>
+        <v>81.58617188606451</v>
       </c>
       <c r="O14">
-        <v>4921.83769023812</v>
+        <v>4261.34047068039</v>
       </c>
       <c r="P14">
-        <v>63.6707592270782</v>
+        <v>89.6450911049527</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1278.53595359702</v>
+        <v>1491.48137925415</v>
       </c>
       <c r="C15">
-        <v>26.8341835325958</v>
+        <v>39.7268390283193</v>
       </c>
       <c r="D15">
-        <v>13.9110536292163</v>
+        <v>11.3389274883282</v>
       </c>
       <c r="E15">
-        <v>62.4549559358877</v>
+        <v>67.5464510999217</v>
       </c>
       <c r="F15">
-        <v>13.637933978917</v>
+        <v>13.5850634824362</v>
       </c>
       <c r="G15">
-        <v>42.0069775932179</v>
+        <v>41.4858611923798</v>
       </c>
       <c r="H15">
-        <v>59.5291140081047</v>
+        <v>53.0412837162846</v>
       </c>
       <c r="I15">
-        <v>33.4204583216334</v>
+        <v>23.4897113600689</v>
       </c>
       <c r="J15">
-        <v>170.594721775946</v>
+        <v>159.962769411714</v>
       </c>
       <c r="K15">
-        <v>78.5358058192966</v>
+        <v>63.6766023389887</v>
       </c>
       <c r="L15">
-        <v>61.1680093585932</v>
+        <v>67.5735129793687</v>
       </c>
       <c r="M15">
-        <v>174.867776188037</v>
+        <v>202.476982023082</v>
       </c>
       <c r="N15">
-        <v>97.3413621596373</v>
+        <v>76.1521287640944</v>
       </c>
       <c r="O15">
-        <v>2113.87315747156</v>
+        <v>1919.60735669946</v>
       </c>
       <c r="P15">
-        <v>46.7679877918972</v>
+        <v>41.0799330006735</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>511.424967537138</v>
+        <v>675.161135209775</v>
       </c>
       <c r="C16">
-        <v>64.47049818445289</v>
+        <v>60.1743393175107</v>
       </c>
       <c r="D16">
-        <v>9.722122430163241</v>
+        <v>6.91023648570403</v>
       </c>
       <c r="E16">
-        <v>19.3334200028495</v>
+        <v>24.7386466188204</v>
       </c>
       <c r="F16">
-        <v>4.67814250077173</v>
+        <v>3.37219540502357</v>
       </c>
       <c r="G16">
-        <v>12.0714988738678</v>
+        <v>11.3604287824974</v>
       </c>
       <c r="H16">
-        <v>14.6021353823719</v>
+        <v>17.883692025002</v>
       </c>
       <c r="I16">
-        <v>9.608848524803481</v>
+        <v>9.84017675564257</v>
       </c>
       <c r="J16">
-        <v>46.3639426440091</v>
+        <v>45.1929466165044</v>
       </c>
       <c r="K16">
-        <v>51.9074262730038</v>
+        <v>48.4545782377567</v>
       </c>
       <c r="L16">
-        <v>35.9355915487855</v>
+        <v>38.3103510767432</v>
       </c>
       <c r="M16">
-        <v>23.5836273532694</v>
+        <v>28.5530971589291</v>
       </c>
       <c r="N16">
-        <v>27.3064034293261</v>
+        <v>19.7909172950564</v>
       </c>
       <c r="O16">
-        <v>1170.11814881531</v>
+        <v>993.747288536124</v>
       </c>
       <c r="P16">
-        <v>96.13903885227759</v>
+        <v>80.9050487746228</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>499.410253437389</v>
+        <v>628.920339012411</v>
       </c>
       <c r="C17">
-        <v>29.413712565773</v>
+        <v>32.9487394217434</v>
       </c>
       <c r="D17">
-        <v>4.82067514854407</v>
+        <v>4.40078566430917</v>
       </c>
       <c r="E17">
-        <v>12.4648835397321</v>
+        <v>24.0042854416864</v>
       </c>
       <c r="F17">
-        <v>11.504180461713</v>
+        <v>16.4029283851523</v>
       </c>
       <c r="G17">
-        <v>8.81474306437539</v>
+        <v>9.001607040632401</v>
       </c>
       <c r="H17">
-        <v>10.3321988862172</v>
+        <v>14.7454896284645</v>
       </c>
       <c r="I17">
-        <v>9.280265288101401</v>
+        <v>6.74406114790237</v>
       </c>
       <c r="J17">
-        <v>19.9386853500069</v>
+        <v>19.4320405956509</v>
       </c>
       <c r="K17">
-        <v>22.4391157447726</v>
+        <v>21.4323977157914</v>
       </c>
       <c r="L17">
-        <v>13.2512453209743</v>
+        <v>11.516341705952</v>
       </c>
       <c r="M17">
-        <v>74.03377195291751</v>
+        <v>68.4407900390939</v>
       </c>
       <c r="N17">
-        <v>15.4160903131075</v>
+        <v>14.1453824924224</v>
       </c>
       <c r="O17">
-        <v>1100.12504082202</v>
+        <v>923.679188490035</v>
       </c>
       <c r="P17">
-        <v>66.06499873536021</v>
+        <v>69.84104002319241</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1061.80441196729</v>
+        <v>1190.34257916712</v>
       </c>
       <c r="C18">
-        <v>33.6772139511628</v>
+        <v>34.5842310837939</v>
       </c>
       <c r="D18">
-        <v>19.0923489659038</v>
+        <v>22.7891299074521</v>
       </c>
       <c r="E18">
-        <v>36.8242514962095</v>
+        <v>46.2688395090694</v>
       </c>
       <c r="F18">
-        <v>33.4733421540369</v>
+        <v>29.9435355390037</v>
       </c>
       <c r="G18">
-        <v>27.9052295199838</v>
+        <v>22.512898029786</v>
       </c>
       <c r="H18">
-        <v>21.4513119577414</v>
+        <v>22.4576516542528</v>
       </c>
       <c r="I18">
-        <v>9.6347284492202</v>
+        <v>10.5796809146111</v>
       </c>
       <c r="J18">
-        <v>45.9383033312776</v>
+        <v>50.5780568006603</v>
       </c>
       <c r="K18">
-        <v>36.7437142152957</v>
+        <v>31.9324050581995</v>
       </c>
       <c r="L18">
-        <v>39.1971245102415</v>
+        <v>33.8107818263289</v>
       </c>
       <c r="M18">
-        <v>65.24979822067441</v>
+        <v>68.8369839143886</v>
       </c>
       <c r="N18">
-        <v>19.8654772529264</v>
+        <v>23.5349559771505</v>
       </c>
       <c r="O18">
-        <v>1427.01961310478</v>
+        <v>1250.1426087534</v>
       </c>
       <c r="P18">
-        <v>48.4405126678001</v>
+        <v>40.8270715190475</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1167.57532533381</v>
+        <v>1334.57366215959</v>
       </c>
       <c r="C19">
-        <v>25.3578154964503</v>
+        <v>23.1811287598321</v>
       </c>
       <c r="D19">
-        <v>9.969350288874111</v>
+        <v>9.822512186369529</v>
       </c>
       <c r="E19">
-        <v>34.5700539136799</v>
+        <v>39.1497271428156</v>
       </c>
       <c r="F19">
-        <v>83.87182243567671</v>
+        <v>80.82524313355491</v>
       </c>
       <c r="G19">
-        <v>40.9256708752739</v>
+        <v>42.4893812861813</v>
       </c>
       <c r="H19">
-        <v>5.05603578668056</v>
+        <v>6.42672940193891</v>
       </c>
       <c r="I19">
-        <v>7.12766897665436</v>
+        <v>6.67930828673127</v>
       </c>
       <c r="J19">
-        <v>13.8999714538228</v>
+        <v>23.6301578883518</v>
       </c>
       <c r="K19">
-        <v>14.514098574496</v>
+        <v>12.0957221495007</v>
       </c>
       <c r="L19">
-        <v>6.2678091616525</v>
+        <v>7.40898062057586</v>
       </c>
       <c r="M19">
-        <v>29.9221382284247</v>
+        <v>29.1027003921863</v>
       </c>
       <c r="N19">
-        <v>6.48671552488721</v>
+        <v>10.6363774818115</v>
       </c>
       <c r="O19">
-        <v>1619.24100276863</v>
+        <v>1415.28368445318</v>
       </c>
       <c r="P19">
-        <v>38.2665899701676</v>
+        <v>37.3816749492691</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>283.126720181066</v>
+        <v>337.841306152238</v>
       </c>
       <c r="C20">
-        <v>7.8315779329782</v>
+        <v>8.333525429049541</v>
       </c>
       <c r="D20">
-        <v>15.4953358539651</v>
+        <v>16.0941209848519</v>
       </c>
       <c r="E20">
-        <v>36.9185283653424</v>
+        <v>35.6518634761526</v>
       </c>
       <c r="F20">
-        <v>0.639025073740648</v>
+        <v>0.494803072349817</v>
       </c>
       <c r="G20">
-        <v>1.42883460683871</v>
+        <v>1.61462055187835</v>
       </c>
       <c r="H20">
-        <v>3.75551272525989</v>
+        <v>1.82295868760459</v>
       </c>
       <c r="I20">
-        <v>0.931377876052821</v>
+        <v>1.66670508580991</v>
       </c>
       <c r="J20">
-        <v>3.77839062789158</v>
+        <v>6.53660900841074</v>
       </c>
       <c r="K20">
-        <v>4.97378158682476</v>
+        <v>4.03655137969587</v>
       </c>
       <c r="L20">
-        <v>10.1498617232843</v>
+        <v>8.3856099629811</v>
       </c>
       <c r="M20">
-        <v>17.3174357190456</v>
+        <v>16.0420364509204</v>
       </c>
       <c r="N20">
-        <v>5.46131870432886</v>
+        <v>6.82307394503431</v>
       </c>
       <c r="O20">
-        <v>526.5588211787521</v>
+        <v>451.02602158034</v>
       </c>
       <c r="P20">
-        <v>24.4002121973516</v>
+        <v>25.781844296122</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1071.50129846596</v>
+        <v>1269.9484280236</v>
       </c>
       <c r="C21">
-        <v>22.2864835956469</v>
+        <v>25.5066307126345</v>
       </c>
       <c r="D21">
-        <v>11.1566661269307</v>
+        <v>11.7145837888345</v>
       </c>
       <c r="E21">
-        <v>29.1287655170974</v>
+        <v>41.5781163539665</v>
       </c>
       <c r="F21">
-        <v>6.52887977326885</v>
+        <v>4.09721896062681</v>
       </c>
       <c r="G21">
-        <v>23.9936501774616</v>
+        <v>21.1208752054847</v>
       </c>
       <c r="H21">
-        <v>9.83579624725976</v>
+        <v>7.87704772007831</v>
       </c>
       <c r="I21">
-        <v>4.82592957052863</v>
+        <v>6.83831615259546</v>
       </c>
       <c r="J21">
-        <v>25.786631026419</v>
+        <v>27.0935817185112</v>
       </c>
       <c r="K21">
-        <v>12.0684671163361</v>
+        <v>11.5414618609207</v>
       </c>
       <c r="L21">
-        <v>26.5153785754287</v>
+        <v>39.904604384133</v>
       </c>
       <c r="M21">
-        <v>39.518998403467</v>
+        <v>29.8346789104798</v>
       </c>
       <c r="N21">
-        <v>19.812067175208</v>
+        <v>20.197558256611</v>
       </c>
       <c r="O21">
-        <v>2385.18081797903</v>
+        <v>2189.64614425386</v>
       </c>
       <c r="P21">
-        <v>20.0427974087206</v>
+        <v>18.4951926321253</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1298.54635221346</v>
+        <v>1594.354587936</v>
       </c>
       <c r="C22">
-        <v>20.7599748595419</v>
+        <v>24.6139067555014</v>
       </c>
       <c r="D22">
-        <v>27.8782694769585</v>
+        <v>30.6451289406243</v>
       </c>
       <c r="E22">
-        <v>33.2417860273615</v>
+        <v>55.177532693624</v>
       </c>
       <c r="F22">
-        <v>1.8838291751495</v>
+        <v>3.06994642756253</v>
       </c>
       <c r="G22">
-        <v>29.3748401441832</v>
+        <v>26.4884758130396</v>
       </c>
       <c r="H22">
-        <v>28.6671647445588</v>
+        <v>22.7121700304626</v>
       </c>
       <c r="I22">
-        <v>8.58593237404566</v>
+        <v>9.94336630520259</v>
       </c>
       <c r="J22">
-        <v>55.0658713853736</v>
+        <v>55.5307123711312</v>
       </c>
       <c r="K22">
-        <v>39.1625192480967</v>
+        <v>30.9439732831303</v>
       </c>
       <c r="L22">
-        <v>125.346198045471</v>
+        <v>134.289780455236</v>
       </c>
       <c r="M22">
-        <v>23.2810186038064</v>
+        <v>18.3381755628736</v>
       </c>
       <c r="N22">
-        <v>86.63458562551899</v>
+        <v>56.7260897411555</v>
       </c>
       <c r="O22">
-        <v>2723.7463433108</v>
+        <v>2461.52651388764</v>
       </c>
       <c r="P22">
-        <v>14.1562055611639</v>
+        <v>14.8607141228027</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2194.73486771082</v>
+        <v>2643.78457471328</v>
       </c>
       <c r="C23">
-        <v>47.9540110088252</v>
+        <v>50.1219920516037</v>
       </c>
       <c r="D23">
-        <v>13.7534518042087</v>
+        <v>12.1353620520451</v>
       </c>
       <c r="E23">
-        <v>53.3161114693189</v>
+        <v>77.3394928129235</v>
       </c>
       <c r="F23">
-        <v>5.32258953716258</v>
+        <v>14.573150013935</v>
       </c>
       <c r="G23">
-        <v>59.2025615153283</v>
+        <v>52.1579468329623</v>
       </c>
       <c r="H23">
-        <v>69.5467681276909</v>
+        <v>68.15090741810781</v>
       </c>
       <c r="I23">
-        <v>19.6626526170582</v>
+        <v>20.0380812691607</v>
       </c>
       <c r="J23">
-        <v>156.922848561229</v>
+        <v>165.046281683555</v>
       </c>
       <c r="K23">
-        <v>136.393346196432</v>
+        <v>112.138246246934</v>
       </c>
       <c r="L23">
-        <v>46.8290119895144</v>
+        <v>46.4519156694178</v>
       </c>
       <c r="M23">
-        <v>557.197633045627</v>
+        <v>508.399340008196</v>
       </c>
       <c r="N23">
-        <v>88.2523251297616</v>
+        <v>76.5894042092651</v>
       </c>
       <c r="O23">
-        <v>3502.18323850676</v>
+        <v>3084.0964494564</v>
       </c>
       <c r="P23">
-        <v>61.079106895895</v>
+        <v>69.8921845337435</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>836.16607058004</v>
+        <v>1041.42768372406</v>
       </c>
       <c r="C24">
-        <v>58.7760589837408</v>
+        <v>70.5347100589325</v>
       </c>
       <c r="D24">
-        <v>11.3361871517977</v>
+        <v>8.07504556187549</v>
       </c>
       <c r="E24">
-        <v>55.0964366476694</v>
+        <v>73.271554360105</v>
       </c>
       <c r="F24">
-        <v>14.2070746682447</v>
+        <v>13.5216366958922</v>
       </c>
       <c r="G24">
-        <v>27.0769480886784</v>
+        <v>14.5784379607013</v>
       </c>
       <c r="H24">
-        <v>22.7859060864359</v>
+        <v>21.5966822577677</v>
       </c>
       <c r="I24">
-        <v>16.2103236068702</v>
+        <v>15.7707265671528</v>
       </c>
       <c r="J24">
-        <v>42.6312818994988</v>
+        <v>63.4893682935378</v>
       </c>
       <c r="K24">
-        <v>78.69359547273839</v>
+        <v>53.1381353920733</v>
       </c>
       <c r="L24">
-        <v>60.724690679954</v>
+        <v>75.62903410467941</v>
       </c>
       <c r="M24">
-        <v>26.6610489372086</v>
+        <v>32.1917923741882</v>
       </c>
       <c r="N24">
-        <v>70.12849674488351</v>
+        <v>53.923961973598</v>
       </c>
       <c r="O24">
-        <v>2003.45395868197</v>
+        <v>1800.27450333665</v>
       </c>
       <c r="P24">
-        <v>113.452973863144</v>
+        <v>119.581127733411</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>733.045742872044</v>
+        <v>847.8459047694601</v>
       </c>
       <c r="C25">
-        <v>41.5398894820391</v>
+        <v>30.4824116612773</v>
       </c>
       <c r="D25">
-        <v>22.6578385427548</v>
+        <v>23.2805231918547</v>
       </c>
       <c r="E25">
-        <v>41.1902110990907</v>
+        <v>36.1490138290789</v>
       </c>
       <c r="F25">
-        <v>19.4167302041076</v>
+        <v>13.4826051578727</v>
       </c>
       <c r="G25">
-        <v>8.15980001302894</v>
+        <v>9.40711788447844</v>
       </c>
       <c r="H25">
-        <v>16.7081911766428</v>
+        <v>14.0408910857348</v>
       </c>
       <c r="I25">
-        <v>5.68710696082236</v>
+        <v>5.69451646419466</v>
       </c>
       <c r="J25">
-        <v>20.3217635369228</v>
+        <v>19.4562645859985</v>
       </c>
       <c r="K25">
-        <v>21.4683467957189</v>
+        <v>16.3019490935769</v>
       </c>
       <c r="L25">
-        <v>23.7849947009964</v>
+        <v>24.4529236403653</v>
       </c>
       <c r="M25">
-        <v>29.2412605140203</v>
+        <v>27.6909820219662</v>
       </c>
       <c r="N25">
-        <v>41.0986836029616</v>
+        <v>52.5905344046214</v>
       </c>
       <c r="O25">
-        <v>924.69986632109</v>
+        <v>788.523044512602</v>
       </c>
       <c r="P25">
-        <v>41.914110494024</v>
+        <v>39.7499580637902</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1144.67145037333</v>
+        <v>1446.34990705824</v>
       </c>
       <c r="C26">
-        <v>65.1256585897827</v>
+        <v>64.3287303194743</v>
       </c>
       <c r="D26">
-        <v>18.9674010200902</v>
+        <v>23.4334310182687</v>
       </c>
       <c r="E26">
-        <v>42.3058997019624</v>
+        <v>60.0835435408024</v>
       </c>
       <c r="F26">
-        <v>7.37381055845404</v>
+        <v>12.1412341870015</v>
       </c>
       <c r="G26">
-        <v>36.1983808326766</v>
+        <v>28.5276551526749</v>
       </c>
       <c r="H26">
-        <v>22.9154958933314</v>
+        <v>21.4240426096973</v>
       </c>
       <c r="I26">
-        <v>17.7199214424248</v>
+        <v>15.339274893601</v>
       </c>
       <c r="J26">
-        <v>67.6934918215172</v>
+        <v>64.64004401657699</v>
       </c>
       <c r="K26">
-        <v>48.7869668204523</v>
+        <v>40.9519017915879</v>
       </c>
       <c r="L26">
-        <v>42.2865878366117</v>
+        <v>46.8951632817286</v>
       </c>
       <c r="M26">
-        <v>76.7019754004578</v>
+        <v>80.6585487947654</v>
       </c>
       <c r="N26">
-        <v>40.9489016750515</v>
+        <v>42.8480852193947</v>
       </c>
       <c r="O26">
-        <v>2220.48926267947</v>
+        <v>1918.42820652701</v>
       </c>
       <c r="P26">
-        <v>74.9038080608612</v>
+        <v>80.4604400784274</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>202.815813160662</v>
+        <v>238.495178910905</v>
       </c>
       <c r="C27">
-        <v>3.15874453456042</v>
+        <v>2.86277994644361</v>
       </c>
       <c r="D27">
-        <v>0.879638441885766</v>
+        <v>1.107301677398</v>
       </c>
       <c r="E27">
-        <v>11.2672454232149</v>
+        <v>9.6416268007582</v>
       </c>
       <c r="F27">
-        <v>7.70287572423129</v>
+        <v>7.5620602358888</v>
       </c>
       <c r="G27">
-        <v>0.795553642892783</v>
+        <v>0.810220739559513</v>
       </c>
       <c r="H27">
-        <v>0.301765543854024</v>
+        <v>0.324088295823805</v>
       </c>
       <c r="I27">
-        <v>2.37695658167397</v>
+        <v>1.2693458253099</v>
       </c>
       <c r="J27">
-        <v>4.26815129646174</v>
+        <v>3.99708898182693</v>
       </c>
       <c r="K27">
-        <v>1.93721201155647</v>
+        <v>1.107301677398</v>
       </c>
       <c r="L27">
-        <v>1.68738160716954</v>
+        <v>1.40438261523649</v>
       </c>
       <c r="M27">
-        <v>1.03906291945144</v>
+        <v>0.891242813515465</v>
       </c>
       <c r="N27">
-        <v>4.87786409480685</v>
+        <v>4.1051184137682</v>
       </c>
       <c r="O27">
-        <v>382.501803821627</v>
+        <v>321.5225968152</v>
       </c>
       <c r="P27">
-        <v>46.7845383905165</v>
+        <v>44.0219935160669</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>286.922746008422</v>
+        <v>372.913011121286</v>
       </c>
       <c r="C28">
-        <v>34.7585806106615</v>
+        <v>34.8221544886528</v>
       </c>
       <c r="D28">
-        <v>4.33092377725979</v>
+        <v>1.98584174192317</v>
       </c>
       <c r="E28">
-        <v>7.09281011063054</v>
+        <v>9.229968659642919</v>
       </c>
       <c r="F28">
-        <v>2.28175366345863</v>
+        <v>2.06975054791992</v>
       </c>
       <c r="G28">
-        <v>5.61522358645218</v>
+        <v>4.5310755238247</v>
       </c>
       <c r="H28">
-        <v>8.18680509494431</v>
+        <v>6.60082607174464</v>
       </c>
       <c r="I28">
-        <v>4.44851910497276</v>
+        <v>4.3632579118312</v>
       </c>
       <c r="J28">
-        <v>16.3178645438519</v>
+        <v>14.7959194574276</v>
       </c>
       <c r="K28">
-        <v>16.2284044559379</v>
+        <v>17.1173964233378</v>
       </c>
       <c r="L28">
-        <v>16.6684898859018</v>
+        <v>14.0407402034568</v>
       </c>
       <c r="M28">
-        <v>8.66350121369876</v>
+        <v>9.70545189362455</v>
       </c>
       <c r="N28">
-        <v>10.2055922872712</v>
+        <v>10.8242359735813</v>
       </c>
       <c r="O28">
-        <v>708.941594021939</v>
+        <v>601.458321384732</v>
       </c>
       <c r="P28">
-        <v>93.3032766535722</v>
+        <v>89.2789695805461</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>448.735544529219</v>
+        <v>539.06509489463</v>
       </c>
       <c r="C29">
-        <v>4.61838601084655</v>
+        <v>5.33182180475024</v>
       </c>
       <c r="D29">
-        <v>1.83548605826959</v>
+        <v>1.58079138934806</v>
       </c>
       <c r="E29">
-        <v>4.48462918761878</v>
+        <v>7.1001647148684</v>
       </c>
       <c r="F29">
-        <v>17.3920107572246</v>
+        <v>17.1475676132671</v>
       </c>
       <c r="G29">
-        <v>2.09413501408638</v>
+        <v>2.08985980286692</v>
       </c>
       <c r="H29">
-        <v>2.5178861869825</v>
+        <v>2.89365203473882</v>
       </c>
       <c r="I29">
-        <v>5.2117843200854</v>
+        <v>3.34913429946622</v>
       </c>
       <c r="J29">
-        <v>4.83848558811727</v>
+        <v>6.91261319409829</v>
       </c>
       <c r="K29">
-        <v>4.62915443511647</v>
+        <v>2.84006588594736</v>
       </c>
       <c r="L29">
-        <v>3.72320714051163</v>
+        <v>5.78730406947764</v>
       </c>
       <c r="M29">
-        <v>2.06673135784762</v>
+        <v>3.5098927458406</v>
       </c>
       <c r="N29">
-        <v>10.7340577645997</v>
+        <v>10.5832643863133</v>
       </c>
       <c r="O29">
-        <v>928.137992348701</v>
+        <v>807.114573096966</v>
       </c>
       <c r="P29">
-        <v>5.54207863149111</v>
+        <v>5.81409714387337</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>222.171390706752</v>
+        <v>266.778200247124</v>
       </c>
       <c r="C30">
-        <v>4.10838532576123</v>
+        <v>3.7151910518131</v>
       </c>
       <c r="D30">
-        <v>6.53620093872107</v>
+        <v>6.06988960577914</v>
       </c>
       <c r="E30">
-        <v>14.6418689127746</v>
+        <v>16.9799929058218</v>
       </c>
       <c r="F30">
-        <v>0.5179647575744</v>
+        <v>0.837226152521261</v>
       </c>
       <c r="G30">
-        <v>3.25868784205621</v>
+        <v>3.97682422447599</v>
       </c>
       <c r="H30">
-        <v>5.72494317202268</v>
+        <v>5.28499008779046</v>
       </c>
       <c r="I30">
-        <v>3.36299266142818</v>
+        <v>2.64249504389523</v>
       </c>
       <c r="J30">
-        <v>17.9831324655406</v>
+        <v>20.1457542950429</v>
       </c>
       <c r="K30">
-        <v>14.5486996193119</v>
+        <v>10.5438168583146</v>
       </c>
       <c r="L30">
-        <v>40.5612286622742</v>
+        <v>36.9949306145333</v>
       </c>
       <c r="M30">
-        <v>11.0117134511945</v>
+        <v>9.130997725935011</v>
       </c>
       <c r="N30">
-        <v>16.4050442668548</v>
+        <v>14.6514576691221</v>
       </c>
       <c r="O30">
-        <v>535.2704750243551</v>
+        <v>471.175180648606</v>
       </c>
       <c r="P30">
-        <v>7.73711995032195</v>
+        <v>7.87515849715311</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1858.41531377318</v>
+        <v>2297.69444906306</v>
       </c>
       <c r="C31">
-        <v>43.235377287854</v>
+        <v>45.3328347981114</v>
       </c>
       <c r="D31">
-        <v>51.4051439485802</v>
+        <v>40.6768794406179</v>
       </c>
       <c r="E31">
-        <v>33.4241998665741</v>
+        <v>57.2654628999514</v>
       </c>
       <c r="F31">
-        <v>6.48203346235117</v>
+        <v>9.59071043699279</v>
       </c>
       <c r="G31">
-        <v>139.077806923651</v>
+        <v>132.987467396673</v>
       </c>
       <c r="H31">
-        <v>30.0728091888883</v>
+        <v>26.6253734515354</v>
       </c>
       <c r="I31">
-        <v>22.3681845117937</v>
+        <v>19.0977809573839</v>
       </c>
       <c r="J31">
-        <v>46.54083542214</v>
+        <v>47.8699122683625</v>
       </c>
       <c r="K31">
-        <v>38.9760667505647</v>
+        <v>30.4449296430122</v>
       </c>
       <c r="L31">
-        <v>67.4084494791025</v>
+        <v>80.12704010441109</v>
       </c>
       <c r="M31">
-        <v>22.3269839601783</v>
+        <v>25.6216944523152</v>
       </c>
       <c r="N31">
-        <v>59.1939994599282</v>
+        <v>52.4422277092544</v>
       </c>
       <c r="O31">
-        <v>3565.9085714134</v>
+        <v>3138.2533108117</v>
       </c>
       <c r="P31">
-        <v>8.345276081510249</v>
+        <v>13.9957460446814</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>452.654894798486</v>
+        <v>536.656818857286</v>
       </c>
       <c r="C32">
-        <v>5.84327257363276</v>
+        <v>6.08903720727616</v>
       </c>
       <c r="D32">
-        <v>1.82026783348965</v>
+        <v>1.40076442796494</v>
       </c>
       <c r="E32">
-        <v>1.2556964786481</v>
+        <v>5.66023177014403</v>
       </c>
       <c r="F32">
-        <v>24.7749343528191</v>
+        <v>20.0680944577834</v>
       </c>
       <c r="G32">
-        <v>2.35994795557054</v>
+        <v>1.88674392338135</v>
       </c>
       <c r="H32">
-        <v>2.80039372160079</v>
+        <v>0.54315355370069</v>
       </c>
       <c r="I32">
-        <v>3.11475843539077</v>
+        <v>3.40185646791486</v>
       </c>
       <c r="J32">
-        <v>4.9863528532294</v>
+        <v>4.28805437132124</v>
       </c>
       <c r="K32">
-        <v>3.29551565241414</v>
+        <v>2.02967906909206</v>
       </c>
       <c r="L32">
-        <v>16.9910248593494</v>
+        <v>14.4078626876393</v>
       </c>
       <c r="M32">
-        <v>3.55848728082517</v>
+        <v>4.80262089587979</v>
       </c>
       <c r="N32">
-        <v>10.6540688520045</v>
+        <v>9.776763966612419</v>
       </c>
       <c r="O32">
-        <v>712.853141821621</v>
+        <v>621.167556229595</v>
       </c>
       <c r="P32">
-        <v>26.2320508195919</v>
+        <v>23.7272341879775</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4752.21183691248</v>
+        <v>5619.99657519564</v>
       </c>
       <c r="C33">
-        <v>84.1008110523767</v>
+        <v>87.7366116733883</v>
       </c>
       <c r="D33">
-        <v>133.219565723676</v>
+        <v>105.19135037067</v>
       </c>
       <c r="E33">
-        <v>66.37772386340831</v>
+        <v>121.121182099078</v>
       </c>
       <c r="F33">
-        <v>10.8886700539726</v>
+        <v>10.9194231163962</v>
       </c>
       <c r="G33">
-        <v>74.8199210021285</v>
+        <v>84.8501806251639</v>
       </c>
       <c r="H33">
-        <v>42.8503837127066</v>
+        <v>37.3874512189827</v>
       </c>
       <c r="I33">
-        <v>40.1982339907232</v>
+        <v>37.8503694059621</v>
       </c>
       <c r="J33">
-        <v>109.138915300434</v>
+        <v>112.843115696623</v>
       </c>
       <c r="K33">
-        <v>118.834686732025</v>
+        <v>124.252687481586</v>
       </c>
       <c r="L33">
-        <v>142.837766270987</v>
+        <v>145.655846008987</v>
       </c>
       <c r="M33">
-        <v>81.9480122310428</v>
+        <v>76.5176532595348</v>
       </c>
       <c r="N33">
-        <v>157.334623455795</v>
+        <v>116.682613600394</v>
       </c>
       <c r="O33">
-        <v>7552.49129648211</v>
+        <v>6723.34205624393</v>
       </c>
       <c r="P33">
-        <v>75.9561666645421</v>
+        <v>88.1995298603678</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1767.6787084125</v>
+        <v>2077.24237762879</v>
       </c>
       <c r="C34">
-        <v>75.68443255687259</v>
+        <v>69.30657972962381</v>
       </c>
       <c r="D34">
-        <v>219.561030113084</v>
+        <v>206.309861943183</v>
       </c>
       <c r="E34">
-        <v>67.2371839371266</v>
+        <v>82.24016980515199</v>
       </c>
       <c r="F34">
-        <v>7.50988662338703</v>
+        <v>7.77652567832393</v>
       </c>
       <c r="G34">
-        <v>63.3483564843332</v>
+        <v>59.3471696503668</v>
       </c>
       <c r="H34">
-        <v>44.1150853032022</v>
+        <v>40.2196450871911</v>
       </c>
       <c r="I34">
-        <v>22.6153730369481</v>
+        <v>24.6938797855549</v>
       </c>
       <c r="J34">
-        <v>61.3186765325133</v>
+        <v>63.3582197370812</v>
       </c>
       <c r="K34">
-        <v>65.556693770599</v>
+        <v>49.9334806713431</v>
       </c>
       <c r="L34">
-        <v>117.000351549141</v>
+        <v>101.476838588374</v>
       </c>
       <c r="M34">
-        <v>43.6752479923283</v>
+        <v>56.4821338741422</v>
       </c>
       <c r="N34">
-        <v>133.286949671483</v>
+        <v>124.915559843393</v>
       </c>
       <c r="O34">
-        <v>2912.86236382146</v>
+        <v>2649.72151612757</v>
       </c>
       <c r="P34">
-        <v>69.8707144196208</v>
+        <v>62.4577799216964</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>120.267694476035</v>
+        <v>153.361672850596</v>
       </c>
       <c r="C35">
-        <v>6.53535264104443</v>
+        <v>6.5773096280891</v>
       </c>
       <c r="D35">
-        <v>0.608090931308151</v>
+        <v>0.344662513262311</v>
       </c>
       <c r="E35">
-        <v>3.29545222219187</v>
+        <v>1.98180945125829</v>
       </c>
       <c r="F35">
-        <v>5.56255082835594</v>
+        <v>5.34226895556582</v>
       </c>
       <c r="G35">
-        <v>0.367125773548351</v>
+        <v>0.545715645998659</v>
       </c>
       <c r="H35">
-        <v>0.523179195479121</v>
+        <v>0.373384389367503</v>
       </c>
       <c r="I35">
-        <v>1.2688903540981</v>
+        <v>0.976543787576549</v>
       </c>
       <c r="J35">
-        <v>2.12530816404104</v>
+        <v>2.38391571673098</v>
       </c>
       <c r="K35">
-        <v>6.10838576873849</v>
+        <v>6.00287210598524</v>
       </c>
       <c r="L35">
-        <v>2.79307038560546</v>
+        <v>2.03925320346867</v>
       </c>
       <c r="M35">
-        <v>2.5032703904387</v>
+        <v>2.3264719645206</v>
       </c>
       <c r="N35">
-        <v>1.87459449089044</v>
+        <v>2.24030633620502</v>
       </c>
       <c r="O35">
-        <v>267.452785699784</v>
+        <v>223.341308593977</v>
       </c>
       <c r="P35">
-        <v>46.738496591983</v>
+        <v>40.7276203171631</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2494.9124623337</v>
+        <v>2968.38984406185</v>
       </c>
       <c r="C36">
-        <v>67.641929977601</v>
+        <v>74.615562686895</v>
       </c>
       <c r="D36">
-        <v>11.4384843496147</v>
+        <v>20.5817309012614</v>
       </c>
       <c r="E36">
-        <v>81.2657006566573</v>
+        <v>118.358529021897</v>
       </c>
       <c r="F36">
-        <v>32.3471746494728</v>
+        <v>25.0347703047006</v>
       </c>
       <c r="G36">
-        <v>92.7613941516279</v>
+        <v>79.80172443114429</v>
       </c>
       <c r="H36">
-        <v>112.276394009257</v>
+        <v>114.475695883533</v>
       </c>
       <c r="I36">
-        <v>50.7892767778012</v>
+        <v>55.8802139773035</v>
       </c>
       <c r="J36">
-        <v>235.504135804905</v>
+        <v>260.095514911851</v>
       </c>
       <c r="K36">
-        <v>175.712126374962</v>
+        <v>133.862708896067</v>
       </c>
       <c r="L36">
-        <v>105.899535181015</v>
+        <v>105.73253315239</v>
       </c>
       <c r="M36">
-        <v>242.544674479544</v>
+        <v>251.895405766494</v>
       </c>
       <c r="N36">
-        <v>101.656372451498</v>
+        <v>88.46342912441921</v>
       </c>
       <c r="O36">
-        <v>4183.9981744122</v>
+        <v>3693.00875745339</v>
       </c>
       <c r="P36">
-        <v>53.2937689493978</v>
+        <v>53.8437630306087</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>824.61916033759</v>
+        <v>956.09506822759</v>
       </c>
       <c r="C37">
-        <v>24.2534164563167</v>
+        <v>26.5928010085304</v>
       </c>
       <c r="D37">
-        <v>10.0108574388245</v>
+        <v>9.065075640448351</v>
       </c>
       <c r="E37">
-        <v>19.642354335066</v>
+        <v>19.1055075206918</v>
       </c>
       <c r="F37">
-        <v>42.8427667511922</v>
+        <v>47.9358904911051</v>
       </c>
       <c r="G37">
-        <v>8.512860418402459</v>
+        <v>5.88082438699973</v>
       </c>
       <c r="H37">
-        <v>22.5407246598616</v>
+        <v>19.8226812264234</v>
       </c>
       <c r="I37">
-        <v>15.6590828418084</v>
+        <v>11.7042748775409</v>
       </c>
       <c r="J37">
-        <v>31.5462289216954</v>
+        <v>37.3504065945056</v>
       </c>
       <c r="K37">
-        <v>38.3470426628105</v>
+        <v>27.6542180930133</v>
       </c>
       <c r="L37">
-        <v>22.8894593513891</v>
+        <v>22.0028892918477</v>
       </c>
       <c r="M37">
-        <v>32.0442595219606</v>
+        <v>34.4530248233496</v>
       </c>
       <c r="N37">
-        <v>13.2750720339601</v>
+        <v>15.4048911991164</v>
       </c>
       <c r="O37">
-        <v>1223.38360114361</v>
+        <v>1119.42209380246</v>
       </c>
       <c r="P37">
-        <v>60.7697417249988</v>
+        <v>55.7674273576949</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>754.516030812235</v>
+        <v>929.888473868452</v>
       </c>
       <c r="C38">
-        <v>26.8469281395691</v>
+        <v>24.6184989345874</v>
       </c>
       <c r="D38">
-        <v>10.9558194614107</v>
+        <v>8.432107013939071</v>
       </c>
       <c r="E38">
-        <v>54.625752812521</v>
+        <v>70.7646279947942</v>
       </c>
       <c r="F38">
-        <v>3.4366705478527</v>
+        <v>2.68417554463012</v>
       </c>
       <c r="G38">
-        <v>7.39056795263325</v>
+        <v>5.61236704786298</v>
       </c>
       <c r="H38">
-        <v>6.55460725933705</v>
+        <v>5.44968974212783</v>
       </c>
       <c r="I38">
-        <v>5.64344167295646</v>
+        <v>6.39864069224959</v>
       </c>
       <c r="J38">
-        <v>38.2315581528309</v>
+        <v>29.3903665694854</v>
       </c>
       <c r="K38">
-        <v>14.1831048939565</v>
+        <v>13.1497488802586</v>
       </c>
       <c r="L38">
-        <v>63.9078825042783</v>
+        <v>58.9705233289951</v>
       </c>
       <c r="M38">
-        <v>21.8514790920303</v>
+        <v>21.7716460842221</v>
       </c>
       <c r="N38">
-        <v>24.6000867302997</v>
+        <v>20.5786791754976</v>
       </c>
       <c r="O38">
-        <v>1350.92665012942</v>
+        <v>1193.50916641028</v>
       </c>
       <c r="P38">
-        <v>72.51852336803781</v>
+        <v>70.0868058875643</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2888.84433579328</v>
+        <v>3482.42403841085</v>
       </c>
       <c r="C39">
-        <v>104.027111485055</v>
+        <v>98.53806238033729</v>
       </c>
       <c r="D39">
-        <v>68.9608002379028</v>
+        <v>70.7208441257755</v>
       </c>
       <c r="E39">
-        <v>114.944200853355</v>
+        <v>142.050438032573</v>
       </c>
       <c r="F39">
-        <v>33.8163190351871</v>
+        <v>38.8276490765392</v>
       </c>
       <c r="G39">
-        <v>109.377814884885</v>
+        <v>94.9120310759843</v>
       </c>
       <c r="H39">
-        <v>53.5046520524629</v>
+        <v>57.7518270518121</v>
       </c>
       <c r="I39">
-        <v>50.1804235537746</v>
+        <v>54.0463936021083</v>
       </c>
       <c r="J39">
-        <v>193.003695814851</v>
+        <v>217.588345642964</v>
       </c>
       <c r="K39">
-        <v>121.525459386963</v>
+        <v>94.6473572581486</v>
       </c>
       <c r="L39">
-        <v>125.400173329167</v>
+        <v>119.923706861486</v>
       </c>
       <c r="M39">
-        <v>71.85482780622419</v>
+        <v>71.938343687821</v>
       </c>
       <c r="N39">
-        <v>111.77556779556</v>
+        <v>98.1939864171511</v>
       </c>
       <c r="O39">
-        <v>4647.80793917837</v>
+        <v>4052.28848797786</v>
       </c>
       <c r="P39">
-        <v>77.5670078680586</v>
+        <v>87.13062083160661</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>237.616001019604</v>
+        <v>280.59260255583</v>
       </c>
       <c r="C40">
-        <v>3.8152029942213</v>
+        <v>3.96672361495143</v>
       </c>
       <c r="D40">
-        <v>9.4772485031682</v>
+        <v>8.617365094549671</v>
       </c>
       <c r="E40">
-        <v>3.74247667176263</v>
+        <v>8.042874088246361</v>
       </c>
       <c r="F40">
-        <v>0.481578925755447</v>
+        <v>0.465064147959824</v>
       </c>
       <c r="G40">
-        <v>4.93592449643965</v>
+        <v>4.26764747539602</v>
       </c>
       <c r="H40">
-        <v>6.44418033656661</v>
+        <v>5.14306234214393</v>
       </c>
       <c r="I40">
-        <v>1.56219281581704</v>
+        <v>1.72347301890993</v>
       </c>
       <c r="J40">
-        <v>10.4327595306144</v>
+        <v>13.3774334324913</v>
       </c>
       <c r="K40">
-        <v>7.8647818719791</v>
+        <v>4.26764747539602</v>
       </c>
       <c r="L40">
-        <v>14.3901845750083</v>
+        <v>16.0857481764927</v>
       </c>
       <c r="M40">
-        <v>8.448382393285931</v>
+        <v>6.01847720889183</v>
       </c>
       <c r="N40">
-        <v>26.3710504014012</v>
+        <v>21.2561672332225</v>
       </c>
       <c r="O40">
-        <v>440.656085795425</v>
+        <v>369.561857340544</v>
       </c>
       <c r="P40">
-        <v>2.60659962019398</v>
+        <v>2.54417445648609</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>935.679692454159</v>
+        <v>1094.42871934909</v>
       </c>
       <c r="C41">
-        <v>13.8398084827066</v>
+        <v>21.5314790106959</v>
       </c>
       <c r="D41">
-        <v>107.399928783426</v>
+        <v>109.252319424642</v>
       </c>
       <c r="E41">
-        <v>42.282653851073</v>
+        <v>45.8953237150084</v>
       </c>
       <c r="F41">
-        <v>3.1856991559662</v>
+        <v>3.27234483048891</v>
       </c>
       <c r="G41">
-        <v>33.6775790889526</v>
+        <v>25.1338081938392</v>
       </c>
       <c r="H41">
-        <v>34.607602430558</v>
+        <v>32.4759600403984</v>
       </c>
       <c r="I41">
-        <v>12.0413537883464</v>
+        <v>11.7144445192292</v>
       </c>
       <c r="J41">
-        <v>47.2854457382859</v>
+        <v>45.8953237150084</v>
       </c>
       <c r="K41">
-        <v>43.0360487692961</v>
+        <v>33.1634274417615</v>
       </c>
       <c r="L41">
-        <v>32.9772503166732</v>
+        <v>31.733495246926</v>
       </c>
       <c r="M41">
-        <v>34.3637934644425</v>
+        <v>37.8657044670859</v>
       </c>
       <c r="N41">
-        <v>21.5054785446267</v>
+        <v>22.4939333726044</v>
       </c>
       <c r="O41">
-        <v>1405.00003271784</v>
+        <v>1269.7247916218</v>
       </c>
       <c r="P41">
-        <v>30.0789196171012</v>
+        <v>24.1988525279852</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>131.003145828369</v>
+        <v>169.574869794925</v>
       </c>
       <c r="C42">
-        <v>8.39193456021501</v>
+        <v>7.8937852911291</v>
       </c>
       <c r="D42">
-        <v>1.99481273979589</v>
+        <v>1.16419135588594</v>
       </c>
       <c r="E42">
-        <v>4.93356077339413</v>
+        <v>5.13947891256966</v>
       </c>
       <c r="F42">
-        <v>2.17355208383113</v>
+        <v>1.90245904498435</v>
       </c>
       <c r="G42">
-        <v>1.49968030011372</v>
+        <v>0.93703206693259</v>
       </c>
       <c r="H42">
-        <v>1.17547199179233</v>
+        <v>1.44814046707764</v>
       </c>
       <c r="I42">
-        <v>0.528134788087021</v>
+        <v>1.10740153364761</v>
       </c>
       <c r="J42">
-        <v>4.24008551656952</v>
+        <v>3.91849773444538</v>
       </c>
       <c r="K42">
-        <v>7.1519124696795</v>
+        <v>5.39503311264219</v>
       </c>
       <c r="L42">
-        <v>8.440969535751639</v>
+        <v>7.26909724650737</v>
       </c>
       <c r="M42">
-        <v>3.64910990280132</v>
+        <v>3.52096897877701</v>
       </c>
       <c r="N42">
-        <v>7.60449865176896</v>
+        <v>7.6098361799374</v>
       </c>
       <c r="O42">
-        <v>330.674207556329</v>
+        <v>256.860365984007</v>
       </c>
       <c r="P42">
-        <v>50.8572274985721</v>
+        <v>45.3750679684327</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1359.36252326098</v>
+        <v>1568.88754291117</v>
       </c>
       <c r="C43">
-        <v>34.7953704456392</v>
+        <v>42.5214177387787</v>
       </c>
       <c r="D43">
-        <v>59.8192689607585</v>
+        <v>57.3270018222424</v>
       </c>
       <c r="E43">
-        <v>50.2597274735244</v>
+        <v>73.7257656401047</v>
       </c>
       <c r="F43">
-        <v>9.753804622348239</v>
+        <v>7.47146358200763</v>
       </c>
       <c r="G43">
-        <v>26.7781306064507</v>
+        <v>33.0996824129382</v>
       </c>
       <c r="H43">
-        <v>28.6734839898365</v>
+        <v>36.7530083556111</v>
       </c>
       <c r="I43">
-        <v>27.4298317026336</v>
+        <v>19.0632195805636</v>
       </c>
       <c r="J43">
-        <v>46.7960120993341</v>
+        <v>71.6106821996099</v>
       </c>
       <c r="K43">
-        <v>67.303334351541</v>
+        <v>51.1465631974199</v>
       </c>
       <c r="L43">
-        <v>58.2340829920215</v>
+        <v>56.0085082489469</v>
       </c>
       <c r="M43">
-        <v>95.59235030373149</v>
+        <v>103.14465349426</v>
       </c>
       <c r="N43">
-        <v>73.7396870497024</v>
+        <v>60.7331102199223</v>
       </c>
       <c r="O43">
-        <v>2064.67211620976</v>
+        <v>1845.53391060422</v>
       </c>
       <c r="P43">
-        <v>51.8849479960575</v>
+        <v>36.3135104978459</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4519.08121407084</v>
+        <v>5501.27994423661</v>
       </c>
       <c r="C44">
-        <v>143.273154328121</v>
+        <v>116.000890649298</v>
       </c>
       <c r="D44">
-        <v>72.9932013911413</v>
+        <v>56.185733355966</v>
       </c>
       <c r="E44">
-        <v>90.98052464139551</v>
+        <v>116.282241342117</v>
       </c>
       <c r="F44">
-        <v>238.788810037859</v>
+        <v>219.509810537429</v>
       </c>
       <c r="G44">
-        <v>148.409623926441</v>
+        <v>122.106200683471</v>
       </c>
       <c r="H44">
-        <v>52.029966309952</v>
+        <v>62.8537447757777</v>
       </c>
       <c r="I44">
-        <v>47.1121141753521</v>
+        <v>48.0828334027772</v>
       </c>
       <c r="J44">
-        <v>143.223953689046</v>
+        <v>154.095774456998</v>
       </c>
       <c r="K44">
-        <v>121.598409065726</v>
+        <v>97.8537709624687</v>
       </c>
       <c r="L44">
-        <v>241.111468846279</v>
+        <v>240.020276043939</v>
       </c>
       <c r="M44">
-        <v>127.221833345341</v>
+        <v>128.943022518975</v>
       </c>
       <c r="N44">
-        <v>96.87090706887901</v>
+        <v>99.54187511938311</v>
       </c>
       <c r="O44">
-        <v>7810.47417967777</v>
+        <v>7055.74080958565</v>
       </c>
       <c r="P44">
-        <v>240.029446609959</v>
+        <v>197.423781151134</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>423.117297386697</v>
+        <v>490.776315925351</v>
       </c>
       <c r="C45">
-        <v>14.8604214888912</v>
+        <v>15.9449640386138</v>
       </c>
       <c r="D45">
-        <v>4.47007899870394</v>
+        <v>3.82177919982492</v>
       </c>
       <c r="E45">
-        <v>8.06261284598024</v>
+        <v>15.4124210353595</v>
       </c>
       <c r="F45">
-        <v>21.1771129456716</v>
+        <v>19.0775699401096</v>
       </c>
       <c r="G45">
-        <v>10.9043066316027</v>
+        <v>9.49179588153237</v>
       </c>
       <c r="H45">
-        <v>3.06797579173362</v>
+        <v>2.78801925233129</v>
       </c>
       <c r="I45">
-        <v>4.60917199504838</v>
+        <v>5.54471244564762</v>
       </c>
       <c r="J45">
-        <v>22.7656015022158</v>
+        <v>20.4559165367678</v>
       </c>
       <c r="K45">
-        <v>8.49743788043436</v>
+        <v>6.07725544890192</v>
       </c>
       <c r="L45">
-        <v>18.081860459591</v>
+        <v>20.4245904777528</v>
       </c>
       <c r="M45">
-        <v>24.1834721184974</v>
+        <v>26.7524543987744</v>
       </c>
       <c r="N45">
-        <v>32.6724698265766</v>
+        <v>28.9139524708065</v>
       </c>
       <c r="O45">
-        <v>860.767427871607</v>
+        <v>789.1660787048301</v>
       </c>
       <c r="P45">
-        <v>20.4425064059673</v>
+        <v>20.8005031859323</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>117.193916393813</v>
+        <v>138.712907190369</v>
       </c>
       <c r="C46">
-        <v>4.44113227998277</v>
+        <v>4.18782082575966</v>
       </c>
       <c r="D46">
-        <v>2.48454031249598</v>
+        <v>2.19731339623192</v>
       </c>
       <c r="E46">
-        <v>6.76952973288293</v>
+        <v>8.16883568481515</v>
       </c>
       <c r="F46">
-        <v>1.69537893781909</v>
+        <v>0.853074612654747</v>
       </c>
       <c r="G46">
-        <v>2.72536835891059</v>
+        <v>1.55104475028135</v>
       </c>
       <c r="H46">
-        <v>2.2748936469727</v>
+        <v>1.55104475028135</v>
       </c>
       <c r="I46">
-        <v>2.15400392519914</v>
+        <v>2.11976115871785</v>
       </c>
       <c r="J46">
-        <v>4.51465551147255</v>
+        <v>5.01504469257639</v>
       </c>
       <c r="K46">
-        <v>6.53891433036042</v>
+        <v>4.49802977581594</v>
       </c>
       <c r="L46">
-        <v>12.6074896033221</v>
+        <v>10.2885968435331</v>
       </c>
       <c r="M46">
-        <v>4.40607928176582</v>
+        <v>4.18782082575966</v>
       </c>
       <c r="N46">
-        <v>7.83571269555194</v>
+        <v>7.00555212210413</v>
       </c>
       <c r="O46">
-        <v>276.772625526079</v>
+        <v>231.183220029436</v>
       </c>
       <c r="P46">
-        <v>11.9336229760745</v>
+        <v>12.4342087480889</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1491.9445763342</v>
+        <v>1720.58997046044</v>
       </c>
       <c r="C47">
-        <v>61.4503884966</v>
+        <v>57.5694807581686</v>
       </c>
       <c r="D47">
-        <v>51.1668215035775</v>
+        <v>53.6804182020201</v>
       </c>
       <c r="E47">
-        <v>54.3572363647806</v>
+        <v>70.28699918995331</v>
       </c>
       <c r="F47">
-        <v>10.3838185549405</v>
+        <v>17.798848340913</v>
       </c>
       <c r="G47">
-        <v>35.4883267291566</v>
+        <v>30.9989511774754</v>
       </c>
       <c r="H47">
-        <v>20.132249857397</v>
+        <v>21.7162982149896</v>
       </c>
       <c r="I47">
-        <v>13.1977056156864</v>
+        <v>14.1368843281893</v>
       </c>
       <c r="J47">
-        <v>48.481076109608</v>
+        <v>38.2944918849948</v>
       </c>
       <c r="K47">
-        <v>23.5930614267853</v>
+        <v>26.6840788524055</v>
       </c>
       <c r="L47">
-        <v>52.8770795346381</v>
+        <v>49.7345810100154</v>
       </c>
       <c r="M47">
-        <v>73.9073435160321</v>
+        <v>73.920575884749</v>
       </c>
       <c r="N47">
-        <v>42.2496563353578</v>
+        <v>50.4158766402896</v>
       </c>
       <c r="O47">
-        <v>2893.80090639196</v>
+        <v>2666.36399834973</v>
       </c>
       <c r="P47">
-        <v>40.8669231206282</v>
+        <v>40.9628997702353</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1291.04764137667</v>
+        <v>1526.95130309552</v>
       </c>
       <c r="C48">
-        <v>20.0377958130148</v>
+        <v>38.6288446113532</v>
       </c>
       <c r="D48">
-        <v>11.5990477814696</v>
+        <v>8.81297734203579</v>
       </c>
       <c r="E48">
-        <v>70.725627814616</v>
+        <v>64.8481385728615</v>
       </c>
       <c r="F48">
-        <v>9.52418135448513</v>
+        <v>7.9344250836397</v>
       </c>
       <c r="G48">
-        <v>9.4838456960331</v>
+        <v>9.03261540663482</v>
       </c>
       <c r="H48">
-        <v>2.86749957140151</v>
+        <v>9.114979680859451</v>
       </c>
       <c r="I48">
-        <v>11.2061095706886</v>
+        <v>9.38952726160823</v>
       </c>
       <c r="J48">
-        <v>31.1051928536706</v>
+        <v>37.5581090464329</v>
       </c>
       <c r="K48">
-        <v>25.3667285810014</v>
+        <v>17.2415880710233</v>
       </c>
       <c r="L48">
-        <v>40.8975672832079</v>
+        <v>44.064886710179</v>
       </c>
       <c r="M48">
-        <v>143.753767310528</v>
+        <v>132.688845775884</v>
       </c>
       <c r="N48">
-        <v>22.8005563895833</v>
+        <v>32.7809811414041</v>
       </c>
       <c r="O48">
-        <v>2355.92591387939</v>
+        <v>2121.92334209116</v>
       </c>
       <c r="P48">
-        <v>97.34324749116971</v>
+        <v>97.6291197142661</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>596.609801864499</v>
+        <v>648.546840576598</v>
       </c>
       <c r="C49">
-        <v>7.33717652296126</v>
+        <v>7.70907631626804</v>
       </c>
       <c r="D49">
-        <v>5.47579768265044</v>
+        <v>3.41401951149013</v>
       </c>
       <c r="E49">
-        <v>16.2012396975724</v>
+        <v>15.8311388637647</v>
       </c>
       <c r="F49">
-        <v>32.4282993562801</v>
+        <v>28.3583878777003</v>
       </c>
       <c r="G49">
-        <v>17.8936706618687</v>
+        <v>17.0976299728659</v>
       </c>
       <c r="H49">
-        <v>4.45650179414465</v>
+        <v>6.19479346842968</v>
       </c>
       <c r="I49">
-        <v>8.92386686332369</v>
+        <v>7.2960900850394</v>
       </c>
       <c r="J49">
-        <v>23.2149819431328</v>
+        <v>19.7958066835597</v>
       </c>
       <c r="K49">
-        <v>7.33574785847834</v>
+        <v>6.55271486882784</v>
       </c>
       <c r="L49">
-        <v>2.38055683390912</v>
+        <v>3.02856569567673</v>
       </c>
       <c r="M49">
-        <v>6.92724315889115</v>
+        <v>7.62647907002231</v>
       </c>
       <c r="N49">
-        <v>5.5102029533757</v>
+        <v>5.25869134431141</v>
       </c>
       <c r="O49">
-        <v>625.245716586153</v>
+        <v>551.611942844393</v>
       </c>
       <c r="P49">
-        <v>8.37325186218623</v>
+        <v>9.63634539533501</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>962.785407999683</v>
+        <v>1228.46729549059</v>
       </c>
       <c r="C50">
-        <v>79.5271572242533</v>
+        <v>81.9829693719559</v>
       </c>
       <c r="D50">
-        <v>16.1923498512489</v>
+        <v>15.3048805517573</v>
       </c>
       <c r="E50">
-        <v>131.833284031675</v>
+        <v>141.635438962764</v>
       </c>
       <c r="F50">
-        <v>3.61724860427474</v>
+        <v>4.20492452019271</v>
       </c>
       <c r="G50">
-        <v>30.4205793430332</v>
+        <v>17.9949875429365</v>
       </c>
       <c r="H50">
-        <v>37.1726932688793</v>
+        <v>40.0120768008399</v>
       </c>
       <c r="I50">
-        <v>18.384966383123</v>
+        <v>17.5771068452776</v>
       </c>
       <c r="J50">
-        <v>113.222566588933</v>
+        <v>115.961893600346</v>
       </c>
       <c r="K50">
-        <v>122.125633978754</v>
+        <v>96.24314817956569</v>
       </c>
       <c r="L50">
-        <v>72.9124808084441</v>
+        <v>63.0216327156833</v>
       </c>
       <c r="M50">
-        <v>40.504398535607</v>
+        <v>59.5479994163936</v>
       </c>
       <c r="N50">
-        <v>64.8818476497155</v>
+        <v>56.0221310298966</v>
       </c>
       <c r="O50">
-        <v>1985.91241713986</v>
+        <v>1724.93316730514</v>
       </c>
       <c r="P50">
-        <v>115.731574170828</v>
+        <v>130.352660125974</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>112.849277544289</v>
+        <v>119.683733934657</v>
       </c>
       <c r="C51">
-        <v>1.64211198147999</v>
+        <v>1.16265124037983</v>
       </c>
       <c r="D51">
-        <v>0.318420526661061</v>
+        <v>0.553643447799918</v>
       </c>
       <c r="E51">
-        <v>2.26534196711983</v>
+        <v>2.54675985987962</v>
       </c>
       <c r="F51">
-        <v>27.1098210672952</v>
+        <v>22.4225596358967</v>
       </c>
       <c r="G51">
-        <v>1.74407271527036</v>
+        <v>2.74053506660959</v>
       </c>
       <c r="H51">
-        <v>0.0379579374714209</v>
+        <v>0.138410861949979</v>
       </c>
       <c r="I51">
-        <v>0.778199420365928</v>
+        <v>0.885829516479869</v>
       </c>
       <c r="J51">
-        <v>1.76629648112759</v>
+        <v>1.57788382622976</v>
       </c>
       <c r="K51">
-        <v>1.38172906835933</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="L51">
-        <v>0.325437099699662</v>
+        <v>0.387550413459943</v>
       </c>
       <c r="M51">
-        <v>0.666253033194835</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="N51">
-        <v>1.66876224248091</v>
+        <v>0.968876033649859</v>
       </c>
       <c r="O51">
-        <v>228.412842753493</v>
+        <v>177.913321950503</v>
       </c>
       <c r="P51">
-        <v>18.5655902808556</v>
+        <v>14.1179079188979</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2000.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2000.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1343.97921266764</v>
+        <v>1343.97921266765</v>
       </c>
       <c r="C2">
         <v>39.457600442663</v>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>784.709250703795</v>
+        <v>784.709250703796</v>
       </c>
       <c r="C5">
         <v>56.8295026360656</v>
@@ -611,7 +611,7 @@
         <v>13.0370362848062</v>
       </c>
       <c r="E5">
-        <v>45.6976699836945</v>
+        <v>45.6976699836946</v>
       </c>
       <c r="F5">
         <v>5.74282809205453</v>
@@ -641,7 +641,7 @@
         <v>22.91687797872</v>
       </c>
       <c r="O5">
-        <v>770.763738099014</v>
+        <v>770.763738099015</v>
       </c>
       <c r="P5">
         <v>57.9726248155267</v>
@@ -669,10 +669,10 @@
         <v>53.22645187445</v>
       </c>
       <c r="G6">
-        <v>99.002856052632</v>
+        <v>99.0028560526321</v>
       </c>
       <c r="H6">
-        <v>69.1198869598223</v>
+        <v>69.1198869598224</v>
       </c>
       <c r="I6">
         <v>49.4738352570704</v>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>960.2479221817511</v>
+        <v>960.247922181752</v>
       </c>
       <c r="C7">
         <v>27.6049068810538</v>
@@ -776,7 +776,7 @@
         <v>27.1528472327274</v>
       </c>
       <c r="H8">
-        <v>8.526900014202919</v>
+        <v>8.52690001420293</v>
       </c>
       <c r="I8">
         <v>3.38411344313678</v>
@@ -834,7 +834,7 @@
         <v>0.912049527325523</v>
       </c>
       <c r="J9">
-        <v>3.47718882292855</v>
+        <v>3.47718882292856</v>
       </c>
       <c r="K9">
         <v>2.33712691377165</v>
@@ -843,7 +843,7 @@
         <v>2.62214239106088</v>
       </c>
       <c r="M9">
-        <v>7.46740550497772</v>
+        <v>7.46740550497773</v>
       </c>
       <c r="N9">
         <v>4.18972751615162</v>
@@ -1008,7 +1008,7 @@
         <v>467.651405093937</v>
       </c>
       <c r="P12">
-        <v>16.8184108776241</v>
+        <v>16.8184108776242</v>
       </c>
     </row>
     <row r="13">
@@ -1057,7 +1057,7 @@
         <v>6.9493254361694</v>
       </c>
       <c r="O13">
-        <v>426.376571251013</v>
+        <v>426.376571251014</v>
       </c>
       <c r="P13">
         <v>44.6458703531862</v>
@@ -1112,7 +1112,7 @@
         <v>4261.34047068039</v>
       </c>
       <c r="P14">
-        <v>89.6450911049527</v>
+        <v>89.6450911049528</v>
       </c>
     </row>
     <row r="15">
@@ -1143,7 +1143,7 @@
         <v>53.0412837162846</v>
       </c>
       <c r="I15">
-        <v>23.4897113600689</v>
+        <v>23.489711360069</v>
       </c>
       <c r="J15">
         <v>159.962769411714</v>
@@ -1189,7 +1189,7 @@
         <v>3.37219540502357</v>
       </c>
       <c r="G16">
-        <v>11.3604287824974</v>
+        <v>11.3604287824975</v>
       </c>
       <c r="H16">
         <v>17.883692025002</v>
@@ -1213,10 +1213,10 @@
         <v>19.7909172950564</v>
       </c>
       <c r="O16">
-        <v>993.747288536124</v>
+        <v>993.747288536125</v>
       </c>
       <c r="P16">
-        <v>80.9050487746228</v>
+        <v>80.9050487746229</v>
       </c>
     </row>
     <row r="17">
@@ -1232,7 +1232,7 @@
         <v>32.9487394217434</v>
       </c>
       <c r="D17">
-        <v>4.40078566430917</v>
+        <v>4.40078566430918</v>
       </c>
       <c r="E17">
         <v>24.0042854416864</v>
@@ -1259,13 +1259,13 @@
         <v>11.516341705952</v>
       </c>
       <c r="M17">
-        <v>68.4407900390939</v>
+        <v>68.440790039094</v>
       </c>
       <c r="N17">
         <v>14.1453824924224</v>
       </c>
       <c r="O17">
-        <v>923.679188490035</v>
+        <v>923.679188490036</v>
       </c>
       <c r="P17">
         <v>69.84104002319241</v>
@@ -1311,7 +1311,7 @@
         <v>33.8107818263289</v>
       </c>
       <c r="M18">
-        <v>68.8369839143886</v>
+        <v>68.8369839143887</v>
       </c>
       <c r="N18">
         <v>23.5349559771505</v>
@@ -1366,7 +1366,7 @@
         <v>29.1027003921863</v>
       </c>
       <c r="N19">
-        <v>10.6363774818115</v>
+        <v>10.6363774818116</v>
       </c>
       <c r="O19">
         <v>1415.28368445318</v>
@@ -1385,7 +1385,7 @@
         <v>337.841306152238</v>
       </c>
       <c r="C20">
-        <v>8.333525429049541</v>
+        <v>8.33352542904955</v>
       </c>
       <c r="D20">
         <v>16.0941209848519</v>
@@ -1421,10 +1421,10 @@
         <v>6.82307394503431</v>
       </c>
       <c r="O20">
-        <v>451.02602158034</v>
+        <v>451.026021580341</v>
       </c>
       <c r="P20">
-        <v>25.781844296122</v>
+        <v>25.7818442961221</v>
       </c>
     </row>
     <row r="21">
@@ -1446,13 +1446,13 @@
         <v>41.5781163539665</v>
       </c>
       <c r="F21">
-        <v>4.09721896062681</v>
+        <v>4.09721896062682</v>
       </c>
       <c r="G21">
         <v>21.1208752054847</v>
       </c>
       <c r="H21">
-        <v>7.87704772007831</v>
+        <v>7.87704772007832</v>
       </c>
       <c r="I21">
         <v>6.83831615259546</v>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>2643.78457471328</v>
+        <v>2643.78457471329</v>
       </c>
       <c r="C23">
         <v>50.1219920516037</v>
@@ -1605,7 +1605,7 @@
         <v>13.5216366958922</v>
       </c>
       <c r="G24">
-        <v>14.5784379607013</v>
+        <v>14.5784379607014</v>
       </c>
       <c r="H24">
         <v>21.5966822577677</v>
@@ -1660,10 +1660,10 @@
         <v>9.40711788447844</v>
       </c>
       <c r="H25">
-        <v>14.0408910857348</v>
+        <v>14.0408910857349</v>
       </c>
       <c r="I25">
-        <v>5.69451646419466</v>
+        <v>5.69451646419467</v>
       </c>
       <c r="J25">
         <v>19.4562645859985</v>
@@ -1681,7 +1681,7 @@
         <v>52.5905344046214</v>
       </c>
       <c r="O25">
-        <v>788.523044512602</v>
+        <v>788.523044512603</v>
       </c>
       <c r="P25">
         <v>39.7499580637902</v>
@@ -1697,7 +1697,7 @@
         <v>1446.34990705824</v>
       </c>
       <c r="C26">
-        <v>64.3287303194743</v>
+        <v>64.3287303194744</v>
       </c>
       <c r="D26">
         <v>23.4334310182687</v>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>238.495178910905</v>
+        <v>238.495178910906</v>
       </c>
       <c r="C27">
         <v>2.86277994644361</v>
@@ -1755,7 +1755,7 @@
         <v>1.107301677398</v>
       </c>
       <c r="E27">
-        <v>9.6416268007582</v>
+        <v>9.64162680075821</v>
       </c>
       <c r="F27">
         <v>7.5620602358888</v>
@@ -1764,7 +1764,7 @@
         <v>0.810220739559513</v>
       </c>
       <c r="H27">
-        <v>0.324088295823805</v>
+        <v>0.324088295823806</v>
       </c>
       <c r="I27">
         <v>1.2693458253099</v>
@@ -1779,7 +1779,7 @@
         <v>1.40438261523649</v>
       </c>
       <c r="M27">
-        <v>0.891242813515465</v>
+        <v>0.891242813515466</v>
       </c>
       <c r="N27">
         <v>4.1051184137682</v>
@@ -1804,7 +1804,7 @@
         <v>34.8221544886528</v>
       </c>
       <c r="D28">
-        <v>1.98584174192317</v>
+        <v>1.98584174192318</v>
       </c>
       <c r="E28">
         <v>9.229968659642919</v>
@@ -1883,7 +1883,7 @@
         <v>5.78730406947764</v>
       </c>
       <c r="M29">
-        <v>3.5098927458406</v>
+        <v>3.50989274584061</v>
       </c>
       <c r="N29">
         <v>10.5832643863133</v>
@@ -1944,7 +1944,7 @@
         <v>471.175180648606</v>
       </c>
       <c r="P30">
-        <v>7.87515849715311</v>
+        <v>7.87515849715312</v>
       </c>
     </row>
     <row r="31">
@@ -2015,7 +2015,7 @@
         <v>1.40076442796494</v>
       </c>
       <c r="E32">
-        <v>5.66023177014403</v>
+        <v>5.66023177014404</v>
       </c>
       <c r="F32">
         <v>20.0680944577834</v>
@@ -2048,7 +2048,7 @@
         <v>621.167556229595</v>
       </c>
       <c r="P32">
-        <v>23.7272341879775</v>
+        <v>23.7272341879776</v>
       </c>
     </row>
     <row r="33">
@@ -2070,7 +2070,7 @@
         <v>121.121182099078</v>
       </c>
       <c r="F33">
-        <v>10.9194231163962</v>
+        <v>10.9194231163963</v>
       </c>
       <c r="G33">
         <v>84.8501806251639</v>
@@ -2091,7 +2091,7 @@
         <v>145.655846008987</v>
       </c>
       <c r="M33">
-        <v>76.5176532595348</v>
+        <v>76.5176532595349</v>
       </c>
       <c r="N33">
         <v>116.682613600394</v>
@@ -2134,7 +2134,7 @@
         <v>24.6938797855549</v>
       </c>
       <c r="J34">
-        <v>63.3582197370812</v>
+        <v>63.3582197370813</v>
       </c>
       <c r="K34">
         <v>49.9334806713431</v>
@@ -2189,7 +2189,7 @@
         <v>2.38391571673098</v>
       </c>
       <c r="K35">
-        <v>6.00287210598524</v>
+        <v>6.00287210598525</v>
       </c>
       <c r="L35">
         <v>2.03925320346867</v>
@@ -2318,13 +2318,13 @@
         </is>
       </c>
       <c r="B38">
-        <v>929.888473868452</v>
+        <v>929.8884738684531</v>
       </c>
       <c r="C38">
         <v>24.6184989345874</v>
       </c>
       <c r="D38">
-        <v>8.432107013939071</v>
+        <v>8.43210701393908</v>
       </c>
       <c r="E38">
         <v>70.7646279947942</v>
@@ -2333,7 +2333,7 @@
         <v>2.68417554463012</v>
       </c>
       <c r="G38">
-        <v>5.61236704786298</v>
+        <v>5.61236704786299</v>
       </c>
       <c r="H38">
         <v>5.44968974212783</v>
@@ -2397,7 +2397,7 @@
         <v>217.588345642964</v>
       </c>
       <c r="K39">
-        <v>94.6473572581486</v>
+        <v>94.6473572581487</v>
       </c>
       <c r="L39">
         <v>119.923706861486</v>
@@ -2446,7 +2446,7 @@
         <v>1.72347301890993</v>
       </c>
       <c r="J40">
-        <v>13.3774334324913</v>
+        <v>13.3774334324914</v>
       </c>
       <c r="K40">
         <v>4.26764747539602</v>
@@ -2455,7 +2455,7 @@
         <v>16.0857481764927</v>
       </c>
       <c r="M40">
-        <v>6.01847720889183</v>
+        <v>6.01847720889184</v>
       </c>
       <c r="N40">
         <v>21.2561672332225</v>
@@ -2501,7 +2501,7 @@
         <v>45.8953237150084</v>
       </c>
       <c r="K41">
-        <v>33.1634274417615</v>
+        <v>33.1634274417616</v>
       </c>
       <c r="L41">
         <v>31.733495246926</v>
@@ -2532,7 +2532,7 @@
         <v>7.8937852911291</v>
       </c>
       <c r="D42">
-        <v>1.16419135588594</v>
+        <v>1.16419135588595</v>
       </c>
       <c r="E42">
         <v>5.13947891256966</v>
@@ -2541,7 +2541,7 @@
         <v>1.90245904498435</v>
       </c>
       <c r="G42">
-        <v>0.93703206693259</v>
+        <v>0.937032066932591</v>
       </c>
       <c r="H42">
         <v>1.44814046707764</v>
@@ -2608,7 +2608,7 @@
         <v>51.1465631974199</v>
       </c>
       <c r="L43">
-        <v>56.0085082489469</v>
+        <v>56.008508248947</v>
       </c>
       <c r="M43">
         <v>103.14465349426</v>
@@ -2636,7 +2636,7 @@
         <v>116.000890649298</v>
       </c>
       <c r="D44">
-        <v>56.185733355966</v>
+        <v>56.1857333559661</v>
       </c>
       <c r="E44">
         <v>116.282241342117</v>
@@ -2666,7 +2666,7 @@
         <v>128.943022518975</v>
       </c>
       <c r="N44">
-        <v>99.54187511938311</v>
+        <v>99.54187511938321</v>
       </c>
       <c r="O44">
         <v>7055.74080958565</v>
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>490.776315925351</v>
+        <v>490.776315925352</v>
       </c>
       <c r="C45">
         <v>15.9449640386138</v>
@@ -2755,7 +2755,7 @@
         <v>1.55104475028135</v>
       </c>
       <c r="I46">
-        <v>2.11976115871785</v>
+        <v>2.11976115871786</v>
       </c>
       <c r="J46">
         <v>5.01504469257639</v>
@@ -2862,7 +2862,7 @@
         <v>9.38952726160823</v>
       </c>
       <c r="J48">
-        <v>37.5581090464329</v>
+        <v>37.558109046433</v>
       </c>
       <c r="K48">
         <v>17.2415880710233</v>
@@ -2871,7 +2871,7 @@
         <v>44.064886710179</v>
       </c>
       <c r="M48">
-        <v>132.688845775884</v>
+        <v>132.688845775885</v>
       </c>
       <c r="N48">
         <v>32.7809811414041</v>
@@ -2880,7 +2880,7 @@
         <v>2121.92334209116</v>
       </c>
       <c r="P48">
-        <v>97.6291197142661</v>
+        <v>97.6291197142662</v>
       </c>
     </row>
     <row r="49">
@@ -3000,7 +3000,7 @@
         <v>1.16265124037983</v>
       </c>
       <c r="D51">
-        <v>0.553643447799918</v>
+        <v>0.553643447799919</v>
       </c>
       <c r="E51">
         <v>2.54675985987962</v>
@@ -3033,7 +3033,7 @@
         <v>0.968876033649859</v>
       </c>
       <c r="O51">
-        <v>177.913321950503</v>
+        <v>177.913321950504</v>
       </c>
       <c r="P51">
         <v>14.1179079188979</v>
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>3046.58591313892</v>
+        <v>4958.86984433511</v>
       </c>
       <c r="C52">
         <v>177.9006</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>1500.18205342649</v>
+        <v>2578.69125348752</v>
       </c>
       <c r="C53">
         <v>82.694</v>
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>1978.12010287337</v>
+        <v>3382.41672072986</v>
       </c>
       <c r="C54">
         <v>98.413</v>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>1893.52214829409</v>
+        <v>2944.80107684871</v>
       </c>
       <c r="C55">
         <v>122.6</v>
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>30382.2437062893</v>
+        <v>41858.1336816317</v>
       </c>
       <c r="C56">
         <v>1657.723</v>
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>4164.9111467659</v>
+        <v>7076.20263135019</v>
       </c>
       <c r="C57">
         <v>256.80999976</v>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>151187.289604056</v>
+        <v>206265.481960741</v>
       </c>
       <c r="C58">
         <v>12783.4743611126</v>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>127.415670372384</v>
+        <v>181.598851425265</v>
       </c>
       <c r="C59">
         <v>10.2</v>
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>1821.13520242502</v>
+        <v>3037.69867865726</v>
       </c>
       <c r="C60">
         <v>153.443</v>
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>14603.4787971994</v>
+        <v>25997.5975728038</v>
       </c>
       <c r="C61">
         <v>955</v>
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>634.863630347425</v>
+        <v>1318.4375803819</v>
       </c>
       <c r="C62">
         <v>77.746</v>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>7530.15116433989</v>
+        <v>13459.5210393449</v>
       </c>
       <c r="C63">
         <v>419.9</v>
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>212.527333279725</v>
+        <v>363.927118644068</v>
       </c>
       <c r="C64">
         <v>22</v>
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>708.7869691965</v>
+        <v>1347.8908277851</v>
       </c>
       <c r="C65">
         <v>42.5</v>
@@ -3774,7 +3774,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>10276.9178731681</v>
+        <v>17571.7819828086</v>
       </c>
       <c r="C66">
         <v>567.3</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>8445.97005953695</v>
+        <v>17195.6198419683</v>
       </c>
       <c r="C67">
         <v>499.190576216165</v>
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>2185.40217312109</v>
+        <v>3370.66153371786</v>
       </c>
       <c r="C68">
         <v>107.429</v>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>2589.28750905016</v>
+        <v>4021.44216545199</v>
       </c>
       <c r="C69">
         <v>163.268</v>
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>37353.5818570992</v>
+        <v>41259.7911237901</v>
       </c>
       <c r="C70">
         <v>3012.592</v>
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>251786.7635742</v>
+        <v>289431.950036205</v>
       </c>
       <c r="C71">
         <v>11540.7103340357</v>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>639.229943901315</v>
+        <v>961.907023379332</v>
       </c>
       <c r="C72">
         <v>54.017</v>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>14045.5930401205</v>
+        <v>23361.0079104154</v>
       </c>
       <c r="C73">
         <v>475.7</v>
@@ -4190,7 +4190,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>23414.50526073</v>
+        <v>36824.4897143382</v>
       </c>
       <c r="C74">
         <v>1508.51602953867</v>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>10603.1768212441</v>
+        <v>12227.4252141563</v>
       </c>
       <c r="C75">
         <v>290.65698715776</v>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>537.31984196599</v>
+        <v>853.7186009741999</v>
       </c>
       <c r="C76">
         <v>56.6</v>
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>22033.3490679268</v>
+        <v>23754.0387355726</v>
       </c>
       <c r="C77">
         <v>1315.97347611476</v>
@@ -4398,7 +4398,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>2622.26180700955</v>
+        <v>4492.56591385314</v>
       </c>
       <c r="C78">
         <v>159.066</v>
@@ -4450,7 +4450,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>7420.72605826104</v>
+        <v>11073.3257089543</v>
       </c>
       <c r="C79">
         <v>501.6</v>
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>1886.54090141022</v>
+        <v>3011.73294840352</v>
       </c>
       <c r="C80">
         <v>121.6</v>
@@ -4554,7 +4554,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>4714.01807932376</v>
+        <v>5638.44055856853</v>
       </c>
       <c r="C81">
         <v>221.3</v>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>41352.43565872</v>
+        <v>69733.98783356381</v>
       </c>
       <c r="C82">
         <v>3752.22447403134</v>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>26577.6659160076</v>
+        <v>41087.5285576198</v>
       </c>
       <c r="C83">
         <v>1770.55155140623</v>
@@ -4710,7 +4710,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>798.646653351741</v>
+        <v>1248.33674058577</v>
       </c>
       <c r="C84">
         <v>63.602</v>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>409.325353972837</v>
+        <v>630.748490004689</v>
       </c>
       <c r="C85">
         <v>23.066</v>
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>1064.84117216285</v>
+        <v>2412.49518775168</v>
       </c>
       <c r="C86">
         <v>67.5</v>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="B87">
-        <v>17449.7489302017</v>
+        <v>20158.5001478436</v>
       </c>
       <c r="C87">
         <v>626.622700383815</v>

--- a/1-Data-Codes/2-Final_Data/L_2000.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2000.xlsx
@@ -449,46 +449,46 @@
         <v>1343.97921266765</v>
       </c>
       <c r="C2">
-        <v>39.457600442663</v>
+        <v>36.8858584267484</v>
       </c>
       <c r="D2">
-        <v>78.21757711512331</v>
+        <v>68.3734850609687</v>
       </c>
       <c r="E2">
-        <v>65.21387003854559</v>
+        <v>58.7189815194881</v>
       </c>
       <c r="F2">
-        <v>15.4314377968831</v>
+        <v>14.4941082453845</v>
       </c>
       <c r="G2">
-        <v>19.9520398277964</v>
+        <v>20.0913595166608</v>
       </c>
       <c r="H2">
-        <v>21.5147170730504</v>
+        <v>21.193515664487</v>
       </c>
       <c r="I2">
-        <v>11.9433189458697</v>
+        <v>11.4580317833778</v>
       </c>
       <c r="J2">
-        <v>65.7161591530915</v>
+        <v>66.7470155277508</v>
       </c>
       <c r="K2">
-        <v>20.4264239915342</v>
+        <v>19.2705757353408</v>
       </c>
       <c r="L2">
-        <v>34.8811885101335</v>
+        <v>35.7095846799402</v>
       </c>
       <c r="M2">
-        <v>41.8853311629683</v>
+        <v>42.9978152465114</v>
       </c>
       <c r="N2">
-        <v>31.1140201510391</v>
+        <v>28.6917460948406</v>
       </c>
       <c r="O2">
-        <v>1326.79669607305</v>
+        <v>1352.62696574914</v>
       </c>
       <c r="P2">
-        <v>36.9182499191253</v>
+        <v>32.2095869502309</v>
       </c>
     </row>
     <row r="3">
@@ -501,46 +501,46 @@
         <v>141.168590236323</v>
       </c>
       <c r="C3">
-        <v>5.39544444110785</v>
+        <v>5.31739774979359</v>
       </c>
       <c r="D3">
-        <v>0.233316516372231</v>
+        <v>0.181755248999304</v>
       </c>
       <c r="E3">
-        <v>1.74987387279173</v>
+        <v>1.60339126636595</v>
       </c>
       <c r="F3">
-        <v>8.953521315784361</v>
+        <v>10.2515596257282</v>
       </c>
       <c r="G3">
-        <v>0.379139339104875</v>
+        <v>0.45368364478896</v>
       </c>
       <c r="H3">
-        <v>0.0583291290930578</v>
+        <v>0.111307478069341</v>
       </c>
       <c r="I3">
-        <v>0.320810210011817</v>
+        <v>0.39591647262639</v>
       </c>
       <c r="J3">
-        <v>0.583291290930578</v>
+        <v>0.6903881551136341</v>
       </c>
       <c r="K3">
-        <v>0.145822822732644</v>
+        <v>0.101444790139147</v>
       </c>
       <c r="L3">
-        <v>0.349974774558347</v>
+        <v>0.460728421881956</v>
       </c>
       <c r="M3">
-        <v>0.641620420023636</v>
+        <v>0.533994103649117</v>
       </c>
       <c r="N3">
-        <v>0.641620420023636</v>
+        <v>0.6762986009276421</v>
       </c>
       <c r="O3">
-        <v>232.616566823114</v>
+        <v>233.672438263849</v>
       </c>
       <c r="P3">
-        <v>10.8783825758552</v>
+        <v>8.497410129572099</v>
       </c>
     </row>
     <row r="4">
@@ -553,46 +553,46 @@
         <v>1482.14219855815</v>
       </c>
       <c r="C4">
-        <v>13.4030496639299</v>
+        <v>12.8996741378836</v>
       </c>
       <c r="D4">
-        <v>5.00493626691053</v>
+        <v>4.97833312293026</v>
       </c>
       <c r="E4">
-        <v>24.9964048584684</v>
+        <v>24.9097635818208</v>
       </c>
       <c r="F4">
-        <v>21.9708219174547</v>
+        <v>14.9238621582249</v>
       </c>
       <c r="G4">
-        <v>9.44434301213626</v>
+        <v>9.54876590888666</v>
       </c>
       <c r="H4">
-        <v>7.80430739925032</v>
+        <v>7.8726157187278</v>
       </c>
       <c r="I4">
-        <v>9.41606653605202</v>
+        <v>9.11023824285672</v>
       </c>
       <c r="J4">
-        <v>28.1916466559876</v>
+        <v>27.8458107172402</v>
       </c>
       <c r="K4">
-        <v>10.4340196750847</v>
+        <v>11.031407065464</v>
       </c>
       <c r="L4">
-        <v>76.4313148557015</v>
+        <v>81.8933014419387</v>
       </c>
       <c r="M4">
-        <v>51.6328453298228</v>
+        <v>54.338450350731</v>
       </c>
       <c r="N4">
-        <v>26.947481708281</v>
+        <v>26.8253637991452</v>
       </c>
       <c r="O4">
-        <v>1787.97813575868</v>
+        <v>1796.70074947481</v>
       </c>
       <c r="P4">
-        <v>33.0552005424769</v>
+        <v>23.8322384595758</v>
       </c>
     </row>
     <row r="5">
@@ -605,46 +605,46 @@
         <v>784.709250703796</v>
       </c>
       <c r="C5">
-        <v>56.8295026360656</v>
+        <v>53.4490700230761</v>
       </c>
       <c r="D5">
-        <v>13.0370362848062</v>
+        <v>11.0776745127473</v>
       </c>
       <c r="E5">
-        <v>45.6976699836946</v>
+        <v>42.2957154111811</v>
       </c>
       <c r="F5">
-        <v>5.74282809205453</v>
+        <v>5.08137808563253</v>
       </c>
       <c r="G5">
-        <v>10.7507919258841</v>
+        <v>9.93841873450573</v>
       </c>
       <c r="H5">
-        <v>13.4180770112932</v>
+        <v>12.3845076533873</v>
       </c>
       <c r="I5">
-        <v>6.58656112927581</v>
+        <v>6.47605419849761</v>
       </c>
       <c r="J5">
-        <v>33.8854074625966</v>
+        <v>32.1680964288061</v>
       </c>
       <c r="K5">
-        <v>21.3654978780228</v>
+        <v>20.4106524540713</v>
       </c>
       <c r="L5">
-        <v>22.7263576154764</v>
+        <v>22.0256117126699</v>
       </c>
       <c r="M5">
-        <v>24.767647221657</v>
+        <v>23.6986824759712</v>
       </c>
       <c r="N5">
-        <v>22.91687797872</v>
+        <v>21.829654313091</v>
       </c>
       <c r="O5">
-        <v>770.763738099015</v>
+        <v>800.615714592687</v>
       </c>
       <c r="P5">
-        <v>57.9726248155267</v>
+        <v>45.0093875377636</v>
       </c>
     </row>
     <row r="6">
@@ -657,46 +657,46 @@
         <v>9564.961315204229</v>
       </c>
       <c r="C6">
-        <v>200.32350472188</v>
+        <v>197.380648952295</v>
       </c>
       <c r="D6">
-        <v>190.252143947296</v>
+        <v>189.193722097122</v>
       </c>
       <c r="E6">
-        <v>177.94576886383</v>
+        <v>175.524830107147</v>
       </c>
       <c r="F6">
-        <v>53.22645187445</v>
+        <v>52.8378251227437</v>
       </c>
       <c r="G6">
-        <v>99.0028560526321</v>
+        <v>100.161062456772</v>
       </c>
       <c r="H6">
-        <v>69.1198869598224</v>
+        <v>69.0281764048234</v>
       </c>
       <c r="I6">
-        <v>49.4738352570704</v>
+        <v>49.4912845420637</v>
       </c>
       <c r="J6">
-        <v>185.037110559907</v>
+        <v>186.026606112969</v>
       </c>
       <c r="K6">
-        <v>99.80304636074951</v>
+        <v>101.657626705077</v>
       </c>
       <c r="L6">
-        <v>604.2264609366021</v>
+        <v>612.342166015897</v>
       </c>
       <c r="M6">
-        <v>254.432925212184</v>
+        <v>256.324347465946</v>
       </c>
       <c r="N6">
-        <v>256.557568444083</v>
+        <v>257.729840138742</v>
       </c>
       <c r="O6">
-        <v>11294.0515653887</v>
+        <v>11343.8836011862</v>
       </c>
       <c r="P6">
-        <v>331.968606791865</v>
+        <v>273.839994063283</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>960.247922181752</v>
+        <v>960.2479221817511</v>
       </c>
       <c r="C7">
-        <v>27.6049068810538</v>
+        <v>27.0683754985</v>
       </c>
       <c r="D7">
-        <v>4.98578420198625</v>
+        <v>5.32325121629927</v>
       </c>
       <c r="E7">
-        <v>22.9008054023436</v>
+        <v>23.8699455670659</v>
       </c>
       <c r="F7">
-        <v>20.9290263394112</v>
+        <v>17.342908906113</v>
       </c>
       <c r="G7">
-        <v>9.718053953024031</v>
+        <v>10.3217603126455</v>
       </c>
       <c r="H7">
-        <v>6.36602954603895</v>
+        <v>6.74539774161088</v>
       </c>
       <c r="I7">
-        <v>10.7884483014731</v>
+        <v>11.1378148640792</v>
       </c>
       <c r="J7">
-        <v>20.4783339821695</v>
+        <v>21.0802427866072</v>
       </c>
       <c r="K7">
-        <v>14.6475016103551</v>
+        <v>15.3580626729518</v>
       </c>
       <c r="L7">
-        <v>66.4207861484948</v>
+        <v>71.72601599411181</v>
       </c>
       <c r="M7">
-        <v>19.1262569104444</v>
+        <v>20.3803675280877</v>
       </c>
       <c r="N7">
-        <v>25.8866422690699</v>
+        <v>27.3357278472544</v>
       </c>
       <c r="O7">
-        <v>1773.13640647814</v>
+        <v>1785.72052410835</v>
       </c>
       <c r="P7">
-        <v>56.0548619319358</v>
+        <v>35.6334489122615</v>
       </c>
     </row>
     <row r="8">
@@ -761,46 +761,46 @@
         <v>844.897188833971</v>
       </c>
       <c r="C8">
-        <v>12.2574187704167</v>
+        <v>12.2380824498419</v>
       </c>
       <c r="D8">
-        <v>8.02061532585963</v>
+        <v>8.217547935798651</v>
       </c>
       <c r="E8">
-        <v>23.4756216016025</v>
+        <v>22.9462387298185</v>
       </c>
       <c r="F8">
-        <v>2.26495781627265</v>
+        <v>2.21461125542515</v>
       </c>
       <c r="G8">
-        <v>27.1528472327274</v>
+        <v>27.5957281480388</v>
       </c>
       <c r="H8">
-        <v>8.52690001420293</v>
+        <v>8.76290756790155</v>
       </c>
       <c r="I8">
-        <v>3.38411344313678</v>
+        <v>3.22173524755678</v>
       </c>
       <c r="J8">
-        <v>47.4841744540926</v>
+        <v>47.8908025349337</v>
       </c>
       <c r="K8">
-        <v>27.605838795982</v>
+        <v>27.6302277841329</v>
       </c>
       <c r="L8">
-        <v>44.2599403862221</v>
+        <v>45.0326403754456</v>
       </c>
       <c r="M8">
-        <v>54.039228840011</v>
+        <v>53.7862595797833</v>
       </c>
       <c r="N8">
-        <v>24.3016650404783</v>
+        <v>24.3846081731264</v>
       </c>
       <c r="O8">
-        <v>1274.47843993535</v>
+        <v>1273.83139041156</v>
       </c>
       <c r="P8">
-        <v>6.7149337611848</v>
+        <v>6.21391522417972</v>
       </c>
     </row>
     <row r="9">
@@ -813,46 +813,46 @@
         <v>198.834475508492</v>
       </c>
       <c r="C9">
-        <v>8.578965866405699</v>
+        <v>8.00153168494864</v>
       </c>
       <c r="D9">
-        <v>2.05211143648243</v>
+        <v>2.05853766115403</v>
       </c>
       <c r="E9">
-        <v>5.87131883215806</v>
+        <v>5.48476269963029</v>
       </c>
       <c r="F9">
-        <v>1.82409905465105</v>
+        <v>1.76986594012086</v>
       </c>
       <c r="G9">
-        <v>18.5260060237997</v>
+        <v>19.8426775234453</v>
       </c>
       <c r="H9">
-        <v>3.19217334563933</v>
+        <v>3.27908653989138</v>
       </c>
       <c r="I9">
-        <v>0.912049527325523</v>
+        <v>0.877225715372652</v>
       </c>
       <c r="J9">
-        <v>3.47718882292856</v>
+        <v>3.70648884530458</v>
       </c>
       <c r="K9">
-        <v>2.33712691377165</v>
+        <v>2.55180196117188</v>
       </c>
       <c r="L9">
-        <v>2.62214239106088</v>
+        <v>2.70594705492746</v>
       </c>
       <c r="M9">
-        <v>7.46740550497773</v>
+        <v>8.41351948098627</v>
       </c>
       <c r="N9">
-        <v>4.18972751615162</v>
+        <v>4.01758167088401</v>
       </c>
       <c r="O9">
-        <v>287.723124323474</v>
+        <v>286.414196069171</v>
       </c>
       <c r="P9">
-        <v>4.67425382754331</v>
+        <v>4.32447053936103</v>
       </c>
     </row>
     <row r="10">
@@ -865,46 +865,46 @@
         <v>5070.15112654329</v>
       </c>
       <c r="C10">
-        <v>56.9411619535747</v>
+        <v>56.2237038750931</v>
       </c>
       <c r="D10">
-        <v>32.3004514148122</v>
+        <v>31.7975881865671</v>
       </c>
       <c r="E10">
-        <v>77.7520020543124</v>
+        <v>74.7711461982835</v>
       </c>
       <c r="F10">
-        <v>13.2074208487767</v>
+        <v>11.760108616208</v>
       </c>
       <c r="G10">
-        <v>35.8487137323939</v>
+        <v>35.8492742692297</v>
       </c>
       <c r="H10">
-        <v>21.120609033225</v>
+        <v>20.823236005613</v>
       </c>
       <c r="I10">
-        <v>27.8228822997684</v>
+        <v>27.7528068177469</v>
       </c>
       <c r="J10">
-        <v>50.2388886870312</v>
+        <v>49.7954152879103</v>
       </c>
       <c r="K10">
-        <v>32.7228635954766</v>
+        <v>32.0503007131953</v>
       </c>
       <c r="L10">
-        <v>96.8731934323923</v>
+        <v>97.5235592514356</v>
       </c>
       <c r="M10">
-        <v>88.8755228118109</v>
+        <v>87.3832965026316</v>
       </c>
       <c r="N10">
-        <v>84.7640442533431</v>
+        <v>86.1252576405642</v>
       </c>
       <c r="O10">
-        <v>5885.72236050689</v>
+        <v>5902.45043792289</v>
       </c>
       <c r="P10">
-        <v>101.350762547436</v>
+        <v>91.23474588386731</v>
       </c>
     </row>
     <row r="11">
@@ -917,46 +917,46 @@
         <v>2048.7981724633</v>
       </c>
       <c r="C11">
-        <v>80.1976397400296</v>
+        <v>76.06499543407161</v>
       </c>
       <c r="D11">
-        <v>146.495865038706</v>
+        <v>130.318112880471</v>
       </c>
       <c r="E11">
-        <v>100.523056377284</v>
+        <v>96.44251356414399</v>
       </c>
       <c r="F11">
-        <v>12.9086211512367</v>
+        <v>10.5785755239437</v>
       </c>
       <c r="G11">
-        <v>34.8193070526778</v>
+        <v>34.1240386792222</v>
       </c>
       <c r="H11">
-        <v>30.289966297858</v>
+        <v>28.4634644660726</v>
       </c>
       <c r="I11">
-        <v>20.6934255735833</v>
+        <v>20.3830085027332</v>
       </c>
       <c r="J11">
-        <v>55.4561158668259</v>
+        <v>51.7014667523536</v>
       </c>
       <c r="K11">
-        <v>40.4243662367675</v>
+        <v>38.1924048207778</v>
       </c>
       <c r="L11">
-        <v>69.7518476242262</v>
+        <v>72.3713472266067</v>
       </c>
       <c r="M11">
-        <v>68.0816532208864</v>
+        <v>65.86937340320949</v>
       </c>
       <c r="N11">
-        <v>51.2381672889</v>
+        <v>51.4859696254223</v>
       </c>
       <c r="O11">
-        <v>2849.12518506001</v>
+        <v>2895.42900560047</v>
       </c>
       <c r="P11">
-        <v>62.1652018599029</v>
+        <v>50.7461419093971</v>
       </c>
     </row>
     <row r="12">
@@ -969,46 +969,46 @@
         <v>337.556864100583</v>
       </c>
       <c r="C12">
-        <v>6.72183197905045</v>
+        <v>6.51918064414953</v>
       </c>
       <c r="D12">
-        <v>2.07463949970693</v>
+        <v>2.34184159061682</v>
       </c>
       <c r="E12">
-        <v>2.43424367965613</v>
+        <v>2.55098373031938</v>
       </c>
       <c r="F12">
-        <v>0.719208359898402</v>
+        <v>0.722365943051604</v>
       </c>
       <c r="G12">
-        <v>0.442589759937478</v>
+        <v>0.396269317331165</v>
       </c>
       <c r="H12">
-        <v>0.165971159976554</v>
+        <v>0.122458226536368</v>
       </c>
       <c r="I12">
-        <v>0.995826959859322</v>
+        <v>1.06910159571637</v>
       </c>
       <c r="J12">
-        <v>0.6085609199140321</v>
+        <v>0.626050483978057</v>
       </c>
       <c r="K12">
-        <v>0.414927899941385</v>
+        <v>0.462314203553026</v>
       </c>
       <c r="L12">
-        <v>0.636222779910124</v>
+        <v>0.657696991959365</v>
       </c>
       <c r="M12">
-        <v>3.92798411944512</v>
+        <v>4.08790327010727</v>
       </c>
       <c r="N12">
-        <v>2.60021483963269</v>
+        <v>2.53309657363429</v>
       </c>
       <c r="O12">
-        <v>467.651405093937</v>
+        <v>471.173849852663</v>
       </c>
       <c r="P12">
-        <v>16.8184108776242</v>
+        <v>12.9489255048736</v>
       </c>
     </row>
     <row r="13">
@@ -1021,46 +1021,46 @@
         <v>322.415065550821</v>
       </c>
       <c r="C13">
-        <v>20.9614346829763</v>
+        <v>19.9664140950664</v>
       </c>
       <c r="D13">
-        <v>1.21967752553177</v>
+        <v>1.21402279937117</v>
       </c>
       <c r="E13">
-        <v>18.2667982893596</v>
+        <v>17.2813141866759</v>
       </c>
       <c r="F13">
-        <v>4.39651201063778</v>
+        <v>2.72840797142911</v>
       </c>
       <c r="G13">
-        <v>5.36090819361639</v>
+        <v>4.81418016873768</v>
       </c>
       <c r="H13">
-        <v>1.84369858510617</v>
+        <v>1.9726124196917</v>
       </c>
       <c r="I13">
-        <v>1.70187561702108</v>
+        <v>1.74070472729169</v>
       </c>
       <c r="J13">
-        <v>5.64455412978657</v>
+        <v>5.84519147591365</v>
       </c>
       <c r="K13">
-        <v>2.55281342553161</v>
+        <v>2.7409812800532</v>
       </c>
       <c r="L13">
-        <v>21.1032576510614</v>
+        <v>26.987908444479</v>
       </c>
       <c r="M13">
-        <v>3.12010529787197</v>
+        <v>3.07766654432069</v>
       </c>
       <c r="N13">
-        <v>6.9493254361694</v>
+        <v>7.07877275536675</v>
       </c>
       <c r="O13">
-        <v>426.376571251014</v>
+        <v>433.684149199529</v>
       </c>
       <c r="P13">
-        <v>44.6458703531862</v>
+        <v>35.0110763809446</v>
       </c>
     </row>
     <row r="14">
@@ -1073,46 +1073,46 @@
         <v>3241.37836243677</v>
       </c>
       <c r="C14">
-        <v>112.077134291549</v>
+        <v>109.173448722059</v>
       </c>
       <c r="D14">
-        <v>18.3887366369134</v>
+        <v>19.9034701366636</v>
       </c>
       <c r="E14">
-        <v>124.89940095253</v>
+        <v>123.085617377934</v>
       </c>
       <c r="F14">
-        <v>31.7648809074392</v>
+        <v>25.6370367711433</v>
       </c>
       <c r="G14">
-        <v>78.6229266749957</v>
+        <v>79.9239893189519</v>
       </c>
       <c r="H14">
-        <v>68.87468074699341</v>
+        <v>64.2476463140068</v>
       </c>
       <c r="I14">
-        <v>26.4199619753244</v>
+        <v>22.7564708418013</v>
       </c>
       <c r="J14">
-        <v>192.057061109931</v>
+        <v>186.522846100337</v>
       </c>
       <c r="K14">
-        <v>153.313322322218</v>
+        <v>139.389069233525</v>
       </c>
       <c r="L14">
-        <v>146.389852202898</v>
+        <v>153.17305959685</v>
       </c>
       <c r="M14">
-        <v>98.7009900210231</v>
+        <v>83.08296401275651</v>
       </c>
       <c r="N14">
-        <v>81.58617188606451</v>
+        <v>83.4661206291953</v>
       </c>
       <c r="O14">
-        <v>4261.34047068039</v>
+        <v>4335.23104974146</v>
       </c>
       <c r="P14">
-        <v>89.6450911049528</v>
+        <v>58.4878927165331</v>
       </c>
     </row>
     <row r="15">
@@ -1125,46 +1125,46 @@
         <v>1491.48137925415</v>
       </c>
       <c r="C15">
-        <v>39.7268390283193</v>
+        <v>38.046192982561</v>
       </c>
       <c r="D15">
-        <v>11.3389274883282</v>
+        <v>10.5443305236908</v>
       </c>
       <c r="E15">
-        <v>67.5464510999217</v>
+        <v>63.8415440991834</v>
       </c>
       <c r="F15">
-        <v>13.5850634824362</v>
+        <v>12.8855726409903</v>
       </c>
       <c r="G15">
-        <v>41.4858611923798</v>
+        <v>45.2904613834182</v>
       </c>
       <c r="H15">
-        <v>53.0412837162846</v>
+        <v>47.696252393096</v>
       </c>
       <c r="I15">
-        <v>23.489711360069</v>
+        <v>21.0348703037332</v>
       </c>
       <c r="J15">
-        <v>159.962769411714</v>
+        <v>156.161252654457</v>
       </c>
       <c r="K15">
-        <v>63.6766023389887</v>
+        <v>62.2426142442328</v>
       </c>
       <c r="L15">
-        <v>67.5735129793687</v>
+        <v>63.997537255764</v>
       </c>
       <c r="M15">
-        <v>202.476982023082</v>
+        <v>191.942855329418</v>
       </c>
       <c r="N15">
-        <v>76.1521287640944</v>
+        <v>67.4119047088504</v>
       </c>
       <c r="O15">
-        <v>1919.60735669946</v>
+        <v>1961.61797830625</v>
       </c>
       <c r="P15">
-        <v>41.0799330006735</v>
+        <v>38.0300557594664</v>
       </c>
     </row>
     <row r="16">
@@ -1177,46 +1177,46 @@
         <v>675.161135209775</v>
       </c>
       <c r="C16">
-        <v>60.1743393175107</v>
+        <v>59.4867287015976</v>
       </c>
       <c r="D16">
-        <v>6.91023648570403</v>
+        <v>6.1602639454858</v>
       </c>
       <c r="E16">
-        <v>24.7386466188204</v>
+        <v>24.5114820941213</v>
       </c>
       <c r="F16">
-        <v>3.37219540502357</v>
+        <v>2.43019586840265</v>
       </c>
       <c r="G16">
-        <v>11.3604287824975</v>
+        <v>11.2756677274724</v>
       </c>
       <c r="H16">
-        <v>17.883692025002</v>
+        <v>16.6529757720774</v>
       </c>
       <c r="I16">
-        <v>9.84017675564257</v>
+        <v>8.71038439729799</v>
       </c>
       <c r="J16">
-        <v>45.1929466165044</v>
+        <v>42.1073132116255</v>
       </c>
       <c r="K16">
-        <v>48.4545782377567</v>
+        <v>45.0296134050536</v>
       </c>
       <c r="L16">
-        <v>38.3103510767432</v>
+        <v>39.0802513131501</v>
       </c>
       <c r="M16">
-        <v>28.5530971589291</v>
+        <v>25.6059662231694</v>
       </c>
       <c r="N16">
-        <v>19.7909172950564</v>
+        <v>19.3023441549871</v>
       </c>
       <c r="O16">
-        <v>993.747288536125</v>
+        <v>1024.10769679547</v>
       </c>
       <c r="P16">
-        <v>80.9050487746229</v>
+        <v>64.7730594760298</v>
       </c>
     </row>
     <row r="17">
@@ -1229,46 +1229,46 @@
         <v>628.920339012411</v>
       </c>
       <c r="C17">
-        <v>32.9487394217434</v>
+        <v>35.4646886536232</v>
       </c>
       <c r="D17">
-        <v>4.40078566430918</v>
+        <v>4.69238544231713</v>
       </c>
       <c r="E17">
-        <v>24.0042854416864</v>
+        <v>25.0025843766201</v>
       </c>
       <c r="F17">
-        <v>16.4029283851523</v>
+        <v>14.0039258218492</v>
       </c>
       <c r="G17">
-        <v>9.001607040632401</v>
+        <v>9.74810685225666</v>
       </c>
       <c r="H17">
-        <v>14.7454896284645</v>
+        <v>13.5420103281277</v>
       </c>
       <c r="I17">
-        <v>6.74406114790237</v>
+        <v>6.11193061814416</v>
       </c>
       <c r="J17">
-        <v>19.4320405956509</v>
+        <v>17.4584340721505</v>
       </c>
       <c r="K17">
-        <v>21.4323977157914</v>
+        <v>19.7567453092038</v>
       </c>
       <c r="L17">
-        <v>11.516341705952</v>
+        <v>12.3829967569912</v>
       </c>
       <c r="M17">
-        <v>68.440790039094</v>
+        <v>73.5727168856465</v>
       </c>
       <c r="N17">
-        <v>14.1453824924224</v>
+        <v>13.6265070647841</v>
       </c>
       <c r="O17">
-        <v>923.679188490036</v>
+        <v>945.9592744943481</v>
       </c>
       <c r="P17">
-        <v>69.84104002319241</v>
+        <v>45.4127711159666</v>
       </c>
     </row>
     <row r="18">
@@ -1281,46 +1281,46 @@
         <v>1190.34257916712</v>
       </c>
       <c r="C18">
-        <v>34.5842310837939</v>
+        <v>33.6399264669174</v>
       </c>
       <c r="D18">
-        <v>22.7891299074521</v>
+        <v>21.3096998388437</v>
       </c>
       <c r="E18">
-        <v>46.2688395090694</v>
+        <v>46.1339373760812</v>
       </c>
       <c r="F18">
-        <v>29.9435355390037</v>
+        <v>28.3374103666222</v>
       </c>
       <c r="G18">
-        <v>22.512898029786</v>
+        <v>22.7018662281104</v>
       </c>
       <c r="H18">
-        <v>22.4576516542528</v>
+        <v>22.4998656147659</v>
       </c>
       <c r="I18">
-        <v>10.5796809146111</v>
+        <v>11.0076685582703</v>
       </c>
       <c r="J18">
-        <v>50.5780568006603</v>
+        <v>50.4168963265899</v>
       </c>
       <c r="K18">
-        <v>31.9324050581995</v>
+        <v>32.8387483585845</v>
       </c>
       <c r="L18">
-        <v>33.8107818263289</v>
+        <v>34.1613064283878</v>
       </c>
       <c r="M18">
-        <v>68.8369839143887</v>
+        <v>70.2129564343584</v>
       </c>
       <c r="N18">
-        <v>23.5349559771505</v>
+        <v>23.8606400168236</v>
       </c>
       <c r="O18">
-        <v>1250.1426087534</v>
+        <v>1251.58624619993</v>
       </c>
       <c r="P18">
-        <v>40.8270715190475</v>
+        <v>40.091662272862</v>
       </c>
     </row>
     <row r="19">
@@ -1333,46 +1333,46 @@
         <v>1334.57366215959</v>
       </c>
       <c r="C19">
-        <v>23.1811287598321</v>
+        <v>21.0496199674794</v>
       </c>
       <c r="D19">
-        <v>9.822512186369529</v>
+        <v>8.672492803438599</v>
       </c>
       <c r="E19">
-        <v>39.1497271428156</v>
+        <v>33.1880924189156</v>
       </c>
       <c r="F19">
-        <v>80.82524313355491</v>
+        <v>79.9918476655611</v>
       </c>
       <c r="G19">
-        <v>42.4893812861813</v>
+        <v>42.4243041124719</v>
       </c>
       <c r="H19">
-        <v>6.42672940193891</v>
+        <v>6.28731725620158</v>
       </c>
       <c r="I19">
-        <v>6.67930828673127</v>
+        <v>6.40527303369576</v>
       </c>
       <c r="J19">
-        <v>23.6301578883518</v>
+        <v>22.606361914641</v>
       </c>
       <c r="K19">
-        <v>12.0957221495007</v>
+        <v>12.3565534819197</v>
       </c>
       <c r="L19">
-        <v>7.40898062057586</v>
+        <v>7.76176447487886</v>
       </c>
       <c r="M19">
-        <v>29.1027003921863</v>
+        <v>30.63832741471</v>
       </c>
       <c r="N19">
-        <v>10.6363774818116</v>
+        <v>10.7051725970011</v>
       </c>
       <c r="O19">
-        <v>1415.28368445318</v>
+        <v>1431.81854932241</v>
       </c>
       <c r="P19">
-        <v>37.3816749492691</v>
+        <v>30.2076516689754</v>
       </c>
     </row>
     <row r="20">
@@ -1385,46 +1385,46 @@
         <v>337.841306152238</v>
       </c>
       <c r="C20">
-        <v>8.33352542904955</v>
+        <v>8.06768494061739</v>
       </c>
       <c r="D20">
-        <v>16.0941209848519</v>
+        <v>14.50109667479</v>
       </c>
       <c r="E20">
-        <v>35.6518634761526</v>
+        <v>30.6377625696699</v>
       </c>
       <c r="F20">
-        <v>0.494803072349817</v>
+        <v>0.504149307935769</v>
       </c>
       <c r="G20">
-        <v>1.61462055187835</v>
+        <v>1.7729466664682</v>
       </c>
       <c r="H20">
-        <v>1.82295868760459</v>
+        <v>1.99845304071197</v>
       </c>
       <c r="I20">
-        <v>1.66670508580991</v>
+        <v>1.6990738886987</v>
       </c>
       <c r="J20">
-        <v>6.53660900841074</v>
+        <v>6.43081970688249</v>
       </c>
       <c r="K20">
-        <v>4.03655137969587</v>
+        <v>4.40385436597878</v>
       </c>
       <c r="L20">
-        <v>8.3856099629811</v>
+        <v>9.73954254276946</v>
       </c>
       <c r="M20">
-        <v>16.0420364509204</v>
+        <v>18.3982097055429</v>
       </c>
       <c r="N20">
-        <v>6.82307394503431</v>
+        <v>6.79499954114972</v>
       </c>
       <c r="O20">
-        <v>451.026021580341</v>
+        <v>461.890191010675</v>
       </c>
       <c r="P20">
-        <v>25.7818442961221</v>
+        <v>17.4715599493114</v>
       </c>
     </row>
     <row r="21">
@@ -1437,46 +1437,46 @@
         <v>1269.9484280236</v>
       </c>
       <c r="C21">
-        <v>25.5066307126345</v>
+        <v>23.8092716275145</v>
       </c>
       <c r="D21">
-        <v>11.7145837888345</v>
+        <v>10.5146744214001</v>
       </c>
       <c r="E21">
-        <v>41.5781163539665</v>
+        <v>40.4644356244336</v>
       </c>
       <c r="F21">
-        <v>4.09721896062682</v>
+        <v>3.55984954845057</v>
       </c>
       <c r="G21">
-        <v>21.1208752054847</v>
+        <v>21.2831117787953</v>
       </c>
       <c r="H21">
-        <v>7.87704772007832</v>
+        <v>7.39066629974331</v>
       </c>
       <c r="I21">
-        <v>6.83831615259546</v>
+        <v>6.2666541990646</v>
       </c>
       <c r="J21">
-        <v>27.0935817185112</v>
+        <v>26.1304139629722</v>
       </c>
       <c r="K21">
-        <v>11.5414618609207</v>
+        <v>10.7770394908188</v>
       </c>
       <c r="L21">
-        <v>39.904604384133</v>
+        <v>40.2149737551504</v>
       </c>
       <c r="M21">
-        <v>29.8346789104798</v>
+        <v>29.5597978211654</v>
       </c>
       <c r="N21">
-        <v>20.197558256611</v>
+        <v>20.346912924531</v>
       </c>
       <c r="O21">
-        <v>2189.64614425386</v>
+        <v>2199.26587542377</v>
       </c>
       <c r="P21">
-        <v>18.4951926321253</v>
+        <v>15.8623340330476</v>
       </c>
     </row>
     <row r="22">
@@ -1489,46 +1489,46 @@
         <v>1594.354587936</v>
       </c>
       <c r="C22">
-        <v>24.6139067555014</v>
+        <v>24.7210778547676</v>
       </c>
       <c r="D22">
-        <v>30.6451289406243</v>
+        <v>29.4727286685355</v>
       </c>
       <c r="E22">
-        <v>55.177532693624</v>
+        <v>51.4682954677922</v>
       </c>
       <c r="F22">
-        <v>3.06994642756253</v>
+        <v>2.67119095475323</v>
       </c>
       <c r="G22">
-        <v>26.4884758130396</v>
+        <v>26.9644980160549</v>
       </c>
       <c r="H22">
-        <v>22.7121700304626</v>
+        <v>22.1503790864158</v>
       </c>
       <c r="I22">
-        <v>9.94336630520259</v>
+        <v>9.004914703085239</v>
       </c>
       <c r="J22">
-        <v>55.5307123711312</v>
+        <v>54.0118341857652</v>
       </c>
       <c r="K22">
-        <v>30.9439732831303</v>
+        <v>30.7954231219822</v>
       </c>
       <c r="L22">
-        <v>134.289780455236</v>
+        <v>138.548848992244</v>
       </c>
       <c r="M22">
-        <v>18.3381755628736</v>
+        <v>18.3615520585757</v>
       </c>
       <c r="N22">
-        <v>56.7260897411555</v>
+        <v>55.8695816316739</v>
       </c>
       <c r="O22">
-        <v>2461.52651388764</v>
+        <v>2468.76845728269</v>
       </c>
       <c r="P22">
-        <v>14.8607141228027</v>
+        <v>12.0577043656603</v>
       </c>
     </row>
     <row r="23">
@@ -1541,46 +1541,46 @@
         <v>2643.78457471329</v>
       </c>
       <c r="C23">
-        <v>50.1219920516037</v>
+        <v>45.8094199921939</v>
       </c>
       <c r="D23">
-        <v>12.1353620520451</v>
+        <v>11.3180427814959</v>
       </c>
       <c r="E23">
-        <v>77.3394928129235</v>
+        <v>67.57264196514539</v>
       </c>
       <c r="F23">
-        <v>14.573150013935</v>
+        <v>9.925175350580449</v>
       </c>
       <c r="G23">
-        <v>52.1579468329623</v>
+        <v>53.2141685630225</v>
       </c>
       <c r="H23">
-        <v>68.15090741810781</v>
+        <v>61.9401513826053</v>
       </c>
       <c r="I23">
-        <v>20.0380812691607</v>
+        <v>17.0871670263067</v>
       </c>
       <c r="J23">
-        <v>165.046281683555</v>
+        <v>157.557184163926</v>
       </c>
       <c r="K23">
-        <v>112.138246246934</v>
+        <v>110.429183003799</v>
       </c>
       <c r="L23">
-        <v>46.4519156694178</v>
+        <v>45.0028834226733</v>
       </c>
       <c r="M23">
-        <v>508.399340008196</v>
+        <v>544.5249403612691</v>
       </c>
       <c r="N23">
-        <v>76.5894042092651</v>
+        <v>77.9461879744396</v>
       </c>
       <c r="O23">
-        <v>3084.0964494564</v>
+        <v>3112.55727582092</v>
       </c>
       <c r="P23">
-        <v>69.8921845337435</v>
+        <v>42.2463324498711</v>
       </c>
     </row>
     <row r="24">
@@ -1593,46 +1593,46 @@
         <v>1041.42768372406</v>
       </c>
       <c r="C24">
-        <v>70.5347100589325</v>
+        <v>60.3935383203326</v>
       </c>
       <c r="D24">
-        <v>8.07504556187549</v>
+        <v>7.21240889093241</v>
       </c>
       <c r="E24">
-        <v>73.271554360105</v>
+        <v>75.45310256927481</v>
       </c>
       <c r="F24">
-        <v>13.5216366958922</v>
+        <v>11.715567303288</v>
       </c>
       <c r="G24">
-        <v>14.5784379607014</v>
+        <v>15.6588956770838</v>
       </c>
       <c r="H24">
-        <v>21.5966822577677</v>
+        <v>20.9411849460236</v>
       </c>
       <c r="I24">
-        <v>15.7707265671528</v>
+        <v>13.3514696787383</v>
       </c>
       <c r="J24">
-        <v>63.4893682935378</v>
+        <v>58.8162069708142</v>
       </c>
       <c r="K24">
-        <v>53.1381353920733</v>
+        <v>52.5436587285586</v>
       </c>
       <c r="L24">
-        <v>75.62903410467941</v>
+        <v>82.8425866548854</v>
       </c>
       <c r="M24">
-        <v>32.1917923741882</v>
+        <v>27.2450618765685</v>
       </c>
       <c r="N24">
-        <v>53.923961973598</v>
+        <v>56.5360233101116</v>
       </c>
       <c r="O24">
-        <v>1800.27450333665</v>
+        <v>1869.72335943858</v>
       </c>
       <c r="P24">
-        <v>119.581127733411</v>
+        <v>63.1436523053737</v>
       </c>
     </row>
     <row r="25">
@@ -1645,46 +1645,46 @@
         <v>847.8459047694601</v>
       </c>
       <c r="C25">
-        <v>30.4824116612773</v>
+        <v>27.4266155307121</v>
       </c>
       <c r="D25">
-        <v>23.2805231918547</v>
+        <v>19.7615352077183</v>
       </c>
       <c r="E25">
-        <v>36.1490138290789</v>
+        <v>34.1920832660818</v>
       </c>
       <c r="F25">
-        <v>13.4826051578727</v>
+        <v>13.739166523548</v>
       </c>
       <c r="G25">
-        <v>9.40711788447844</v>
+        <v>10.2890637858368</v>
       </c>
       <c r="H25">
-        <v>14.0408910857349</v>
+        <v>12.8708566432088</v>
       </c>
       <c r="I25">
-        <v>5.69451646419467</v>
+        <v>5.60862855309967</v>
       </c>
       <c r="J25">
-        <v>19.4562645859985</v>
+        <v>18.7421557400475</v>
       </c>
       <c r="K25">
-        <v>16.3019490935769</v>
+        <v>14.0712474182232</v>
       </c>
       <c r="L25">
-        <v>24.4529236403653</v>
+        <v>23.1762522763247</v>
       </c>
       <c r="M25">
-        <v>27.6909820219662</v>
+        <v>28.7998516894303</v>
       </c>
       <c r="N25">
-        <v>52.5905344046214</v>
+        <v>45.2487438740366</v>
       </c>
       <c r="O25">
-        <v>788.523044512603</v>
+        <v>813.547835425023</v>
       </c>
       <c r="P25">
-        <v>39.7499580637902</v>
+        <v>33.8286996641217</v>
       </c>
     </row>
     <row r="26">
@@ -1697,46 +1697,46 @@
         <v>1446.34990705824</v>
       </c>
       <c r="C26">
-        <v>64.3287303194744</v>
+        <v>59.3150681004604</v>
       </c>
       <c r="D26">
-        <v>23.4334310182687</v>
+        <v>19.4203909306332</v>
       </c>
       <c r="E26">
-        <v>60.0835435408024</v>
+        <v>56.6900881189528</v>
       </c>
       <c r="F26">
-        <v>12.1412341870015</v>
+        <v>9.84332642030015</v>
       </c>
       <c r="G26">
-        <v>28.5276551526749</v>
+        <v>30.9309908814077</v>
       </c>
       <c r="H26">
-        <v>21.4240426096973</v>
+        <v>20.9120152430141</v>
       </c>
       <c r="I26">
-        <v>15.339274893601</v>
+        <v>13.3423703680346</v>
       </c>
       <c r="J26">
-        <v>64.64004401657699</v>
+        <v>59.684489075022</v>
       </c>
       <c r="K26">
-        <v>40.9519017915879</v>
+        <v>39.8207929749149</v>
       </c>
       <c r="L26">
-        <v>46.8951632817286</v>
+        <v>44.4044011423058</v>
       </c>
       <c r="M26">
-        <v>80.6585487947654</v>
+        <v>81.632277088222</v>
       </c>
       <c r="N26">
-        <v>42.8480852193947</v>
+        <v>39.4527660417667</v>
       </c>
       <c r="O26">
-        <v>1918.42820652701</v>
+        <v>1969.81815630895</v>
       </c>
       <c r="P26">
-        <v>80.4604400784274</v>
+        <v>54.8931687370286</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>238.495178910906</v>
+        <v>238.495178910905</v>
       </c>
       <c r="C27">
-        <v>2.86277994644361</v>
+        <v>2.71079180789446</v>
       </c>
       <c r="D27">
-        <v>1.107301677398</v>
+        <v>1.11109338358199</v>
       </c>
       <c r="E27">
-        <v>9.64162680075821</v>
+        <v>9.675483998645699</v>
       </c>
       <c r="F27">
-        <v>7.5620602358888</v>
+        <v>6.61135069236988</v>
       </c>
       <c r="G27">
-        <v>0.810220739559513</v>
+        <v>0.881973505725335</v>
       </c>
       <c r="H27">
-        <v>0.324088295823806</v>
+        <v>0.271907324926277</v>
       </c>
       <c r="I27">
-        <v>1.2693458253099</v>
+        <v>1.22703356273838</v>
       </c>
       <c r="J27">
-        <v>3.99708898182693</v>
+        <v>4.14900212552482</v>
       </c>
       <c r="K27">
-        <v>1.107301677398</v>
+        <v>1.1166143444942</v>
       </c>
       <c r="L27">
-        <v>1.40438261523649</v>
+        <v>1.83433926308133</v>
       </c>
       <c r="M27">
-        <v>0.891242813515466</v>
+        <v>0.8874944666375441</v>
       </c>
       <c r="N27">
-        <v>4.1051184137682</v>
+        <v>4.14210092438455</v>
       </c>
       <c r="O27">
-        <v>321.5225968152</v>
+        <v>335.80692652418</v>
       </c>
       <c r="P27">
-        <v>44.0219935160669</v>
+        <v>30.2010364300095</v>
       </c>
     </row>
     <row r="28">
@@ -1801,46 +1801,46 @@
         <v>372.913011121286</v>
       </c>
       <c r="C28">
-        <v>34.8221544886528</v>
+        <v>36.8084048501117</v>
       </c>
       <c r="D28">
-        <v>1.98584174192318</v>
+        <v>2.04905515051663</v>
       </c>
       <c r="E28">
-        <v>9.229968659642919</v>
+        <v>10.402895379546</v>
       </c>
       <c r="F28">
-        <v>2.06975054791992</v>
+        <v>1.51568159141924</v>
       </c>
       <c r="G28">
-        <v>4.5310755238247</v>
+        <v>5.08745492384453</v>
       </c>
       <c r="H28">
-        <v>6.60082607174464</v>
+        <v>6.59891456097012</v>
       </c>
       <c r="I28">
-        <v>4.3632579118312</v>
+        <v>4.54423013806196</v>
       </c>
       <c r="J28">
-        <v>14.7959194574276</v>
+        <v>13.3737438841755</v>
       </c>
       <c r="K28">
-        <v>17.1173964233378</v>
+        <v>14.5840374483543</v>
       </c>
       <c r="L28">
-        <v>14.0407402034568</v>
+        <v>16.0518702244456</v>
       </c>
       <c r="M28">
-        <v>9.70545189362455</v>
+        <v>8.663450210563459</v>
       </c>
       <c r="N28">
-        <v>10.8242359735813</v>
+        <v>11.2247691487092</v>
       </c>
       <c r="O28">
-        <v>601.458321384732</v>
+        <v>637.482730024432</v>
       </c>
       <c r="P28">
-        <v>89.2789695805461</v>
+        <v>52.4366723270946</v>
       </c>
     </row>
     <row r="29">
@@ -1853,46 +1853,46 @@
         <v>539.06509489463</v>
       </c>
       <c r="C29">
-        <v>5.33182180475024</v>
+        <v>5.35842883196327</v>
       </c>
       <c r="D29">
-        <v>1.58079138934806</v>
+        <v>1.7448803643036</v>
       </c>
       <c r="E29">
-        <v>7.1001647148684</v>
+        <v>7.28899080484559</v>
       </c>
       <c r="F29">
-        <v>17.1475676132671</v>
+        <v>12.8647066255712</v>
       </c>
       <c r="G29">
-        <v>2.08985980286692</v>
+        <v>2.10570845473317</v>
       </c>
       <c r="H29">
-        <v>2.89365203473882</v>
+        <v>3.03675027930875</v>
       </c>
       <c r="I29">
-        <v>3.34913429946622</v>
+        <v>3.13683398322352</v>
       </c>
       <c r="J29">
-        <v>6.91261319409829</v>
+        <v>6.93474716862094</v>
       </c>
       <c r="K29">
-        <v>2.84006588594736</v>
+        <v>3.09074280378909</v>
       </c>
       <c r="L29">
-        <v>5.78730406947764</v>
+        <v>5.70740490482399</v>
       </c>
       <c r="M29">
-        <v>3.50989274584061</v>
+        <v>3.15000289163336</v>
       </c>
       <c r="N29">
-        <v>10.5832643863133</v>
+        <v>10.758998170838</v>
       </c>
       <c r="O29">
-        <v>807.114573096966</v>
+        <v>812.259587609678</v>
       </c>
       <c r="P29">
-        <v>5.81409714387337</v>
+        <v>4.61701928848937</v>
       </c>
     </row>
     <row r="30">
@@ -1905,46 +1905,46 @@
         <v>266.778200247124</v>
       </c>
       <c r="C30">
-        <v>3.7151910518131</v>
+        <v>4.14437468725166</v>
       </c>
       <c r="D30">
-        <v>6.06988960577914</v>
+        <v>5.91248393870722</v>
       </c>
       <c r="E30">
-        <v>16.9799929058218</v>
+        <v>14.6023018313317</v>
       </c>
       <c r="F30">
-        <v>0.837226152521261</v>
+        <v>0.779855451902194</v>
       </c>
       <c r="G30">
-        <v>3.97682422447599</v>
+        <v>4.52054025816919</v>
       </c>
       <c r="H30">
-        <v>5.28499008779046</v>
+        <v>5.42622112752115</v>
       </c>
       <c r="I30">
-        <v>2.64249504389523</v>
+        <v>2.64888717360392</v>
       </c>
       <c r="J30">
-        <v>20.1457542950429</v>
+        <v>19.0520652921854</v>
       </c>
       <c r="K30">
-        <v>10.5438168583146</v>
+        <v>9.8392855082853</v>
       </c>
       <c r="L30">
-        <v>36.9949306145333</v>
+        <v>44.8672467722956</v>
       </c>
       <c r="M30">
-        <v>9.130997725935011</v>
+        <v>9.640061930656531</v>
       </c>
       <c r="N30">
-        <v>14.6514576691221</v>
+        <v>13.7713298035905</v>
       </c>
       <c r="O30">
-        <v>471.175180648606</v>
+        <v>469.542448161004</v>
       </c>
       <c r="P30">
-        <v>7.87515849715312</v>
+        <v>5.27680344429955</v>
       </c>
     </row>
     <row r="31">
@@ -1957,46 +1957,46 @@
         <v>2297.69444906306</v>
       </c>
       <c r="C31">
-        <v>45.3328347981114</v>
+        <v>45.1677150002555</v>
       </c>
       <c r="D31">
-        <v>40.6768794406179</v>
+        <v>41.3599311567091</v>
       </c>
       <c r="E31">
-        <v>57.2654628999514</v>
+        <v>57.8288048876354</v>
       </c>
       <c r="F31">
-        <v>9.59071043699279</v>
+        <v>9.15509168811754</v>
       </c>
       <c r="G31">
-        <v>132.987467396673</v>
+        <v>133.348923973136</v>
       </c>
       <c r="H31">
-        <v>26.6253734515354</v>
+        <v>25.0718506689022</v>
       </c>
       <c r="I31">
-        <v>19.0977809573839</v>
+        <v>17.600917576305</v>
       </c>
       <c r="J31">
-        <v>47.8699122683625</v>
+        <v>47.3497503729817</v>
       </c>
       <c r="K31">
-        <v>30.4449296430122</v>
+        <v>30.545713783657</v>
       </c>
       <c r="L31">
-        <v>80.12704010441109</v>
+        <v>80.9592142688857</v>
       </c>
       <c r="M31">
-        <v>25.6216944523152</v>
+        <v>25.7435671029536</v>
       </c>
       <c r="N31">
-        <v>52.4422277092544</v>
+        <v>52.8458649638126</v>
       </c>
       <c r="O31">
-        <v>3138.2533108117</v>
+        <v>3141.11154097795</v>
       </c>
       <c r="P31">
-        <v>13.9957460446814</v>
+        <v>12.2424839936957</v>
       </c>
     </row>
     <row r="32">
@@ -2009,46 +2009,46 @@
         <v>536.656818857286</v>
       </c>
       <c r="C32">
-        <v>6.08903720727616</v>
+        <v>6.15703143441312</v>
       </c>
       <c r="D32">
-        <v>1.40076442796494</v>
+        <v>1.32606521910148</v>
       </c>
       <c r="E32">
-        <v>5.66023177014404</v>
+        <v>5.70054013406774</v>
       </c>
       <c r="F32">
-        <v>20.0680944577834</v>
+        <v>18.6979396733496</v>
       </c>
       <c r="G32">
-        <v>1.88674392338135</v>
+        <v>2.09761953348894</v>
       </c>
       <c r="H32">
-        <v>0.54315355370069</v>
+        <v>0.786957395073954</v>
       </c>
       <c r="I32">
-        <v>3.40185646791486</v>
+        <v>3.11282257873559</v>
       </c>
       <c r="J32">
-        <v>4.28805437132124</v>
+        <v>4.44728947821153</v>
       </c>
       <c r="K32">
-        <v>2.02967906909206</v>
+        <v>2.25445090047877</v>
       </c>
       <c r="L32">
-        <v>14.4078626876393</v>
+        <v>16.3832767301873</v>
       </c>
       <c r="M32">
-        <v>4.80262089587979</v>
+        <v>5.46809364370781</v>
       </c>
       <c r="N32">
-        <v>9.776763966612419</v>
+        <v>9.3608722172053</v>
       </c>
       <c r="O32">
-        <v>621.167556229595</v>
+        <v>626.440490959865</v>
       </c>
       <c r="P32">
-        <v>23.7272341879776</v>
+        <v>17.0162033183962</v>
       </c>
     </row>
     <row r="33">
@@ -2061,46 +2061,46 @@
         <v>5619.99657519564</v>
       </c>
       <c r="C33">
-        <v>87.7366116733883</v>
+        <v>83.0976068755802</v>
       </c>
       <c r="D33">
-        <v>105.19135037067</v>
+        <v>114.356765962242</v>
       </c>
       <c r="E33">
-        <v>121.121182099078</v>
+        <v>107.721554182392</v>
       </c>
       <c r="F33">
-        <v>10.9194231163963</v>
+        <v>8.0633021402256</v>
       </c>
       <c r="G33">
-        <v>84.8501806251639</v>
+        <v>82.6827349875706</v>
       </c>
       <c r="H33">
-        <v>37.3874512189827</v>
+        <v>32.8857854990557</v>
       </c>
       <c r="I33">
-        <v>37.8503694059621</v>
+        <v>30.4294153106425</v>
       </c>
       <c r="J33">
-        <v>112.843115696623</v>
+        <v>95.6711004319894</v>
       </c>
       <c r="K33">
-        <v>124.252687481586</v>
+        <v>113.435284838049</v>
       </c>
       <c r="L33">
-        <v>145.655846008987</v>
+        <v>138.478211675326</v>
       </c>
       <c r="M33">
-        <v>76.5176532595349</v>
+        <v>70.4583910398827</v>
       </c>
       <c r="N33">
-        <v>116.682613600394</v>
+        <v>107.894075165525</v>
       </c>
       <c r="O33">
-        <v>6723.34205624393</v>
+        <v>6836.19872519901</v>
       </c>
       <c r="P33">
-        <v>88.1995298603678</v>
+        <v>51.1771173535766</v>
       </c>
     </row>
     <row r="34">
@@ -2113,46 +2113,46 @@
         <v>2077.24237762879</v>
       </c>
       <c r="C34">
-        <v>69.30657972962381</v>
+        <v>67.43645689740841</v>
       </c>
       <c r="D34">
-        <v>206.309861943183</v>
+        <v>195.181495269053</v>
       </c>
       <c r="E34">
-        <v>82.24016980515199</v>
+        <v>79.9766580305521</v>
       </c>
       <c r="F34">
-        <v>7.77652567832393</v>
+        <v>7.39889222611334</v>
       </c>
       <c r="G34">
-        <v>59.3471696503668</v>
+        <v>60.2444986833931</v>
       </c>
       <c r="H34">
-        <v>40.2196450871911</v>
+        <v>41.2092396866547</v>
       </c>
       <c r="I34">
-        <v>24.6938797855549</v>
+        <v>24.6905652886576</v>
       </c>
       <c r="J34">
-        <v>63.3582197370813</v>
+        <v>62.6395929911605</v>
       </c>
       <c r="K34">
-        <v>49.9334806713431</v>
+        <v>51.4277747098723</v>
       </c>
       <c r="L34">
-        <v>101.476838588374</v>
+        <v>102.123937557617</v>
       </c>
       <c r="M34">
-        <v>56.4821338741422</v>
+        <v>57.1952258857672</v>
       </c>
       <c r="N34">
-        <v>124.915559843393</v>
+        <v>120.96427806554</v>
       </c>
       <c r="O34">
-        <v>2649.72151612757</v>
+        <v>2668.79324251725</v>
       </c>
       <c r="P34">
-        <v>62.4577799216964</v>
+        <v>58.9575026339573</v>
       </c>
     </row>
     <row r="35">
@@ -2165,46 +2165,46 @@
         <v>153.361672850596</v>
       </c>
       <c r="C35">
-        <v>6.5773096280891</v>
+        <v>6.64678908840097</v>
       </c>
       <c r="D35">
-        <v>0.344662513262311</v>
+        <v>0.477656792935459</v>
       </c>
       <c r="E35">
-        <v>1.98180945125829</v>
+        <v>2.45033605560244</v>
       </c>
       <c r="F35">
-        <v>5.34226895556582</v>
+        <v>4.72606041348528</v>
       </c>
       <c r="G35">
-        <v>0.545715645998659</v>
+        <v>0.600317902903779</v>
       </c>
       <c r="H35">
-        <v>0.373384389367503</v>
+        <v>0.438693852121992</v>
       </c>
       <c r="I35">
-        <v>0.976543787576549</v>
+        <v>0.9971626704483471</v>
       </c>
       <c r="J35">
-        <v>2.38391571673098</v>
+        <v>2.43446226490066</v>
       </c>
       <c r="K35">
-        <v>6.00287210598525</v>
+        <v>5.75929988098313</v>
       </c>
       <c r="L35">
-        <v>2.03925320346867</v>
+        <v>2.33633337692601</v>
       </c>
       <c r="M35">
-        <v>2.3264719645206</v>
+        <v>2.08956808510739</v>
       </c>
       <c r="N35">
-        <v>2.24030633620502</v>
+        <v>2.50661585899967</v>
       </c>
       <c r="O35">
-        <v>223.341308593977</v>
+        <v>237.183294522272</v>
       </c>
       <c r="P35">
-        <v>40.7276203171631</v>
+        <v>26.5568518440823</v>
       </c>
     </row>
     <row r="36">
@@ -2217,46 +2217,46 @@
         <v>2968.38984406185</v>
       </c>
       <c r="C36">
-        <v>74.615562686895</v>
+        <v>70.5764503576842</v>
       </c>
       <c r="D36">
-        <v>20.5817309012614</v>
+        <v>19.8297150940491</v>
       </c>
       <c r="E36">
-        <v>118.358529021897</v>
+        <v>116.019321019568</v>
       </c>
       <c r="F36">
-        <v>25.0347703047006</v>
+        <v>21.9966372353898</v>
       </c>
       <c r="G36">
-        <v>79.80172443114429</v>
+        <v>83.12965448683011</v>
       </c>
       <c r="H36">
-        <v>114.475695883533</v>
+        <v>104.77713875023</v>
       </c>
       <c r="I36">
-        <v>55.8802139773035</v>
+        <v>51.146155395017</v>
       </c>
       <c r="J36">
-        <v>260.095514911851</v>
+        <v>251.0817440173</v>
       </c>
       <c r="K36">
-        <v>133.862708896067</v>
+        <v>129.431142573997</v>
       </c>
       <c r="L36">
-        <v>105.73253315239</v>
+        <v>104.701058725204</v>
       </c>
       <c r="M36">
-        <v>251.895405766494</v>
+        <v>242.147775364349</v>
       </c>
       <c r="N36">
-        <v>88.46342912441921</v>
+        <v>83.81709185580721</v>
       </c>
       <c r="O36">
-        <v>3693.00875745339</v>
+        <v>3750.96532238258</v>
       </c>
       <c r="P36">
-        <v>53.8437630306087</v>
+        <v>46.0311322839526</v>
       </c>
     </row>
     <row r="37">
@@ -2269,46 +2269,46 @@
         <v>956.09506822759</v>
       </c>
       <c r="C37">
-        <v>26.5928010085304</v>
+        <v>23.5217138497741</v>
       </c>
       <c r="D37">
-        <v>9.065075640448351</v>
+        <v>6.78410074500026</v>
       </c>
       <c r="E37">
-        <v>19.1055075206918</v>
+        <v>17.6267500544216</v>
       </c>
       <c r="F37">
-        <v>47.9358904911051</v>
+        <v>41.0293450784056</v>
       </c>
       <c r="G37">
-        <v>5.88082438699973</v>
+        <v>5.88078298275838</v>
       </c>
       <c r="H37">
-        <v>19.8226812264234</v>
+        <v>18.9016051066281</v>
       </c>
       <c r="I37">
-        <v>11.7042748775409</v>
+        <v>10.7150219960748</v>
       </c>
       <c r="J37">
-        <v>37.3504065945056</v>
+        <v>35.7725178497861</v>
       </c>
       <c r="K37">
-        <v>27.6542180930133</v>
+        <v>28.0198676046112</v>
       </c>
       <c r="L37">
-        <v>22.0028892918477</v>
+        <v>22.9048485019323</v>
       </c>
       <c r="M37">
-        <v>34.4530248233496</v>
+        <v>35.2322288899523</v>
       </c>
       <c r="N37">
-        <v>15.4048911991164</v>
+        <v>15.6187469911022</v>
       </c>
       <c r="O37">
-        <v>1119.42209380246</v>
+        <v>1154.98606143</v>
       </c>
       <c r="P37">
-        <v>55.7674273576949</v>
+        <v>35.1684152332789</v>
       </c>
     </row>
     <row r="38">
@@ -2321,46 +2321,46 @@
         <v>929.8884738684531</v>
       </c>
       <c r="C38">
-        <v>24.6184989345874</v>
+        <v>22.6137066450529</v>
       </c>
       <c r="D38">
-        <v>8.43210701393908</v>
+        <v>8.86352251330359</v>
       </c>
       <c r="E38">
-        <v>70.7646279947942</v>
+        <v>65.3180643202605</v>
       </c>
       <c r="F38">
-        <v>2.68417554463012</v>
+        <v>2.26445246371626</v>
       </c>
       <c r="G38">
-        <v>5.61236704786299</v>
+        <v>5.60083508777158</v>
       </c>
       <c r="H38">
-        <v>5.44968974212783</v>
+        <v>5.98405012009279</v>
       </c>
       <c r="I38">
-        <v>6.39864069224959</v>
+        <v>6.49321694625385</v>
       </c>
       <c r="J38">
-        <v>29.3903665694854</v>
+        <v>29.6804062270881</v>
       </c>
       <c r="K38">
-        <v>13.1497488802586</v>
+        <v>14.4027216168557</v>
       </c>
       <c r="L38">
-        <v>58.9705233289951</v>
+        <v>64.92948963713761</v>
       </c>
       <c r="M38">
-        <v>21.7716460842221</v>
+        <v>22.8079939866143</v>
       </c>
       <c r="N38">
-        <v>20.5786791754976</v>
+        <v>20.7592674676663</v>
       </c>
       <c r="O38">
-        <v>1193.50916641028</v>
+        <v>1207.73835200322</v>
       </c>
       <c r="P38">
-        <v>70.0868058875643</v>
+        <v>53.9609642714682</v>
       </c>
     </row>
     <row r="39">
@@ -2373,46 +2373,46 @@
         <v>3482.42403841085</v>
       </c>
       <c r="C39">
-        <v>98.53806238033729</v>
+        <v>96.66834852822331</v>
       </c>
       <c r="D39">
-        <v>70.7208441257755</v>
+        <v>62.5873746418583</v>
       </c>
       <c r="E39">
-        <v>142.050438032573</v>
+        <v>123.659890511247</v>
       </c>
       <c r="F39">
-        <v>38.8276490765392</v>
+        <v>30.8021283735408</v>
       </c>
       <c r="G39">
-        <v>94.9120310759843</v>
+        <v>106.224950952244</v>
       </c>
       <c r="H39">
-        <v>57.7518270518121</v>
+        <v>52.2016850558934</v>
       </c>
       <c r="I39">
-        <v>54.0463936021083</v>
+        <v>45.8690128399478</v>
       </c>
       <c r="J39">
-        <v>217.588345642964</v>
+        <v>198.46257196559</v>
       </c>
       <c r="K39">
-        <v>94.6473572581487</v>
+        <v>84.3418717085648</v>
       </c>
       <c r="L39">
-        <v>119.923706861486</v>
+        <v>119.961813525582</v>
       </c>
       <c r="M39">
-        <v>71.938343687821</v>
+        <v>67.166775298863</v>
       </c>
       <c r="N39">
-        <v>98.1939864171511</v>
+        <v>93.2461874639808</v>
       </c>
       <c r="O39">
-        <v>4052.28848797786</v>
+        <v>4159.38831531835</v>
       </c>
       <c r="P39">
-        <v>87.13062083160661</v>
+        <v>57.9771678382871</v>
       </c>
     </row>
     <row r="40">
@@ -2425,46 +2425,46 @@
         <v>280.59260255583</v>
       </c>
       <c r="C40">
-        <v>3.96672361495143</v>
+        <v>4.03286630243447</v>
       </c>
       <c r="D40">
-        <v>8.617365094549671</v>
+        <v>8.620423772063839</v>
       </c>
       <c r="E40">
-        <v>8.042874088246361</v>
+        <v>8.039580912122769</v>
       </c>
       <c r="F40">
-        <v>0.465064147959824</v>
+        <v>0.484494518244687</v>
       </c>
       <c r="G40">
-        <v>4.26764747539602</v>
+        <v>3.98882134623041</v>
       </c>
       <c r="H40">
-        <v>5.14306234214393</v>
+        <v>5.05140591465341</v>
       </c>
       <c r="I40">
-        <v>1.72347301890993</v>
+        <v>1.68884878944952</v>
       </c>
       <c r="J40">
-        <v>13.3774334324914</v>
+        <v>13.5809869645463</v>
       </c>
       <c r="K40">
-        <v>4.26764747539602</v>
+        <v>4.37559111789732</v>
       </c>
       <c r="L40">
-        <v>16.0857481764927</v>
+        <v>15.9318865019382</v>
       </c>
       <c r="M40">
-        <v>6.01847720889184</v>
+        <v>6.02177135602416</v>
       </c>
       <c r="N40">
-        <v>21.2561672332225</v>
+        <v>21.7059049793145</v>
       </c>
       <c r="O40">
-        <v>369.561857340544</v>
+        <v>369.30319372225</v>
       </c>
       <c r="P40">
-        <v>2.54417445648609</v>
+        <v>2.51193890851293</v>
       </c>
     </row>
     <row r="41">
@@ -2477,46 +2477,46 @@
         <v>1094.42871934909</v>
       </c>
       <c r="C41">
-        <v>21.5314790106959</v>
+        <v>19.7672505091628</v>
       </c>
       <c r="D41">
-        <v>109.252319424642</v>
+        <v>100.217604287787</v>
       </c>
       <c r="E41">
-        <v>45.8953237150084</v>
+        <v>43.8311474250439</v>
       </c>
       <c r="F41">
-        <v>3.27234483048891</v>
+        <v>3.24189333242094</v>
       </c>
       <c r="G41">
-        <v>25.1338081938392</v>
+        <v>25.2953345153141</v>
       </c>
       <c r="H41">
-        <v>32.4759600403984</v>
+        <v>32.1579220938947</v>
       </c>
       <c r="I41">
-        <v>11.7144445192292</v>
+        <v>11.0213665149273</v>
       </c>
       <c r="J41">
-        <v>45.8953237150084</v>
+        <v>44.8992856906392</v>
       </c>
       <c r="K41">
-        <v>33.1634274417616</v>
+        <v>31.4458299168312</v>
       </c>
       <c r="L41">
-        <v>31.733495246926</v>
+        <v>32.78434904665</v>
       </c>
       <c r="M41">
-        <v>37.8657044670859</v>
+        <v>39.2467194054147</v>
       </c>
       <c r="N41">
-        <v>22.4939333726044</v>
+        <v>22.2903590688712</v>
       </c>
       <c r="O41">
-        <v>1269.7247916218</v>
+        <v>1287.76783849251</v>
       </c>
       <c r="P41">
-        <v>24.1988525279852</v>
+        <v>20.3843078280093</v>
       </c>
     </row>
     <row r="42">
@@ -2529,46 +2529,46 @@
         <v>169.574869794925</v>
       </c>
       <c r="C42">
-        <v>7.8937852911291</v>
+        <v>8.19835245873481</v>
       </c>
       <c r="D42">
-        <v>1.16419135588595</v>
+        <v>1.09292441018452</v>
       </c>
       <c r="E42">
-        <v>5.13947891256966</v>
+        <v>5.68746508001218</v>
       </c>
       <c r="F42">
-        <v>1.90245904498435</v>
+        <v>2.05952379113993</v>
       </c>
       <c r="G42">
-        <v>0.937032066932591</v>
+        <v>0.774982763585389</v>
       </c>
       <c r="H42">
-        <v>1.44814046707764</v>
+        <v>1.94455382071792</v>
       </c>
       <c r="I42">
-        <v>1.10740153364761</v>
+        <v>1.18944241004497</v>
       </c>
       <c r="J42">
-        <v>3.91849773444538</v>
+        <v>4.31208358200075</v>
       </c>
       <c r="K42">
-        <v>5.39503311264219</v>
+        <v>4.97067699281325</v>
       </c>
       <c r="L42">
-        <v>7.26909724650737</v>
+        <v>8.944947575302431</v>
       </c>
       <c r="M42">
-        <v>3.52096897877701</v>
+        <v>3.34548420104536</v>
       </c>
       <c r="N42">
-        <v>7.6098361799374</v>
+        <v>8.37009772319238</v>
       </c>
       <c r="O42">
-        <v>256.860365984007</v>
+        <v>268.44068711188</v>
       </c>
       <c r="P42">
-        <v>45.3750679684327</v>
+        <v>30.2101339563213</v>
       </c>
     </row>
     <row r="43">
@@ -2581,46 +2581,46 @@
         <v>1568.88754291117</v>
       </c>
       <c r="C43">
-        <v>42.5214177387787</v>
+        <v>42.7536049209705</v>
       </c>
       <c r="D43">
-        <v>57.3270018222424</v>
+        <v>50.7915467152701</v>
       </c>
       <c r="E43">
-        <v>73.7257656401047</v>
+        <v>73.1148215375548</v>
       </c>
       <c r="F43">
-        <v>7.47146358200763</v>
+        <v>6.63271663649631</v>
       </c>
       <c r="G43">
-        <v>33.0996824129382</v>
+        <v>33.3104379688675</v>
       </c>
       <c r="H43">
-        <v>36.7530083556111</v>
+        <v>33.8008521178996</v>
       </c>
       <c r="I43">
-        <v>19.0632195805636</v>
+        <v>17.9998160194172</v>
       </c>
       <c r="J43">
-        <v>71.6106821996099</v>
+        <v>66.0819592904471</v>
       </c>
       <c r="K43">
-        <v>51.1465631974199</v>
+        <v>47.8113376557678</v>
       </c>
       <c r="L43">
-        <v>56.008508248947</v>
+        <v>54.2365713830582</v>
       </c>
       <c r="M43">
-        <v>103.14465349426</v>
+        <v>96.2060525822252</v>
       </c>
       <c r="N43">
-        <v>60.7331102199223</v>
+        <v>57.7422241736663</v>
       </c>
       <c r="O43">
-        <v>1845.53391060422</v>
+        <v>1881.87133378874</v>
       </c>
       <c r="P43">
-        <v>36.3135104978459</v>
+        <v>32.0992228040879</v>
       </c>
     </row>
     <row r="44">
@@ -2633,46 +2633,46 @@
         <v>5501.27994423661</v>
       </c>
       <c r="C44">
-        <v>116.000890649298</v>
+        <v>108.439043942149</v>
       </c>
       <c r="D44">
-        <v>56.1857333559661</v>
+        <v>55.6801227175014</v>
       </c>
       <c r="E44">
-        <v>116.282241342117</v>
+        <v>112.266108771335</v>
       </c>
       <c r="F44">
-        <v>219.509810537429</v>
+        <v>210.077187301127</v>
       </c>
       <c r="G44">
-        <v>122.106200683471</v>
+        <v>123.193258404868</v>
       </c>
       <c r="H44">
-        <v>62.8537447757777</v>
+        <v>59.748197058189</v>
       </c>
       <c r="I44">
-        <v>48.0828334027772</v>
+        <v>43.5728575448931</v>
       </c>
       <c r="J44">
-        <v>154.095774456998</v>
+        <v>144.578004658146</v>
       </c>
       <c r="K44">
-        <v>97.8537709624687</v>
+        <v>98.146275666477</v>
       </c>
       <c r="L44">
-        <v>240.020276043939</v>
+        <v>264.212909988031</v>
       </c>
       <c r="M44">
-        <v>128.943022518975</v>
+        <v>124.227937169762</v>
       </c>
       <c r="N44">
-        <v>99.54187511938321</v>
+        <v>101.366661380505</v>
       </c>
       <c r="O44">
-        <v>7055.74080958565</v>
+        <v>7139.16158790065</v>
       </c>
       <c r="P44">
-        <v>197.423781151134</v>
+        <v>129.970612081744</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>490.776315925352</v>
+        <v>490.776315925351</v>
       </c>
       <c r="C45">
-        <v>15.9449640386138</v>
+        <v>15.3768932978022</v>
       </c>
       <c r="D45">
-        <v>3.82177919982492</v>
+        <v>3.95236885007261</v>
       </c>
       <c r="E45">
-        <v>15.4124210353595</v>
+        <v>15.6647626825516</v>
       </c>
       <c r="F45">
-        <v>19.0775699401096</v>
+        <v>13.7492642359219</v>
       </c>
       <c r="G45">
-        <v>9.49179588153237</v>
+        <v>10.1859080679431</v>
       </c>
       <c r="H45">
-        <v>2.78801925233129</v>
+        <v>2.7557658399522</v>
       </c>
       <c r="I45">
-        <v>5.54471244564762</v>
+        <v>5.2625635633644</v>
       </c>
       <c r="J45">
-        <v>20.4559165367678</v>
+        <v>20.3313588169484</v>
       </c>
       <c r="K45">
-        <v>6.07725544890192</v>
+        <v>6.26621628316631</v>
       </c>
       <c r="L45">
-        <v>20.4245904777528</v>
+        <v>21.4937287110445</v>
       </c>
       <c r="M45">
-        <v>26.7524543987744</v>
+        <v>25.3978599885375</v>
       </c>
       <c r="N45">
-        <v>28.9139524708065</v>
+        <v>30.328984746758</v>
       </c>
       <c r="O45">
-        <v>789.1660787048301</v>
+        <v>801.109376742966</v>
       </c>
       <c r="P45">
-        <v>20.8005031859323</v>
+        <v>12.7969611901563</v>
       </c>
     </row>
     <row r="46">
@@ -2737,46 +2737,46 @@
         <v>138.712907190369</v>
       </c>
       <c r="C46">
-        <v>4.18782082575966</v>
+        <v>3.79891724122177</v>
       </c>
       <c r="D46">
-        <v>2.19731339623192</v>
+        <v>2.05141531025976</v>
       </c>
       <c r="E46">
-        <v>8.16883568481515</v>
+        <v>7.15506412812185</v>
       </c>
       <c r="F46">
-        <v>0.853074612654747</v>
+        <v>0.813492278206456</v>
       </c>
       <c r="G46">
-        <v>1.55104475028135</v>
+        <v>2.01473610931003</v>
       </c>
       <c r="H46">
-        <v>1.55104475028135</v>
+        <v>1.73047230194965</v>
       </c>
       <c r="I46">
-        <v>2.11976115871786</v>
+        <v>2.16407285603393</v>
       </c>
       <c r="J46">
-        <v>5.01504469257639</v>
+        <v>5.0067109296378</v>
       </c>
       <c r="K46">
-        <v>4.49802977581594</v>
+        <v>4.59406991895337</v>
       </c>
       <c r="L46">
-        <v>10.2885968435331</v>
+        <v>13.5398650362994</v>
       </c>
       <c r="M46">
-        <v>4.18782082575966</v>
+        <v>4.33731551230528</v>
       </c>
       <c r="N46">
-        <v>7.00555212210413</v>
+        <v>5.89356160974371</v>
       </c>
       <c r="O46">
-        <v>231.183220029436</v>
+        <v>233.15527075133</v>
       </c>
       <c r="P46">
-        <v>12.4342087480889</v>
+        <v>8.98640423268324</v>
       </c>
     </row>
     <row r="47">
@@ -2789,46 +2789,46 @@
         <v>1720.58997046044</v>
       </c>
       <c r="C47">
-        <v>57.5694807581686</v>
+        <v>53.2065377792792</v>
       </c>
       <c r="D47">
-        <v>53.6804182020201</v>
+        <v>47.5716891994385</v>
       </c>
       <c r="E47">
-        <v>70.28699918995331</v>
+        <v>66.0744270677489</v>
       </c>
       <c r="F47">
-        <v>17.798848340913</v>
+        <v>15.0537136322969</v>
       </c>
       <c r="G47">
-        <v>30.9989511774754</v>
+        <v>30.6824972707605</v>
       </c>
       <c r="H47">
-        <v>21.7162982149896</v>
+        <v>20.659250391435</v>
       </c>
       <c r="I47">
-        <v>14.1368843281893</v>
+        <v>13.3899188571743</v>
       </c>
       <c r="J47">
-        <v>38.2944918849948</v>
+        <v>37.4339866392741</v>
       </c>
       <c r="K47">
-        <v>26.6840788524055</v>
+        <v>26.7505258936458</v>
       </c>
       <c r="L47">
-        <v>49.7345810100154</v>
+        <v>50.4791426529456</v>
       </c>
       <c r="M47">
-        <v>73.920575884749</v>
+        <v>76.8779266981595</v>
       </c>
       <c r="N47">
-        <v>50.4158766402896</v>
+        <v>48.3268175327785</v>
       </c>
       <c r="O47">
-        <v>2666.36399834973</v>
+        <v>2689.6219600548</v>
       </c>
       <c r="P47">
-        <v>40.9628997702353</v>
+        <v>36.4359889343977</v>
       </c>
     </row>
     <row r="48">
@@ -2841,46 +2841,46 @@
         <v>1526.95130309552</v>
       </c>
       <c r="C48">
-        <v>38.6288446113532</v>
+        <v>37.0401174000129</v>
       </c>
       <c r="D48">
-        <v>8.81297734203579</v>
+        <v>9.08806558119913</v>
       </c>
       <c r="E48">
-        <v>64.8481385728615</v>
+        <v>60.3528637704614</v>
       </c>
       <c r="F48">
-        <v>7.9344250836397</v>
+        <v>6.95422832429007</v>
       </c>
       <c r="G48">
-        <v>9.03261540663482</v>
+        <v>9.608348889565219</v>
       </c>
       <c r="H48">
-        <v>9.114979680859451</v>
+        <v>9.378613402754199</v>
       </c>
       <c r="I48">
-        <v>9.38952726160823</v>
+        <v>9.121850211612511</v>
       </c>
       <c r="J48">
-        <v>37.558109046433</v>
+        <v>38.1212255732411</v>
       </c>
       <c r="K48">
-        <v>17.2415880710233</v>
+        <v>17.3869221959417</v>
       </c>
       <c r="L48">
-        <v>44.064886710179</v>
+        <v>47.968769646133</v>
       </c>
       <c r="M48">
-        <v>132.688845775885</v>
+        <v>142.325188235053</v>
       </c>
       <c r="N48">
-        <v>32.7809811414041</v>
+        <v>34.5927587728677</v>
       </c>
       <c r="O48">
-        <v>2121.92334209116</v>
+        <v>2137.03733710181</v>
       </c>
       <c r="P48">
-        <v>97.6291197142662</v>
+        <v>72.6720914043962</v>
       </c>
     </row>
     <row r="49">
@@ -2893,46 +2893,46 @@
         <v>648.546840576598</v>
       </c>
       <c r="C49">
-        <v>7.70907631626804</v>
+        <v>7.4386986991479</v>
       </c>
       <c r="D49">
-        <v>3.41401951149013</v>
+        <v>3.18261260371966</v>
       </c>
       <c r="E49">
-        <v>15.8311388637647</v>
+        <v>15.58629498716</v>
       </c>
       <c r="F49">
-        <v>28.3583878777003</v>
+        <v>26.7355662085912</v>
       </c>
       <c r="G49">
-        <v>17.0976299728659</v>
+        <v>17.806157151146</v>
       </c>
       <c r="H49">
-        <v>6.19479346842968</v>
+        <v>6.32471677378994</v>
       </c>
       <c r="I49">
-        <v>7.2960900850394</v>
+        <v>7.86673781470969</v>
       </c>
       <c r="J49">
-        <v>19.7958066835597</v>
+        <v>20.1745502385131</v>
       </c>
       <c r="K49">
-        <v>6.55271486882784</v>
+        <v>7.36443323745737</v>
       </c>
       <c r="L49">
-        <v>3.02856569567673</v>
+        <v>3.12860135885381</v>
       </c>
       <c r="M49">
-        <v>7.62647907002231</v>
+        <v>7.42654616905309</v>
       </c>
       <c r="N49">
-        <v>5.25869134431141</v>
+        <v>4.7624415160455</v>
       </c>
       <c r="O49">
-        <v>551.611942844393</v>
+        <v>552.287933532288</v>
       </c>
       <c r="P49">
-        <v>9.63634539533501</v>
+        <v>9.32639170720903</v>
       </c>
     </row>
     <row r="50">
@@ -2945,46 +2945,46 @@
         <v>1228.46729549059</v>
       </c>
       <c r="C50">
-        <v>81.9829693719559</v>
+        <v>74.4017069774215</v>
       </c>
       <c r="D50">
-        <v>15.3048805517573</v>
+        <v>13.884730850036</v>
       </c>
       <c r="E50">
-        <v>141.635438962764</v>
+        <v>134.439713707267</v>
       </c>
       <c r="F50">
-        <v>4.20492452019271</v>
+        <v>3.00701293118512</v>
       </c>
       <c r="G50">
-        <v>17.9949875429365</v>
+        <v>22.8869337684072</v>
       </c>
       <c r="H50">
-        <v>40.0120768008399</v>
+        <v>37.9798514695413</v>
       </c>
       <c r="I50">
-        <v>17.5771068452776</v>
+        <v>14.6852555453627</v>
       </c>
       <c r="J50">
-        <v>115.961893600346</v>
+        <v>113.817121219927</v>
       </c>
       <c r="K50">
-        <v>96.24314817956569</v>
+        <v>100.085768210676</v>
       </c>
       <c r="L50">
-        <v>63.0216327156833</v>
+        <v>69.9174232639361</v>
       </c>
       <c r="M50">
-        <v>59.5479994163936</v>
+        <v>59.8886651480283</v>
       </c>
       <c r="N50">
-        <v>56.0221310298966</v>
+        <v>53.1265859569158</v>
       </c>
       <c r="O50">
-        <v>1724.93316730514</v>
+        <v>1793.05692060205</v>
       </c>
       <c r="P50">
-        <v>130.352660125974</v>
+        <v>73.617327317967</v>
       </c>
     </row>
     <row r="51">
@@ -2997,46 +2997,46 @@
         <v>119.683733934657</v>
       </c>
       <c r="C51">
-        <v>1.16265124037983</v>
+        <v>1.28102806317946</v>
       </c>
       <c r="D51">
-        <v>0.553643447799919</v>
+        <v>0.475019054778979</v>
       </c>
       <c r="E51">
-        <v>2.54675985987962</v>
+        <v>2.42495150121863</v>
       </c>
       <c r="F51">
-        <v>22.4225596358967</v>
+        <v>20.802510850831</v>
       </c>
       <c r="G51">
-        <v>2.74053506660959</v>
+        <v>2.91797419364229</v>
       </c>
       <c r="H51">
-        <v>0.138410861949979</v>
+        <v>0.18696085246403</v>
       </c>
       <c r="I51">
-        <v>0.885829516479869</v>
+        <v>0.778311104331737</v>
       </c>
       <c r="J51">
-        <v>1.57788382622976</v>
+        <v>1.9402381800156</v>
       </c>
       <c r="K51">
-        <v>0.60900779257991</v>
+        <v>0.714605924973623</v>
       </c>
       <c r="L51">
-        <v>0.387550413459943</v>
+        <v>0.347608696062751</v>
       </c>
       <c r="M51">
-        <v>0.60900779257991</v>
+        <v>0.679983544887692</v>
       </c>
       <c r="N51">
-        <v>0.968876033649859</v>
+        <v>1.13699896202198</v>
       </c>
       <c r="O51">
-        <v>177.913321950504</v>
+        <v>182.34361185577</v>
       </c>
       <c r="P51">
-        <v>14.1179079188979</v>
+        <v>10.6041425727191</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2000.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2000.xlsx
@@ -449,46 +449,46 @@
         <v>1343.97921266765</v>
       </c>
       <c r="C2">
-        <v>36.8858584267484</v>
+        <v>39.457600442663</v>
       </c>
       <c r="D2">
-        <v>68.3734850609687</v>
+        <v>78.21757711512331</v>
       </c>
       <c r="E2">
-        <v>58.7189815194881</v>
+        <v>65.21387003854559</v>
       </c>
       <c r="F2">
-        <v>14.4941082453845</v>
+        <v>15.4314377968831</v>
       </c>
       <c r="G2">
-        <v>20.0913595166608</v>
+        <v>19.9520398277964</v>
       </c>
       <c r="H2">
-        <v>21.193515664487</v>
+        <v>21.5147170730504</v>
       </c>
       <c r="I2">
-        <v>11.4580317833778</v>
+        <v>11.9433189458697</v>
       </c>
       <c r="J2">
-        <v>66.7470155277508</v>
+        <v>65.7161591530915</v>
       </c>
       <c r="K2">
-        <v>19.2705757353408</v>
+        <v>20.4264239915342</v>
       </c>
       <c r="L2">
-        <v>35.7095846799402</v>
+        <v>34.8811885101335</v>
       </c>
       <c r="M2">
-        <v>42.9978152465114</v>
+        <v>41.8853311629683</v>
       </c>
       <c r="N2">
-        <v>28.6917460948406</v>
+        <v>31.1140201510391</v>
       </c>
       <c r="O2">
-        <v>1352.62696574914</v>
+        <v>1326.79669607305</v>
       </c>
       <c r="P2">
-        <v>32.2095869502309</v>
+        <v>36.9182499191253</v>
       </c>
     </row>
     <row r="3">
@@ -501,46 +501,46 @@
         <v>141.168590236323</v>
       </c>
       <c r="C3">
-        <v>5.31739774979359</v>
+        <v>5.39544444110785</v>
       </c>
       <c r="D3">
-        <v>0.181755248999304</v>
+        <v>0.233316516372231</v>
       </c>
       <c r="E3">
-        <v>1.60339126636595</v>
+        <v>1.74987387279173</v>
       </c>
       <c r="F3">
-        <v>10.2515596257282</v>
+        <v>8.953521315784361</v>
       </c>
       <c r="G3">
-        <v>0.45368364478896</v>
+        <v>0.379139339104875</v>
       </c>
       <c r="H3">
-        <v>0.111307478069341</v>
+        <v>0.0583291290930578</v>
       </c>
       <c r="I3">
-        <v>0.39591647262639</v>
+        <v>0.320810210011817</v>
       </c>
       <c r="J3">
-        <v>0.6903881551136341</v>
+        <v>0.583291290930578</v>
       </c>
       <c r="K3">
-        <v>0.101444790139147</v>
+        <v>0.145822822732644</v>
       </c>
       <c r="L3">
-        <v>0.460728421881956</v>
+        <v>0.349974774558347</v>
       </c>
       <c r="M3">
-        <v>0.533994103649117</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="N3">
-        <v>0.6762986009276421</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="O3">
-        <v>233.672438263849</v>
+        <v>232.616566823114</v>
       </c>
       <c r="P3">
-        <v>8.497410129572099</v>
+        <v>10.8783825758552</v>
       </c>
     </row>
     <row r="4">
@@ -553,46 +553,46 @@
         <v>1482.14219855815</v>
       </c>
       <c r="C4">
-        <v>12.8996741378836</v>
+        <v>13.4030496639299</v>
       </c>
       <c r="D4">
-        <v>4.97833312293026</v>
+        <v>5.00493626691053</v>
       </c>
       <c r="E4">
-        <v>24.9097635818208</v>
+        <v>24.9964048584684</v>
       </c>
       <c r="F4">
-        <v>14.9238621582249</v>
+        <v>21.9708219174547</v>
       </c>
       <c r="G4">
-        <v>9.54876590888666</v>
+        <v>9.44434301213626</v>
       </c>
       <c r="H4">
-        <v>7.8726157187278</v>
+        <v>7.80430739925032</v>
       </c>
       <c r="I4">
-        <v>9.11023824285672</v>
+        <v>9.41606653605202</v>
       </c>
       <c r="J4">
-        <v>27.8458107172402</v>
+        <v>28.1916466559876</v>
       </c>
       <c r="K4">
-        <v>11.031407065464</v>
+        <v>10.4340196750847</v>
       </c>
       <c r="L4">
-        <v>81.8933014419387</v>
+        <v>76.4313148557015</v>
       </c>
       <c r="M4">
-        <v>54.338450350731</v>
+        <v>51.6328453298228</v>
       </c>
       <c r="N4">
-        <v>26.8253637991452</v>
+        <v>26.947481708281</v>
       </c>
       <c r="O4">
-        <v>1796.70074947481</v>
+        <v>1787.97813575868</v>
       </c>
       <c r="P4">
-        <v>23.8322384595758</v>
+        <v>33.0552005424769</v>
       </c>
     </row>
     <row r="5">
@@ -605,46 +605,46 @@
         <v>784.709250703796</v>
       </c>
       <c r="C5">
-        <v>53.4490700230761</v>
+        <v>56.8295026360656</v>
       </c>
       <c r="D5">
-        <v>11.0776745127473</v>
+        <v>13.0370362848062</v>
       </c>
       <c r="E5">
-        <v>42.2957154111811</v>
+        <v>45.6976699836946</v>
       </c>
       <c r="F5">
-        <v>5.08137808563253</v>
+        <v>5.74282809205453</v>
       </c>
       <c r="G5">
-        <v>9.93841873450573</v>
+        <v>10.7507919258841</v>
       </c>
       <c r="H5">
-        <v>12.3845076533873</v>
+        <v>13.4180770112932</v>
       </c>
       <c r="I5">
-        <v>6.47605419849761</v>
+        <v>6.58656112927581</v>
       </c>
       <c r="J5">
-        <v>32.1680964288061</v>
+        <v>33.8854074625966</v>
       </c>
       <c r="K5">
-        <v>20.4106524540713</v>
+        <v>21.3654978780228</v>
       </c>
       <c r="L5">
-        <v>22.0256117126699</v>
+        <v>22.7263576154764</v>
       </c>
       <c r="M5">
-        <v>23.6986824759712</v>
+        <v>24.767647221657</v>
       </c>
       <c r="N5">
-        <v>21.829654313091</v>
+        <v>22.91687797872</v>
       </c>
       <c r="O5">
-        <v>800.615714592687</v>
+        <v>770.763738099015</v>
       </c>
       <c r="P5">
-        <v>45.0093875377636</v>
+        <v>57.9726248155267</v>
       </c>
     </row>
     <row r="6">
@@ -657,46 +657,46 @@
         <v>9564.961315204229</v>
       </c>
       <c r="C6">
-        <v>197.380648952295</v>
+        <v>200.32350472188</v>
       </c>
       <c r="D6">
-        <v>189.193722097122</v>
+        <v>190.252143947296</v>
       </c>
       <c r="E6">
-        <v>175.524830107147</v>
+        <v>177.94576886383</v>
       </c>
       <c r="F6">
-        <v>52.8378251227437</v>
+        <v>53.22645187445</v>
       </c>
       <c r="G6">
-        <v>100.161062456772</v>
+        <v>99.0028560526321</v>
       </c>
       <c r="H6">
-        <v>69.0281764048234</v>
+        <v>69.1198869598224</v>
       </c>
       <c r="I6">
-        <v>49.4912845420637</v>
+        <v>49.4738352570704</v>
       </c>
       <c r="J6">
-        <v>186.026606112969</v>
+        <v>185.037110559907</v>
       </c>
       <c r="K6">
-        <v>101.657626705077</v>
+        <v>99.80304636074951</v>
       </c>
       <c r="L6">
-        <v>612.342166015897</v>
+        <v>604.2264609366021</v>
       </c>
       <c r="M6">
-        <v>256.324347465946</v>
+        <v>254.432925212184</v>
       </c>
       <c r="N6">
-        <v>257.729840138742</v>
+        <v>256.557568444083</v>
       </c>
       <c r="O6">
-        <v>11343.8836011862</v>
+        <v>11294.0515653887</v>
       </c>
       <c r="P6">
-        <v>273.839994063283</v>
+        <v>331.968606791865</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>960.2479221817511</v>
+        <v>960.247922181752</v>
       </c>
       <c r="C7">
-        <v>27.0683754985</v>
+        <v>27.6049068810538</v>
       </c>
       <c r="D7">
-        <v>5.32325121629927</v>
+        <v>4.98578420198625</v>
       </c>
       <c r="E7">
-        <v>23.8699455670659</v>
+        <v>22.9008054023436</v>
       </c>
       <c r="F7">
-        <v>17.342908906113</v>
+        <v>20.9290263394112</v>
       </c>
       <c r="G7">
-        <v>10.3217603126455</v>
+        <v>9.718053953024031</v>
       </c>
       <c r="H7">
-        <v>6.74539774161088</v>
+        <v>6.36602954603895</v>
       </c>
       <c r="I7">
-        <v>11.1378148640792</v>
+        <v>10.7884483014731</v>
       </c>
       <c r="J7">
-        <v>21.0802427866072</v>
+        <v>20.4783339821695</v>
       </c>
       <c r="K7">
-        <v>15.3580626729518</v>
+        <v>14.6475016103551</v>
       </c>
       <c r="L7">
-        <v>71.72601599411181</v>
+        <v>66.4207861484948</v>
       </c>
       <c r="M7">
-        <v>20.3803675280877</v>
+        <v>19.1262569104444</v>
       </c>
       <c r="N7">
-        <v>27.3357278472544</v>
+        <v>25.8866422690699</v>
       </c>
       <c r="O7">
-        <v>1785.72052410835</v>
+        <v>1773.13640647814</v>
       </c>
       <c r="P7">
-        <v>35.6334489122615</v>
+        <v>56.0548619319358</v>
       </c>
     </row>
     <row r="8">
@@ -761,46 +761,46 @@
         <v>844.897188833971</v>
       </c>
       <c r="C8">
-        <v>12.2380824498419</v>
+        <v>12.2574187704167</v>
       </c>
       <c r="D8">
-        <v>8.217547935798651</v>
+        <v>8.02061532585963</v>
       </c>
       <c r="E8">
-        <v>22.9462387298185</v>
+        <v>23.4756216016025</v>
       </c>
       <c r="F8">
-        <v>2.21461125542515</v>
+        <v>2.26495781627265</v>
       </c>
       <c r="G8">
-        <v>27.5957281480388</v>
+        <v>27.1528472327274</v>
       </c>
       <c r="H8">
-        <v>8.76290756790155</v>
+        <v>8.52690001420293</v>
       </c>
       <c r="I8">
-        <v>3.22173524755678</v>
+        <v>3.38411344313678</v>
       </c>
       <c r="J8">
-        <v>47.8908025349337</v>
+        <v>47.4841744540926</v>
       </c>
       <c r="K8">
-        <v>27.6302277841329</v>
+        <v>27.605838795982</v>
       </c>
       <c r="L8">
-        <v>45.0326403754456</v>
+        <v>44.2599403862221</v>
       </c>
       <c r="M8">
-        <v>53.7862595797833</v>
+        <v>54.039228840011</v>
       </c>
       <c r="N8">
-        <v>24.3846081731264</v>
+        <v>24.3016650404783</v>
       </c>
       <c r="O8">
-        <v>1273.83139041156</v>
+        <v>1274.47843993535</v>
       </c>
       <c r="P8">
-        <v>6.21391522417972</v>
+        <v>6.7149337611848</v>
       </c>
     </row>
     <row r="9">
@@ -813,46 +813,46 @@
         <v>198.834475508492</v>
       </c>
       <c r="C9">
-        <v>8.00153168494864</v>
+        <v>8.578965866405699</v>
       </c>
       <c r="D9">
-        <v>2.05853766115403</v>
+        <v>2.05211143648243</v>
       </c>
       <c r="E9">
-        <v>5.48476269963029</v>
+        <v>5.87131883215806</v>
       </c>
       <c r="F9">
-        <v>1.76986594012086</v>
+        <v>1.82409905465105</v>
       </c>
       <c r="G9">
-        <v>19.8426775234453</v>
+        <v>18.5260060237997</v>
       </c>
       <c r="H9">
-        <v>3.27908653989138</v>
+        <v>3.19217334563933</v>
       </c>
       <c r="I9">
-        <v>0.877225715372652</v>
+        <v>0.912049527325523</v>
       </c>
       <c r="J9">
-        <v>3.70648884530458</v>
+        <v>3.47718882292856</v>
       </c>
       <c r="K9">
-        <v>2.55180196117188</v>
+        <v>2.33712691377165</v>
       </c>
       <c r="L9">
-        <v>2.70594705492746</v>
+        <v>2.62214239106088</v>
       </c>
       <c r="M9">
-        <v>8.41351948098627</v>
+        <v>7.46740550497773</v>
       </c>
       <c r="N9">
-        <v>4.01758167088401</v>
+        <v>4.18972751615162</v>
       </c>
       <c r="O9">
-        <v>286.414196069171</v>
+        <v>287.723124323474</v>
       </c>
       <c r="P9">
-        <v>4.32447053936103</v>
+        <v>4.67425382754331</v>
       </c>
     </row>
     <row r="10">
@@ -865,46 +865,46 @@
         <v>5070.15112654329</v>
       </c>
       <c r="C10">
-        <v>56.2237038750931</v>
+        <v>56.9411619535747</v>
       </c>
       <c r="D10">
-        <v>31.7975881865671</v>
+        <v>32.3004514148122</v>
       </c>
       <c r="E10">
-        <v>74.7711461982835</v>
+        <v>77.7520020543124</v>
       </c>
       <c r="F10">
-        <v>11.760108616208</v>
+        <v>13.2074208487767</v>
       </c>
       <c r="G10">
-        <v>35.8492742692297</v>
+        <v>35.8487137323939</v>
       </c>
       <c r="H10">
-        <v>20.823236005613</v>
+        <v>21.120609033225</v>
       </c>
       <c r="I10">
-        <v>27.7528068177469</v>
+        <v>27.8228822997684</v>
       </c>
       <c r="J10">
-        <v>49.7954152879103</v>
+        <v>50.2388886870312</v>
       </c>
       <c r="K10">
-        <v>32.0503007131953</v>
+        <v>32.7228635954766</v>
       </c>
       <c r="L10">
-        <v>97.5235592514356</v>
+        <v>96.8731934323923</v>
       </c>
       <c r="M10">
-        <v>87.3832965026316</v>
+        <v>88.8755228118109</v>
       </c>
       <c r="N10">
-        <v>86.1252576405642</v>
+        <v>84.7640442533431</v>
       </c>
       <c r="O10">
-        <v>5902.45043792289</v>
+        <v>5885.72236050689</v>
       </c>
       <c r="P10">
-        <v>91.23474588386731</v>
+        <v>101.350762547436</v>
       </c>
     </row>
     <row r="11">
@@ -917,46 +917,46 @@
         <v>2048.7981724633</v>
       </c>
       <c r="C11">
-        <v>76.06499543407161</v>
+        <v>80.1976397400296</v>
       </c>
       <c r="D11">
-        <v>130.318112880471</v>
+        <v>146.495865038706</v>
       </c>
       <c r="E11">
-        <v>96.44251356414399</v>
+        <v>100.523056377284</v>
       </c>
       <c r="F11">
-        <v>10.5785755239437</v>
+        <v>12.9086211512367</v>
       </c>
       <c r="G11">
-        <v>34.1240386792222</v>
+        <v>34.8193070526778</v>
       </c>
       <c r="H11">
-        <v>28.4634644660726</v>
+        <v>30.289966297858</v>
       </c>
       <c r="I11">
-        <v>20.3830085027332</v>
+        <v>20.6934255735833</v>
       </c>
       <c r="J11">
-        <v>51.7014667523536</v>
+        <v>55.4561158668259</v>
       </c>
       <c r="K11">
-        <v>38.1924048207778</v>
+        <v>40.4243662367675</v>
       </c>
       <c r="L11">
-        <v>72.3713472266067</v>
+        <v>69.7518476242262</v>
       </c>
       <c r="M11">
-        <v>65.86937340320949</v>
+        <v>68.0816532208864</v>
       </c>
       <c r="N11">
-        <v>51.4859696254223</v>
+        <v>51.2381672889</v>
       </c>
       <c r="O11">
-        <v>2895.42900560047</v>
+        <v>2849.12518506001</v>
       </c>
       <c r="P11">
-        <v>50.7461419093971</v>
+        <v>62.1652018599029</v>
       </c>
     </row>
     <row r="12">
@@ -969,46 +969,46 @@
         <v>337.556864100583</v>
       </c>
       <c r="C12">
-        <v>6.51918064414953</v>
+        <v>6.72183197905045</v>
       </c>
       <c r="D12">
-        <v>2.34184159061682</v>
+        <v>2.07463949970693</v>
       </c>
       <c r="E12">
-        <v>2.55098373031938</v>
+        <v>2.43424367965613</v>
       </c>
       <c r="F12">
-        <v>0.722365943051604</v>
+        <v>0.719208359898402</v>
       </c>
       <c r="G12">
-        <v>0.396269317331165</v>
+        <v>0.442589759937478</v>
       </c>
       <c r="H12">
-        <v>0.122458226536368</v>
+        <v>0.165971159976554</v>
       </c>
       <c r="I12">
-        <v>1.06910159571637</v>
+        <v>0.995826959859322</v>
       </c>
       <c r="J12">
-        <v>0.626050483978057</v>
+        <v>0.6085609199140321</v>
       </c>
       <c r="K12">
-        <v>0.462314203553026</v>
+        <v>0.414927899941385</v>
       </c>
       <c r="L12">
-        <v>0.657696991959365</v>
+        <v>0.636222779910124</v>
       </c>
       <c r="M12">
-        <v>4.08790327010727</v>
+        <v>3.92798411944512</v>
       </c>
       <c r="N12">
-        <v>2.53309657363429</v>
+        <v>2.60021483963269</v>
       </c>
       <c r="O12">
-        <v>471.173849852663</v>
+        <v>467.651405093937</v>
       </c>
       <c r="P12">
-        <v>12.9489255048736</v>
+        <v>16.8184108776242</v>
       </c>
     </row>
     <row r="13">
@@ -1021,46 +1021,46 @@
         <v>322.415065550821</v>
       </c>
       <c r="C13">
-        <v>19.9664140950664</v>
+        <v>20.9614346829763</v>
       </c>
       <c r="D13">
-        <v>1.21402279937117</v>
+        <v>1.21967752553177</v>
       </c>
       <c r="E13">
-        <v>17.2813141866759</v>
+        <v>18.2667982893596</v>
       </c>
       <c r="F13">
-        <v>2.72840797142911</v>
+        <v>4.39651201063778</v>
       </c>
       <c r="G13">
-        <v>4.81418016873768</v>
+        <v>5.36090819361639</v>
       </c>
       <c r="H13">
-        <v>1.9726124196917</v>
+        <v>1.84369858510617</v>
       </c>
       <c r="I13">
-        <v>1.74070472729169</v>
+        <v>1.70187561702108</v>
       </c>
       <c r="J13">
-        <v>5.84519147591365</v>
+        <v>5.64455412978657</v>
       </c>
       <c r="K13">
-        <v>2.7409812800532</v>
+        <v>2.55281342553161</v>
       </c>
       <c r="L13">
-        <v>26.987908444479</v>
+        <v>21.1032576510614</v>
       </c>
       <c r="M13">
-        <v>3.07766654432069</v>
+        <v>3.12010529787197</v>
       </c>
       <c r="N13">
-        <v>7.07877275536675</v>
+        <v>6.9493254361694</v>
       </c>
       <c r="O13">
-        <v>433.684149199529</v>
+        <v>426.376571251014</v>
       </c>
       <c r="P13">
-        <v>35.0110763809446</v>
+        <v>44.6458703531862</v>
       </c>
     </row>
     <row r="14">
@@ -1073,46 +1073,46 @@
         <v>3241.37836243677</v>
       </c>
       <c r="C14">
-        <v>109.173448722059</v>
+        <v>112.077134291549</v>
       </c>
       <c r="D14">
-        <v>19.9034701366636</v>
+        <v>18.3887366369134</v>
       </c>
       <c r="E14">
-        <v>123.085617377934</v>
+        <v>124.89940095253</v>
       </c>
       <c r="F14">
-        <v>25.6370367711433</v>
+        <v>31.7648809074392</v>
       </c>
       <c r="G14">
-        <v>79.9239893189519</v>
+        <v>78.6229266749957</v>
       </c>
       <c r="H14">
-        <v>64.2476463140068</v>
+        <v>68.87468074699341</v>
       </c>
       <c r="I14">
-        <v>22.7564708418013</v>
+        <v>26.4199619753244</v>
       </c>
       <c r="J14">
-        <v>186.522846100337</v>
+        <v>192.057061109931</v>
       </c>
       <c r="K14">
-        <v>139.389069233525</v>
+        <v>153.313322322218</v>
       </c>
       <c r="L14">
-        <v>153.17305959685</v>
+        <v>146.389852202898</v>
       </c>
       <c r="M14">
-        <v>83.08296401275651</v>
+        <v>98.7009900210231</v>
       </c>
       <c r="N14">
-        <v>83.4661206291953</v>
+        <v>81.58617188606451</v>
       </c>
       <c r="O14">
-        <v>4335.23104974146</v>
+        <v>4261.34047068039</v>
       </c>
       <c r="P14">
-        <v>58.4878927165331</v>
+        <v>89.6450911049528</v>
       </c>
     </row>
     <row r="15">
@@ -1125,46 +1125,46 @@
         <v>1491.48137925415</v>
       </c>
       <c r="C15">
-        <v>38.046192982561</v>
+        <v>39.7268390283193</v>
       </c>
       <c r="D15">
-        <v>10.5443305236908</v>
+        <v>11.3389274883282</v>
       </c>
       <c r="E15">
-        <v>63.8415440991834</v>
+        <v>67.5464510999217</v>
       </c>
       <c r="F15">
-        <v>12.8855726409903</v>
+        <v>13.5850634824362</v>
       </c>
       <c r="G15">
-        <v>45.2904613834182</v>
+        <v>41.4858611923798</v>
       </c>
       <c r="H15">
-        <v>47.696252393096</v>
+        <v>53.0412837162846</v>
       </c>
       <c r="I15">
-        <v>21.0348703037332</v>
+        <v>23.489711360069</v>
       </c>
       <c r="J15">
-        <v>156.161252654457</v>
+        <v>159.962769411714</v>
       </c>
       <c r="K15">
-        <v>62.2426142442328</v>
+        <v>63.6766023389887</v>
       </c>
       <c r="L15">
-        <v>63.997537255764</v>
+        <v>67.5735129793687</v>
       </c>
       <c r="M15">
-        <v>191.942855329418</v>
+        <v>202.476982023082</v>
       </c>
       <c r="N15">
-        <v>67.4119047088504</v>
+        <v>76.1521287640944</v>
       </c>
       <c r="O15">
-        <v>1961.61797830625</v>
+        <v>1919.60735669946</v>
       </c>
       <c r="P15">
-        <v>38.0300557594664</v>
+        <v>41.0799330006735</v>
       </c>
     </row>
     <row r="16">
@@ -1177,46 +1177,46 @@
         <v>675.161135209775</v>
       </c>
       <c r="C16">
-        <v>59.4867287015976</v>
+        <v>60.1743393175107</v>
       </c>
       <c r="D16">
-        <v>6.1602639454858</v>
+        <v>6.91023648570403</v>
       </c>
       <c r="E16">
-        <v>24.5114820941213</v>
+        <v>24.7386466188204</v>
       </c>
       <c r="F16">
-        <v>2.43019586840265</v>
+        <v>3.37219540502357</v>
       </c>
       <c r="G16">
-        <v>11.2756677274724</v>
+        <v>11.3604287824975</v>
       </c>
       <c r="H16">
-        <v>16.6529757720774</v>
+        <v>17.883692025002</v>
       </c>
       <c r="I16">
-        <v>8.71038439729799</v>
+        <v>9.84017675564257</v>
       </c>
       <c r="J16">
-        <v>42.1073132116255</v>
+        <v>45.1929466165044</v>
       </c>
       <c r="K16">
-        <v>45.0296134050536</v>
+        <v>48.4545782377567</v>
       </c>
       <c r="L16">
-        <v>39.0802513131501</v>
+        <v>38.3103510767432</v>
       </c>
       <c r="M16">
-        <v>25.6059662231694</v>
+        <v>28.5530971589291</v>
       </c>
       <c r="N16">
-        <v>19.3023441549871</v>
+        <v>19.7909172950564</v>
       </c>
       <c r="O16">
-        <v>1024.10769679547</v>
+        <v>993.747288536125</v>
       </c>
       <c r="P16">
-        <v>64.7730594760298</v>
+        <v>80.9050487746229</v>
       </c>
     </row>
     <row r="17">
@@ -1229,46 +1229,46 @@
         <v>628.920339012411</v>
       </c>
       <c r="C17">
-        <v>35.4646886536232</v>
+        <v>32.9487394217434</v>
       </c>
       <c r="D17">
-        <v>4.69238544231713</v>
+        <v>4.40078566430918</v>
       </c>
       <c r="E17">
-        <v>25.0025843766201</v>
+        <v>24.0042854416864</v>
       </c>
       <c r="F17">
-        <v>14.0039258218492</v>
+        <v>16.4029283851523</v>
       </c>
       <c r="G17">
-        <v>9.74810685225666</v>
+        <v>9.001607040632401</v>
       </c>
       <c r="H17">
-        <v>13.5420103281277</v>
+        <v>14.7454896284645</v>
       </c>
       <c r="I17">
-        <v>6.11193061814416</v>
+        <v>6.74406114790237</v>
       </c>
       <c r="J17">
-        <v>17.4584340721505</v>
+        <v>19.4320405956509</v>
       </c>
       <c r="K17">
-        <v>19.7567453092038</v>
+        <v>21.4323977157914</v>
       </c>
       <c r="L17">
-        <v>12.3829967569912</v>
+        <v>11.516341705952</v>
       </c>
       <c r="M17">
-        <v>73.5727168856465</v>
+        <v>68.440790039094</v>
       </c>
       <c r="N17">
-        <v>13.6265070647841</v>
+        <v>14.1453824924224</v>
       </c>
       <c r="O17">
-        <v>945.9592744943481</v>
+        <v>923.679188490036</v>
       </c>
       <c r="P17">
-        <v>45.4127711159666</v>
+        <v>69.84104002319241</v>
       </c>
     </row>
     <row r="18">
@@ -1281,46 +1281,46 @@
         <v>1190.34257916712</v>
       </c>
       <c r="C18">
-        <v>33.6399264669174</v>
+        <v>34.5842310837939</v>
       </c>
       <c r="D18">
-        <v>21.3096998388437</v>
+        <v>22.7891299074521</v>
       </c>
       <c r="E18">
-        <v>46.1339373760812</v>
+        <v>46.2688395090694</v>
       </c>
       <c r="F18">
-        <v>28.3374103666222</v>
+        <v>29.9435355390037</v>
       </c>
       <c r="G18">
-        <v>22.7018662281104</v>
+        <v>22.512898029786</v>
       </c>
       <c r="H18">
-        <v>22.4998656147659</v>
+        <v>22.4576516542528</v>
       </c>
       <c r="I18">
-        <v>11.0076685582703</v>
+        <v>10.5796809146111</v>
       </c>
       <c r="J18">
-        <v>50.4168963265899</v>
+        <v>50.5780568006603</v>
       </c>
       <c r="K18">
-        <v>32.8387483585845</v>
+        <v>31.9324050581995</v>
       </c>
       <c r="L18">
-        <v>34.1613064283878</v>
+        <v>33.8107818263289</v>
       </c>
       <c r="M18">
-        <v>70.2129564343584</v>
+        <v>68.8369839143887</v>
       </c>
       <c r="N18">
-        <v>23.8606400168236</v>
+        <v>23.5349559771505</v>
       </c>
       <c r="O18">
-        <v>1251.58624619993</v>
+        <v>1250.1426087534</v>
       </c>
       <c r="P18">
-        <v>40.091662272862</v>
+        <v>40.8270715190475</v>
       </c>
     </row>
     <row r="19">
@@ -1333,46 +1333,46 @@
         <v>1334.57366215959</v>
       </c>
       <c r="C19">
-        <v>21.0496199674794</v>
+        <v>23.1811287598321</v>
       </c>
       <c r="D19">
-        <v>8.672492803438599</v>
+        <v>9.822512186369529</v>
       </c>
       <c r="E19">
-        <v>33.1880924189156</v>
+        <v>39.1497271428156</v>
       </c>
       <c r="F19">
-        <v>79.9918476655611</v>
+        <v>80.82524313355491</v>
       </c>
       <c r="G19">
-        <v>42.4243041124719</v>
+        <v>42.4893812861813</v>
       </c>
       <c r="H19">
-        <v>6.28731725620158</v>
+        <v>6.42672940193891</v>
       </c>
       <c r="I19">
-        <v>6.40527303369576</v>
+        <v>6.67930828673127</v>
       </c>
       <c r="J19">
-        <v>22.606361914641</v>
+        <v>23.6301578883518</v>
       </c>
       <c r="K19">
-        <v>12.3565534819197</v>
+        <v>12.0957221495007</v>
       </c>
       <c r="L19">
-        <v>7.76176447487886</v>
+        <v>7.40898062057586</v>
       </c>
       <c r="M19">
-        <v>30.63832741471</v>
+        <v>29.1027003921863</v>
       </c>
       <c r="N19">
-        <v>10.7051725970011</v>
+        <v>10.6363774818116</v>
       </c>
       <c r="O19">
-        <v>1431.81854932241</v>
+        <v>1415.28368445318</v>
       </c>
       <c r="P19">
-        <v>30.2076516689754</v>
+        <v>37.3816749492691</v>
       </c>
     </row>
     <row r="20">
@@ -1385,46 +1385,46 @@
         <v>337.841306152238</v>
       </c>
       <c r="C20">
-        <v>8.06768494061739</v>
+        <v>8.33352542904955</v>
       </c>
       <c r="D20">
-        <v>14.50109667479</v>
+        <v>16.0941209848519</v>
       </c>
       <c r="E20">
-        <v>30.6377625696699</v>
+        <v>35.6518634761526</v>
       </c>
       <c r="F20">
-        <v>0.504149307935769</v>
+        <v>0.494803072349817</v>
       </c>
       <c r="G20">
-        <v>1.7729466664682</v>
+        <v>1.61462055187835</v>
       </c>
       <c r="H20">
-        <v>1.99845304071197</v>
+        <v>1.82295868760459</v>
       </c>
       <c r="I20">
-        <v>1.6990738886987</v>
+        <v>1.66670508580991</v>
       </c>
       <c r="J20">
-        <v>6.43081970688249</v>
+        <v>6.53660900841074</v>
       </c>
       <c r="K20">
-        <v>4.40385436597878</v>
+        <v>4.03655137969587</v>
       </c>
       <c r="L20">
-        <v>9.73954254276946</v>
+        <v>8.3856099629811</v>
       </c>
       <c r="M20">
-        <v>18.3982097055429</v>
+        <v>16.0420364509204</v>
       </c>
       <c r="N20">
-        <v>6.79499954114972</v>
+        <v>6.82307394503431</v>
       </c>
       <c r="O20">
-        <v>461.890191010675</v>
+        <v>451.026021580341</v>
       </c>
       <c r="P20">
-        <v>17.4715599493114</v>
+        <v>25.7818442961221</v>
       </c>
     </row>
     <row r="21">
@@ -1437,46 +1437,46 @@
         <v>1269.9484280236</v>
       </c>
       <c r="C21">
-        <v>23.8092716275145</v>
+        <v>25.5066307126345</v>
       </c>
       <c r="D21">
-        <v>10.5146744214001</v>
+        <v>11.7145837888345</v>
       </c>
       <c r="E21">
-        <v>40.4644356244336</v>
+        <v>41.5781163539665</v>
       </c>
       <c r="F21">
-        <v>3.55984954845057</v>
+        <v>4.09721896062682</v>
       </c>
       <c r="G21">
-        <v>21.2831117787953</v>
+        <v>21.1208752054847</v>
       </c>
       <c r="H21">
-        <v>7.39066629974331</v>
+        <v>7.87704772007832</v>
       </c>
       <c r="I21">
-        <v>6.2666541990646</v>
+        <v>6.83831615259546</v>
       </c>
       <c r="J21">
-        <v>26.1304139629722</v>
+        <v>27.0935817185112</v>
       </c>
       <c r="K21">
-        <v>10.7770394908188</v>
+        <v>11.5414618609207</v>
       </c>
       <c r="L21">
-        <v>40.2149737551504</v>
+        <v>39.904604384133</v>
       </c>
       <c r="M21">
-        <v>29.5597978211654</v>
+        <v>29.8346789104798</v>
       </c>
       <c r="N21">
-        <v>20.346912924531</v>
+        <v>20.197558256611</v>
       </c>
       <c r="O21">
-        <v>2199.26587542377</v>
+        <v>2189.64614425386</v>
       </c>
       <c r="P21">
-        <v>15.8623340330476</v>
+        <v>18.4951926321253</v>
       </c>
     </row>
     <row r="22">
@@ -1489,46 +1489,46 @@
         <v>1594.354587936</v>
       </c>
       <c r="C22">
-        <v>24.7210778547676</v>
+        <v>24.6139067555014</v>
       </c>
       <c r="D22">
-        <v>29.4727286685355</v>
+        <v>30.6451289406243</v>
       </c>
       <c r="E22">
-        <v>51.4682954677922</v>
+        <v>55.177532693624</v>
       </c>
       <c r="F22">
-        <v>2.67119095475323</v>
+        <v>3.06994642756253</v>
       </c>
       <c r="G22">
-        <v>26.9644980160549</v>
+        <v>26.4884758130396</v>
       </c>
       <c r="H22">
-        <v>22.1503790864158</v>
+        <v>22.7121700304626</v>
       </c>
       <c r="I22">
-        <v>9.004914703085239</v>
+        <v>9.94336630520259</v>
       </c>
       <c r="J22">
-        <v>54.0118341857652</v>
+        <v>55.5307123711312</v>
       </c>
       <c r="K22">
-        <v>30.7954231219822</v>
+        <v>30.9439732831303</v>
       </c>
       <c r="L22">
-        <v>138.548848992244</v>
+        <v>134.289780455236</v>
       </c>
       <c r="M22">
-        <v>18.3615520585757</v>
+        <v>18.3381755628736</v>
       </c>
       <c r="N22">
-        <v>55.8695816316739</v>
+        <v>56.7260897411555</v>
       </c>
       <c r="O22">
-        <v>2468.76845728269</v>
+        <v>2461.52651388764</v>
       </c>
       <c r="P22">
-        <v>12.0577043656603</v>
+        <v>14.8607141228027</v>
       </c>
     </row>
     <row r="23">
@@ -1541,46 +1541,46 @@
         <v>2643.78457471329</v>
       </c>
       <c r="C23">
-        <v>45.8094199921939</v>
+        <v>50.1219920516037</v>
       </c>
       <c r="D23">
-        <v>11.3180427814959</v>
+        <v>12.1353620520451</v>
       </c>
       <c r="E23">
-        <v>67.57264196514539</v>
+        <v>77.3394928129235</v>
       </c>
       <c r="F23">
-        <v>9.925175350580449</v>
+        <v>14.573150013935</v>
       </c>
       <c r="G23">
-        <v>53.2141685630225</v>
+        <v>52.1579468329623</v>
       </c>
       <c r="H23">
-        <v>61.9401513826053</v>
+        <v>68.15090741810781</v>
       </c>
       <c r="I23">
-        <v>17.0871670263067</v>
+        <v>20.0380812691607</v>
       </c>
       <c r="J23">
-        <v>157.557184163926</v>
+        <v>165.046281683555</v>
       </c>
       <c r="K23">
-        <v>110.429183003799</v>
+        <v>112.138246246934</v>
       </c>
       <c r="L23">
-        <v>45.0028834226733</v>
+        <v>46.4519156694178</v>
       </c>
       <c r="M23">
-        <v>544.5249403612691</v>
+        <v>508.399340008196</v>
       </c>
       <c r="N23">
-        <v>77.9461879744396</v>
+        <v>76.5894042092651</v>
       </c>
       <c r="O23">
-        <v>3112.55727582092</v>
+        <v>3084.0964494564</v>
       </c>
       <c r="P23">
-        <v>42.2463324498711</v>
+        <v>69.8921845337435</v>
       </c>
     </row>
     <row r="24">
@@ -1593,46 +1593,46 @@
         <v>1041.42768372406</v>
       </c>
       <c r="C24">
-        <v>60.3935383203326</v>
+        <v>70.5347100589325</v>
       </c>
       <c r="D24">
-        <v>7.21240889093241</v>
+        <v>8.07504556187549</v>
       </c>
       <c r="E24">
-        <v>75.45310256927481</v>
+        <v>73.271554360105</v>
       </c>
       <c r="F24">
-        <v>11.715567303288</v>
+        <v>13.5216366958922</v>
       </c>
       <c r="G24">
-        <v>15.6588956770838</v>
+        <v>14.5784379607014</v>
       </c>
       <c r="H24">
-        <v>20.9411849460236</v>
+        <v>21.5966822577677</v>
       </c>
       <c r="I24">
-        <v>13.3514696787383</v>
+        <v>15.7707265671528</v>
       </c>
       <c r="J24">
-        <v>58.8162069708142</v>
+        <v>63.4893682935378</v>
       </c>
       <c r="K24">
-        <v>52.5436587285586</v>
+        <v>53.1381353920733</v>
       </c>
       <c r="L24">
-        <v>82.8425866548854</v>
+        <v>75.62903410467941</v>
       </c>
       <c r="M24">
-        <v>27.2450618765685</v>
+        <v>32.1917923741882</v>
       </c>
       <c r="N24">
-        <v>56.5360233101116</v>
+        <v>53.923961973598</v>
       </c>
       <c r="O24">
-        <v>1869.72335943858</v>
+        <v>1800.27450333665</v>
       </c>
       <c r="P24">
-        <v>63.1436523053737</v>
+        <v>119.581127733411</v>
       </c>
     </row>
     <row r="25">
@@ -1645,46 +1645,46 @@
         <v>847.8459047694601</v>
       </c>
       <c r="C25">
-        <v>27.4266155307121</v>
+        <v>30.4824116612773</v>
       </c>
       <c r="D25">
-        <v>19.7615352077183</v>
+        <v>23.2805231918547</v>
       </c>
       <c r="E25">
-        <v>34.1920832660818</v>
+        <v>36.1490138290789</v>
       </c>
       <c r="F25">
-        <v>13.739166523548</v>
+        <v>13.4826051578727</v>
       </c>
       <c r="G25">
-        <v>10.2890637858368</v>
+        <v>9.40711788447844</v>
       </c>
       <c r="H25">
-        <v>12.8708566432088</v>
+        <v>14.0408910857349</v>
       </c>
       <c r="I25">
-        <v>5.60862855309967</v>
+        <v>5.69451646419467</v>
       </c>
       <c r="J25">
-        <v>18.7421557400475</v>
+        <v>19.4562645859985</v>
       </c>
       <c r="K25">
-        <v>14.0712474182232</v>
+        <v>16.3019490935769</v>
       </c>
       <c r="L25">
-        <v>23.1762522763247</v>
+        <v>24.4529236403653</v>
       </c>
       <c r="M25">
-        <v>28.7998516894303</v>
+        <v>27.6909820219662</v>
       </c>
       <c r="N25">
-        <v>45.2487438740366</v>
+        <v>52.5905344046214</v>
       </c>
       <c r="O25">
-        <v>813.547835425023</v>
+        <v>788.523044512603</v>
       </c>
       <c r="P25">
-        <v>33.8286996641217</v>
+        <v>39.7499580637902</v>
       </c>
     </row>
     <row r="26">
@@ -1697,46 +1697,46 @@
         <v>1446.34990705824</v>
       </c>
       <c r="C26">
-        <v>59.3150681004604</v>
+        <v>64.3287303194744</v>
       </c>
       <c r="D26">
-        <v>19.4203909306332</v>
+        <v>23.4334310182687</v>
       </c>
       <c r="E26">
-        <v>56.6900881189528</v>
+        <v>60.0835435408024</v>
       </c>
       <c r="F26">
-        <v>9.84332642030015</v>
+        <v>12.1412341870015</v>
       </c>
       <c r="G26">
-        <v>30.9309908814077</v>
+        <v>28.5276551526749</v>
       </c>
       <c r="H26">
-        <v>20.9120152430141</v>
+        <v>21.4240426096973</v>
       </c>
       <c r="I26">
-        <v>13.3423703680346</v>
+        <v>15.339274893601</v>
       </c>
       <c r="J26">
-        <v>59.684489075022</v>
+        <v>64.64004401657699</v>
       </c>
       <c r="K26">
-        <v>39.8207929749149</v>
+        <v>40.9519017915879</v>
       </c>
       <c r="L26">
-        <v>44.4044011423058</v>
+        <v>46.8951632817286</v>
       </c>
       <c r="M26">
-        <v>81.632277088222</v>
+        <v>80.6585487947654</v>
       </c>
       <c r="N26">
-        <v>39.4527660417667</v>
+        <v>42.8480852193947</v>
       </c>
       <c r="O26">
-        <v>1969.81815630895</v>
+        <v>1918.42820652701</v>
       </c>
       <c r="P26">
-        <v>54.8931687370286</v>
+        <v>80.4604400784274</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>238.495178910905</v>
+        <v>238.495178910906</v>
       </c>
       <c r="C27">
-        <v>2.71079180789446</v>
+        <v>2.86277994644361</v>
       </c>
       <c r="D27">
-        <v>1.11109338358199</v>
+        <v>1.107301677398</v>
       </c>
       <c r="E27">
-        <v>9.675483998645699</v>
+        <v>9.64162680075821</v>
       </c>
       <c r="F27">
-        <v>6.61135069236988</v>
+        <v>7.5620602358888</v>
       </c>
       <c r="G27">
-        <v>0.881973505725335</v>
+        <v>0.810220739559513</v>
       </c>
       <c r="H27">
-        <v>0.271907324926277</v>
+        <v>0.324088295823806</v>
       </c>
       <c r="I27">
-        <v>1.22703356273838</v>
+        <v>1.2693458253099</v>
       </c>
       <c r="J27">
-        <v>4.14900212552482</v>
+        <v>3.99708898182693</v>
       </c>
       <c r="K27">
-        <v>1.1166143444942</v>
+        <v>1.107301677398</v>
       </c>
       <c r="L27">
-        <v>1.83433926308133</v>
+        <v>1.40438261523649</v>
       </c>
       <c r="M27">
-        <v>0.8874944666375441</v>
+        <v>0.891242813515466</v>
       </c>
       <c r="N27">
-        <v>4.14210092438455</v>
+        <v>4.1051184137682</v>
       </c>
       <c r="O27">
-        <v>335.80692652418</v>
+        <v>321.5225968152</v>
       </c>
       <c r="P27">
-        <v>30.2010364300095</v>
+        <v>44.0219935160669</v>
       </c>
     </row>
     <row r="28">
@@ -1801,46 +1801,46 @@
         <v>372.913011121286</v>
       </c>
       <c r="C28">
-        <v>36.8084048501117</v>
+        <v>34.8221544886528</v>
       </c>
       <c r="D28">
-        <v>2.04905515051663</v>
+        <v>1.98584174192318</v>
       </c>
       <c r="E28">
-        <v>10.402895379546</v>
+        <v>9.229968659642919</v>
       </c>
       <c r="F28">
-        <v>1.51568159141924</v>
+        <v>2.06975054791992</v>
       </c>
       <c r="G28">
-        <v>5.08745492384453</v>
+        <v>4.5310755238247</v>
       </c>
       <c r="H28">
-        <v>6.59891456097012</v>
+        <v>6.60082607174464</v>
       </c>
       <c r="I28">
-        <v>4.54423013806196</v>
+        <v>4.3632579118312</v>
       </c>
       <c r="J28">
-        <v>13.3737438841755</v>
+        <v>14.7959194574276</v>
       </c>
       <c r="K28">
-        <v>14.5840374483543</v>
+        <v>17.1173964233378</v>
       </c>
       <c r="L28">
-        <v>16.0518702244456</v>
+        <v>14.0407402034568</v>
       </c>
       <c r="M28">
-        <v>8.663450210563459</v>
+        <v>9.70545189362455</v>
       </c>
       <c r="N28">
-        <v>11.2247691487092</v>
+        <v>10.8242359735813</v>
       </c>
       <c r="O28">
-        <v>637.482730024432</v>
+        <v>601.458321384732</v>
       </c>
       <c r="P28">
-        <v>52.4366723270946</v>
+        <v>89.2789695805461</v>
       </c>
     </row>
     <row r="29">
@@ -1853,46 +1853,46 @@
         <v>539.06509489463</v>
       </c>
       <c r="C29">
-        <v>5.35842883196327</v>
+        <v>5.33182180475024</v>
       </c>
       <c r="D29">
-        <v>1.7448803643036</v>
+        <v>1.58079138934806</v>
       </c>
       <c r="E29">
-        <v>7.28899080484559</v>
+        <v>7.1001647148684</v>
       </c>
       <c r="F29">
-        <v>12.8647066255712</v>
+        <v>17.1475676132671</v>
       </c>
       <c r="G29">
-        <v>2.10570845473317</v>
+        <v>2.08985980286692</v>
       </c>
       <c r="H29">
-        <v>3.03675027930875</v>
+        <v>2.89365203473882</v>
       </c>
       <c r="I29">
-        <v>3.13683398322352</v>
+        <v>3.34913429946622</v>
       </c>
       <c r="J29">
-        <v>6.93474716862094</v>
+        <v>6.91261319409829</v>
       </c>
       <c r="K29">
-        <v>3.09074280378909</v>
+        <v>2.84006588594736</v>
       </c>
       <c r="L29">
-        <v>5.70740490482399</v>
+        <v>5.78730406947764</v>
       </c>
       <c r="M29">
-        <v>3.15000289163336</v>
+        <v>3.50989274584061</v>
       </c>
       <c r="N29">
-        <v>10.758998170838</v>
+        <v>10.5832643863133</v>
       </c>
       <c r="O29">
-        <v>812.259587609678</v>
+        <v>807.114573096966</v>
       </c>
       <c r="P29">
-        <v>4.61701928848937</v>
+        <v>5.81409714387337</v>
       </c>
     </row>
     <row r="30">
@@ -1905,46 +1905,46 @@
         <v>266.778200247124</v>
       </c>
       <c r="C30">
-        <v>4.14437468725166</v>
+        <v>3.7151910518131</v>
       </c>
       <c r="D30">
-        <v>5.91248393870722</v>
+        <v>6.06988960577914</v>
       </c>
       <c r="E30">
-        <v>14.6023018313317</v>
+        <v>16.9799929058218</v>
       </c>
       <c r="F30">
-        <v>0.779855451902194</v>
+        <v>0.837226152521261</v>
       </c>
       <c r="G30">
-        <v>4.52054025816919</v>
+        <v>3.97682422447599</v>
       </c>
       <c r="H30">
-        <v>5.42622112752115</v>
+        <v>5.28499008779046</v>
       </c>
       <c r="I30">
-        <v>2.64888717360392</v>
+        <v>2.64249504389523</v>
       </c>
       <c r="J30">
-        <v>19.0520652921854</v>
+        <v>20.1457542950429</v>
       </c>
       <c r="K30">
-        <v>9.8392855082853</v>
+        <v>10.5438168583146</v>
       </c>
       <c r="L30">
-        <v>44.8672467722956</v>
+        <v>36.9949306145333</v>
       </c>
       <c r="M30">
-        <v>9.640061930656531</v>
+        <v>9.130997725935011</v>
       </c>
       <c r="N30">
-        <v>13.7713298035905</v>
+        <v>14.6514576691221</v>
       </c>
       <c r="O30">
-        <v>469.542448161004</v>
+        <v>471.175180648606</v>
       </c>
       <c r="P30">
-        <v>5.27680344429955</v>
+        <v>7.87515849715312</v>
       </c>
     </row>
     <row r="31">
@@ -1957,46 +1957,46 @@
         <v>2297.69444906306</v>
       </c>
       <c r="C31">
-        <v>45.1677150002555</v>
+        <v>45.3328347981114</v>
       </c>
       <c r="D31">
-        <v>41.3599311567091</v>
+        <v>40.6768794406179</v>
       </c>
       <c r="E31">
-        <v>57.8288048876354</v>
+        <v>57.2654628999514</v>
       </c>
       <c r="F31">
-        <v>9.15509168811754</v>
+        <v>9.59071043699279</v>
       </c>
       <c r="G31">
-        <v>133.348923973136</v>
+        <v>132.987467396673</v>
       </c>
       <c r="H31">
-        <v>25.0718506689022</v>
+        <v>26.6253734515354</v>
       </c>
       <c r="I31">
-        <v>17.600917576305</v>
+        <v>19.0977809573839</v>
       </c>
       <c r="J31">
-        <v>47.3497503729817</v>
+        <v>47.8699122683625</v>
       </c>
       <c r="K31">
-        <v>30.545713783657</v>
+        <v>30.4449296430122</v>
       </c>
       <c r="L31">
-        <v>80.9592142688857</v>
+        <v>80.12704010441109</v>
       </c>
       <c r="M31">
-        <v>25.7435671029536</v>
+        <v>25.6216944523152</v>
       </c>
       <c r="N31">
-        <v>52.8458649638126</v>
+        <v>52.4422277092544</v>
       </c>
       <c r="O31">
-        <v>3141.11154097795</v>
+        <v>3138.2533108117</v>
       </c>
       <c r="P31">
-        <v>12.2424839936957</v>
+        <v>13.9957460446814</v>
       </c>
     </row>
     <row r="32">
@@ -2009,46 +2009,46 @@
         <v>536.656818857286</v>
       </c>
       <c r="C32">
-        <v>6.15703143441312</v>
+        <v>6.08903720727616</v>
       </c>
       <c r="D32">
-        <v>1.32606521910148</v>
+        <v>1.40076442796494</v>
       </c>
       <c r="E32">
-        <v>5.70054013406774</v>
+        <v>5.66023177014404</v>
       </c>
       <c r="F32">
-        <v>18.6979396733496</v>
+        <v>20.0680944577834</v>
       </c>
       <c r="G32">
-        <v>2.09761953348894</v>
+        <v>1.88674392338135</v>
       </c>
       <c r="H32">
-        <v>0.786957395073954</v>
+        <v>0.54315355370069</v>
       </c>
       <c r="I32">
-        <v>3.11282257873559</v>
+        <v>3.40185646791486</v>
       </c>
       <c r="J32">
-        <v>4.44728947821153</v>
+        <v>4.28805437132124</v>
       </c>
       <c r="K32">
-        <v>2.25445090047877</v>
+        <v>2.02967906909206</v>
       </c>
       <c r="L32">
-        <v>16.3832767301873</v>
+        <v>14.4078626876393</v>
       </c>
       <c r="M32">
-        <v>5.46809364370781</v>
+        <v>4.80262089587979</v>
       </c>
       <c r="N32">
-        <v>9.3608722172053</v>
+        <v>9.776763966612419</v>
       </c>
       <c r="O32">
-        <v>626.440490959865</v>
+        <v>621.167556229595</v>
       </c>
       <c r="P32">
-        <v>17.0162033183962</v>
+        <v>23.7272341879776</v>
       </c>
     </row>
     <row r="33">
@@ -2061,46 +2061,46 @@
         <v>5619.99657519564</v>
       </c>
       <c r="C33">
-        <v>83.0976068755802</v>
+        <v>87.7366116733883</v>
       </c>
       <c r="D33">
-        <v>114.356765962242</v>
+        <v>105.19135037067</v>
       </c>
       <c r="E33">
-        <v>107.721554182392</v>
+        <v>121.121182099078</v>
       </c>
       <c r="F33">
-        <v>8.0633021402256</v>
+        <v>10.9194231163963</v>
       </c>
       <c r="G33">
-        <v>82.6827349875706</v>
+        <v>84.8501806251639</v>
       </c>
       <c r="H33">
-        <v>32.8857854990557</v>
+        <v>37.3874512189827</v>
       </c>
       <c r="I33">
-        <v>30.4294153106425</v>
+        <v>37.8503694059621</v>
       </c>
       <c r="J33">
-        <v>95.6711004319894</v>
+        <v>112.843115696623</v>
       </c>
       <c r="K33">
-        <v>113.435284838049</v>
+        <v>124.252687481586</v>
       </c>
       <c r="L33">
-        <v>138.478211675326</v>
+        <v>145.655846008987</v>
       </c>
       <c r="M33">
-        <v>70.4583910398827</v>
+        <v>76.5176532595349</v>
       </c>
       <c r="N33">
-        <v>107.894075165525</v>
+        <v>116.682613600394</v>
       </c>
       <c r="O33">
-        <v>6836.19872519901</v>
+        <v>6723.34205624393</v>
       </c>
       <c r="P33">
-        <v>51.1771173535766</v>
+        <v>88.1995298603678</v>
       </c>
     </row>
     <row r="34">
@@ -2113,46 +2113,46 @@
         <v>2077.24237762879</v>
       </c>
       <c r="C34">
-        <v>67.43645689740841</v>
+        <v>69.30657972962381</v>
       </c>
       <c r="D34">
-        <v>195.181495269053</v>
+        <v>206.309861943183</v>
       </c>
       <c r="E34">
-        <v>79.9766580305521</v>
+        <v>82.24016980515199</v>
       </c>
       <c r="F34">
-        <v>7.39889222611334</v>
+        <v>7.77652567832393</v>
       </c>
       <c r="G34">
-        <v>60.2444986833931</v>
+        <v>59.3471696503668</v>
       </c>
       <c r="H34">
-        <v>41.2092396866547</v>
+        <v>40.2196450871911</v>
       </c>
       <c r="I34">
-        <v>24.6905652886576</v>
+        <v>24.6938797855549</v>
       </c>
       <c r="J34">
-        <v>62.6395929911605</v>
+        <v>63.3582197370813</v>
       </c>
       <c r="K34">
-        <v>51.4277747098723</v>
+        <v>49.9334806713431</v>
       </c>
       <c r="L34">
-        <v>102.123937557617</v>
+        <v>101.476838588374</v>
       </c>
       <c r="M34">
-        <v>57.1952258857672</v>
+        <v>56.4821338741422</v>
       </c>
       <c r="N34">
-        <v>120.96427806554</v>
+        <v>124.915559843393</v>
       </c>
       <c r="O34">
-        <v>2668.79324251725</v>
+        <v>2649.72151612757</v>
       </c>
       <c r="P34">
-        <v>58.9575026339573</v>
+        <v>62.4577799216964</v>
       </c>
     </row>
     <row r="35">
@@ -2165,46 +2165,46 @@
         <v>153.361672850596</v>
       </c>
       <c r="C35">
-        <v>6.64678908840097</v>
+        <v>6.5773096280891</v>
       </c>
       <c r="D35">
-        <v>0.477656792935459</v>
+        <v>0.344662513262311</v>
       </c>
       <c r="E35">
-        <v>2.45033605560244</v>
+        <v>1.98180945125829</v>
       </c>
       <c r="F35">
-        <v>4.72606041348528</v>
+        <v>5.34226895556582</v>
       </c>
       <c r="G35">
-        <v>0.600317902903779</v>
+        <v>0.545715645998659</v>
       </c>
       <c r="H35">
-        <v>0.438693852121992</v>
+        <v>0.373384389367503</v>
       </c>
       <c r="I35">
-        <v>0.9971626704483471</v>
+        <v>0.976543787576549</v>
       </c>
       <c r="J35">
-        <v>2.43446226490066</v>
+        <v>2.38391571673098</v>
       </c>
       <c r="K35">
-        <v>5.75929988098313</v>
+        <v>6.00287210598525</v>
       </c>
       <c r="L35">
-        <v>2.33633337692601</v>
+        <v>2.03925320346867</v>
       </c>
       <c r="M35">
-        <v>2.08956808510739</v>
+        <v>2.3264719645206</v>
       </c>
       <c r="N35">
-        <v>2.50661585899967</v>
+        <v>2.24030633620502</v>
       </c>
       <c r="O35">
-        <v>237.183294522272</v>
+        <v>223.341308593977</v>
       </c>
       <c r="P35">
-        <v>26.5568518440823</v>
+        <v>40.7276203171631</v>
       </c>
     </row>
     <row r="36">
@@ -2217,46 +2217,46 @@
         <v>2968.38984406185</v>
       </c>
       <c r="C36">
-        <v>70.5764503576842</v>
+        <v>74.615562686895</v>
       </c>
       <c r="D36">
-        <v>19.8297150940491</v>
+        <v>20.5817309012614</v>
       </c>
       <c r="E36">
-        <v>116.019321019568</v>
+        <v>118.358529021897</v>
       </c>
       <c r="F36">
-        <v>21.9966372353898</v>
+        <v>25.0347703047006</v>
       </c>
       <c r="G36">
-        <v>83.12965448683011</v>
+        <v>79.80172443114429</v>
       </c>
       <c r="H36">
-        <v>104.77713875023</v>
+        <v>114.475695883533</v>
       </c>
       <c r="I36">
-        <v>51.146155395017</v>
+        <v>55.8802139773035</v>
       </c>
       <c r="J36">
-        <v>251.0817440173</v>
+        <v>260.095514911851</v>
       </c>
       <c r="K36">
-        <v>129.431142573997</v>
+        <v>133.862708896067</v>
       </c>
       <c r="L36">
-        <v>104.701058725204</v>
+        <v>105.73253315239</v>
       </c>
       <c r="M36">
-        <v>242.147775364349</v>
+        <v>251.895405766494</v>
       </c>
       <c r="N36">
-        <v>83.81709185580721</v>
+        <v>88.46342912441921</v>
       </c>
       <c r="O36">
-        <v>3750.96532238258</v>
+        <v>3693.00875745339</v>
       </c>
       <c r="P36">
-        <v>46.0311322839526</v>
+        <v>53.8437630306087</v>
       </c>
     </row>
     <row r="37">
@@ -2269,46 +2269,46 @@
         <v>956.09506822759</v>
       </c>
       <c r="C37">
-        <v>23.5217138497741</v>
+        <v>26.5928010085304</v>
       </c>
       <c r="D37">
-        <v>6.78410074500026</v>
+        <v>9.065075640448351</v>
       </c>
       <c r="E37">
-        <v>17.6267500544216</v>
+        <v>19.1055075206918</v>
       </c>
       <c r="F37">
-        <v>41.0293450784056</v>
+        <v>47.9358904911051</v>
       </c>
       <c r="G37">
-        <v>5.88078298275838</v>
+        <v>5.88082438699973</v>
       </c>
       <c r="H37">
-        <v>18.9016051066281</v>
+        <v>19.8226812264234</v>
       </c>
       <c r="I37">
-        <v>10.7150219960748</v>
+        <v>11.7042748775409</v>
       </c>
       <c r="J37">
-        <v>35.7725178497861</v>
+        <v>37.3504065945056</v>
       </c>
       <c r="K37">
-        <v>28.0198676046112</v>
+        <v>27.6542180930133</v>
       </c>
       <c r="L37">
-        <v>22.9048485019323</v>
+        <v>22.0028892918477</v>
       </c>
       <c r="M37">
-        <v>35.2322288899523</v>
+        <v>34.4530248233496</v>
       </c>
       <c r="N37">
-        <v>15.6187469911022</v>
+        <v>15.4048911991164</v>
       </c>
       <c r="O37">
-        <v>1154.98606143</v>
+        <v>1119.42209380246</v>
       </c>
       <c r="P37">
-        <v>35.1684152332789</v>
+        <v>55.7674273576949</v>
       </c>
     </row>
     <row r="38">
@@ -2321,46 +2321,46 @@
         <v>929.8884738684531</v>
       </c>
       <c r="C38">
-        <v>22.6137066450529</v>
+        <v>24.6184989345874</v>
       </c>
       <c r="D38">
-        <v>8.86352251330359</v>
+        <v>8.43210701393908</v>
       </c>
       <c r="E38">
-        <v>65.3180643202605</v>
+        <v>70.7646279947942</v>
       </c>
       <c r="F38">
-        <v>2.26445246371626</v>
+        <v>2.68417554463012</v>
       </c>
       <c r="G38">
-        <v>5.60083508777158</v>
+        <v>5.61236704786299</v>
       </c>
       <c r="H38">
-        <v>5.98405012009279</v>
+        <v>5.44968974212783</v>
       </c>
       <c r="I38">
-        <v>6.49321694625385</v>
+        <v>6.39864069224959</v>
       </c>
       <c r="J38">
-        <v>29.6804062270881</v>
+        <v>29.3903665694854</v>
       </c>
       <c r="K38">
-        <v>14.4027216168557</v>
+        <v>13.1497488802586</v>
       </c>
       <c r="L38">
-        <v>64.92948963713761</v>
+        <v>58.9705233289951</v>
       </c>
       <c r="M38">
-        <v>22.8079939866143</v>
+        <v>21.7716460842221</v>
       </c>
       <c r="N38">
-        <v>20.7592674676663</v>
+        <v>20.5786791754976</v>
       </c>
       <c r="O38">
-        <v>1207.73835200322</v>
+        <v>1193.50916641028</v>
       </c>
       <c r="P38">
-        <v>53.9609642714682</v>
+        <v>70.0868058875643</v>
       </c>
     </row>
     <row r="39">
@@ -2373,46 +2373,46 @@
         <v>3482.42403841085</v>
       </c>
       <c r="C39">
-        <v>96.66834852822331</v>
+        <v>98.53806238033729</v>
       </c>
       <c r="D39">
-        <v>62.5873746418583</v>
+        <v>70.7208441257755</v>
       </c>
       <c r="E39">
-        <v>123.659890511247</v>
+        <v>142.050438032573</v>
       </c>
       <c r="F39">
-        <v>30.8021283735408</v>
+        <v>38.8276490765392</v>
       </c>
       <c r="G39">
-        <v>106.224950952244</v>
+        <v>94.9120310759843</v>
       </c>
       <c r="H39">
-        <v>52.2016850558934</v>
+        <v>57.7518270518121</v>
       </c>
       <c r="I39">
-        <v>45.8690128399478</v>
+        <v>54.0463936021083</v>
       </c>
       <c r="J39">
-        <v>198.46257196559</v>
+        <v>217.588345642964</v>
       </c>
       <c r="K39">
-        <v>84.3418717085648</v>
+        <v>94.6473572581487</v>
       </c>
       <c r="L39">
-        <v>119.961813525582</v>
+        <v>119.923706861486</v>
       </c>
       <c r="M39">
-        <v>67.166775298863</v>
+        <v>71.938343687821</v>
       </c>
       <c r="N39">
-        <v>93.2461874639808</v>
+        <v>98.1939864171511</v>
       </c>
       <c r="O39">
-        <v>4159.38831531835</v>
+        <v>4052.28848797786</v>
       </c>
       <c r="P39">
-        <v>57.9771678382871</v>
+        <v>87.13062083160661</v>
       </c>
     </row>
     <row r="40">
@@ -2425,46 +2425,46 @@
         <v>280.59260255583</v>
       </c>
       <c r="C40">
-        <v>4.03286630243447</v>
+        <v>3.96672361495143</v>
       </c>
       <c r="D40">
-        <v>8.620423772063839</v>
+        <v>8.617365094549671</v>
       </c>
       <c r="E40">
-        <v>8.039580912122769</v>
+        <v>8.042874088246361</v>
       </c>
       <c r="F40">
-        <v>0.484494518244687</v>
+        <v>0.465064147959824</v>
       </c>
       <c r="G40">
-        <v>3.98882134623041</v>
+        <v>4.26764747539602</v>
       </c>
       <c r="H40">
-        <v>5.05140591465341</v>
+        <v>5.14306234214393</v>
       </c>
       <c r="I40">
-        <v>1.68884878944952</v>
+        <v>1.72347301890993</v>
       </c>
       <c r="J40">
-        <v>13.5809869645463</v>
+        <v>13.3774334324914</v>
       </c>
       <c r="K40">
-        <v>4.37559111789732</v>
+        <v>4.26764747539602</v>
       </c>
       <c r="L40">
-        <v>15.9318865019382</v>
+        <v>16.0857481764927</v>
       </c>
       <c r="M40">
-        <v>6.02177135602416</v>
+        <v>6.01847720889184</v>
       </c>
       <c r="N40">
-        <v>21.7059049793145</v>
+        <v>21.2561672332225</v>
       </c>
       <c r="O40">
-        <v>369.30319372225</v>
+        <v>369.561857340544</v>
       </c>
       <c r="P40">
-        <v>2.51193890851293</v>
+        <v>2.54417445648609</v>
       </c>
     </row>
     <row r="41">
@@ -2477,46 +2477,46 @@
         <v>1094.42871934909</v>
       </c>
       <c r="C41">
-        <v>19.7672505091628</v>
+        <v>21.5314790106959</v>
       </c>
       <c r="D41">
-        <v>100.217604287787</v>
+        <v>109.252319424642</v>
       </c>
       <c r="E41">
-        <v>43.8311474250439</v>
+        <v>45.8953237150084</v>
       </c>
       <c r="F41">
-        <v>3.24189333242094</v>
+        <v>3.27234483048891</v>
       </c>
       <c r="G41">
-        <v>25.2953345153141</v>
+        <v>25.1338081938392</v>
       </c>
       <c r="H41">
-        <v>32.1579220938947</v>
+        <v>32.4759600403984</v>
       </c>
       <c r="I41">
-        <v>11.0213665149273</v>
+        <v>11.7144445192292</v>
       </c>
       <c r="J41">
-        <v>44.8992856906392</v>
+        <v>45.8953237150084</v>
       </c>
       <c r="K41">
-        <v>31.4458299168312</v>
+        <v>33.1634274417616</v>
       </c>
       <c r="L41">
-        <v>32.78434904665</v>
+        <v>31.733495246926</v>
       </c>
       <c r="M41">
-        <v>39.2467194054147</v>
+        <v>37.8657044670859</v>
       </c>
       <c r="N41">
-        <v>22.2903590688712</v>
+        <v>22.4939333726044</v>
       </c>
       <c r="O41">
-        <v>1287.76783849251</v>
+        <v>1269.7247916218</v>
       </c>
       <c r="P41">
-        <v>20.3843078280093</v>
+        <v>24.1988525279852</v>
       </c>
     </row>
     <row r="42">
@@ -2529,46 +2529,46 @@
         <v>169.574869794925</v>
       </c>
       <c r="C42">
-        <v>8.19835245873481</v>
+        <v>7.8937852911291</v>
       </c>
       <c r="D42">
-        <v>1.09292441018452</v>
+        <v>1.16419135588595</v>
       </c>
       <c r="E42">
-        <v>5.68746508001218</v>
+        <v>5.13947891256966</v>
       </c>
       <c r="F42">
-        <v>2.05952379113993</v>
+        <v>1.90245904498435</v>
       </c>
       <c r="G42">
-        <v>0.774982763585389</v>
+        <v>0.937032066932591</v>
       </c>
       <c r="H42">
-        <v>1.94455382071792</v>
+        <v>1.44814046707764</v>
       </c>
       <c r="I42">
-        <v>1.18944241004497</v>
+        <v>1.10740153364761</v>
       </c>
       <c r="J42">
-        <v>4.31208358200075</v>
+        <v>3.91849773444538</v>
       </c>
       <c r="K42">
-        <v>4.97067699281325</v>
+        <v>5.39503311264219</v>
       </c>
       <c r="L42">
-        <v>8.944947575302431</v>
+        <v>7.26909724650737</v>
       </c>
       <c r="M42">
-        <v>3.34548420104536</v>
+        <v>3.52096897877701</v>
       </c>
       <c r="N42">
-        <v>8.37009772319238</v>
+        <v>7.6098361799374</v>
       </c>
       <c r="O42">
-        <v>268.44068711188</v>
+        <v>256.860365984007</v>
       </c>
       <c r="P42">
-        <v>30.2101339563213</v>
+        <v>45.3750679684327</v>
       </c>
     </row>
     <row r="43">
@@ -2581,46 +2581,46 @@
         <v>1568.88754291117</v>
       </c>
       <c r="C43">
-        <v>42.7536049209705</v>
+        <v>42.5214177387787</v>
       </c>
       <c r="D43">
-        <v>50.7915467152701</v>
+        <v>57.3270018222424</v>
       </c>
       <c r="E43">
-        <v>73.1148215375548</v>
+        <v>73.7257656401047</v>
       </c>
       <c r="F43">
-        <v>6.63271663649631</v>
+        <v>7.47146358200763</v>
       </c>
       <c r="G43">
-        <v>33.3104379688675</v>
+        <v>33.0996824129382</v>
       </c>
       <c r="H43">
-        <v>33.8008521178996</v>
+        <v>36.7530083556111</v>
       </c>
       <c r="I43">
-        <v>17.9998160194172</v>
+        <v>19.0632195805636</v>
       </c>
       <c r="J43">
-        <v>66.0819592904471</v>
+        <v>71.6106821996099</v>
       </c>
       <c r="K43">
-        <v>47.8113376557678</v>
+        <v>51.1465631974199</v>
       </c>
       <c r="L43">
-        <v>54.2365713830582</v>
+        <v>56.008508248947</v>
       </c>
       <c r="M43">
-        <v>96.2060525822252</v>
+        <v>103.14465349426</v>
       </c>
       <c r="N43">
-        <v>57.7422241736663</v>
+        <v>60.7331102199223</v>
       </c>
       <c r="O43">
-        <v>1881.87133378874</v>
+        <v>1845.53391060422</v>
       </c>
       <c r="P43">
-        <v>32.0992228040879</v>
+        <v>36.3135104978459</v>
       </c>
     </row>
     <row r="44">
@@ -2633,46 +2633,46 @@
         <v>5501.27994423661</v>
       </c>
       <c r="C44">
-        <v>108.439043942149</v>
+        <v>116.000890649298</v>
       </c>
       <c r="D44">
-        <v>55.6801227175014</v>
+        <v>56.1857333559661</v>
       </c>
       <c r="E44">
-        <v>112.266108771335</v>
+        <v>116.282241342117</v>
       </c>
       <c r="F44">
-        <v>210.077187301127</v>
+        <v>219.509810537429</v>
       </c>
       <c r="G44">
-        <v>123.193258404868</v>
+        <v>122.106200683471</v>
       </c>
       <c r="H44">
-        <v>59.748197058189</v>
+        <v>62.8537447757777</v>
       </c>
       <c r="I44">
-        <v>43.5728575448931</v>
+        <v>48.0828334027772</v>
       </c>
       <c r="J44">
-        <v>144.578004658146</v>
+        <v>154.095774456998</v>
       </c>
       <c r="K44">
-        <v>98.146275666477</v>
+        <v>97.8537709624687</v>
       </c>
       <c r="L44">
-        <v>264.212909988031</v>
+        <v>240.020276043939</v>
       </c>
       <c r="M44">
-        <v>124.227937169762</v>
+        <v>128.943022518975</v>
       </c>
       <c r="N44">
-        <v>101.366661380505</v>
+        <v>99.54187511938321</v>
       </c>
       <c r="O44">
-        <v>7139.16158790065</v>
+        <v>7055.74080958565</v>
       </c>
       <c r="P44">
-        <v>129.970612081744</v>
+        <v>197.423781151134</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>490.776315925351</v>
+        <v>490.776315925352</v>
       </c>
       <c r="C45">
-        <v>15.3768932978022</v>
+        <v>15.9449640386138</v>
       </c>
       <c r="D45">
-        <v>3.95236885007261</v>
+        <v>3.82177919982492</v>
       </c>
       <c r="E45">
-        <v>15.6647626825516</v>
+        <v>15.4124210353595</v>
       </c>
       <c r="F45">
-        <v>13.7492642359219</v>
+        <v>19.0775699401096</v>
       </c>
       <c r="G45">
-        <v>10.1859080679431</v>
+        <v>9.49179588153237</v>
       </c>
       <c r="H45">
-        <v>2.7557658399522</v>
+        <v>2.78801925233129</v>
       </c>
       <c r="I45">
-        <v>5.2625635633644</v>
+        <v>5.54471244564762</v>
       </c>
       <c r="J45">
-        <v>20.3313588169484</v>
+        <v>20.4559165367678</v>
       </c>
       <c r="K45">
-        <v>6.26621628316631</v>
+        <v>6.07725544890192</v>
       </c>
       <c r="L45">
-        <v>21.4937287110445</v>
+        <v>20.4245904777528</v>
       </c>
       <c r="M45">
-        <v>25.3978599885375</v>
+        <v>26.7524543987744</v>
       </c>
       <c r="N45">
-        <v>30.328984746758</v>
+        <v>28.9139524708065</v>
       </c>
       <c r="O45">
-        <v>801.109376742966</v>
+        <v>789.1660787048301</v>
       </c>
       <c r="P45">
-        <v>12.7969611901563</v>
+        <v>20.8005031859323</v>
       </c>
     </row>
     <row r="46">
@@ -2737,46 +2737,46 @@
         <v>138.712907190369</v>
       </c>
       <c r="C46">
-        <v>3.79891724122177</v>
+        <v>4.18782082575966</v>
       </c>
       <c r="D46">
-        <v>2.05141531025976</v>
+        <v>2.19731339623192</v>
       </c>
       <c r="E46">
-        <v>7.15506412812185</v>
+        <v>8.16883568481515</v>
       </c>
       <c r="F46">
-        <v>0.813492278206456</v>
+        <v>0.853074612654747</v>
       </c>
       <c r="G46">
-        <v>2.01473610931003</v>
+        <v>1.55104475028135</v>
       </c>
       <c r="H46">
-        <v>1.73047230194965</v>
+        <v>1.55104475028135</v>
       </c>
       <c r="I46">
-        <v>2.16407285603393</v>
+        <v>2.11976115871786</v>
       </c>
       <c r="J46">
-        <v>5.0067109296378</v>
+        <v>5.01504469257639</v>
       </c>
       <c r="K46">
-        <v>4.59406991895337</v>
+        <v>4.49802977581594</v>
       </c>
       <c r="L46">
-        <v>13.5398650362994</v>
+        <v>10.2885968435331</v>
       </c>
       <c r="M46">
-        <v>4.33731551230528</v>
+        <v>4.18782082575966</v>
       </c>
       <c r="N46">
-        <v>5.89356160974371</v>
+        <v>7.00555212210413</v>
       </c>
       <c r="O46">
-        <v>233.15527075133</v>
+        <v>231.183220029436</v>
       </c>
       <c r="P46">
-        <v>8.98640423268324</v>
+        <v>12.4342087480889</v>
       </c>
     </row>
     <row r="47">
@@ -2789,46 +2789,46 @@
         <v>1720.58997046044</v>
       </c>
       <c r="C47">
-        <v>53.2065377792792</v>
+        <v>57.5694807581686</v>
       </c>
       <c r="D47">
-        <v>47.5716891994385</v>
+        <v>53.6804182020201</v>
       </c>
       <c r="E47">
-        <v>66.0744270677489</v>
+        <v>70.28699918995331</v>
       </c>
       <c r="F47">
-        <v>15.0537136322969</v>
+        <v>17.798848340913</v>
       </c>
       <c r="G47">
-        <v>30.6824972707605</v>
+        <v>30.9989511774754</v>
       </c>
       <c r="H47">
-        <v>20.659250391435</v>
+        <v>21.7162982149896</v>
       </c>
       <c r="I47">
-        <v>13.3899188571743</v>
+        <v>14.1368843281893</v>
       </c>
       <c r="J47">
-        <v>37.4339866392741</v>
+        <v>38.2944918849948</v>
       </c>
       <c r="K47">
-        <v>26.7505258936458</v>
+        <v>26.6840788524055</v>
       </c>
       <c r="L47">
-        <v>50.4791426529456</v>
+        <v>49.7345810100154</v>
       </c>
       <c r="M47">
-        <v>76.8779266981595</v>
+        <v>73.920575884749</v>
       </c>
       <c r="N47">
-        <v>48.3268175327785</v>
+        <v>50.4158766402896</v>
       </c>
       <c r="O47">
-        <v>2689.6219600548</v>
+        <v>2666.36399834973</v>
       </c>
       <c r="P47">
-        <v>36.4359889343977</v>
+        <v>40.9628997702353</v>
       </c>
     </row>
     <row r="48">
@@ -2841,46 +2841,46 @@
         <v>1526.95130309552</v>
       </c>
       <c r="C48">
-        <v>37.0401174000129</v>
+        <v>38.6288446113532</v>
       </c>
       <c r="D48">
-        <v>9.08806558119913</v>
+        <v>8.81297734203579</v>
       </c>
       <c r="E48">
-        <v>60.3528637704614</v>
+        <v>64.8481385728615</v>
       </c>
       <c r="F48">
-        <v>6.95422832429007</v>
+        <v>7.9344250836397</v>
       </c>
       <c r="G48">
-        <v>9.608348889565219</v>
+        <v>9.03261540663482</v>
       </c>
       <c r="H48">
-        <v>9.378613402754199</v>
+        <v>9.114979680859451</v>
       </c>
       <c r="I48">
-        <v>9.121850211612511</v>
+        <v>9.38952726160823</v>
       </c>
       <c r="J48">
-        <v>38.1212255732411</v>
+        <v>37.558109046433</v>
       </c>
       <c r="K48">
-        <v>17.3869221959417</v>
+        <v>17.2415880710233</v>
       </c>
       <c r="L48">
-        <v>47.968769646133</v>
+        <v>44.064886710179</v>
       </c>
       <c r="M48">
-        <v>142.325188235053</v>
+        <v>132.688845775885</v>
       </c>
       <c r="N48">
-        <v>34.5927587728677</v>
+        <v>32.7809811414041</v>
       </c>
       <c r="O48">
-        <v>2137.03733710181</v>
+        <v>2121.92334209116</v>
       </c>
       <c r="P48">
-        <v>72.6720914043962</v>
+        <v>97.6291197142662</v>
       </c>
     </row>
     <row r="49">
@@ -2893,46 +2893,46 @@
         <v>648.546840576598</v>
       </c>
       <c r="C49">
-        <v>7.4386986991479</v>
+        <v>7.70907631626804</v>
       </c>
       <c r="D49">
-        <v>3.18261260371966</v>
+        <v>3.41401951149013</v>
       </c>
       <c r="E49">
-        <v>15.58629498716</v>
+        <v>15.8311388637647</v>
       </c>
       <c r="F49">
-        <v>26.7355662085912</v>
+        <v>28.3583878777003</v>
       </c>
       <c r="G49">
-        <v>17.806157151146</v>
+        <v>17.0976299728659</v>
       </c>
       <c r="H49">
-        <v>6.32471677378994</v>
+        <v>6.19479346842968</v>
       </c>
       <c r="I49">
-        <v>7.86673781470969</v>
+        <v>7.2960900850394</v>
       </c>
       <c r="J49">
-        <v>20.1745502385131</v>
+        <v>19.7958066835597</v>
       </c>
       <c r="K49">
-        <v>7.36443323745737</v>
+        <v>6.55271486882784</v>
       </c>
       <c r="L49">
-        <v>3.12860135885381</v>
+        <v>3.02856569567673</v>
       </c>
       <c r="M49">
-        <v>7.42654616905309</v>
+        <v>7.62647907002231</v>
       </c>
       <c r="N49">
-        <v>4.7624415160455</v>
+        <v>5.25869134431141</v>
       </c>
       <c r="O49">
-        <v>552.287933532288</v>
+        <v>551.611942844393</v>
       </c>
       <c r="P49">
-        <v>9.32639170720903</v>
+        <v>9.63634539533501</v>
       </c>
     </row>
     <row r="50">
@@ -2945,46 +2945,46 @@
         <v>1228.46729549059</v>
       </c>
       <c r="C50">
-        <v>74.4017069774215</v>
+        <v>81.9829693719559</v>
       </c>
       <c r="D50">
-        <v>13.884730850036</v>
+        <v>15.3048805517573</v>
       </c>
       <c r="E50">
-        <v>134.439713707267</v>
+        <v>141.635438962764</v>
       </c>
       <c r="F50">
-        <v>3.00701293118512</v>
+        <v>4.20492452019271</v>
       </c>
       <c r="G50">
-        <v>22.8869337684072</v>
+        <v>17.9949875429365</v>
       </c>
       <c r="H50">
-        <v>37.9798514695413</v>
+        <v>40.0120768008399</v>
       </c>
       <c r="I50">
-        <v>14.6852555453627</v>
+        <v>17.5771068452776</v>
       </c>
       <c r="J50">
-        <v>113.817121219927</v>
+        <v>115.961893600346</v>
       </c>
       <c r="K50">
-        <v>100.085768210676</v>
+        <v>96.24314817956569</v>
       </c>
       <c r="L50">
-        <v>69.9174232639361</v>
+        <v>63.0216327156833</v>
       </c>
       <c r="M50">
-        <v>59.8886651480283</v>
+        <v>59.5479994163936</v>
       </c>
       <c r="N50">
-        <v>53.1265859569158</v>
+        <v>56.0221310298966</v>
       </c>
       <c r="O50">
-        <v>1793.05692060205</v>
+        <v>1724.93316730514</v>
       </c>
       <c r="P50">
-        <v>73.617327317967</v>
+        <v>130.352660125974</v>
       </c>
     </row>
     <row r="51">
@@ -2997,46 +2997,46 @@
         <v>119.683733934657</v>
       </c>
       <c r="C51">
-        <v>1.28102806317946</v>
+        <v>1.16265124037983</v>
       </c>
       <c r="D51">
-        <v>0.475019054778979</v>
+        <v>0.553643447799919</v>
       </c>
       <c r="E51">
-        <v>2.42495150121863</v>
+        <v>2.54675985987962</v>
       </c>
       <c r="F51">
-        <v>20.802510850831</v>
+        <v>22.4225596358967</v>
       </c>
       <c r="G51">
-        <v>2.91797419364229</v>
+        <v>2.74053506660959</v>
       </c>
       <c r="H51">
-        <v>0.18696085246403</v>
+        <v>0.138410861949979</v>
       </c>
       <c r="I51">
-        <v>0.778311104331737</v>
+        <v>0.885829516479869</v>
       </c>
       <c r="J51">
-        <v>1.9402381800156</v>
+        <v>1.57788382622976</v>
       </c>
       <c r="K51">
-        <v>0.714605924973623</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="L51">
-        <v>0.347608696062751</v>
+        <v>0.387550413459943</v>
       </c>
       <c r="M51">
-        <v>0.679983544887692</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="N51">
-        <v>1.13699896202198</v>
+        <v>0.968876033649859</v>
       </c>
       <c r="O51">
-        <v>182.34361185577</v>
+        <v>177.913321950504</v>
       </c>
       <c r="P51">
-        <v>10.6041425727191</v>
+        <v>14.1179079188979</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2000.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2000.xlsx
@@ -571,7 +571,7 @@
         <v>7.80430739925032</v>
       </c>
       <c r="I4">
-        <v>9.41606653605202</v>
+        <v>9.416066536052019</v>
       </c>
       <c r="J4">
         <v>28.1916466559876</v>
@@ -947,7 +947,7 @@
         <v>69.7518476242262</v>
       </c>
       <c r="M11">
-        <v>68.0816532208864</v>
+        <v>68.08165322088639</v>
       </c>
       <c r="N11">
         <v>51.2381672889</v>
@@ -1241,7 +1241,7 @@
         <v>16.4029283851523</v>
       </c>
       <c r="G17">
-        <v>9.001607040632401</v>
+        <v>9.0016070406324</v>
       </c>
       <c r="H17">
         <v>14.7454896284645</v>
@@ -1596,7 +1596,7 @@
         <v>70.5347100589325</v>
       </c>
       <c r="D24">
-        <v>8.07504556187549</v>
+        <v>8.075045561875489</v>
       </c>
       <c r="E24">
         <v>73.271554360105</v>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>847.8459047694601</v>
+        <v>847.84590476946</v>
       </c>
       <c r="C25">
         <v>30.4824116612773</v>
@@ -1727,7 +1727,7 @@
         <v>46.8951632817286</v>
       </c>
       <c r="M26">
-        <v>80.6585487947654</v>
+        <v>80.65854879476539</v>
       </c>
       <c r="N26">
         <v>42.8480852193947</v>
@@ -2318,13 +2318,13 @@
         </is>
       </c>
       <c r="B38">
-        <v>929.8884738684531</v>
+        <v>929.888473868453</v>
       </c>
       <c r="C38">
         <v>24.6184989345874</v>
       </c>
       <c r="D38">
-        <v>8.43210701393908</v>
+        <v>8.432107013939079</v>
       </c>
       <c r="E38">
         <v>70.7646279947942</v>
@@ -2406,7 +2406,7 @@
         <v>71.938343687821</v>
       </c>
       <c r="N39">
-        <v>98.1939864171511</v>
+        <v>98.19398641715109</v>
       </c>
       <c r="O39">
         <v>4052.28848797786</v>
@@ -2859,7 +2859,7 @@
         <v>9.114979680859451</v>
       </c>
       <c r="I48">
-        <v>9.38952726160823</v>
+        <v>9.389527261608229</v>
       </c>
       <c r="J48">
         <v>37.558109046433</v>
@@ -3107,7 +3107,7 @@
         <v>40.408</v>
       </c>
       <c r="E53">
-        <v>92.365</v>
+        <v>92.36499999999999</v>
       </c>
       <c r="F53">
         <v>9.601000000000001</v>
@@ -3263,7 +3263,7 @@
         <v>2913.687</v>
       </c>
       <c r="E56">
-        <v>965.4210000000001</v>
+        <v>965.421</v>
       </c>
       <c r="F56">
         <v>305.477</v>
@@ -3290,7 +3290,7 @@
         <v>348.464</v>
       </c>
       <c r="N56">
-        <v>782.733</v>
+        <v>782.7329999999999</v>
       </c>
       <c r="O56">
         <v>47397.802</v>
@@ -3850,7 +3850,7 @@
         <v>140.05346827708</v>
       </c>
       <c r="J67">
-        <v>515.316732706354</v>
+        <v>515.3167327063539</v>
       </c>
       <c r="K67">
         <v>366.059750799637</v>
@@ -4000,7 +4000,7 @@
         <v>297.491</v>
       </c>
       <c r="H70">
-        <v>895.7000000000001</v>
+        <v>895.7</v>
       </c>
       <c r="I70">
         <v>648.9109999999999</v>
@@ -4067,7 +4067,7 @@
         <v>1405.2696238382</v>
       </c>
       <c r="M71">
-        <v>774.7111320566791</v>
+        <v>774.711132056679</v>
       </c>
       <c r="N71">
         <v>3877.16853803804</v>
@@ -4679,7 +4679,7 @@
         <v>199.346369972648</v>
       </c>
       <c r="I83">
-        <v>766.157925995021</v>
+        <v>766.1579259950209</v>
       </c>
       <c r="J83">
         <v>1202.18745064978</v>

--- a/1-Data-Codes/2-Final_Data/L_2000.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2000.xlsx
@@ -449,46 +449,46 @@
         <v>1343.97921266765</v>
       </c>
       <c r="C2">
-        <v>39.457600442663</v>
+        <v>41.8413898568057</v>
       </c>
       <c r="D2">
-        <v>78.21757711512331</v>
+        <v>23.8358737299016</v>
       </c>
       <c r="E2">
-        <v>65.21387003854559</v>
+        <v>59.6754248777393</v>
       </c>
       <c r="F2">
-        <v>15.4314377968831</v>
+        <v>5.14443317911545</v>
       </c>
       <c r="G2">
-        <v>19.9520398277964</v>
+        <v>34.9821456179851</v>
       </c>
       <c r="H2">
-        <v>21.5147170730504</v>
+        <v>28.9803069090171</v>
       </c>
       <c r="I2">
-        <v>11.9433189458697</v>
+        <v>14.4044129015233</v>
       </c>
       <c r="J2">
-        <v>65.7161591530915</v>
+        <v>68.59244238820609</v>
       </c>
       <c r="K2">
-        <v>20.4264239915342</v>
+        <v>30.6951179687222</v>
       </c>
       <c r="L2">
-        <v>34.8811885101335</v>
+        <v>111.119756668894</v>
       </c>
       <c r="M2">
-        <v>41.8853311629683</v>
+        <v>88.65573178675641</v>
       </c>
       <c r="N2">
-        <v>31.1140201510391</v>
+        <v>37.3828811015724</v>
       </c>
       <c r="O2">
-        <v>1326.79669607305</v>
+        <v>1230.71989755039</v>
       </c>
       <c r="P2">
-        <v>36.9182499191253</v>
+        <v>33.4388156642504</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>22.91687797872</v>
       </c>
       <c r="O5">
-        <v>770.763738099015</v>
+        <v>770.7637380990139</v>
       </c>
       <c r="P5">
         <v>57.9726248155267</v>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>960.247922181752</v>
+        <v>960.2479221817511</v>
       </c>
       <c r="C7">
         <v>27.6049068810538</v>
@@ -843,7 +843,7 @@
         <v>2.62214239106088</v>
       </c>
       <c r="M9">
-        <v>7.46740550497773</v>
+        <v>7.46740550497772</v>
       </c>
       <c r="N9">
         <v>4.18972751615162</v>
@@ -1008,7 +1008,7 @@
         <v>467.651405093937</v>
       </c>
       <c r="P12">
-        <v>16.8184108776242</v>
+        <v>16.8184108776241</v>
       </c>
     </row>
     <row r="13">
@@ -1112,7 +1112,7 @@
         <v>4261.34047068039</v>
       </c>
       <c r="P14">
-        <v>89.6450911049528</v>
+        <v>89.6450911049527</v>
       </c>
     </row>
     <row r="15">
@@ -1143,7 +1143,7 @@
         <v>53.0412837162846</v>
       </c>
       <c r="I15">
-        <v>23.489711360069</v>
+        <v>23.4897113600689</v>
       </c>
       <c r="J15">
         <v>159.962769411714</v>
@@ -1213,10 +1213,10 @@
         <v>19.7909172950564</v>
       </c>
       <c r="O16">
-        <v>993.747288536125</v>
+        <v>993.747288536124</v>
       </c>
       <c r="P16">
-        <v>80.9050487746229</v>
+        <v>80.9050487746228</v>
       </c>
     </row>
     <row r="17">
@@ -1366,7 +1366,7 @@
         <v>29.1027003921863</v>
       </c>
       <c r="N19">
-        <v>10.6363774818116</v>
+        <v>10.6363774818115</v>
       </c>
       <c r="O19">
         <v>1415.28368445318</v>
@@ -1421,7 +1421,7 @@
         <v>6.82307394503431</v>
       </c>
       <c r="O20">
-        <v>451.026021580341</v>
+        <v>451.02602158034</v>
       </c>
       <c r="P20">
         <v>25.7818442961221</v>
@@ -1446,7 +1446,7 @@
         <v>41.5781163539665</v>
       </c>
       <c r="F21">
-        <v>4.09721896062682</v>
+        <v>4.09721896062681</v>
       </c>
       <c r="G21">
         <v>21.1208752054847</v>
@@ -1605,7 +1605,7 @@
         <v>13.5216366958922</v>
       </c>
       <c r="G24">
-        <v>14.5784379607014</v>
+        <v>14.5784379607013</v>
       </c>
       <c r="H24">
         <v>21.5966822577677</v>
@@ -1660,10 +1660,10 @@
         <v>9.40711788447844</v>
       </c>
       <c r="H25">
-        <v>14.0408910857349</v>
+        <v>14.0408910857348</v>
       </c>
       <c r="I25">
-        <v>5.69451646419467</v>
+        <v>5.69451646419466</v>
       </c>
       <c r="J25">
         <v>19.4562645859985</v>
@@ -1681,7 +1681,7 @@
         <v>52.5905344046214</v>
       </c>
       <c r="O25">
-        <v>788.523044512603</v>
+        <v>788.523044512602</v>
       </c>
       <c r="P25">
         <v>39.7499580637902</v>
@@ -1697,7 +1697,7 @@
         <v>1446.34990705824</v>
       </c>
       <c r="C26">
-        <v>64.3287303194744</v>
+        <v>64.3287303194743</v>
       </c>
       <c r="D26">
         <v>23.4334310182687</v>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>238.495178910906</v>
+        <v>238.495178910905</v>
       </c>
       <c r="C27">
         <v>2.86277994644361</v>
@@ -1755,7 +1755,7 @@
         <v>1.107301677398</v>
       </c>
       <c r="E27">
-        <v>9.64162680075821</v>
+        <v>9.6416268007582</v>
       </c>
       <c r="F27">
         <v>7.5620602358888</v>
@@ -1764,7 +1764,7 @@
         <v>0.810220739559513</v>
       </c>
       <c r="H27">
-        <v>0.324088295823806</v>
+        <v>0.324088295823805</v>
       </c>
       <c r="I27">
         <v>1.2693458253099</v>
@@ -1779,7 +1779,7 @@
         <v>1.40438261523649</v>
       </c>
       <c r="M27">
-        <v>0.891242813515466</v>
+        <v>0.891242813515465</v>
       </c>
       <c r="N27">
         <v>4.1051184137682</v>
@@ -1944,7 +1944,7 @@
         <v>471.175180648606</v>
       </c>
       <c r="P30">
-        <v>7.87515849715312</v>
+        <v>7.87515849715311</v>
       </c>
     </row>
     <row r="31">
@@ -2048,7 +2048,7 @@
         <v>621.167556229595</v>
       </c>
       <c r="P32">
-        <v>23.7272341879776</v>
+        <v>23.7272341879775</v>
       </c>
     </row>
     <row r="33">
@@ -2091,7 +2091,7 @@
         <v>145.655846008987</v>
       </c>
       <c r="M33">
-        <v>76.5176532595349</v>
+        <v>76.5176532595348</v>
       </c>
       <c r="N33">
         <v>116.682613600394</v>
@@ -2189,7 +2189,7 @@
         <v>2.38391571673098</v>
       </c>
       <c r="K35">
-        <v>6.00287210598525</v>
+        <v>6.00287210598524</v>
       </c>
       <c r="L35">
         <v>2.03925320346867</v>
@@ -2397,7 +2397,7 @@
         <v>217.588345642964</v>
       </c>
       <c r="K39">
-        <v>94.6473572581487</v>
+        <v>94.6473572581486</v>
       </c>
       <c r="L39">
         <v>119.923706861486</v>
@@ -2455,7 +2455,7 @@
         <v>16.0857481764927</v>
       </c>
       <c r="M40">
-        <v>6.01847720889184</v>
+        <v>6.01847720889183</v>
       </c>
       <c r="N40">
         <v>21.2561672332225</v>
@@ -2636,7 +2636,7 @@
         <v>116.000890649298</v>
       </c>
       <c r="D44">
-        <v>56.1857333559661</v>
+        <v>56.185733355966</v>
       </c>
       <c r="E44">
         <v>116.282241342117</v>
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>490.776315925352</v>
+        <v>490.776315925351</v>
       </c>
       <c r="C45">
         <v>15.9449640386138</v>
@@ -2755,7 +2755,7 @@
         <v>1.55104475028135</v>
       </c>
       <c r="I46">
-        <v>2.11976115871786</v>
+        <v>2.11976115871785</v>
       </c>
       <c r="J46">
         <v>5.01504469257639</v>
@@ -2862,7 +2862,7 @@
         <v>9.389527261608229</v>
       </c>
       <c r="J48">
-        <v>37.558109046433</v>
+        <v>37.5581090464329</v>
       </c>
       <c r="K48">
         <v>17.2415880710233</v>
@@ -2880,7 +2880,7 @@
         <v>2121.92334209116</v>
       </c>
       <c r="P48">
-        <v>97.6291197142662</v>
+        <v>97.6291197142661</v>
       </c>
     </row>
     <row r="49">
@@ -3033,7 +3033,7 @@
         <v>0.968876033649859</v>
       </c>
       <c r="O51">
-        <v>177.913321950504</v>
+        <v>177.913321950503</v>
       </c>
       <c r="P51">
         <v>14.1179079188979</v>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>69733.98783356381</v>
+        <v>69733.98783356389</v>
       </c>
       <c r="C82">
         <v>3752.22447403134</v>
@@ -4645,7 +4645,7 @@
         <v>971.856827392175</v>
       </c>
       <c r="O82">
-        <v>64446.5977543976</v>
+        <v>64446.5977543977</v>
       </c>
       <c r="P82">
         <v>14909.838235298</v>
